--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE73584-9B83-4116-8E51-CE6BBA9F7015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC8A33-84DE-4A4C-B762-C5B197D75090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -666,12 +666,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,19 +690,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,21 +1018,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5622,275 +5622,275 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K24" sqref="K24"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
-    <col min="19" max="25" width="8.28515625" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="29" width="8.28515625" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.28515625" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="8.28515625" customWidth="1"/>
     <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="8.28515625" customWidth="1"/>
-    <col min="42" max="42" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="8.28515625" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="8.28515625" customWidth="1"/>
-    <col min="50" max="50" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="8.28515625" customWidth="1"/>
-    <col min="54" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="8.28515625" customWidth="1"/>
-    <col min="58" max="58" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="70" width="8.28515625" customWidth="1"/>
+    <col min="42" max="42" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="53" width="8.28515625" customWidth="1"/>
+    <col min="54" max="54" width="9.28515625" customWidth="1"/>
+    <col min="55" max="70" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="37" t="s">
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="39"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="37"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="40" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="40" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41" t="s">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="40" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41" t="s">
+      <c r="T3" s="39"/>
+      <c r="U3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="42"/>
-      <c r="W3" s="40" t="s">
+      <c r="V3" s="40"/>
+      <c r="W3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="40" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41" t="s">
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="40" t="s">
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41" t="s">
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="40" t="s">
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41" t="s">
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="40" t="s">
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41" t="s">
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="40" t="s">
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41" t="s">
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="40" t="s">
+      <c r="AT3" s="40"/>
+      <c r="AU3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41" t="s">
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="40" t="s">
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41" t="s">
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="40" t="s">
+      <c r="BB3" s="40"/>
+      <c r="BC3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41" t="s">
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="40" t="s">
+      <c r="BF3" s="40"/>
+      <c r="BG3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41" t="s">
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="40" t="s">
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41" t="s">
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="40" t="s">
+      <c r="BN3" s="40"/>
+      <c r="BO3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41" t="s">
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="42"/>
+      <c r="BR3" s="40"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -6102,332 +6102,332 @@
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="47">
-        <v>30</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="C5" s="41">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42"/>
       <c r="E5" s="22">
-        <v>40.4</v>
+        <v>3.4289999999999998</v>
       </c>
       <c r="F5" s="25">
         <f>E5/C5-1</f>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="G5" s="43">
-        <v>2</v>
-      </c>
-      <c r="H5" s="44"/>
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42"/>
       <c r="I5" s="22">
-        <v>12.585000000000001</v>
+        <v>2.8929999999999998</v>
       </c>
       <c r="J5" s="25">
         <f>I5/G5-1</f>
-        <v>5.2925000000000004</v>
-      </c>
-      <c r="K5" s="47">
-        <v>10</v>
-      </c>
-      <c r="L5" s="44"/>
+        <v>1.8929999999999998</v>
+      </c>
+      <c r="K5" s="41">
+        <v>1</v>
+      </c>
+      <c r="L5" s="42"/>
       <c r="M5" s="22">
-        <v>13.314</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="N5" s="25">
         <f>M5/K5-1</f>
-        <v>0.33139999999999992</v>
-      </c>
-      <c r="O5" s="47">
-        <v>20</v>
-      </c>
-      <c r="P5" s="44"/>
+        <v>1.2770000000000001</v>
+      </c>
+      <c r="O5" s="41">
+        <v>1</v>
+      </c>
+      <c r="P5" s="42"/>
       <c r="Q5" s="22">
-        <v>46.418999999999997</v>
+        <v>2.8029999999999999</v>
       </c>
       <c r="R5" s="25">
         <f>Q5/O5-1</f>
-        <v>1.3209499999999998</v>
-      </c>
-      <c r="S5" s="47">
-        <v>20</v>
-      </c>
-      <c r="T5" s="44"/>
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="S5" s="45">
+        <v>2</v>
+      </c>
+      <c r="T5" s="42"/>
       <c r="U5" s="22">
-        <v>77.132000000000005</v>
+        <v>12.585000000000001</v>
       </c>
       <c r="V5" s="25">
         <f>U5/S5-1</f>
-        <v>2.8566000000000003</v>
-      </c>
-      <c r="W5" s="47">
-        <v>7</v>
-      </c>
-      <c r="X5" s="44"/>
+        <v>5.2925000000000004</v>
+      </c>
+      <c r="W5" s="41">
+        <v>2</v>
+      </c>
+      <c r="X5" s="42"/>
       <c r="Y5" s="22">
-        <v>15.536</v>
+        <v>10.067</v>
       </c>
       <c r="Z5" s="25">
         <f>Y5/W5-1</f>
-        <v>1.2194285714285713</v>
-      </c>
-      <c r="AA5" s="47">
+        <v>4.0335000000000001</v>
+      </c>
+      <c r="AA5" s="41">
         <v>2</v>
       </c>
-      <c r="AB5" s="44"/>
+      <c r="AB5" s="42"/>
       <c r="AC5" s="22">
-        <v>10.067</v>
+        <v>9.9779999999999998</v>
       </c>
       <c r="AD5" s="25">
         <f>AC5/AA5-1</f>
-        <v>4.0335000000000001</v>
-      </c>
-      <c r="AE5" s="47">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="44"/>
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="AE5" s="41">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="42"/>
       <c r="AG5" s="22">
-        <v>3.4289999999999998</v>
+        <v>15.536</v>
       </c>
       <c r="AH5" s="25">
         <f>AG5/AE5-1</f>
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="AI5" s="47">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="44"/>
+        <v>1.2194285714285713</v>
+      </c>
+      <c r="AI5" s="41">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="42"/>
       <c r="AK5" s="22">
-        <v>2.8929999999999998</v>
+        <v>24.87</v>
       </c>
       <c r="AL5" s="25">
         <f>AK5/AI5-1</f>
-        <v>1.8929999999999998</v>
-      </c>
-      <c r="AM5" s="47">
+        <v>2.5528571428571429</v>
+      </c>
+      <c r="AM5" s="41">
         <v>7</v>
       </c>
-      <c r="AN5" s="44"/>
+      <c r="AN5" s="42"/>
       <c r="AO5" s="22">
-        <v>24.87</v>
+        <v>14.685</v>
       </c>
       <c r="AP5" s="25">
         <f>AO5/AM5-1</f>
-        <v>2.5528571428571429</v>
-      </c>
-      <c r="AQ5" s="47">
-        <v>7</v>
-      </c>
-      <c r="AR5" s="44"/>
+        <v>1.0978571428571429</v>
+      </c>
+      <c r="AQ5" s="41">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="42"/>
       <c r="AS5" s="22">
-        <v>14.685</v>
+        <v>13.314</v>
       </c>
       <c r="AT5" s="25">
         <f>AS5/AQ5-1</f>
-        <v>1.0978571428571429</v>
-      </c>
-      <c r="AU5" s="47">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="44"/>
+        <v>0.33139999999999992</v>
+      </c>
+      <c r="AU5" s="41">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="42"/>
       <c r="AW5" s="22">
-        <v>9.9779999999999998</v>
+        <v>35.488</v>
       </c>
       <c r="AX5" s="25">
         <f>AW5/AU5-1</f>
-        <v>3.9889999999999999</v>
-      </c>
-      <c r="AY5" s="47">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="44"/>
+        <v>1.3658666666666668</v>
+      </c>
+      <c r="AY5" s="41">
+        <v>20</v>
+      </c>
+      <c r="AZ5" s="42"/>
       <c r="BA5" s="22">
-        <v>2.2770000000000001</v>
+        <v>46.418999999999997</v>
       </c>
       <c r="BB5" s="25">
         <f>BA5/AY5-1</f>
-        <v>1.2770000000000001</v>
-      </c>
-      <c r="BC5" s="47">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="44"/>
+        <v>1.3209499999999998</v>
+      </c>
+      <c r="BC5" s="41">
+        <v>20</v>
+      </c>
+      <c r="BD5" s="42"/>
       <c r="BE5" s="22">
-        <v>2.8029999999999999</v>
+        <v>77.132000000000005</v>
       </c>
       <c r="BF5" s="25">
         <f>BE5/BC5-1</f>
-        <v>1.8029999999999999</v>
-      </c>
-      <c r="BG5" s="47">
-        <v>15</v>
-      </c>
-      <c r="BH5" s="44"/>
+        <v>2.8566000000000003</v>
+      </c>
+      <c r="BG5" s="41">
+        <v>20</v>
+      </c>
+      <c r="BH5" s="42"/>
       <c r="BI5" s="22">
-        <v>35.488</v>
+        <v>50.906999999999996</v>
       </c>
       <c r="BJ5" s="25">
         <f>BI5/BG5-1</f>
-        <v>1.3658666666666668</v>
-      </c>
-      <c r="BK5" s="47">
+        <v>1.54535</v>
+      </c>
+      <c r="BK5" s="41">
         <v>30</v>
       </c>
-      <c r="BL5" s="44"/>
+      <c r="BL5" s="42"/>
       <c r="BM5" s="22">
-        <v>39.054000000000002</v>
+        <v>40.4</v>
       </c>
       <c r="BN5" s="25">
         <f>BM5/BK5-1</f>
-        <v>0.30180000000000007</v>
-      </c>
-      <c r="BO5" s="47">
-        <v>20</v>
-      </c>
-      <c r="BP5" s="44"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="BO5" s="41">
+        <v>30</v>
+      </c>
+      <c r="BP5" s="42"/>
       <c r="BQ5" s="22">
-        <v>50.906999999999996</v>
+        <v>39.054000000000002</v>
       </c>
       <c r="BR5" s="25">
         <f>BQ5/BO5-1</f>
-        <v>1.54535</v>
+        <v>0.30180000000000007</v>
       </c>
     </row>
     <row r="6" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="43">
+        <v>11</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="23">
+        <v>10</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="43">
+        <v>17</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="23">
+        <v>30</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="43">
+        <v>10</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="23">
+        <v>18</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="43">
+        <v>18</v>
+      </c>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="23">
+        <v>22</v>
+      </c>
+      <c r="R6" s="26"/>
+      <c r="S6" s="46">
+        <v>40</v>
+      </c>
+      <c r="T6" s="44"/>
+      <c r="U6" s="23">
+        <v>37</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="43">
+        <v>18</v>
+      </c>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="23">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="43">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="23">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="43">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="23">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="43">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="23">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="43">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="43">
+        <v>14</v>
+      </c>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="23">
+        <v>22</v>
+      </c>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="43">
+        <v>12</v>
+      </c>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="23">
+        <v>40</v>
+      </c>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="43">
+        <v>37</v>
+      </c>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="23">
+        <v>44</v>
+      </c>
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="43">
+        <v>30</v>
+      </c>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="23">
+        <v>58</v>
+      </c>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="43">
+        <v>23</v>
+      </c>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="23">
+        <v>47</v>
+      </c>
+      <c r="BJ6" s="26"/>
+      <c r="BK6" s="43">
         <v>36</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="23">
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="23">
         <v>23</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="45">
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="43">
+        <v>37</v>
+      </c>
+      <c r="BP6" s="44"/>
+      <c r="BQ6" s="23">
         <v>40</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="23">
-        <v>37</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="33">
-        <v>14</v>
-      </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="23">
-        <v>22</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="33">
-        <v>37</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="23">
-        <v>44</v>
-      </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="33">
-        <v>30</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="23">
-        <v>58</v>
-      </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="33">
-        <v>14</v>
-      </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="23">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="33">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="23">
-        <v>18</v>
-      </c>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="33">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="23">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="33">
-        <v>17</v>
-      </c>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="23">
-        <v>30</v>
-      </c>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="33">
-        <v>23</v>
-      </c>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="23">
-        <v>21</v>
-      </c>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="33">
-        <v>7</v>
-      </c>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="23">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="33">
-        <v>18</v>
-      </c>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="23">
-        <v>20</v>
-      </c>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="33">
-        <v>10</v>
-      </c>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="23">
-        <v>18</v>
-      </c>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="33">
-        <v>18</v>
-      </c>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="23">
-        <v>22</v>
-      </c>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="33">
-        <v>12</v>
-      </c>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="23">
-        <v>40</v>
-      </c>
-      <c r="BJ6" s="26"/>
-      <c r="BK6" s="33">
-        <v>37</v>
-      </c>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="23">
-        <v>40</v>
-      </c>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="33">
-        <v>23</v>
-      </c>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="23">
-        <v>47</v>
       </c>
       <c r="BR6" s="26"/>
     </row>
@@ -6435,106 +6435,106 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="23">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="34"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="23">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="23">
+        <v>22</v>
+      </c>
+      <c r="V7" s="26"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="23">
+        <v>22</v>
+      </c>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="23">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="23">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="23">
+        <v>27</v>
+      </c>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="23">
+        <v>6</v>
+      </c>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="23">
+        <v>15</v>
+      </c>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="23">
+        <v>25</v>
+      </c>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="23">
+        <v>18</v>
+      </c>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="23">
         <v>26</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="23">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="23">
-        <v>22</v>
-      </c>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="23">
-        <v>18</v>
-      </c>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="23">
-        <v>30</v>
-      </c>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="23">
-        <v>27</v>
-      </c>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="34"/>
-      <c r="AS7" s="23">
-        <v>6</v>
-      </c>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="23">
-        <v>10</v>
-      </c>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="23">
-        <v>32</v>
-      </c>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="34"/>
-      <c r="BE7" s="23">
-        <v>18</v>
-      </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="34"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="44"/>
       <c r="BI7" s="23">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="34"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="44"/>
       <c r="BM7" s="23">
+        <v>33</v>
+      </c>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="44"/>
+      <c r="BQ7" s="23">
         <v>23</v>
-      </c>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="34"/>
-      <c r="BQ7" s="23">
-        <v>36</v>
       </c>
       <c r="BR7" s="26"/>
     </row>
@@ -6542,417 +6542,417 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <f>C6</f>
-        <v>36</v>
-      </c>
-      <c r="D8" s="36"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="34"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F8" s="27">
         <f>E8/C8-1</f>
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="G8" s="46">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G8" s="33">
         <f>G6</f>
-        <v>40</v>
-      </c>
-      <c r="H8" s="36"/>
+        <v>17</v>
+      </c>
+      <c r="H8" s="34"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="J8" s="27">
         <f>I8/G8-1</f>
-        <v>-0.26249999999999996</v>
-      </c>
-      <c r="K8" s="35">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K8" s="33">
         <f>K6</f>
-        <v>14</v>
-      </c>
-      <c r="L8" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="34"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="N8" s="27">
         <f>M8/K8-1</f>
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="O8" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="O8" s="33">
         <f>O6</f>
-        <v>37</v>
-      </c>
-      <c r="P8" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="P8" s="34"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R8" s="27">
         <f>Q8/O8-1</f>
-        <v>-0.16216216216216217</v>
-      </c>
-      <c r="S8" s="35">
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="S8" s="47">
         <f>S6</f>
-        <v>30</v>
-      </c>
-      <c r="T8" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="T8" s="34"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
-        <v>42</v>
+        <v>29.5</v>
       </c>
       <c r="V8" s="27">
         <f>U8/S8-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="W8" s="35">
+        <v>-0.26249999999999996</v>
+      </c>
+      <c r="W8" s="33">
         <f>W6</f>
-        <v>14</v>
-      </c>
-      <c r="X8" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="X8" s="34"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="27">
         <f>Y8/W8-1</f>
-        <v>1.2142857142857144</v>
-      </c>
-      <c r="AA8" s="35">
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="AA8" s="33">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="36"/>
+      <c r="AB8" s="34"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AD8" s="27">
         <f>AC8/AA8-1</f>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="AE8" s="35">
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="AE8" s="33">
         <f>AE6</f>
-        <v>11</v>
-      </c>
-      <c r="AF8" s="36"/>
+        <v>14</v>
+      </c>
+      <c r="AF8" s="34"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="AH8" s="27">
         <f>AG8/AE8-1</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="AI8" s="35">
+        <v>1.2142857142857144</v>
+      </c>
+      <c r="AI8" s="33">
         <f>AI6</f>
-        <v>17</v>
-      </c>
-      <c r="AJ8" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="AJ8" s="34"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AL8" s="27">
         <f>AK8/AI8-1</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="AM8" s="35">
+        <v>4.3478260869565188E-2</v>
+      </c>
+      <c r="AM8" s="33">
         <f>AM6</f>
-        <v>23</v>
-      </c>
-      <c r="AN8" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="AN8" s="34"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
-        <v>24</v>
+        <v>7.5</v>
       </c>
       <c r="AP8" s="27">
         <f>AO8/AM8-1</f>
-        <v>4.3478260869565188E-2</v>
-      </c>
-      <c r="AQ8" s="35">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="AQ8" s="33">
         <f>AQ6</f>
-        <v>7</v>
-      </c>
-      <c r="AR8" s="36"/>
+        <v>14</v>
+      </c>
+      <c r="AR8" s="34"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT8" s="27">
         <f>AS8/AQ8-1</f>
-        <v>7.1428571428571397E-2</v>
-      </c>
-      <c r="AU8" s="35">
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="AU8" s="33">
         <f>AU6</f>
-        <v>18</v>
-      </c>
-      <c r="AV8" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="AV8" s="34"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="AX8" s="27">
         <f>AW8/AU8-1</f>
-        <v>-0.16666666666666663</v>
-      </c>
-      <c r="AY8" s="35">
+        <v>1.7083333333333335</v>
+      </c>
+      <c r="AY8" s="33">
         <f>AY6</f>
-        <v>10</v>
-      </c>
-      <c r="AZ8" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="AZ8" s="34"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="BB8" s="27">
         <f>BA8/AY8-1</f>
-        <v>1.5</v>
-      </c>
-      <c r="BC8" s="35">
+        <v>-0.16216216216216217</v>
+      </c>
+      <c r="BC8" s="33">
         <f>BC6</f>
-        <v>18</v>
-      </c>
-      <c r="BD8" s="36"/>
+        <v>30</v>
+      </c>
+      <c r="BD8" s="34"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="BF8" s="27">
         <f>BE8/BC8-1</f>
-        <v>0.11111111111111116</v>
-      </c>
-      <c r="BG8" s="35">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="BG8" s="33">
         <f>BG6</f>
-        <v>12</v>
-      </c>
-      <c r="BH8" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="BH8" s="34"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
-        <v>32.5</v>
+        <v>41.5</v>
       </c>
       <c r="BJ8" s="27">
         <f>BI8/BG8-1</f>
-        <v>1.7083333333333335</v>
-      </c>
-      <c r="BK8" s="35">
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="BK8" s="33">
         <f>BK6</f>
-        <v>37</v>
-      </c>
-      <c r="BL8" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="BL8" s="34"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
-        <v>31.5</v>
+        <v>28</v>
       </c>
       <c r="BN8" s="27">
         <f>BM8/BK8-1</f>
-        <v>-0.14864864864864868</v>
-      </c>
-      <c r="BO8" s="35">
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="BO8" s="33">
         <f>BO6</f>
-        <v>23</v>
-      </c>
-      <c r="BP8" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="BP8" s="34"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
-        <v>41.5</v>
+        <v>31.5</v>
       </c>
       <c r="BR8" s="27">
         <f>BQ8/BO8-1</f>
-        <v>0.80434782608695654</v>
+        <v>-0.14864864864864868</v>
       </c>
     </row>
     <row r="9" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="30">
-        <v>9.0310000000000006</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="C9" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D9" s="13">
         <f>C9*7</f>
-        <v>63.217000000000006</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E9" s="31">
-        <v>15.701000000000001</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="12">
-        <v>0.04</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H9" s="13">
         <f>G9*7</f>
-        <v>0.28000000000000003</v>
+        <v>0.161</v>
       </c>
       <c r="I9" s="31">
-        <v>0.80500000000000005</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="12">
-        <v>0.59899999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="L9" s="13">
         <f>K9*7</f>
-        <v>4.1929999999999996</v>
+        <v>3.4089999999999998</v>
       </c>
       <c r="M9" s="31">
-        <v>6.5659999999999998</v>
+        <v>45.048999999999999</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="12">
-        <v>3.379</v>
+        <v>1.337</v>
       </c>
       <c r="P9" s="13">
         <f>O9*7</f>
-        <v>23.652999999999999</v>
+        <v>9.359</v>
       </c>
       <c r="Q9" s="31">
-        <v>9.9329999999999998</v>
+        <v>70.433999999999997</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" s="12">
-        <v>0.36799999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="13">
         <f>S9*7</f>
-        <v>2.5760000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U9" s="31">
-        <v>1.526</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="V9" s="32"/>
       <c r="W9" s="12">
-        <v>0.32300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="X9" s="13">
         <f>W9*7</f>
-        <v>2.2610000000000001</v>
+        <v>1.4140000000000001</v>
       </c>
       <c r="Y9" s="31">
-        <v>4.6970000000000001</v>
+        <v>2.73</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="12">
-        <v>0.20200000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AB9" s="13">
         <f>AA9*7</f>
-        <v>1.4140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AC9" s="31">
-        <v>2.73</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="AD9" s="32"/>
       <c r="AE9" s="12">
-        <v>7.2999999999999995E-2</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="AF9" s="13">
         <f>AE9*7</f>
-        <v>0.51100000000000001</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="AG9" s="31">
-        <v>2.0790000000000002</v>
+        <v>4.6970000000000001</v>
       </c>
       <c r="AH9" s="32"/>
       <c r="AI9" s="12">
-        <v>2.3E-2</v>
+        <v>0.45</v>
       </c>
       <c r="AJ9" s="13">
         <f>AI9*7</f>
-        <v>0.161</v>
+        <v>3.15</v>
       </c>
       <c r="AK9" s="31">
-        <v>2.3170000000000002</v>
+        <v>1.806</v>
       </c>
       <c r="AL9" s="32"/>
       <c r="AM9" s="12">
-        <v>0.45</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AN9" s="13">
         <f>AM9*7</f>
-        <v>3.15</v>
+        <v>0.189</v>
       </c>
       <c r="AO9" s="31">
-        <v>1.806</v>
+        <v>0.35</v>
       </c>
       <c r="AP9" s="32"/>
       <c r="AQ9" s="12">
-        <v>2.7E-2</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AR9" s="13">
         <f>AQ9*7</f>
-        <v>0.189</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="AS9" s="31">
-        <v>0.35</v>
+        <v>6.5659999999999998</v>
       </c>
       <c r="AT9" s="32"/>
       <c r="AU9" s="12">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="AV9" s="13">
         <f>AU9*7</f>
-        <v>0.91</v>
+        <v>1.47</v>
       </c>
       <c r="AW9" s="31">
-        <v>2.7440000000000002</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="AX9" s="32"/>
       <c r="AY9" s="12">
-        <v>0.48699999999999999</v>
+        <v>3.379</v>
       </c>
       <c r="AZ9" s="13">
         <f>AY9*7</f>
-        <v>3.4089999999999998</v>
+        <v>23.652999999999999</v>
       </c>
       <c r="BA9" s="31">
-        <v>45.048999999999999</v>
+        <v>9.9329999999999998</v>
       </c>
       <c r="BB9" s="32"/>
       <c r="BC9" s="12">
-        <v>1.337</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="BD9" s="13">
         <f>BC9*7</f>
-        <v>9.359</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="BE9" s="31">
-        <v>70.433999999999997</v>
+        <v>1.526</v>
       </c>
       <c r="BF9" s="32"/>
       <c r="BG9" s="12">
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="BH9" s="13">
         <f>BG9*7</f>
-        <v>1.47</v>
+        <v>3.22</v>
       </c>
       <c r="BI9" s="31">
-        <v>2.3660000000000001</v>
+        <v>2.4430000000000001</v>
       </c>
       <c r="BJ9" s="32"/>
-      <c r="BK9" s="12">
-        <v>5.0030000000000001</v>
-      </c>
-      <c r="BL9" s="13">
+      <c r="BK9" s="30">
+        <v>9.0310000000000006</v>
+      </c>
+      <c r="BL9" s="31">
         <f>BK9*7</f>
-        <v>35.021000000000001</v>
+        <v>63.217000000000006</v>
       </c>
       <c r="BM9" s="31">
-        <v>13.776</v>
+        <v>15.701000000000001</v>
       </c>
       <c r="BN9" s="32"/>
       <c r="BO9" s="12">
-        <v>0.46</v>
+        <v>5.0030000000000001</v>
       </c>
       <c r="BP9" s="13">
         <f>BO9*7</f>
-        <v>3.22</v>
+        <v>35.021000000000001</v>
       </c>
       <c r="BQ9" s="31">
-        <v>2.4430000000000001</v>
+        <v>13.776</v>
       </c>
       <c r="BR9" s="32"/>
     </row>
@@ -6963,103 +6963,103 @@
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31">
-        <v>19.544</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31">
-        <v>0.11899999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="30"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31">
-        <v>1.155</v>
+        <v>4.0110000000000001</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="30"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31">
-        <v>4.0389999999999997</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31">
-        <v>1.1759999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="V10" s="32"/>
       <c r="W10" s="30"/>
       <c r="X10" s="31"/>
       <c r="Y10" s="31">
-        <v>3.7240000000000002</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="Z10" s="32"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="31">
-        <v>0.72799999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="AD10" s="32"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31">
-        <v>0.28000000000000003</v>
+        <v>3.7240000000000002</v>
       </c>
       <c r="AH10" s="32"/>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31">
-        <v>0.14699999999999999</v>
+        <v>1.2669999999999999</v>
       </c>
       <c r="AL10" s="32"/>
       <c r="AM10" s="30"/>
       <c r="AN10" s="31"/>
       <c r="AO10" s="31">
-        <v>1.2669999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AP10" s="32"/>
       <c r="AQ10" s="30"/>
       <c r="AR10" s="31"/>
       <c r="AS10" s="31">
-        <v>6.3E-2</v>
+        <v>1.155</v>
       </c>
       <c r="AT10" s="32"/>
       <c r="AU10" s="30"/>
       <c r="AV10" s="31"/>
       <c r="AW10" s="31">
-        <v>0.29399999999999998</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="AX10" s="32"/>
       <c r="AY10" s="30"/>
       <c r="AZ10" s="31"/>
       <c r="BA10" s="31">
-        <v>4.0110000000000001</v>
+        <v>4.0389999999999997</v>
       </c>
       <c r="BB10" s="32"/>
       <c r="BC10" s="30"/>
       <c r="BD10" s="31"/>
       <c r="BE10" s="31">
-        <v>3.6259999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="BF10" s="32"/>
       <c r="BG10" s="30"/>
       <c r="BH10" s="31"/>
       <c r="BI10" s="31">
-        <v>1.1479999999999999</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="BJ10" s="32"/>
       <c r="BK10" s="30"/>
       <c r="BL10" s="31"/>
       <c r="BM10" s="31">
-        <v>6.7830000000000004</v>
+        <v>19.544</v>
       </c>
       <c r="BN10" s="32"/>
       <c r="BO10" s="30"/>
       <c r="BP10" s="31"/>
       <c r="BQ10" s="31">
-        <v>2.0790000000000002</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="BR10" s="32"/>
     </row>
@@ -7068,14 +7068,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D19" si="0">C11*7</f>
-        <v>2.2400000000000002</v>
+        <v>1.54</v>
       </c>
       <c r="E11" s="2">
-        <v>2.016</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="1">
@@ -7086,172 +7086,172 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="1">
-        <v>0.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" ref="L11:L19" si="2">K11*7</f>
-        <v>3.5</v>
+        <v>3.395</v>
       </c>
       <c r="M11" s="2">
-        <v>1.4350000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="1">
-        <v>0.55000000000000004</v>
+        <v>1.337</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ref="P11:P19" si="3">O11*7</f>
-        <v>3.8500000000000005</v>
+        <v>9.359</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.11899999999999999</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ref="T11:T19" si="4">S11*7</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" s="26"/>
       <c r="W11" s="1">
-        <v>1.514</v>
+        <v>0.02</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" ref="X11:X19" si="5">W11*7</f>
-        <v>10.598000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y11" s="2">
-        <v>3.7869999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="Z11" s="26"/>
       <c r="AA11" s="1">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" ref="AB11:AB19" si="6">AA11*7</f>
-        <v>0.14000000000000001</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AC11" s="2">
-        <v>7.6999999999999999E-2</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="AD11" s="26"/>
       <c r="AE11" s="1">
-        <v>0.22</v>
+        <v>1.514</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" ref="AF11:AF19" si="7">AE11*7</f>
-        <v>1.54</v>
+        <v>10.598000000000001</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.52500000000000002</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="AH11" s="26"/>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AJ11" s="2">
         <f t="shared" ref="AJ11:AJ19" si="8">AI11*7</f>
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK11" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="AL11" s="26"/>
       <c r="AM11" s="1">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" ref="AN11:AN19" si="9">AM11*7</f>
-        <v>1.54</v>
+        <v>7</v>
       </c>
       <c r="AO11" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>3.9409999999999998</v>
       </c>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ref="AR11:AR19" si="10">AQ11*7</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="AS11" s="2">
-        <v>3.9409999999999998</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="AT11" s="26"/>
       <c r="AU11" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AV11" s="2">
         <f t="shared" ref="AV11:AV19" si="11">AU11*7</f>
-        <v>0.98000000000000009</v>
+        <v>0.42</v>
       </c>
       <c r="AW11" s="2">
-        <v>0.92400000000000004</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="26"/>
       <c r="AY11" s="1">
-        <v>0.48499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AZ11" s="2">
         <f t="shared" ref="AZ11:AZ19" si="12">AY11*7</f>
-        <v>3.395</v>
+        <v>3.8500000000000005</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.245</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="BB11" s="26"/>
       <c r="BC11" s="1">
-        <v>1.337</v>
+        <v>0.01</v>
       </c>
       <c r="BD11" s="2">
         <f t="shared" ref="BD11:BD19" si="13">BC11*7</f>
-        <v>9.359</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BE11" s="2">
-        <v>0.97299999999999998</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="26"/>
       <c r="BG11" s="1">
-        <v>0.06</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="BH11" s="2">
         <f t="shared" ref="BH11:BH19" si="14">BG11*7</f>
-        <v>0.42</v>
+        <v>7.8400000000000007</v>
       </c>
       <c r="BI11" s="2">
-        <v>0</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="BJ11" s="26"/>
       <c r="BK11" s="1">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="BL11" s="2">
         <f t="shared" ref="BL11:BL19" si="15">BK11*7</f>
-        <v>0.42</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="BM11" s="2">
-        <v>6.3E-2</v>
+        <v>2.016</v>
       </c>
       <c r="BN11" s="26"/>
       <c r="BO11" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="BP11" s="2">
         <f t="shared" ref="BP11:BP19" si="16">BO11*7</f>
-        <v>7.8400000000000007</v>
+        <v>0.42</v>
       </c>
       <c r="BQ11" s="2">
-        <v>0.29399999999999998</v>
+        <v>6.3E-2</v>
       </c>
       <c r="BR11" s="26"/>
     </row>
@@ -7261,179 +7261,179 @@
       </c>
       <c r="C12" s="3">
         <f>C9+C11</f>
-        <v>9.3510000000000009</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D12" s="4">
         <f>C12*7</f>
-        <v>65.457000000000008</v>
+        <v>2.0509999999999997</v>
       </c>
       <c r="E12" s="4">
         <f>E9+E10+E11</f>
-        <v>37.261000000000003</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="F12" s="27">
         <f>E12/D12-1</f>
-        <v>-0.43075606886963969</v>
+        <v>0.40614334470989766</v>
       </c>
       <c r="G12" s="3">
         <f>G9+G11</f>
-        <v>0.04</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H12" s="4">
         <f>G12*7</f>
-        <v>0.28000000000000003</v>
+        <v>0.161</v>
       </c>
       <c r="I12" s="4">
         <f>I9+I10+I11</f>
-        <v>0.92400000000000004</v>
+        <v>2.492</v>
       </c>
       <c r="J12" s="27">
         <f>I12/H12-1</f>
-        <v>2.2999999999999998</v>
+        <v>14.478260869565217</v>
       </c>
       <c r="K12" s="3">
         <f>K9+K11</f>
-        <v>1.099</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="L12" s="4">
         <f>K12*7</f>
-        <v>7.6929999999999996</v>
+        <v>6.8040000000000003</v>
       </c>
       <c r="M12" s="4">
         <f>M9+M10+M11</f>
-        <v>9.1560000000000006</v>
+        <v>49.305</v>
       </c>
       <c r="N12" s="27">
         <f>M12/L12-1</f>
-        <v>0.19017288444040048</v>
+        <v>6.2464726631393299</v>
       </c>
       <c r="O12" s="3">
         <f>O9+O11</f>
-        <v>3.9290000000000003</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="P12" s="4">
         <f>O12*7</f>
-        <v>27.503</v>
+        <v>18.718</v>
       </c>
       <c r="Q12" s="4">
         <f>Q9+Q10+Q11</f>
-        <v>14.090999999999999</v>
+        <v>75.033000000000001</v>
       </c>
       <c r="R12" s="27">
         <f>Q12/P12-1</f>
-        <v>-0.48765589208449989</v>
+        <v>3.0086013462976817</v>
       </c>
       <c r="S12" s="3">
         <f>S9+S11</f>
-        <v>0.378</v>
+        <v>0.04</v>
       </c>
       <c r="T12" s="4">
         <f>S12*7</f>
-        <v>2.6459999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U12" s="4">
         <f>U9+U10+U11</f>
-        <v>2.702</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="V12" s="27">
         <f>U12/T12-1</f>
-        <v>2.1164021164021163E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W12" s="3">
         <f>W9+W11</f>
-        <v>1.837</v>
+        <v>0.222</v>
       </c>
       <c r="X12" s="4">
         <f>W12*7</f>
-        <v>12.859</v>
+        <v>1.554</v>
       </c>
       <c r="Y12" s="4">
         <f>Y9+Y10+Y11</f>
-        <v>12.207999999999998</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12/X12-1</f>
-        <v>-5.0626020685901052E-2</v>
+        <v>1.2747747747747749</v>
       </c>
       <c r="AA12" s="3">
         <f>AA9+AA11</f>
-        <v>0.222</v>
+        <v>0.27</v>
       </c>
       <c r="AB12" s="4">
         <f>AA12*7</f>
-        <v>1.554</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="AC12" s="4">
         <f>AC9+AC10+AC11</f>
-        <v>3.5350000000000001</v>
+        <v>3.9620000000000002</v>
       </c>
       <c r="AD12" s="27">
         <f>AC12/AB12-1</f>
-        <v>1.2747747747747749</v>
+        <v>1.0962962962962961</v>
       </c>
       <c r="AE12" s="3">
         <f>AE9+AE11</f>
-        <v>0.29299999999999998</v>
+        <v>1.837</v>
       </c>
       <c r="AF12" s="4">
         <f>AE12*7</f>
-        <v>2.0509999999999997</v>
+        <v>12.859</v>
       </c>
       <c r="AG12" s="4">
         <f>AG9+AG10+AG11</f>
-        <v>2.8839999999999999</v>
+        <v>12.207999999999998</v>
       </c>
       <c r="AH12" s="27">
         <f>AG12/AF12-1</f>
-        <v>0.40614334470989766</v>
+        <v>-5.0626020685901052E-2</v>
       </c>
       <c r="AI12" s="3">
         <f>AI9+AI11</f>
-        <v>2.3E-2</v>
+        <v>0.67</v>
       </c>
       <c r="AJ12" s="4">
         <f>AI12*7</f>
-        <v>0.161</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AK12" s="4">
         <f>AK9+AK10+AK11</f>
-        <v>2.492</v>
+        <v>3.101</v>
       </c>
       <c r="AL12" s="27">
         <f>AK12/AJ12-1</f>
-        <v>14.478260869565217</v>
+        <v>-0.33880597014925384</v>
       </c>
       <c r="AM12" s="3">
         <f>AM9+AM11</f>
-        <v>0.67</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="AN12" s="4">
         <f>AM12*7</f>
-        <v>4.6900000000000004</v>
+        <v>7.1889999999999992</v>
       </c>
       <c r="AO12" s="4">
         <f>AO9+AO10+AO11</f>
-        <v>3.101</v>
+        <v>4.3540000000000001</v>
       </c>
       <c r="AP12" s="27">
         <f>AO12/AN12-1</f>
-        <v>-0.33880597014925384</v>
+        <v>-0.39435248296007785</v>
       </c>
       <c r="AQ12" s="3">
         <f>AQ9+AQ11</f>
-        <v>1.0269999999999999</v>
+        <v>1.099</v>
       </c>
       <c r="AR12" s="4">
         <f>AQ12*7</f>
-        <v>7.1889999999999992</v>
+        <v>7.6929999999999996</v>
       </c>
       <c r="AS12" s="4">
         <f>AS9+AS10+AS11</f>
-        <v>4.3540000000000001</v>
+        <v>9.1560000000000006</v>
       </c>
       <c r="AT12" s="27">
         <f>AS12/AR12-1</f>
-        <v>-0.39435248296007785</v>
+        <v>0.19017288444040048</v>
       </c>
       <c r="AU12" s="3">
         <f>AU9+AU11</f>
@@ -7445,91 +7445,91 @@
       </c>
       <c r="AW12" s="4">
         <f>AW9+AW10+AW11</f>
-        <v>3.9620000000000002</v>
+        <v>3.5140000000000002</v>
       </c>
       <c r="AX12" s="27">
         <f>AW12/AV12-1</f>
-        <v>1.0962962962962961</v>
+        <v>0.85925925925925917</v>
       </c>
       <c r="AY12" s="3">
         <f>AY9+AY11</f>
-        <v>0.97199999999999998</v>
+        <v>3.9290000000000003</v>
       </c>
       <c r="AZ12" s="4">
         <f>AY12*7</f>
-        <v>6.8040000000000003</v>
+        <v>27.503</v>
       </c>
       <c r="BA12" s="4">
         <f>BA9+BA10+BA11</f>
-        <v>49.305</v>
+        <v>14.090999999999999</v>
       </c>
       <c r="BB12" s="27">
         <f>BA12/AZ12-1</f>
-        <v>6.2464726631393299</v>
+        <v>-0.48765589208449989</v>
       </c>
       <c r="BC12" s="3">
         <f>BC9+BC11</f>
-        <v>2.6739999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="BD12" s="4">
         <f>BC12*7</f>
-        <v>18.718</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="BE12" s="4">
         <f>BE9+BE10+BE11</f>
-        <v>75.033000000000001</v>
+        <v>2.702</v>
       </c>
       <c r="BF12" s="27">
         <f>BE12/BD12-1</f>
-        <v>3.0086013462976817</v>
+        <v>2.1164021164021163E-2</v>
       </c>
       <c r="BG12" s="3">
         <f>BG9+BG11</f>
-        <v>0.27</v>
+        <v>1.58</v>
       </c>
       <c r="BH12" s="4">
         <f>BG12*7</f>
-        <v>1.8900000000000001</v>
+        <v>11.06</v>
       </c>
       <c r="BI12" s="4">
         <f>BI9+BI10+BI11</f>
-        <v>3.5140000000000002</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="BJ12" s="27">
         <f>BI12/BH12-1</f>
-        <v>0.85925925925925917</v>
+        <v>-0.56455696202531647</v>
       </c>
       <c r="BK12" s="3">
         <f>BK9+BK11</f>
-        <v>5.0629999999999997</v>
+        <v>9.3510000000000009</v>
       </c>
       <c r="BL12" s="4">
         <f>BK12*7</f>
-        <v>35.440999999999995</v>
+        <v>65.457000000000008</v>
       </c>
       <c r="BM12" s="4">
         <f>BM9+BM10+BM11</f>
-        <v>20.622</v>
+        <v>37.261000000000003</v>
       </c>
       <c r="BN12" s="27">
         <f>BM12/BL12-1</f>
-        <v>-0.41813154256369733</v>
+        <v>-0.43075606886963969</v>
       </c>
       <c r="BO12" s="3">
         <f>BO9+BO11</f>
-        <v>1.58</v>
+        <v>5.0629999999999997</v>
       </c>
       <c r="BP12" s="4">
         <f>BO12*7</f>
-        <v>11.06</v>
+        <v>35.440999999999995</v>
       </c>
       <c r="BQ12" s="4">
         <f>BQ9+BQ10+BQ11</f>
-        <v>4.8159999999999998</v>
+        <v>20.622</v>
       </c>
       <c r="BR12" s="27">
         <f>BQ12/BP12-1</f>
-        <v>-0.56455696202531647</v>
+        <v>-0.41813154256369733</v>
       </c>
     </row>
     <row r="13" spans="2:70" x14ac:dyDescent="0.25">
@@ -7537,242 +7537,242 @@
         <v>4</v>
       </c>
       <c r="C13" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>2.0299999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>2.0019999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F13" s="25">
         <f>E13/D13-1</f>
-        <v>-1.379310344827589E-2</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="G13" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="J13" s="25">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J13" s="25" t="e">
         <f>I13/H13-1</f>
-        <v>2.2999999999999998</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="12">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M13" s="13">
-        <v>2.4780000000000002</v>
+        <v>11.781000000000001</v>
       </c>
       <c r="N13" s="25">
         <f>M13/L13-1</f>
-        <v>0.77</v>
+        <v>13.025</v>
       </c>
       <c r="O13" s="12">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="3"/>
-        <v>1.33</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="Q13" s="13">
-        <v>0.91700000000000004</v>
+        <v>14.224</v>
       </c>
       <c r="R13" s="25">
         <f>Q13/P13-1</f>
-        <v>-0.31052631578947365</v>
+        <v>10.952941176470587</v>
       </c>
       <c r="S13" s="12">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="T13" s="13">
         <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U13" s="13">
-        <v>0.126</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="V13" s="25">
         <f>U13/T13-1</f>
-        <v>-0.55000000000000004</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W13" s="12">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="X13" s="13">
         <f t="shared" si="5"/>
-        <v>0.77</v>
+        <v>0.21</v>
       </c>
       <c r="Y13" s="13">
-        <v>2.0579999999999998</v>
+        <v>0.749</v>
       </c>
       <c r="Z13" s="25">
         <f>Y13/X13-1</f>
-        <v>1.6727272727272724</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="AA13" s="12">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AB13" s="13">
         <f t="shared" si="6"/>
-        <v>0.21</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC13" s="13">
-        <v>0.749</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AD13" s="25">
         <f>AC13/AB13-1</f>
-        <v>2.5666666666666669</v>
+        <v>5.5</v>
       </c>
       <c r="AE13" s="12">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF13" s="13">
         <f t="shared" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.77</v>
       </c>
       <c r="AG13" s="13">
-        <v>0.86099999999999999</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="AH13" s="25">
         <f>AG13/AF13-1</f>
-        <v>11.299999999999999</v>
+        <v>1.6727272727272724</v>
       </c>
       <c r="AI13" s="12">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AJ13" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AK13" s="13">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="AL13" s="25" t="e">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AL13" s="25">
         <f>AK13/AJ13-1</f>
-        <v>#DIV/0!</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="AM13" s="12">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AN13" s="13">
         <f t="shared" si="9"/>
-        <v>0.56000000000000005</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO13" s="13">
-        <v>0.61599999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AP13" s="25">
         <f>AO13/AN13-1</f>
-        <v>9.9999999999999867E-2</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="12">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AR13" s="13">
         <f t="shared" si="10"/>
-        <v>0.14000000000000001</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="AS13" s="13">
-        <v>0.28000000000000003</v>
+        <v>2.4780000000000002</v>
       </c>
       <c r="AT13" s="25">
         <f>AS13/AR13-1</f>
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AU13" s="12">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AV13" s="13">
         <f t="shared" si="11"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.42</v>
       </c>
       <c r="AW13" s="13">
-        <v>0.45500000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="AX13" s="25">
         <f>AW13/AV13-1</f>
-        <v>5.5</v>
+        <v>-0.26666666666666661</v>
       </c>
       <c r="AY13" s="12">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="AZ13" s="13">
         <f t="shared" si="12"/>
-        <v>0.84</v>
+        <v>1.33</v>
       </c>
       <c r="BA13" s="13">
-        <v>11.781000000000001</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="BB13" s="25">
         <f>BA13/AZ13-1</f>
-        <v>13.025</v>
+        <v>-0.31052631578947365</v>
       </c>
       <c r="BC13" s="12">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="BD13" s="13">
         <f t="shared" si="13"/>
-        <v>1.1900000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BE13" s="13">
-        <v>14.224</v>
+        <v>0.126</v>
       </c>
       <c r="BF13" s="25">
         <f>BE13/BD13-1</f>
-        <v>10.952941176470587</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="BG13" s="12">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="BH13" s="13">
         <f t="shared" si="14"/>
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BI13" s="13">
-        <v>0.308</v>
+        <v>0.21</v>
       </c>
       <c r="BJ13" s="25">
         <f>BI13/BH13-1</f>
-        <v>-0.26666666666666661</v>
+        <v>-0.25000000000000011</v>
       </c>
       <c r="BK13" s="12">
-        <v>0.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BL13" s="13">
         <f t="shared" si="15"/>
-        <v>2.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BM13" s="13">
-        <v>1.764</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="BN13" s="25">
         <f>BM13/BL13-1</f>
-        <v>-0.4</v>
+        <v>-1.379310344827589E-2</v>
       </c>
       <c r="BO13" s="12">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="BP13" s="13">
         <f t="shared" si="16"/>
-        <v>0.28000000000000003</v>
+        <v>2.94</v>
       </c>
       <c r="BQ13" s="13">
-        <v>0.21</v>
+        <v>1.764</v>
       </c>
       <c r="BR13" s="25">
         <f>BQ13/BP13-1</f>
-        <v>-0.25000000000000011</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14" spans="2:70" x14ac:dyDescent="0.25">
@@ -7780,242 +7780,242 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>3.2050000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>22.435000000000002</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>24.765999999999998</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F14" s="26">
-        <f t="shared" ref="F14:F21" si="17">E14/D14-1</f>
-        <v>0.10390015600624003</v>
+        <f t="shared" ref="F14:F20" si="17">E14/D14-1</f>
+        <v>1.5999999999999996</v>
       </c>
       <c r="G14" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H14" s="2">
-        <f>G14*7</f>
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>0.13300000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" ref="J14:J21" si="18">I14/H14-1</f>
-        <v>1.375</v>
+        <f t="shared" ref="J14:J20" si="18">I14/H14-1</f>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>0.114</v>
+        <v>0.122</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="2"/>
-        <v>0.79800000000000004</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="M14" s="2">
-        <v>1.274</v>
+        <v>2.415</v>
       </c>
       <c r="N14" s="26">
-        <f t="shared" ref="N14:N21" si="19">M14/L14-1</f>
-        <v>0.59649122807017529</v>
+        <f t="shared" ref="N14:N20" si="19">M14/L14-1</f>
+        <v>1.8278688524590163</v>
       </c>
       <c r="O14" s="1">
-        <v>0.182</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="3"/>
-        <v>1.274</v>
+        <v>1.169</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.198</v>
+        <v>3.8290000000000002</v>
       </c>
       <c r="R14" s="26">
-        <f t="shared" ref="R14:R21" si="20">Q14/P14-1</f>
-        <v>0.72527472527472514</v>
+        <f t="shared" ref="R14:R20" si="20">Q14/P14-1</f>
+        <v>2.2754491017964074</v>
       </c>
       <c r="S14" s="1">
-        <v>7.2999999999999995E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="4"/>
-        <v>0.51100000000000001</v>
+        <f>S14*7</f>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="U14" s="2">
-        <v>1.1970000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="V14" s="26">
-        <f t="shared" ref="V14:V20" si="21">U14/T14-1</f>
-        <v>1.3424657534246576</v>
+        <f t="shared" ref="V14:V21" si="21">U14/T14-1</f>
+        <v>1.375</v>
       </c>
       <c r="W14" s="1">
-        <v>0.436</v>
+        <v>3.9E-2</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="5"/>
-        <v>3.052</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="Y14" s="2">
-        <v>6.6219999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="Z14" s="26">
         <f t="shared" ref="Z14:Z20" si="22">Y14/X14-1</f>
-        <v>1.1697247706422016</v>
+        <v>1.3076923076923075</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.9E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="6"/>
-        <v>0.27300000000000002</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.63</v>
+        <v>1.036</v>
       </c>
       <c r="AD14" s="26">
         <f t="shared" ref="AD14:AD20" si="23">AC14/AB14-1</f>
-        <v>1.3076923076923075</v>
+        <v>3.3529411764705879</v>
       </c>
       <c r="AE14" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.436</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="7"/>
-        <v>3.5000000000000003E-2</v>
+        <v>3.052</v>
       </c>
       <c r="AG14" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>6.6219999999999999</v>
       </c>
       <c r="AH14" s="26">
         <f t="shared" ref="AH14:AH20" si="24">AG14/AF14-1</f>
-        <v>1.5999999999999996</v>
+        <v>1.1697247706422016</v>
       </c>
       <c r="AI14" s="1">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="AK14" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.21</v>
       </c>
       <c r="AL14" s="26">
         <f t="shared" ref="AL14:AL20" si="25">AK14/AJ14-1</f>
-        <v>3</v>
+        <v>1.3076923076923075</v>
       </c>
       <c r="AM14" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="9"/>
-        <v>9.0999999999999998E-2</v>
+        <v>0.224</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.21</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AP14" s="26">
         <f t="shared" ref="AP14:AP20" si="26">AO14/AN14-1</f>
-        <v>1.3076923076923075</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>0.114</v>
       </c>
       <c r="AR14" s="2">
         <f t="shared" si="10"/>
-        <v>0.224</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AS14" s="2">
-        <v>0.56000000000000005</v>
+        <v>1.274</v>
       </c>
       <c r="AT14" s="26">
-        <f t="shared" ref="AT14:AT20" si="27">AS14/AR14-1</f>
-        <v>1.5</v>
+        <f t="shared" ref="AT14:AT21" si="27">AS14/AR14-1</f>
+        <v>0.59649122807017529</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AV14" s="2">
         <f t="shared" si="11"/>
-        <v>0.23800000000000002</v>
+        <v>0.49699999999999994</v>
       </c>
       <c r="AW14" s="2">
-        <v>1.036</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="AX14" s="26">
         <f t="shared" ref="AX14:AX20" si="28">AW14/AV14-1</f>
-        <v>3.3529411764705879</v>
+        <v>1.0422535211267605</v>
       </c>
       <c r="AY14" s="1">
-        <v>0.122</v>
+        <v>0.182</v>
       </c>
       <c r="AZ14" s="2">
         <f t="shared" si="12"/>
-        <v>0.85399999999999998</v>
+        <v>1.274</v>
       </c>
       <c r="BA14" s="2">
-        <v>2.415</v>
+        <v>2.198</v>
       </c>
       <c r="BB14" s="26">
         <f t="shared" ref="BB14:BB20" si="29">BA14/AZ14-1</f>
-        <v>1.8278688524590163</v>
+        <v>0.72527472527472514</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.16700000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="BD14" s="2">
         <f t="shared" si="13"/>
-        <v>1.169</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="BE14" s="2">
-        <v>3.8290000000000002</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="BF14" s="26">
         <f t="shared" ref="BF14:BF20" si="30">BE14/BD14-1</f>
-        <v>2.2754491017964074</v>
+        <v>1.3424657534246576</v>
       </c>
       <c r="BG14" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="BH14" s="2">
         <f t="shared" si="14"/>
-        <v>0.49699999999999994</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="BI14" s="2">
-        <v>1.0149999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="BJ14" s="26">
         <f t="shared" ref="BJ14:BJ20" si="31">BI14/BH14-1</f>
-        <v>1.0422535211267605</v>
+        <v>0.92647058823529416</v>
       </c>
       <c r="BK14" s="1">
-        <v>0.27100000000000002</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="BL14" s="2">
         <f t="shared" si="15"/>
-        <v>1.8970000000000002</v>
+        <v>22.435000000000002</v>
       </c>
       <c r="BM14" s="2">
-        <v>3.0449999999999999</v>
+        <v>24.765999999999998</v>
       </c>
       <c r="BN14" s="26">
-        <f t="shared" ref="BN14:BN20" si="32">BM14/BL14-1</f>
-        <v>0.6051660516605164</v>
+        <f t="shared" ref="BN14:BN21" si="32">BM14/BL14-1</f>
+        <v>0.10390015600624003</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="BP14" s="2">
         <f t="shared" si="16"/>
-        <v>0.47600000000000003</v>
+        <v>1.8970000000000002</v>
       </c>
       <c r="BQ14" s="2">
-        <v>0.91700000000000004</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="BR14" s="26">
         <f t="shared" ref="BR14:BR20" si="33">BQ14/BP14-1</f>
-        <v>0.92647058823529416</v>
+        <v>0.6051660516605164</v>
       </c>
     </row>
     <row r="15" spans="2:70" x14ac:dyDescent="0.25">
@@ -8023,60 +8023,60 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.9250000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>1.827</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="17"/>
-        <v>-5.0909090909091015E-2</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="G15" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0.126</v>
-      </c>
-      <c r="J15" s="26">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J15" s="26" t="e">
         <f t="shared" si="18"/>
-        <v>0.79999999999999982</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K15" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="2"/>
-        <v>0.49000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="M15" s="2">
-        <v>1.1830000000000001</v>
+        <v>4.4169999999999998</v>
       </c>
       <c r="N15" s="26">
         <f t="shared" si="19"/>
-        <v>1.4142857142857141</v>
+        <v>20.033333333333335</v>
       </c>
       <c r="O15" s="1">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.54600000000000004</v>
+        <v>12.795999999999999</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="20"/>
-        <v>-0.1333333333333333</v>
+        <v>6.3119999999999994</v>
       </c>
       <c r="S15" s="1">
         <v>0.01</v>
@@ -8086,179 +8086,179 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U15" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>0.126</v>
       </c>
       <c r="V15" s="26">
         <f t="shared" si="21"/>
-        <v>-0.5</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="W15" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="5"/>
-        <v>0.46200000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="Y15" s="2">
-        <v>1.169</v>
+        <v>0.84</v>
       </c>
       <c r="Z15" s="26">
         <f t="shared" si="22"/>
-        <v>1.5303030303030303</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="6"/>
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="AD15" s="26">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AD15" s="26" t="e">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="1">
-        <v>0.01</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.51800000000000002</v>
+        <v>1.169</v>
       </c>
       <c r="AH15" s="26">
         <f t="shared" si="24"/>
-        <v>6.3999999999999995</v>
+        <v>1.5303030303030303</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AK15" s="2">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="AL15" s="26" t="e">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AL15" s="26">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="AM15" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="9"/>
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.252</v>
       </c>
       <c r="AP15" s="26">
         <f t="shared" si="26"/>
-        <v>0.3666666666666667</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AR15" s="2">
         <f t="shared" si="10"/>
-        <v>0.14000000000000001</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.252</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="AT15" s="26">
         <f t="shared" si="27"/>
-        <v>0.79999999999999982</v>
+        <v>1.4142857142857141</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AV15" s="2">
         <f t="shared" si="11"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AX15" s="26">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AW15" s="2">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AX15" s="26" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AY15" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AZ15" s="2">
         <f t="shared" si="12"/>
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="BA15" s="2">
-        <v>4.4169999999999998</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="BB15" s="26">
         <f t="shared" si="29"/>
-        <v>20.033333333333335</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="BD15" s="2">
         <f t="shared" si="13"/>
-        <v>1.75</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BE15" s="2">
-        <v>12.795999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="BF15" s="26">
         <f t="shared" si="30"/>
-        <v>6.3119999999999994</v>
+        <v>-0.5</v>
       </c>
       <c r="BG15" s="1">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="BH15" s="2">
         <f t="shared" si="14"/>
-        <v>0.14000000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="BI15" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="BJ15" s="26">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>-0.15789473684210531</v>
       </c>
       <c r="BK15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="BL15" s="2">
         <f t="shared" si="15"/>
-        <v>0.98000000000000009</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="BM15" s="2">
-        <v>0.84699999999999998</v>
+        <v>1.827</v>
       </c>
       <c r="BN15" s="26">
         <f t="shared" si="32"/>
-        <v>-0.13571428571428579</v>
+        <v>-5.0909090909091015E-2</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.9E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BP15" s="2">
         <f t="shared" si="16"/>
-        <v>0.13300000000000001</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0.112</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="BR15" s="26">
         <f t="shared" si="33"/>
-        <v>-0.15789473684210531</v>
+        <v>-0.13571428571428579</v>
       </c>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.25">
@@ -8266,242 +8266,242 @@
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <v>2.165</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>15.155000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E16" s="2">
-        <v>15.202</v>
+        <v>3.266</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="17"/>
-        <v>3.1012867040580705E-3</v>
+        <v>8.7202380952380949</v>
       </c>
       <c r="G16" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="J16" s="26">
+        <v>2.883</v>
+      </c>
+      <c r="J16" s="26" t="e">
         <f t="shared" si="18"/>
-        <v>3.1904761904761907</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K16" s="1">
-        <v>0.5</v>
+        <v>0.252</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>1.764</v>
       </c>
       <c r="M16" s="2">
-        <v>7.9640000000000004</v>
+        <v>29.213999999999999</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" si="19"/>
-        <v>1.2754285714285714</v>
+        <v>15.561224489795919</v>
       </c>
       <c r="O16" s="1">
-        <v>0.69</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="3"/>
-        <v>4.83</v>
+        <v>5.1589999999999998</v>
       </c>
       <c r="Q16" s="2">
-        <v>4.3570000000000002</v>
+        <v>68.89</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="20"/>
-        <v>-9.7929606625258736E-2</v>
+        <v>12.353363054855592</v>
       </c>
       <c r="S16" s="1">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="4"/>
-        <v>0.77</v>
+        <v>0.21</v>
       </c>
       <c r="U16" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="V16" s="26">
         <f t="shared" si="21"/>
-        <v>-0.22337662337662345</v>
+        <v>3.1904761904761907</v>
       </c>
       <c r="W16" s="1">
-        <v>0.29399999999999998</v>
+        <v>0.106</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="5"/>
-        <v>2.0579999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="Y16" s="2">
-        <v>5.851</v>
+        <v>2.492</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="22"/>
-        <v>1.8430515063168125</v>
+        <v>2.358490566037736</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.106</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="6"/>
-        <v>0.74199999999999999</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="AC16" s="2">
-        <v>2.492</v>
+        <v>4.8330000000000002</v>
       </c>
       <c r="AD16" s="26">
         <f t="shared" si="23"/>
-        <v>2.358490566037736</v>
+        <v>3.7615763546798036</v>
       </c>
       <c r="AE16" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="7"/>
-        <v>0.33600000000000002</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="AG16" s="2">
-        <v>3.266</v>
+        <v>5.851</v>
       </c>
       <c r="AH16" s="26">
         <f t="shared" si="24"/>
-        <v>8.7202380952380949</v>
+        <v>1.8430515063168125</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="AJ16" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="AK16" s="2">
-        <v>2.883</v>
-      </c>
-      <c r="AL16" s="26" t="e">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="AL16" s="26">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.13423645320197042</v>
       </c>
       <c r="AM16" s="1">
-        <v>0.23200000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="9"/>
-        <v>1.6240000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="AO16" s="2">
-        <v>1.8420000000000001</v>
+        <v>1.121</v>
       </c>
       <c r="AP16" s="26">
         <f t="shared" si="26"/>
-        <v>0.13423645320197042</v>
+        <v>1.7610837438423643</v>
       </c>
       <c r="AQ16" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AR16" s="2">
         <f t="shared" si="10"/>
-        <v>0.40600000000000003</v>
+        <v>3.5</v>
       </c>
       <c r="AS16" s="2">
-        <v>1.121</v>
+        <v>7.9640000000000004</v>
       </c>
       <c r="AT16" s="26">
         <f t="shared" si="27"/>
-        <v>1.7610837438423643</v>
+        <v>1.2754285714285714</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AV16" s="2">
         <f t="shared" si="11"/>
-        <v>1.0149999999999999</v>
+        <v>0.95900000000000007</v>
       </c>
       <c r="AW16" s="2">
-        <v>4.8330000000000002</v>
+        <v>1.177</v>
       </c>
       <c r="AX16" s="26">
         <f t="shared" si="28"/>
-        <v>3.7615763546798036</v>
+        <v>0.22732012513034405</v>
       </c>
       <c r="AY16" s="1">
-        <v>0.252</v>
+        <v>0.69</v>
       </c>
       <c r="AZ16" s="2">
         <f t="shared" si="12"/>
-        <v>1.764</v>
+        <v>4.83</v>
       </c>
       <c r="BA16" s="2">
-        <v>29.213999999999999</v>
+        <v>4.3570000000000002</v>
       </c>
       <c r="BB16" s="26">
         <f t="shared" si="29"/>
-        <v>15.561224489795919</v>
+        <v>-9.7929606625258736E-2</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.73699999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="BD16" s="2">
         <f t="shared" si="13"/>
-        <v>5.1589999999999998</v>
+        <v>0.77</v>
       </c>
       <c r="BE16" s="2">
-        <v>68.89</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="BF16" s="26">
         <f t="shared" si="30"/>
-        <v>12.353363054855592</v>
+        <v>-0.22337662337662345</v>
       </c>
       <c r="BG16" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="BH16" s="2">
         <f t="shared" si="14"/>
-        <v>0.95900000000000007</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="BI16" s="2">
-        <v>1.177</v>
+        <v>1.012</v>
       </c>
       <c r="BJ16" s="26">
         <f t="shared" si="31"/>
-        <v>0.22732012513034405</v>
+        <v>-1.6520894071914372E-2</v>
       </c>
       <c r="BK16" s="1">
-        <v>1.0309999999999999</v>
+        <v>2.165</v>
       </c>
       <c r="BL16" s="2">
         <f t="shared" si="15"/>
-        <v>7.2169999999999996</v>
+        <v>15.155000000000001</v>
       </c>
       <c r="BM16" s="2">
-        <v>6.7190000000000003</v>
+        <v>15.202</v>
       </c>
       <c r="BN16" s="26">
         <f t="shared" si="32"/>
-        <v>-6.9003741166689725E-2</v>
+        <v>3.1012867040580705E-3</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.14699999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="BP16" s="2">
         <f t="shared" si="16"/>
-        <v>1.0289999999999999</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1.012</v>
+        <v>6.7190000000000003</v>
       </c>
       <c r="BR16" s="26">
         <f t="shared" si="33"/>
-        <v>-1.6520894071914372E-2</v>
+        <v>-6.9003741166689725E-2</v>
       </c>
     </row>
     <row r="17" spans="2:70" x14ac:dyDescent="0.25">
@@ -8509,242 +8509,242 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>1.76</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>12.32</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>12.012</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="17"/>
-        <v>-2.5000000000000022E-2</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="G17" s="1">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="J17" s="26">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J17" s="26" t="e">
         <f t="shared" si="18"/>
-        <v>6.8571428571428568</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="1">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="2"/>
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="M17" s="2">
-        <v>2.4780000000000002</v>
+        <v>7.3639999999999999</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="19"/>
-        <v>1.7230769230769232</v>
+        <v>16.533333333333335</v>
       </c>
       <c r="O17" s="1">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="3"/>
-        <v>5.25</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Q17" s="2">
-        <v>4.5919999999999996</v>
+        <v>8.89</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="20"/>
-        <v>-0.12533333333333341</v>
+        <v>14.875</v>
       </c>
       <c r="S17" s="1">
-        <v>0.09</v>
+        <v>1.4E-2</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="4"/>
-        <v>0.63</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="U17" s="2">
-        <v>0.504</v>
+        <v>0.77</v>
       </c>
       <c r="V17" s="26">
         <f t="shared" si="21"/>
-        <v>-0.19999999999999996</v>
+        <v>6.8571428571428568</v>
       </c>
       <c r="W17" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="5"/>
-        <v>0.98000000000000009</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y17" s="2">
-        <v>4.1159999999999997</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="Z17" s="26">
         <f t="shared" si="22"/>
-        <v>3.1999999999999993</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="6"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.91</v>
       </c>
       <c r="AD17" s="26">
         <f t="shared" si="23"/>
-        <v>5.6999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="AE17" s="1">
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" si="7"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.86099999999999999</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="24"/>
-        <v>11.299999999999999</v>
+        <v>3.1999999999999993</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AJ17" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="AK17" s="2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="AL17" s="26" t="e">
+        <v>1.232</v>
+      </c>
+      <c r="AL17" s="26">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="AM17" s="1">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="9"/>
-        <v>0.77</v>
+        <v>0.21</v>
       </c>
       <c r="AO17" s="2">
-        <v>1.232</v>
+        <v>0.84</v>
       </c>
       <c r="AP17" s="26">
         <f t="shared" si="26"/>
-        <v>0.59999999999999987</v>
+        <v>3</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" si="10"/>
-        <v>0.21</v>
+        <v>0.91</v>
       </c>
       <c r="AS17" s="2">
-        <v>0.84</v>
+        <v>2.4780000000000002</v>
       </c>
       <c r="AT17" s="26">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>1.7230769230769232</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="AV17" s="2">
         <f t="shared" si="11"/>
-        <v>0.14000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.91</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="AX17" s="26">
         <f t="shared" si="28"/>
-        <v>5.5</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AY17" s="1">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="AZ17" s="2">
         <f t="shared" si="12"/>
-        <v>0.42</v>
+        <v>5.25</v>
       </c>
       <c r="BA17" s="2">
-        <v>7.3639999999999999</v>
+        <v>4.5919999999999996</v>
       </c>
       <c r="BB17" s="26">
         <f t="shared" si="29"/>
-        <v>16.533333333333335</v>
+        <v>-0.12533333333333341</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="BD17" s="2">
         <f t="shared" si="13"/>
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="BE17" s="2">
-        <v>8.89</v>
+        <v>0.504</v>
       </c>
       <c r="BF17" s="26">
         <f t="shared" si="30"/>
-        <v>14.875</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="BG17" s="1">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="BH17" s="2">
         <f t="shared" si="14"/>
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="BI17" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="BJ17" s="26">
         <f t="shared" si="31"/>
-        <v>0.19999999999999996</v>
+        <v>-4.9999999999999933E-2</v>
       </c>
       <c r="BK17" s="1">
-        <v>0.56000000000000005</v>
+        <v>1.76</v>
       </c>
       <c r="BL17" s="2">
         <f t="shared" si="15"/>
-        <v>3.9200000000000004</v>
+        <v>12.32</v>
       </c>
       <c r="BM17" s="2">
-        <v>3.528</v>
+        <v>12.012</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="32"/>
-        <v>-0.10000000000000009</v>
+        <v>-2.5000000000000022E-2</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.12</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BP17" s="2">
         <f t="shared" si="16"/>
-        <v>0.84</v>
+        <v>3.9200000000000004</v>
       </c>
       <c r="BQ17" s="2">
-        <v>0.79800000000000004</v>
+        <v>3.528</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="33"/>
-        <v>-4.9999999999999933E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
     </row>
     <row r="18" spans="2:70" x14ac:dyDescent="0.25">
@@ -8752,242 +8752,242 @@
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>2.79</v>
+        <v>0.05</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>19.53</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>19.047000000000001</v>
+        <v>3.8849999999999998</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="17"/>
-        <v>-2.4731182795698969E-2</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="G18" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J18" s="26">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J18" s="26" t="e">
         <f t="shared" si="18"/>
-        <v>6.1499999999999986</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K18" s="1">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>3.29</v>
+        <v>0.84</v>
       </c>
       <c r="M18" s="2">
-        <v>8.6940000000000008</v>
+        <v>14.734999999999999</v>
       </c>
       <c r="N18" s="26">
         <f t="shared" si="19"/>
-        <v>1.6425531914893621</v>
+        <v>16.541666666666668</v>
       </c>
       <c r="O18" s="1">
-        <v>1.54</v>
+        <v>0.17</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="3"/>
-        <v>10.780000000000001</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="Q18" s="2">
-        <v>9.4710000000000001</v>
+        <v>17.786999999999999</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="20"/>
-        <v>-0.12142857142857155</v>
+        <v>13.947058823529408</v>
       </c>
       <c r="S18" s="1">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="4"/>
-        <v>1.33</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U18" s="2">
-        <v>1.036</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="V18" s="26">
         <f t="shared" si="21"/>
-        <v>-0.22105263157894739</v>
+        <v>6.1499999999999986</v>
       </c>
       <c r="W18" s="1">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="5"/>
-        <v>1.1200000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="Y18" s="2">
-        <v>4.6269999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="Z18" s="26">
         <f t="shared" si="22"/>
-        <v>3.1312499999999996</v>
+        <v>3.7199999999999989</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="6"/>
-        <v>0.70000000000000007</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="AC18" s="2">
-        <v>3.3039999999999998</v>
+        <v>3.1850000000000001</v>
       </c>
       <c r="AD18" s="26">
         <f t="shared" si="23"/>
-        <v>3.7199999999999989</v>
+        <v>5.4999999999999991</v>
       </c>
       <c r="AE18" s="1">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" si="7"/>
-        <v>0.35000000000000003</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AG18" s="2">
-        <v>3.8849999999999998</v>
+        <v>4.6269999999999998</v>
       </c>
       <c r="AH18" s="26">
         <f t="shared" si="24"/>
-        <v>10.099999999999998</v>
+        <v>3.1312499999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AJ18" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK18" s="2">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="AL18" s="26" t="e">
+        <v>2.1560000000000001</v>
+      </c>
+      <c r="AL18" s="26">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.6210526315789473</v>
       </c>
       <c r="AM18" s="1">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="9"/>
-        <v>1.33</v>
+        <v>0.63</v>
       </c>
       <c r="AO18" s="2">
-        <v>2.1560000000000001</v>
+        <v>2.31</v>
       </c>
       <c r="AP18" s="26">
         <f t="shared" si="26"/>
-        <v>0.6210526315789473</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AQ18" s="1">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="AR18" s="2">
         <f t="shared" si="10"/>
-        <v>0.63</v>
+        <v>3.29</v>
       </c>
       <c r="AS18" s="2">
-        <v>2.31</v>
+        <v>8.6940000000000008</v>
       </c>
       <c r="AT18" s="26">
         <f t="shared" si="27"/>
-        <v>2.6666666666666665</v>
+        <v>1.6425531914893621</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AV18" s="2">
         <f t="shared" si="11"/>
-        <v>0.49000000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="AW18" s="2">
-        <v>3.1850000000000001</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="AX18" s="26">
         <f t="shared" si="28"/>
-        <v>5.4999999999999991</v>
+        <v>0.18461538461538463</v>
       </c>
       <c r="AY18" s="1">
-        <v>0.12</v>
+        <v>1.54</v>
       </c>
       <c r="AZ18" s="2">
         <f t="shared" si="12"/>
-        <v>0.84</v>
+        <v>10.780000000000001</v>
       </c>
       <c r="BA18" s="2">
-        <v>14.734999999999999</v>
+        <v>9.4710000000000001</v>
       </c>
       <c r="BB18" s="26">
         <f t="shared" si="29"/>
-        <v>16.541666666666668</v>
+        <v>-0.12142857142857155</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="BD18" s="2">
         <f t="shared" si="13"/>
-        <v>1.1900000000000002</v>
+        <v>1.33</v>
       </c>
       <c r="BE18" s="2">
-        <v>17.786999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="BF18" s="26">
         <f t="shared" si="30"/>
-        <v>13.947058823529408</v>
+        <v>-0.22105263157894739</v>
       </c>
       <c r="BG18" s="1">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="BH18" s="2">
         <f t="shared" si="14"/>
-        <v>0.91</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="BI18" s="2">
-        <v>1.0780000000000001</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="BJ18" s="26">
         <f t="shared" si="31"/>
-        <v>0.18461538461538463</v>
+        <v>-8.5185185185185142E-2</v>
       </c>
       <c r="BK18" s="1">
-        <v>0.98</v>
+        <v>2.79</v>
       </c>
       <c r="BL18" s="2">
         <f t="shared" si="15"/>
-        <v>6.8599999999999994</v>
+        <v>19.53</v>
       </c>
       <c r="BM18" s="2">
-        <v>6.1950000000000003</v>
+        <v>19.047000000000001</v>
       </c>
       <c r="BN18" s="26">
         <f t="shared" si="32"/>
-        <v>-9.6938775510203912E-2</v>
+        <v>-2.4731182795698969E-2</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.27</v>
+        <v>0.98</v>
       </c>
       <c r="BP18" s="2">
         <f t="shared" si="16"/>
-        <v>1.8900000000000001</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="BQ18" s="2">
-        <v>1.7290000000000001</v>
+        <v>6.1950000000000003</v>
       </c>
       <c r="BR18" s="26">
         <f t="shared" si="33"/>
-        <v>-8.5185185185185142E-2</v>
+        <v>-9.6938775510203912E-2</v>
       </c>
     </row>
     <row r="19" spans="2:70" x14ac:dyDescent="0.25">
@@ -8995,74 +8995,74 @@
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>0.105</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.73499999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>1.544</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="17"/>
-        <v>1.1006802721088436</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
-        <v>2.8000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I19" s="2">
-        <v>1.4E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J19" s="26">
         <f t="shared" si="18"/>
-        <v>-0.5</v>
+        <v>-0.85714285714285721</v>
       </c>
       <c r="K19" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="2"/>
-        <v>0.41299999999999998</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>0.77400000000000002</v>
+        <v>1.077</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="19"/>
-        <v>0.87409200968523026</v>
+        <v>0.69073783359497631</v>
       </c>
       <c r="O19" s="1">
-        <v>0.14000000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="3"/>
-        <v>0.98000000000000009</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.298</v>
+        <v>0.434</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="20"/>
-        <v>0.32448979591836724</v>
+        <v>0.58974358974358965</v>
       </c>
       <c r="S19" s="1">
-        <v>1.9E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="4"/>
-        <v>0.13300000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="U19" s="2">
-        <v>0.113</v>
+        <v>1.4E-2</v>
       </c>
       <c r="V19" s="26">
         <f t="shared" si="21"/>
-        <v>-0.15037593984962405</v>
+        <v>-0.5</v>
       </c>
       <c r="W19" s="1">
         <v>1.7000000000000001E-2</v>
@@ -9072,165 +9072,165 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="Y19" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.126</v>
       </c>
       <c r="Z19" s="26">
         <f t="shared" si="22"/>
-        <v>-0.36974789915966388</v>
+        <v>5.8823529411764719E-2</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="6"/>
-        <v>0.11900000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.126</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AD19" s="26">
         <f t="shared" si="23"/>
-        <v>5.8823529411764719E-2</v>
+        <v>-0.26530612244897966</v>
       </c>
       <c r="AE19" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" si="7"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.11900000000000001</v>
       </c>
       <c r="AG19" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AH19" s="26">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-0.36974789915966388</v>
       </c>
       <c r="AI19" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ19" s="2">
         <f t="shared" si="8"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AK19" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AL19" s="26">
         <f t="shared" si="25"/>
-        <v>-0.85714285714285721</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="AM19" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="9"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AO19" s="2">
-        <v>1.2E-2</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="AP19" s="26">
         <f t="shared" si="26"/>
-        <v>-0.4285714285714286</v>
+        <v>-0.13817330210772838</v>
       </c>
       <c r="AQ19" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" si="10"/>
-        <v>0.42699999999999999</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="AS19" s="2">
-        <v>0.36799999999999999</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="AT19" s="26">
         <f t="shared" si="27"/>
-        <v>-0.13817330210772838</v>
+        <v>0.87409200968523026</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AV19" s="2">
         <f t="shared" si="11"/>
-        <v>4.9000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AW19" s="2">
-        <v>3.5999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AX19" s="26">
         <f t="shared" si="28"/>
-        <v>-0.26530612244897966</v>
+        <v>4.761904761904745E-2</v>
       </c>
       <c r="AY19" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AZ19" s="2">
         <f t="shared" si="12"/>
-        <v>0.63700000000000001</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="BA19" s="2">
-        <v>1.077</v>
+        <v>1.298</v>
       </c>
       <c r="BB19" s="26">
         <f t="shared" si="29"/>
-        <v>0.69073783359497631</v>
+        <v>0.32448979591836724</v>
       </c>
       <c r="BC19" s="1">
-        <v>3.9E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="BD19" s="2">
         <f t="shared" si="13"/>
-        <v>0.27300000000000002</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="BE19" s="2">
-        <v>0.434</v>
+        <v>0.113</v>
       </c>
       <c r="BF19" s="26">
         <f t="shared" si="30"/>
-        <v>0.58974358974358965</v>
+        <v>-0.15037593984962405</v>
       </c>
       <c r="BG19" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BH19" s="2">
         <f t="shared" si="14"/>
-        <v>4.2000000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="BI19" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="BJ19" s="26">
         <f t="shared" si="31"/>
-        <v>4.761904761904745E-2</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="BK19" s="1">
-        <v>0.753</v>
+        <v>0.105</v>
       </c>
       <c r="BL19" s="2">
         <f t="shared" si="15"/>
-        <v>5.2709999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="BM19" s="2">
-        <v>25.681999999999999</v>
+        <v>1.544</v>
       </c>
       <c r="BN19" s="26">
         <f t="shared" si="32"/>
-        <v>3.8723202428381711</v>
+        <v>1.1006802721088436</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.753</v>
       </c>
       <c r="BP19" s="2">
         <f t="shared" si="16"/>
-        <v>2.1000000000000001E-2</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="BQ19" s="2">
-        <v>2.7E-2</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="BR19" s="26">
         <f t="shared" si="33"/>
-        <v>0.28571428571428559</v>
+        <v>3.8723202428381711</v>
       </c>
     </row>
     <row r="20" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9239,275 +9239,275 @@
       </c>
       <c r="C20" s="3">
         <f>C13+C14+C15+C16+C17+C18+C19</f>
-        <v>10.59</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D20" s="4">
         <f>C20*7</f>
-        <v>74.13</v>
+        <v>0.96600000000000008</v>
       </c>
       <c r="E20" s="4">
         <f>E13+E14+E15+E16+E17+E18+E19</f>
-        <v>76.399999999999991</v>
+        <v>9.5519999999999996</v>
       </c>
       <c r="F20" s="27">
         <f t="shared" si="17"/>
-        <v>3.0621880480237396E-2</v>
+        <v>8.8881987577639734</v>
       </c>
       <c r="G20" s="3">
         <f>G13+G14+G15+G16+G17+G18+G19</f>
-        <v>9.6000000000000016E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H20" s="4">
         <f>G20*7</f>
-        <v>0.67200000000000015</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="I20" s="4">
         <f>I13+I14+I15+I16+I17+I18+I19</f>
-        <v>3.1549999999999998</v>
+        <v>4.45</v>
       </c>
       <c r="J20" s="27">
         <f t="shared" si="18"/>
-        <v>3.6949404761904745</v>
+        <v>89.816326530612244</v>
       </c>
       <c r="K20" s="3">
         <f>K13+K14+K15+K16+K17+K18+K19</f>
-        <v>1.5429999999999999</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="L20" s="4">
         <f>K20*7</f>
-        <v>10.801</v>
+        <v>5.5650000000000004</v>
       </c>
       <c r="M20" s="4">
         <f>M13+M14+M15+M16+M17+M18+M19</f>
-        <v>24.845000000000002</v>
+        <v>71.002999999999986</v>
       </c>
       <c r="N20" s="27">
         <f t="shared" si="19"/>
-        <v>1.300249976853995</v>
+        <v>11.758849955076366</v>
       </c>
       <c r="O20" s="3">
         <f>O13+O14+O15+O16+O17+O18+O19</f>
-        <v>3.5820000000000003</v>
+        <v>1.6129999999999998</v>
       </c>
       <c r="P20" s="4">
         <f>O20*7</f>
-        <v>25.074000000000002</v>
+        <v>11.290999999999999</v>
       </c>
       <c r="Q20" s="4">
         <f>Q13+Q14+Q15+Q16+Q17+Q18+Q19</f>
-        <v>23.378999999999998</v>
+        <v>126.85</v>
       </c>
       <c r="R20" s="27">
         <f t="shared" si="20"/>
-        <v>-6.7599904283321521E-2</v>
+        <v>10.234611637587459</v>
       </c>
       <c r="S20" s="3">
         <f>S13+S14+S15+S16+S17+S18+S19</f>
-        <v>0.53199999999999992</v>
+        <v>9.6000000000000016E-2</v>
       </c>
       <c r="T20" s="4">
         <f>S20*7</f>
-        <v>3.7239999999999993</v>
+        <v>0.67200000000000015</v>
       </c>
       <c r="U20" s="4">
         <f>U13+U14+U15+U16+U17+U18+U19</f>
-        <v>3.609</v>
+        <v>3.1549999999999998</v>
       </c>
       <c r="V20" s="27">
         <f t="shared" si="21"/>
-        <v>-3.0880773361976144E-2</v>
+        <v>3.6949404761904745</v>
       </c>
       <c r="W20" s="3">
         <f>W13+W14+W15+W16+W17+W18+W19</f>
-        <v>1.2230000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="X20" s="4">
         <f>W20*7</f>
-        <v>8.5609999999999999</v>
+        <v>2.5339999999999998</v>
       </c>
       <c r="Y20" s="4">
         <f>Y13+Y14+Y15+Y16+Y17+Y18+Y19</f>
-        <v>24.517999999999997</v>
+        <v>8.61</v>
       </c>
       <c r="Z20" s="27">
         <f t="shared" si="22"/>
-        <v>1.8639177666160491</v>
+        <v>2.3977900552486187</v>
       </c>
       <c r="AA20" s="3">
         <f>AA13+AA14+AA15+AA16+AA17+AA18+AA19</f>
-        <v>0.36199999999999999</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="AB20" s="4">
         <f>AA20*7</f>
-        <v>2.5339999999999998</v>
+        <v>2.0020000000000002</v>
       </c>
       <c r="AC20" s="4">
         <f>AC13+AC14+AC15+AC16+AC17+AC18+AC19</f>
-        <v>8.61</v>
+        <v>10.728</v>
       </c>
       <c r="AD20" s="27">
         <f t="shared" si="23"/>
-        <v>2.3977900552486187</v>
+        <v>4.3586413586413579</v>
       </c>
       <c r="AE20" s="3">
         <f>AE13+AE14+AE15+AE16+AE17+AE18+AE19</f>
-        <v>0.13800000000000001</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="AF20" s="4">
         <f>AE20*7</f>
-        <v>0.96600000000000008</v>
+        <v>8.5609999999999999</v>
       </c>
       <c r="AG20" s="4">
         <f>AG13+AG14+AG15+AG16+AG17+AG18+AG19</f>
-        <v>9.5519999999999996</v>
+        <v>24.517999999999997</v>
       </c>
       <c r="AH20" s="27">
         <f t="shared" si="24"/>
-        <v>8.8881987577639734</v>
+        <v>1.8639177666160491</v>
       </c>
       <c r="AI20" s="3">
         <f>AI13+AI14+AI15+AI16+AI17+AI18+AI19</f>
-        <v>7.0000000000000001E-3</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="AJ20" s="4">
         <f>AI20*7</f>
-        <v>4.9000000000000002E-2</v>
+        <v>4.6059999999999999</v>
       </c>
       <c r="AK20" s="4">
         <f>AK13+AK14+AK15+AK16+AK17+AK18+AK19</f>
-        <v>4.45</v>
+        <v>6.3549999999999995</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="25"/>
-        <v>89.816326530612244</v>
+        <v>0.37972210160659992</v>
       </c>
       <c r="AM20" s="3">
         <f>AM13+AM14+AM15+AM16+AM17+AM18+AM19</f>
-        <v>0.65800000000000003</v>
+        <v>0.311</v>
       </c>
       <c r="AN20" s="4">
         <f>AM20*7</f>
-        <v>4.6059999999999999</v>
+        <v>2.177</v>
       </c>
       <c r="AO20" s="4">
         <f>AO13+AO14+AO15+AO16+AO17+AO18+AO19</f>
-        <v>6.3549999999999995</v>
+        <v>5.7309999999999999</v>
       </c>
       <c r="AP20" s="27">
         <f t="shared" si="26"/>
-        <v>0.37972210160659992</v>
+        <v>1.6325218190169957</v>
       </c>
       <c r="AQ20" s="3">
         <f>AQ13+AQ14+AQ15+AQ16+AQ17+AQ18+AQ19</f>
-        <v>0.311</v>
+        <v>1.5429999999999999</v>
       </c>
       <c r="AR20" s="4">
         <f>AQ20*7</f>
-        <v>2.177</v>
+        <v>10.801</v>
       </c>
       <c r="AS20" s="4">
         <f>AS13+AS14+AS15+AS16+AS17+AS18+AS19</f>
-        <v>5.7309999999999999</v>
+        <v>24.845000000000002</v>
       </c>
       <c r="AT20" s="27">
         <f t="shared" si="27"/>
-        <v>1.6325218190169957</v>
+        <v>1.300249976853995</v>
       </c>
       <c r="AU20" s="3">
         <f>AU13+AU14+AU15+AU16+AU17+AU18+AU19</f>
-        <v>0.28600000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="AV20" s="4">
         <f>AU20*7</f>
-        <v>2.0020000000000002</v>
+        <v>3.7380000000000004</v>
       </c>
       <c r="AW20" s="4">
         <f>AW13+AW14+AW15+AW16+AW17+AW18+AW19</f>
-        <v>10.728</v>
+        <v>4.6859999999999999</v>
       </c>
       <c r="AX20" s="27">
         <f t="shared" si="28"/>
-        <v>4.3586413586413579</v>
+        <v>0.25361155698234339</v>
       </c>
       <c r="AY20" s="3">
         <f>AY13+AY14+AY15+AY16+AY17+AY18+AY19</f>
-        <v>0.79500000000000004</v>
+        <v>3.5820000000000003</v>
       </c>
       <c r="AZ20" s="4">
         <f>AY20*7</f>
-        <v>5.5650000000000004</v>
+        <v>25.074000000000002</v>
       </c>
       <c r="BA20" s="4">
         <f>BA13+BA14+BA15+BA16+BA17+BA18+BA19</f>
-        <v>71.002999999999986</v>
+        <v>23.378999999999998</v>
       </c>
       <c r="BB20" s="27">
         <f t="shared" si="29"/>
-        <v>11.758849955076366</v>
+        <v>-6.7599904283321521E-2</v>
       </c>
       <c r="BC20" s="3">
         <f>BC13+BC14+BC15+BC16+BC17+BC18+BC19</f>
-        <v>1.6129999999999998</v>
+        <v>0.53199999999999992</v>
       </c>
       <c r="BD20" s="4">
         <f>BC20*7</f>
-        <v>11.290999999999999</v>
+        <v>3.7239999999999993</v>
       </c>
       <c r="BE20" s="4">
         <f>BE13+BE14+BE15+BE16+BE17+BE18+BE19</f>
-        <v>126.85</v>
+        <v>3.609</v>
       </c>
       <c r="BF20" s="27">
         <f t="shared" si="30"/>
-        <v>10.234611637587459</v>
+        <v>-3.0880773361976144E-2</v>
       </c>
       <c r="BG20" s="3">
         <f>BG13+BG14+BG15+BG16+BG17+BG18+BG19</f>
-        <v>0.53400000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="BH20" s="4">
         <f>BG20*7</f>
-        <v>3.7380000000000004</v>
+        <v>4.6690000000000005</v>
       </c>
       <c r="BI20" s="4">
         <f>BI13+BI14+BI15+BI16+BI17+BI18+BI19</f>
-        <v>4.6859999999999999</v>
+        <v>4.8050000000000006</v>
       </c>
       <c r="BJ20" s="27">
         <f t="shared" si="31"/>
-        <v>0.25361155698234339</v>
+        <v>2.9128292996358995E-2</v>
       </c>
       <c r="BK20" s="3">
         <f>BK13+BK14+BK15+BK16+BK17+BK18+BK19</f>
-        <v>4.1550000000000002</v>
+        <v>10.59</v>
       </c>
       <c r="BL20" s="4">
         <f>BK20*7</f>
-        <v>29.085000000000001</v>
+        <v>74.13</v>
       </c>
       <c r="BM20" s="4">
         <f>BM13+BM14+BM15+BM16+BM17+BM18+BM19</f>
-        <v>47.78</v>
+        <v>76.399999999999991</v>
       </c>
       <c r="BN20" s="27">
         <f t="shared" si="32"/>
-        <v>0.64277118789754173</v>
+        <v>3.0621880480237396E-2</v>
       </c>
       <c r="BO20" s="3">
         <f>BO13+BO14+BO15+BO16+BO17+BO18+BO19</f>
-        <v>0.66700000000000004</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="BP20" s="4">
         <f>BO20*7</f>
-        <v>4.6690000000000005</v>
+        <v>29.085000000000001</v>
       </c>
       <c r="BQ20" s="4">
         <f>BQ13+BQ14+BQ15+BQ16+BQ17+BQ18+BQ19</f>
-        <v>4.8050000000000006</v>
+        <v>47.78</v>
       </c>
       <c r="BR20" s="27">
         <f t="shared" si="33"/>
-        <v>2.9128292996358995E-2</v>
+        <v>0.64277118789754173</v>
       </c>
     </row>
     <row r="21" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9517,291 +9517,256 @@
       <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f>D12-D20</f>
-        <v>-8.6729999999999876</v>
+        <v>1.0849999999999995</v>
       </c>
       <c r="E21" s="18">
         <f>E12-E20</f>
-        <v>-39.138999999999989</v>
+        <v>-6.6679999999999993</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="17"/>
-        <v>3.5127406894961428</v>
+        <f>E21/D21-1</f>
+        <v>-7.1456221198156706</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18">
         <f>H12-H20</f>
-        <v>-0.39200000000000013</v>
+        <v>0.112</v>
       </c>
       <c r="I21" s="18">
         <f>I12-I20</f>
-        <v>-2.2309999999999999</v>
+        <v>-1.9580000000000002</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="18"/>
-        <v>4.6913265306122431</v>
+        <f>I21/H21-1</f>
+        <v>-18.482142857142858</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="18">
         <f>L12-L20</f>
-        <v>-3.1080000000000005</v>
+        <v>1.2389999999999999</v>
       </c>
       <c r="M21" s="18">
         <f>M12-M20</f>
-        <v>-15.689000000000002</v>
+        <v>-21.697999999999986</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="19"/>
-        <v>4.0479407979407975</v>
+        <f>M21/L21-1</f>
+        <v>-18.512510088781266</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="18">
         <f>P12-P20</f>
-        <v>2.4289999999999985</v>
+        <v>7.4270000000000014</v>
       </c>
       <c r="Q21" s="18">
         <f>Q12-Q20</f>
-        <v>-9.2879999999999985</v>
+        <v>-51.816999999999993</v>
       </c>
       <c r="R21" s="28">
         <f>Q21/P21-1</f>
-        <v>-4.8237958007410473</v>
+        <v>-7.9768412548808376</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="18">
         <f>T12-T20</f>
-        <v>-1.0779999999999994</v>
+        <v>-0.39200000000000013</v>
       </c>
       <c r="U21" s="18">
         <f>U12-U20</f>
-        <v>-0.90700000000000003</v>
+        <v>-2.2309999999999999</v>
       </c>
       <c r="V21" s="28">
-        <f>U21/T21-1</f>
-        <v>-0.15862708719851526</v>
+        <f t="shared" si="21"/>
+        <v>4.6913265306122431</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="18">
         <f>X12-X20</f>
-        <v>4.298</v>
+        <v>-0.97999999999999976</v>
       </c>
       <c r="Y21" s="18">
         <f>Y12-Y20</f>
-        <v>-12.309999999999999</v>
+        <v>-5.0749999999999993</v>
       </c>
       <c r="Z21" s="28">
         <f>Y21/X21-1</f>
-        <v>-3.8641228478362026</v>
+        <v>4.1785714285714288</v>
       </c>
       <c r="AA21" s="17"/>
       <c r="AB21" s="18">
         <f>AB12-AB20</f>
-        <v>-0.97999999999999976</v>
+        <v>-0.1120000000000001</v>
       </c>
       <c r="AC21" s="18">
         <f>AC12-AC20</f>
-        <v>-5.0749999999999993</v>
+        <v>-6.766</v>
       </c>
       <c r="AD21" s="28">
         <f>AC21/AB21-1</f>
-        <v>4.1785714285714288</v>
+        <v>59.410714285714235</v>
       </c>
       <c r="AE21" s="17"/>
       <c r="AF21" s="18">
         <f>AF12-AF20</f>
-        <v>1.0849999999999995</v>
+        <v>4.298</v>
       </c>
       <c r="AG21" s="18">
         <f>AG12-AG20</f>
-        <v>-6.6679999999999993</v>
+        <v>-12.309999999999999</v>
       </c>
       <c r="AH21" s="28">
         <f>AG21/AF21-1</f>
-        <v>-7.1456221198156706</v>
+        <v>-3.8641228478362026</v>
       </c>
       <c r="AI21" s="17"/>
       <c r="AJ21" s="18">
         <f>AJ12-AJ20</f>
-        <v>0.112</v>
+        <v>8.4000000000000519E-2</v>
       </c>
       <c r="AK21" s="18">
         <f>AK12-AK20</f>
-        <v>-1.9580000000000002</v>
+        <v>-3.2539999999999996</v>
       </c>
       <c r="AL21" s="28">
         <f>AK21/AJ21-1</f>
-        <v>-18.482142857142858</v>
+        <v>-39.738095238094992</v>
       </c>
       <c r="AM21" s="17"/>
       <c r="AN21" s="18">
         <f>AN12-AN20</f>
-        <v>8.4000000000000519E-2</v>
+        <v>5.0119999999999987</v>
       </c>
       <c r="AO21" s="18">
         <f>AO12-AO20</f>
-        <v>-3.2539999999999996</v>
+        <v>-1.3769999999999998</v>
       </c>
       <c r="AP21" s="28">
         <f>AO21/AN21-1</f>
-        <v>-39.738095238094992</v>
+        <v>-1.2747406225059856</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="18">
         <f>AR12-AR20</f>
-        <v>5.0119999999999987</v>
+        <v>-3.1080000000000005</v>
       </c>
       <c r="AS21" s="18">
         <f>AS12-AS20</f>
-        <v>-1.3769999999999998</v>
+        <v>-15.689000000000002</v>
       </c>
       <c r="AT21" s="28">
-        <f>AS21/AR21-1</f>
-        <v>-1.2747406225059856</v>
+        <f t="shared" si="27"/>
+        <v>4.0479407979407975</v>
       </c>
       <c r="AU21" s="17"/>
       <c r="AV21" s="18">
         <f>AV12-AV20</f>
-        <v>-0.1120000000000001</v>
+        <v>-1.8480000000000003</v>
       </c>
       <c r="AW21" s="18">
         <f>AW12-AW20</f>
-        <v>-6.766</v>
+        <v>-1.1719999999999997</v>
       </c>
       <c r="AX21" s="28">
         <f>AW21/AV21-1</f>
-        <v>59.410714285714235</v>
+        <v>-0.36580086580086602</v>
       </c>
       <c r="AY21" s="17"/>
       <c r="AZ21" s="18">
         <f>AZ12-AZ20</f>
-        <v>1.2389999999999999</v>
+        <v>2.4289999999999985</v>
       </c>
       <c r="BA21" s="18">
         <f>BA12-BA20</f>
-        <v>-21.697999999999986</v>
+        <v>-9.2879999999999985</v>
       </c>
       <c r="BB21" s="28">
         <f>BA21/AZ21-1</f>
-        <v>-18.512510088781266</v>
+        <v>-4.8237958007410473</v>
       </c>
       <c r="BC21" s="17"/>
       <c r="BD21" s="18">
         <f>BD12-BD20</f>
-        <v>7.4270000000000014</v>
+        <v>-1.0779999999999994</v>
       </c>
       <c r="BE21" s="18">
         <f>BE12-BE20</f>
-        <v>-51.816999999999993</v>
+        <v>-0.90700000000000003</v>
       </c>
       <c r="BF21" s="28">
         <f>BE21/BD21-1</f>
-        <v>-7.9768412548808376</v>
+        <v>-0.15862708719851526</v>
       </c>
       <c r="BG21" s="17"/>
       <c r="BH21" s="18">
         <f>BH12-BH20</f>
-        <v>-1.8480000000000003</v>
+        <v>6.391</v>
       </c>
       <c r="BI21" s="18">
         <f>BI12-BI20</f>
-        <v>-1.1719999999999997</v>
+        <v>1.0999999999999233E-2</v>
       </c>
       <c r="BJ21" s="28">
         <f>BI21/BH21-1</f>
-        <v>-0.36580086580086602</v>
+        <v>-0.99827882960413095</v>
       </c>
       <c r="BK21" s="17"/>
       <c r="BL21" s="18">
         <f>BL12-BL20</f>
-        <v>6.3559999999999945</v>
+        <v>-8.6729999999999876</v>
       </c>
       <c r="BM21" s="18">
         <f>BM12-BM20</f>
-        <v>-27.158000000000001</v>
+        <v>-39.138999999999989</v>
       </c>
       <c r="BN21" s="28">
-        <f>BM21/BL21-1</f>
-        <v>-5.2728130899937105</v>
+        <f t="shared" si="32"/>
+        <v>3.5127406894961428</v>
       </c>
       <c r="BO21" s="17"/>
       <c r="BP21" s="18">
         <f>BP12-BP20</f>
-        <v>6.391</v>
+        <v>6.3559999999999945</v>
       </c>
       <c r="BQ21" s="18">
         <f>BQ12-BQ20</f>
-        <v>1.0999999999999233E-2</v>
+        <v>-27.158000000000001</v>
       </c>
       <c r="BR21" s="28">
         <f>BQ21/BP21-1</f>
-        <v>-0.99827882960413095</v>
+        <v>-5.2728130899937105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="BK3:BL3"/>
     <mergeCell ref="BM3:BN3"/>
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AQ8:AR8"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="AY6:AZ6"/>
     <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AY8:AZ8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="BC8:BD8"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -9809,26 +9774,54 @@
     <mergeCell ref="AE6:AF6"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:P3"/>
@@ -9843,22 +9836,29 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="BL21">
     <cfRule type="cellIs" dxfId="67" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9866,7 +9866,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="T21">
     <cfRule type="cellIs" dxfId="65" priority="65" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9874,7 +9874,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="AR21">
     <cfRule type="cellIs" dxfId="63" priority="63" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9882,7 +9882,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
+  <conditionalFormatting sqref="AZ21">
     <cfRule type="cellIs" dxfId="61" priority="61" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9890,7 +9890,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
+  <conditionalFormatting sqref="BD21">
     <cfRule type="cellIs" dxfId="59" priority="59" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9898,7 +9898,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
+  <conditionalFormatting sqref="AF21">
     <cfRule type="cellIs" dxfId="57" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9906,7 +9906,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21">
+  <conditionalFormatting sqref="X21">
     <cfRule type="cellIs" dxfId="55" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9914,7 +9914,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="53" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9922,7 +9922,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="51" priority="51" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9930,7 +9930,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN21">
+  <conditionalFormatting sqref="AJ21">
     <cfRule type="cellIs" dxfId="49" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9938,7 +9938,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR21">
+  <conditionalFormatting sqref="AN21">
     <cfRule type="cellIs" dxfId="47" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9946,7 +9946,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV21">
+  <conditionalFormatting sqref="AB21">
     <cfRule type="cellIs" dxfId="45" priority="45" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9954,7 +9954,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ21">
+  <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" dxfId="43" priority="43" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9962,7 +9962,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD21">
+  <conditionalFormatting sqref="P21">
     <cfRule type="cellIs" dxfId="41" priority="41" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9970,7 +9970,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH21">
+  <conditionalFormatting sqref="AV21">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9978,7 +9978,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL21">
+  <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9986,7 +9986,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP21">
+  <conditionalFormatting sqref="BH21">
     <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9994,23 +9994,23 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="BM21">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
+  <conditionalFormatting sqref="AS21">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10018,7 +10018,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+  <conditionalFormatting sqref="BA21">
     <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10026,7 +10026,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
+  <conditionalFormatting sqref="BE21">
     <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10034,7 +10034,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
+  <conditionalFormatting sqref="AG21">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10042,7 +10042,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
+  <conditionalFormatting sqref="Y21">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10050,7 +10050,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10058,7 +10058,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
+  <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10066,7 +10066,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
+  <conditionalFormatting sqref="AK21">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10074,7 +10074,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS21">
+  <conditionalFormatting sqref="AO21">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10082,7 +10082,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW21">
+  <conditionalFormatting sqref="AC21">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10090,7 +10090,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA21">
+  <conditionalFormatting sqref="M21">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10098,7 +10098,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE21">
+  <conditionalFormatting sqref="Q21">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10106,7 +10106,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI21">
+  <conditionalFormatting sqref="AW21">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10114,7 +10114,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM21">
+  <conditionalFormatting sqref="BQ21">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10122,7 +10122,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ21">
+  <conditionalFormatting sqref="BI21">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC8A33-84DE-4A4C-B762-C5B197D75090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A30CDB5-8242-44CD-8D91-94635A0B45B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
   <sheets>
     <sheet name="Defence" sheetId="1" r:id="rId1"/>
     <sheet name="Education" sheetId="2" r:id="rId2"/>
     <sheet name="Interest" sheetId="4" r:id="rId3"/>
     <sheet name="Country Comparison" sheetId="5" r:id="rId4"/>
+    <sheet name="GDP CALC" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
   <si>
     <t>Population Tax Rate</t>
   </si>
@@ -187,6 +188,21 @@
   </si>
   <si>
     <t>Corporate Income</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -620,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -666,6 +682,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,19 +712,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,6 +724,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -5620,9 +5637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268BEE6-E8C9-4F27-B43C-281F04C1F227}">
   <dimension ref="B1:BR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G25" sqref="G25"/>
+      <selection pane="topRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,246 +5668,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="35" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="35" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="35" t="s">
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="35" t="s">
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="35" t="s">
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="35" t="s">
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="35" t="s">
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="35" t="s">
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="35" t="s">
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="35" t="s">
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="37"/>
+      <c r="BP2" s="38"/>
+      <c r="BQ2" s="38"/>
+      <c r="BR2" s="39"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="42"/>
+      <c r="O3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39" t="s">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="38" t="s">
+      <c r="R3" s="42"/>
+      <c r="S3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="42"/>
+      <c r="W3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39" t="s">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="38" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39" t="s">
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="38" t="s">
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="38" t="s">
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39" t="s">
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="38" t="s">
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39" t="s">
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="38" t="s">
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39" t="s">
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="38" t="s">
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39" t="s">
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="38" t="s">
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39" t="s">
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="40"/>
-      <c r="BC3" s="38" t="s">
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="39" t="s">
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="38" t="s">
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="39"/>
-      <c r="BI3" s="39" t="s">
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="38" t="s">
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39" t="s">
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="40"/>
-      <c r="BO3" s="38" t="s">
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39" t="s">
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="40"/>
+      <c r="BR3" s="42"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -6102,10 +6119,10 @@
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="47">
         <v>1</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="22">
         <v>3.4289999999999998</v>
       </c>
@@ -6113,10 +6130,10 @@
         <f>E5/C5-1</f>
         <v>2.4289999999999998</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="47">
         <v>1</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="22">
         <v>2.8929999999999998</v>
       </c>
@@ -6124,10 +6141,10 @@
         <f>I5/G5-1</f>
         <v>1.8929999999999998</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="47">
         <v>1</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -6135,10 +6152,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="47">
         <v>1</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -6146,10 +6163,10 @@
         <f>Q5/O5-1</f>
         <v>1.8029999999999999</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="43">
         <v>2</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="44"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -6157,10 +6174,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="41">
+      <c r="W5" s="47">
         <v>2</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="44"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -6168,10 +6185,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="41">
+      <c r="AA5" s="47">
         <v>2</v>
       </c>
-      <c r="AB5" s="42"/>
+      <c r="AB5" s="44"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -6179,10 +6196,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="41">
+      <c r="AE5" s="47">
         <v>7</v>
       </c>
-      <c r="AF5" s="42"/>
+      <c r="AF5" s="44"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -6190,10 +6207,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="41">
+      <c r="AI5" s="47">
         <v>7</v>
       </c>
-      <c r="AJ5" s="42"/>
+      <c r="AJ5" s="44"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -6201,10 +6218,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="41">
+      <c r="AM5" s="47">
         <v>7</v>
       </c>
-      <c r="AN5" s="42"/>
+      <c r="AN5" s="44"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -6212,10 +6229,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="41">
+      <c r="AQ5" s="47">
         <v>10</v>
       </c>
-      <c r="AR5" s="42"/>
+      <c r="AR5" s="44"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -6223,10 +6240,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="41">
+      <c r="AU5" s="47">
         <v>15</v>
       </c>
-      <c r="AV5" s="42"/>
+      <c r="AV5" s="44"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -6234,10 +6251,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="41">
+      <c r="AY5" s="47">
         <v>20</v>
       </c>
-      <c r="AZ5" s="42"/>
+      <c r="AZ5" s="44"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -6245,10 +6262,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="41">
+      <c r="BC5" s="47">
         <v>20</v>
       </c>
-      <c r="BD5" s="42"/>
+      <c r="BD5" s="44"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -6256,10 +6273,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="41">
+      <c r="BG5" s="47">
         <v>20</v>
       </c>
-      <c r="BH5" s="42"/>
+      <c r="BH5" s="44"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -6267,167 +6284,167 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="41">
+      <c r="BK5" s="47">
         <v>30</v>
       </c>
-      <c r="BL5" s="42"/>
+      <c r="BL5" s="44"/>
       <c r="BM5" s="22">
-        <v>40.4</v>
+        <v>39.054000000000002</v>
       </c>
       <c r="BN5" s="25">
         <f>BM5/BK5-1</f>
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="BO5" s="41">
+        <v>0.30180000000000007</v>
+      </c>
+      <c r="BO5" s="47">
         <v>30</v>
       </c>
-      <c r="BP5" s="42"/>
+      <c r="BP5" s="44"/>
       <c r="BQ5" s="22">
-        <v>39.054000000000002</v>
+        <v>40.4</v>
       </c>
       <c r="BR5" s="25">
         <f>BQ5/BO5-1</f>
-        <v>0.30180000000000007</v>
+        <v>0.34666666666666668</v>
       </c>
     </row>
     <row r="6" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="33">
         <v>11</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="43">
+      <c r="G6" s="33">
         <v>17</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="43">
+      <c r="K6" s="33">
         <v>10</v>
       </c>
-      <c r="L6" s="44"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="43">
+      <c r="O6" s="33">
         <v>18</v>
       </c>
-      <c r="P6" s="44"/>
+      <c r="P6" s="34"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
       <c r="R6" s="26"/>
-      <c r="S6" s="46">
+      <c r="S6" s="45">
         <v>40</v>
       </c>
-      <c r="T6" s="44"/>
+      <c r="T6" s="34"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="43">
+      <c r="W6" s="33">
         <v>18</v>
       </c>
-      <c r="X6" s="44"/>
+      <c r="X6" s="34"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="43">
+      <c r="AA6" s="33">
         <v>18</v>
       </c>
-      <c r="AB6" s="44"/>
+      <c r="AB6" s="34"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="43">
+      <c r="AE6" s="33">
         <v>14</v>
       </c>
-      <c r="AF6" s="44"/>
+      <c r="AF6" s="34"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="43">
+      <c r="AI6" s="33">
         <v>23</v>
       </c>
-      <c r="AJ6" s="44"/>
+      <c r="AJ6" s="34"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="43">
+      <c r="AM6" s="33">
         <v>7</v>
       </c>
-      <c r="AN6" s="44"/>
+      <c r="AN6" s="34"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="43">
+      <c r="AQ6" s="33">
         <v>14</v>
       </c>
-      <c r="AR6" s="44"/>
+      <c r="AR6" s="34"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="43">
+      <c r="AU6" s="33">
         <v>12</v>
       </c>
-      <c r="AV6" s="44"/>
+      <c r="AV6" s="34"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="43">
+      <c r="AY6" s="33">
         <v>37</v>
       </c>
-      <c r="AZ6" s="44"/>
+      <c r="AZ6" s="34"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="43">
+      <c r="BC6" s="33">
         <v>30</v>
       </c>
-      <c r="BD6" s="44"/>
+      <c r="BD6" s="34"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="43">
+      <c r="BG6" s="33">
         <v>23</v>
       </c>
-      <c r="BH6" s="44"/>
+      <c r="BH6" s="34"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="43">
+      <c r="BK6" s="33">
+        <v>37</v>
+      </c>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="23">
+        <v>40</v>
+      </c>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="33">
         <v>36</v>
       </c>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="23">
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="23">
         <v>23</v>
-      </c>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="43">
-        <v>37</v>
-      </c>
-      <c r="BP6" s="44"/>
-      <c r="BQ6" s="23">
-        <v>40</v>
       </c>
       <c r="BR6" s="26"/>
     </row>
@@ -6435,106 +6452,106 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="44"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="34"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="44"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="34"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="44"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="44"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="34"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="44"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="34"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="44"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="34"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="44"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="34"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="34"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="44"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="34"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="44"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="34"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="44"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="34"/>
       <c r="BM7" s="23">
+        <v>23</v>
+      </c>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="23">
         <v>33</v>
-      </c>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="44"/>
-      <c r="BQ7" s="23">
-        <v>23</v>
       </c>
       <c r="BR7" s="26"/>
     </row>
@@ -6542,11 +6559,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -6555,11 +6572,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="35">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -6568,11 +6585,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="35">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="34"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -6581,11 +6598,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="35">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -6594,11 +6611,11 @@
         <f>Q8/O8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="S8" s="47">
+      <c r="S8" s="46">
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="34"/>
+      <c r="T8" s="36"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -6607,11 +6624,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="35">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="34"/>
+      <c r="X8" s="36"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -6620,11 +6637,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="33">
+      <c r="AA8" s="35">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="34"/>
+      <c r="AB8" s="36"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -6633,11 +6650,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="35">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="34"/>
+      <c r="AF8" s="36"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -6646,11 +6663,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AI8" s="35">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="34"/>
+      <c r="AJ8" s="36"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -6659,11 +6676,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AM8" s="35">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="34"/>
+      <c r="AN8" s="36"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -6672,11 +6689,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="35">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="34"/>
+      <c r="AR8" s="36"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -6685,11 +6702,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="33">
+      <c r="AU8" s="35">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="34"/>
+      <c r="AV8" s="36"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -6698,11 +6715,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="33">
+      <c r="AY8" s="35">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="34"/>
+      <c r="AZ8" s="36"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -6711,11 +6728,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="33">
+      <c r="BC8" s="35">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="34"/>
+      <c r="BD8" s="36"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -6724,11 +6741,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="33">
+      <c r="BG8" s="35">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="34"/>
+      <c r="BH8" s="36"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -6737,31 +6754,31 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="33">
+      <c r="BK8" s="35">
         <f>BK6</f>
-        <v>36</v>
-      </c>
-      <c r="BL8" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="BL8" s="36"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
-        <v>28</v>
+        <v>31.5</v>
       </c>
       <c r="BN8" s="27">
         <f>BM8/BK8-1</f>
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="BO8" s="33">
+        <v>-0.14864864864864868</v>
+      </c>
+      <c r="BO8" s="35">
         <f>BO6</f>
-        <v>37</v>
-      </c>
-      <c r="BP8" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="BP8" s="36"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
-        <v>31.5</v>
+        <v>28</v>
       </c>
       <c r="BR8" s="27">
         <f>BQ8/BO8-1</f>
-        <v>-0.14864864864864868</v>
+        <v>-0.22222222222222221</v>
       </c>
     </row>
     <row r="9" spans="2:70" x14ac:dyDescent="0.25">
@@ -6933,26 +6950,26 @@
         <v>2.4430000000000001</v>
       </c>
       <c r="BJ9" s="32"/>
-      <c r="BK9" s="30">
+      <c r="BK9" s="12">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="BL9" s="13">
+        <f>BK9*7</f>
+        <v>35.021000000000001</v>
+      </c>
+      <c r="BM9" s="31">
+        <v>13.776</v>
+      </c>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="30">
         <v>9.0310000000000006</v>
       </c>
-      <c r="BL9" s="31">
-        <f>BK9*7</f>
+      <c r="BP9" s="31">
+        <f>BO9*7</f>
         <v>63.217000000000006</v>
       </c>
-      <c r="BM9" s="31">
+      <c r="BQ9" s="31">
         <v>15.701000000000001</v>
-      </c>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="12">
-        <v>5.0030000000000001</v>
-      </c>
-      <c r="BP9" s="13">
-        <f>BO9*7</f>
-        <v>35.021000000000001</v>
-      </c>
-      <c r="BQ9" s="31">
-        <v>13.776</v>
       </c>
       <c r="BR9" s="32"/>
     </row>
@@ -7053,13 +7070,13 @@
       <c r="BK10" s="30"/>
       <c r="BL10" s="31"/>
       <c r="BM10" s="31">
-        <v>19.544</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="BN10" s="32"/>
       <c r="BO10" s="30"/>
       <c r="BP10" s="31"/>
       <c r="BQ10" s="31">
-        <v>6.7830000000000004</v>
+        <v>19.544</v>
       </c>
       <c r="BR10" s="32"/>
     </row>
@@ -7233,25 +7250,25 @@
       </c>
       <c r="BJ11" s="26"/>
       <c r="BK11" s="1">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="BL11" s="2">
         <f t="shared" ref="BL11:BL19" si="15">BK11*7</f>
-        <v>2.2400000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="BM11" s="2">
-        <v>2.016</v>
+        <v>6.3E-2</v>
       </c>
       <c r="BN11" s="26"/>
       <c r="BO11" s="1">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="BP11" s="2">
         <f t="shared" ref="BP11:BP19" si="16">BO11*7</f>
-        <v>0.42</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="BQ11" s="2">
-        <v>6.3E-2</v>
+        <v>2.016</v>
       </c>
       <c r="BR11" s="26"/>
     </row>
@@ -7501,35 +7518,35 @@
       </c>
       <c r="BK12" s="3">
         <f>BK9+BK11</f>
-        <v>9.3510000000000009</v>
+        <v>5.0629999999999997</v>
       </c>
       <c r="BL12" s="4">
         <f>BK12*7</f>
-        <v>65.457000000000008</v>
+        <v>35.440999999999995</v>
       </c>
       <c r="BM12" s="4">
         <f>BM9+BM10+BM11</f>
-        <v>37.261000000000003</v>
+        <v>20.622</v>
       </c>
       <c r="BN12" s="27">
         <f>BM12/BL12-1</f>
-        <v>-0.43075606886963969</v>
+        <v>-0.41813154256369733</v>
       </c>
       <c r="BO12" s="3">
         <f>BO9+BO11</f>
-        <v>5.0629999999999997</v>
+        <v>9.3510000000000009</v>
       </c>
       <c r="BP12" s="4">
         <f>BO12*7</f>
-        <v>35.440999999999995</v>
+        <v>65.457000000000008</v>
       </c>
       <c r="BQ12" s="4">
         <f>BQ9+BQ10+BQ11</f>
-        <v>20.622</v>
+        <v>37.261000000000003</v>
       </c>
       <c r="BR12" s="27">
         <f>BQ12/BP12-1</f>
-        <v>-0.41813154256369733</v>
+        <v>-0.43075606886963969</v>
       </c>
     </row>
     <row r="13" spans="2:70" x14ac:dyDescent="0.25">
@@ -7747,32 +7764,32 @@
         <v>-0.25000000000000011</v>
       </c>
       <c r="BK13" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.42</v>
       </c>
       <c r="BL13" s="13">
         <f t="shared" si="15"/>
-        <v>2.0299999999999998</v>
+        <v>2.94</v>
       </c>
       <c r="BM13" s="13">
-        <v>2.0019999999999998</v>
+        <v>1.764</v>
       </c>
       <c r="BN13" s="25">
         <f>BM13/BL13-1</f>
-        <v>-1.379310344827589E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BO13" s="12">
-        <v>0.42</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BP13" s="13">
         <f t="shared" si="16"/>
-        <v>2.94</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BQ13" s="13">
-        <v>1.764</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="BR13" s="25">
         <f>BQ13/BP13-1</f>
-        <v>-0.4</v>
+        <v>-1.379310344827589E-2</v>
       </c>
     </row>
     <row r="14" spans="2:70" x14ac:dyDescent="0.25">
@@ -7990,32 +8007,32 @@
         <v>0.92647058823529416</v>
       </c>
       <c r="BK14" s="1">
-        <v>3.2050000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="BL14" s="2">
         <f t="shared" si="15"/>
-        <v>22.435000000000002</v>
+        <v>1.8970000000000002</v>
       </c>
       <c r="BM14" s="2">
-        <v>24.765999999999998</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="BN14" s="26">
-        <f t="shared" ref="BN14:BN21" si="32">BM14/BL14-1</f>
-        <v>0.10390015600624003</v>
+        <f t="shared" ref="BN14:BN20" si="32">BM14/BL14-1</f>
+        <v>0.6051660516605164</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.27100000000000002</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="BP14" s="2">
         <f t="shared" si="16"/>
-        <v>1.8970000000000002</v>
+        <v>22.435000000000002</v>
       </c>
       <c r="BQ14" s="2">
-        <v>3.0449999999999999</v>
+        <v>24.765999999999998</v>
       </c>
       <c r="BR14" s="26">
-        <f t="shared" ref="BR14:BR20" si="33">BQ14/BP14-1</f>
-        <v>0.6051660516605164</v>
+        <f t="shared" ref="BR14:BR21" si="33">BQ14/BP14-1</f>
+        <v>0.10390015600624003</v>
       </c>
     </row>
     <row r="15" spans="2:70" x14ac:dyDescent="0.25">
@@ -8233,32 +8250,32 @@
         <v>-0.15789473684210531</v>
       </c>
       <c r="BK15" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BL15" s="2">
         <f t="shared" si="15"/>
-        <v>1.9250000000000003</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="BM15" s="2">
-        <v>1.827</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="BN15" s="26">
         <f t="shared" si="32"/>
-        <v>-5.0909090909091015E-2</v>
+        <v>-0.13571428571428579</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="BP15" s="2">
         <f t="shared" si="16"/>
-        <v>0.98000000000000009</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0.84699999999999998</v>
+        <v>1.827</v>
       </c>
       <c r="BR15" s="26">
         <f t="shared" si="33"/>
-        <v>-0.13571428571428579</v>
+        <v>-5.0909090909091015E-2</v>
       </c>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.25">
@@ -8476,32 +8493,32 @@
         <v>-1.6520894071914372E-2</v>
       </c>
       <c r="BK16" s="1">
-        <v>2.165</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="BL16" s="2">
         <f t="shared" si="15"/>
-        <v>15.155000000000001</v>
+        <v>7.2169999999999996</v>
       </c>
       <c r="BM16" s="2">
-        <v>15.202</v>
+        <v>6.7190000000000003</v>
       </c>
       <c r="BN16" s="26">
         <f t="shared" si="32"/>
-        <v>3.1012867040580705E-3</v>
+        <v>-6.9003741166689725E-2</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.0309999999999999</v>
+        <v>2.165</v>
       </c>
       <c r="BP16" s="2">
         <f t="shared" si="16"/>
-        <v>7.2169999999999996</v>
+        <v>15.155000000000001</v>
       </c>
       <c r="BQ16" s="2">
-        <v>6.7190000000000003</v>
+        <v>15.202</v>
       </c>
       <c r="BR16" s="26">
         <f t="shared" si="33"/>
-        <v>-6.9003741166689725E-2</v>
+        <v>3.1012867040580705E-3</v>
       </c>
     </row>
     <row r="17" spans="2:70" x14ac:dyDescent="0.25">
@@ -8719,32 +8736,32 @@
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="BK17" s="1">
-        <v>1.76</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BL17" s="2">
         <f t="shared" si="15"/>
-        <v>12.32</v>
+        <v>3.9200000000000004</v>
       </c>
       <c r="BM17" s="2">
-        <v>12.012</v>
+        <v>3.528</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="32"/>
-        <v>-2.5000000000000022E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.56000000000000005</v>
+        <v>1.76</v>
       </c>
       <c r="BP17" s="2">
         <f t="shared" si="16"/>
-        <v>3.9200000000000004</v>
+        <v>12.32</v>
       </c>
       <c r="BQ17" s="2">
-        <v>3.528</v>
+        <v>12.012</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="33"/>
-        <v>-0.10000000000000009</v>
+        <v>-2.5000000000000022E-2</v>
       </c>
     </row>
     <row r="18" spans="2:70" x14ac:dyDescent="0.25">
@@ -8962,32 +8979,32 @@
         <v>-8.5185185185185142E-2</v>
       </c>
       <c r="BK18" s="1">
-        <v>2.79</v>
+        <v>0.98</v>
       </c>
       <c r="BL18" s="2">
         <f t="shared" si="15"/>
-        <v>19.53</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="BM18" s="2">
-        <v>19.047000000000001</v>
+        <v>6.1950000000000003</v>
       </c>
       <c r="BN18" s="26">
         <f t="shared" si="32"/>
-        <v>-2.4731182795698969E-2</v>
+        <v>-9.6938775510203912E-2</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.98</v>
+        <v>2.79</v>
       </c>
       <c r="BP18" s="2">
         <f t="shared" si="16"/>
-        <v>6.8599999999999994</v>
+        <v>19.53</v>
       </c>
       <c r="BQ18" s="2">
-        <v>6.1950000000000003</v>
+        <v>19.047000000000001</v>
       </c>
       <c r="BR18" s="26">
         <f t="shared" si="33"/>
-        <v>-9.6938775510203912E-2</v>
+        <v>-2.4731182795698969E-2</v>
       </c>
     </row>
     <row r="19" spans="2:70" x14ac:dyDescent="0.25">
@@ -9205,32 +9222,32 @@
         <v>0.28571428571428559</v>
       </c>
       <c r="BK19" s="1">
-        <v>0.105</v>
+        <v>0.753</v>
       </c>
       <c r="BL19" s="2">
         <f t="shared" si="15"/>
-        <v>0.73499999999999999</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="BM19" s="2">
-        <v>1.544</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="BN19" s="26">
         <f t="shared" si="32"/>
-        <v>1.1006802721088436</v>
+        <v>3.8723202428381711</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.753</v>
+        <v>0.105</v>
       </c>
       <c r="BP19" s="2">
         <f t="shared" si="16"/>
-        <v>5.2709999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="BQ19" s="2">
-        <v>25.681999999999999</v>
+        <v>1.544</v>
       </c>
       <c r="BR19" s="26">
         <f t="shared" si="33"/>
-        <v>3.8723202428381711</v>
+        <v>1.1006802721088436</v>
       </c>
     </row>
     <row r="20" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9479,35 +9496,35 @@
       </c>
       <c r="BK20" s="3">
         <f>BK13+BK14+BK15+BK16+BK17+BK18+BK19</f>
-        <v>10.59</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="BL20" s="4">
         <f>BK20*7</f>
-        <v>74.13</v>
+        <v>29.085000000000001</v>
       </c>
       <c r="BM20" s="4">
         <f>BM13+BM14+BM15+BM16+BM17+BM18+BM19</f>
-        <v>76.399999999999991</v>
+        <v>47.78</v>
       </c>
       <c r="BN20" s="27">
         <f t="shared" si="32"/>
-        <v>3.0621880480237396E-2</v>
+        <v>0.64277118789754173</v>
       </c>
       <c r="BO20" s="3">
         <f>BO13+BO14+BO15+BO16+BO17+BO18+BO19</f>
-        <v>4.1550000000000002</v>
+        <v>10.59</v>
       </c>
       <c r="BP20" s="4">
         <f>BO20*7</f>
-        <v>29.085000000000001</v>
+        <v>74.13</v>
       </c>
       <c r="BQ20" s="4">
         <f>BQ13+BQ14+BQ15+BQ16+BQ17+BQ18+BQ19</f>
-        <v>47.78</v>
+        <v>76.399999999999991</v>
       </c>
       <c r="BR20" s="27">
         <f t="shared" si="33"/>
-        <v>0.64277118789754173</v>
+        <v>3.0621880480237396E-2</v>
       </c>
     </row>
     <row r="21" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9712,95 +9729,55 @@
       <c r="BK21" s="17"/>
       <c r="BL21" s="18">
         <f>BL12-BL20</f>
-        <v>-8.6729999999999876</v>
+        <v>6.3559999999999945</v>
       </c>
       <c r="BM21" s="18">
         <f>BM12-BM20</f>
-        <v>-39.138999999999989</v>
+        <v>-27.158000000000001</v>
       </c>
       <c r="BN21" s="28">
-        <f t="shared" si="32"/>
-        <v>3.5127406894961428</v>
+        <f>BM21/BL21-1</f>
+        <v>-5.2728130899937105</v>
       </c>
       <c r="BO21" s="17"/>
       <c r="BP21" s="18">
         <f>BP12-BP20</f>
-        <v>6.3559999999999945</v>
+        <v>-8.6729999999999876</v>
       </c>
       <c r="BQ21" s="18">
         <f>BQ12-BQ20</f>
-        <v>-27.158000000000001</v>
+        <v>-39.138999999999989</v>
       </c>
       <c r="BR21" s="28">
-        <f>BQ21/BP21-1</f>
-        <v>-5.2728130899937105</v>
+        <f t="shared" si="33"/>
+        <v>3.5127406894961428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
     <mergeCell ref="BK2:BN2"/>
     <mergeCell ref="BK3:BL3"/>
     <mergeCell ref="BM3:BN3"/>
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
     <mergeCell ref="AI8:AJ8"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -9825,6 +9802,21 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
@@ -9834,31 +9826,56 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
     <mergeCell ref="BO2:BR2"/>
     <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BO5:BP5"/>
     <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ3:AR3"/>
   </mergeCells>
-  <conditionalFormatting sqref="BL21">
+  <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="67" priority="99" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9978,7 +9995,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP21">
+  <conditionalFormatting sqref="BL21">
     <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9994,7 +10011,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM21">
+  <conditionalFormatting sqref="BQ21">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10114,7 +10131,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ21">
+  <conditionalFormatting sqref="BM21">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10134,4 +10151,185 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE250602-3BE2-49FD-AE46-2BB788946D1E}">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f>52*M2</f>
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>102500</v>
+      </c>
+      <c r="L4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>19430</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>1323</v>
+      </c>
+      <c r="L6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <f>34*M2</f>
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>12110</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="J9">
+        <f t="array" ref="J9:J12">MMULT(MINVERSE(C4:F7),J4:J7)</f>
+        <v>224.71491648584839</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="J10">
+        <v>3456.5739011959422</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="J11">
+        <v>-8647.5214714638969</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="J12">
+        <v>-76.46172478175265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE2B77-99CD-4978-9984-61E788091760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1904943-E2F7-4FBE-BB51-247328DE03E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     <sheet name="Support Data" sheetId="9" r:id="rId7"/>
     <sheet name="Building slots" sheetId="10" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Building slots'!$C$3:$C$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Building slots'!$D$3:$D$21</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2380,20 +2376,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2410,11 +2398,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2434,7 +2431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -8444,246 +8440,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="63" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="63" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="63" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="63" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="63" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="63" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="63" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="63" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="63" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="63" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="63" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="63" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="63" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="63" t="s">
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="65"/>
-      <c r="BK2" s="63" t="s">
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="64"/>
-      <c r="BN2" s="65"/>
-      <c r="BO2" s="63" t="s">
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="65"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="73"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="66" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="66" t="s">
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="66" t="s">
+      <c r="V3" s="66"/>
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="66" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67" t="s">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="66" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67" t="s">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="66" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="66" t="s">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67" t="s">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="66" t="s">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="66" t="s">
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67" t="s">
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="66" t="s">
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67" t="s">
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="66" t="s">
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67" t="s">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="66" t="s">
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67" t="s">
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="66" t="s">
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67" t="s">
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="66" t="s">
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67" t="s">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="68"/>
+      <c r="BR3" s="66"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8895,10 +8891,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="67">
         <v>1</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8906,10 +8902,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="67">
         <v>1</v>
       </c>
-      <c r="H5" s="70"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8917,10 +8913,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="67">
         <v>1</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8928,10 +8924,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="69">
+      <c r="O5" s="67">
         <v>1</v>
       </c>
-      <c r="P5" s="70"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8939,10 +8935,10 @@
         <f>Q5/O5-1</f>
         <v>1.8029999999999999</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="70"/>
+      <c r="T5" s="68"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8950,10 +8946,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="69">
+      <c r="W5" s="67">
         <v>2</v>
       </c>
-      <c r="X5" s="70"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8961,10 +8957,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="69">
+      <c r="AA5" s="67">
         <v>2</v>
       </c>
-      <c r="AB5" s="70"/>
+      <c r="AB5" s="68"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8972,10 +8968,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="69">
+      <c r="AE5" s="67">
         <v>7</v>
       </c>
-      <c r="AF5" s="70"/>
+      <c r="AF5" s="68"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8983,10 +8979,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="69">
+      <c r="AI5" s="67">
         <v>7</v>
       </c>
-      <c r="AJ5" s="70"/>
+      <c r="AJ5" s="68"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8994,10 +8990,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="69">
+      <c r="AM5" s="67">
         <v>7</v>
       </c>
-      <c r="AN5" s="70"/>
+      <c r="AN5" s="68"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9005,10 +9001,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="69">
+      <c r="AQ5" s="67">
         <v>10</v>
       </c>
-      <c r="AR5" s="70"/>
+      <c r="AR5" s="68"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9016,10 +9012,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="69">
+      <c r="AU5" s="67">
         <v>15</v>
       </c>
-      <c r="AV5" s="70"/>
+      <c r="AV5" s="68"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9027,10 +9023,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="69">
+      <c r="AY5" s="67">
         <v>20</v>
       </c>
-      <c r="AZ5" s="70"/>
+      <c r="AZ5" s="68"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9038,10 +9034,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="69">
+      <c r="BC5" s="67">
         <v>20</v>
       </c>
-      <c r="BD5" s="70"/>
+      <c r="BD5" s="68"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9049,10 +9045,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="69">
+      <c r="BG5" s="67">
         <v>20</v>
       </c>
-      <c r="BH5" s="70"/>
+      <c r="BH5" s="68"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9060,10 +9056,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="69">
+      <c r="BK5" s="67">
         <v>30</v>
       </c>
-      <c r="BL5" s="70"/>
+      <c r="BL5" s="68"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9071,10 +9067,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="69">
+      <c r="BO5" s="67">
         <v>30</v>
       </c>
-      <c r="BP5" s="70"/>
+      <c r="BP5" s="68"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9087,138 +9083,138 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="62">
         <v>11</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="71">
+      <c r="G6" s="62">
         <v>17</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="71">
+      <c r="K6" s="62">
         <v>10</v>
       </c>
-      <c r="L6" s="72"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="71">
+      <c r="O6" s="62">
         <v>18</v>
       </c>
-      <c r="P6" s="72"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
       <c r="R6" s="26"/>
-      <c r="S6" s="74">
+      <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="72"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="71">
+      <c r="W6" s="62">
         <v>18</v>
       </c>
-      <c r="X6" s="72"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="71">
+      <c r="AA6" s="62">
         <v>18</v>
       </c>
-      <c r="AB6" s="72"/>
+      <c r="AB6" s="63"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="71">
+      <c r="AE6" s="62">
         <v>14</v>
       </c>
-      <c r="AF6" s="72"/>
+      <c r="AF6" s="63"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="71">
+      <c r="AI6" s="62">
         <v>23</v>
       </c>
-      <c r="AJ6" s="72"/>
+      <c r="AJ6" s="63"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="71">
+      <c r="AM6" s="62">
         <v>7</v>
       </c>
-      <c r="AN6" s="72"/>
+      <c r="AN6" s="63"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="71">
+      <c r="AQ6" s="62">
         <v>14</v>
       </c>
-      <c r="AR6" s="72"/>
+      <c r="AR6" s="63"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="71">
+      <c r="AU6" s="62">
         <v>12</v>
       </c>
-      <c r="AV6" s="72"/>
+      <c r="AV6" s="63"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="71">
+      <c r="AY6" s="62">
         <v>37</v>
       </c>
-      <c r="AZ6" s="72"/>
+      <c r="AZ6" s="63"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="71">
+      <c r="BC6" s="62">
         <v>30</v>
       </c>
-      <c r="BD6" s="72"/>
+      <c r="BD6" s="63"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="71">
+      <c r="BG6" s="62">
         <v>23</v>
       </c>
-      <c r="BH6" s="72"/>
+      <c r="BH6" s="63"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="71">
+      <c r="BK6" s="62">
         <v>37</v>
       </c>
-      <c r="BL6" s="72"/>
+      <c r="BL6" s="63"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="71">
+      <c r="BO6" s="62">
         <v>36</v>
       </c>
-      <c r="BP6" s="72"/>
+      <c r="BP6" s="63"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9228,104 +9224,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="72"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="72"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="72"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="72"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="72"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="63"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="72"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="63"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="72"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="63"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="72"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="72"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="63"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="72"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="63"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="72"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="63"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="72"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="63"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="72"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="63"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="72"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="63"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9335,11 +9331,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="69">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9348,11 +9344,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="69">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9361,11 +9357,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="69">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="62"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9374,11 +9370,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="69">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="62"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9387,11 +9383,11 @@
         <f>Q8/O8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="76">
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="62"/>
+      <c r="T8" s="70"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9400,11 +9396,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="61">
+      <c r="W8" s="69">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="62"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9413,11 +9409,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="61">
+      <c r="AA8" s="69">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="62"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9426,11 +9422,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="61">
+      <c r="AE8" s="69">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="62"/>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9439,11 +9435,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="61">
+      <c r="AI8" s="69">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="62"/>
+      <c r="AJ8" s="70"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9452,11 +9448,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="61">
+      <c r="AM8" s="69">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="62"/>
+      <c r="AN8" s="70"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9465,11 +9461,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="61">
+      <c r="AQ8" s="69">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="62"/>
+      <c r="AR8" s="70"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9478,11 +9474,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="61">
+      <c r="AU8" s="69">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="62"/>
+      <c r="AV8" s="70"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9491,11 +9487,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="61">
+      <c r="AY8" s="69">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="62"/>
+      <c r="AZ8" s="70"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9504,11 +9500,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="61">
+      <c r="BC8" s="69">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="62"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9517,11 +9513,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="61">
+      <c r="BG8" s="69">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="62"/>
+      <c r="BH8" s="70"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9530,11 +9526,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="61">
+      <c r="BK8" s="69">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="62"/>
+      <c r="BL8" s="70"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9543,11 +9539,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="61">
+      <c r="BO8" s="69">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="62"/>
+      <c r="BP8" s="70"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12531,20 +12527,87 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -12569,87 +12632,20 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13099,10 +13095,10 @@
   <dimension ref="B1:AN187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13487,12 +13483,12 @@
       <c r="AH14" s="39"/>
       <c r="AI14" s="39"/>
       <c r="AJ14" s="39"/>
-      <c r="AK14" s="76" t="s">
+      <c r="AK14" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="79"/>
     </row>
     <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
@@ -13756,7 +13752,7 @@
       </c>
     </row>
     <row r="17" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="60" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="35">
@@ -14888,7 +14884,7 @@
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="35">
@@ -15758,7 +15754,7 @@
       </c>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="60" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="35">
@@ -15903,7 +15899,7 @@
       </c>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="60" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="35">
@@ -16628,7 +16624,7 @@
       </c>
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="60" t="s">
         <v>99</v>
       </c>
       <c r="C37" s="35">
@@ -17208,7 +17204,7 @@
       </c>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="60" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="35">
@@ -19673,7 +19669,7 @@
       </c>
     </row>
     <row r="58" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="60" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="35">
@@ -19818,7 +19814,7 @@
       </c>
     </row>
     <row r="59" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="60" t="s">
         <v>150</v>
       </c>
       <c r="C59" s="35">
@@ -19963,7 +19959,7 @@
       </c>
     </row>
     <row r="60" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="60" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="35">
@@ -22573,7 +22569,7 @@
       </c>
     </row>
     <row r="78" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C78" s="35">
@@ -22863,7 +22859,7 @@
       </c>
     </row>
     <row r="80" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="60" t="s">
         <v>199</v>
       </c>
       <c r="C80" s="35">
@@ -24023,7 +24019,7 @@
       </c>
     </row>
     <row r="88" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="60" t="s">
         <v>221</v>
       </c>
       <c r="C88" s="35">
@@ -25183,7 +25179,7 @@
       </c>
     </row>
     <row r="96" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="60" t="s">
         <v>238</v>
       </c>
       <c r="C96" s="35">
@@ -26343,7 +26339,7 @@
       </c>
     </row>
     <row r="104" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="60" t="s">
         <v>255</v>
       </c>
       <c r="C104" s="35">
@@ -27648,7 +27644,7 @@
       </c>
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="60" t="s">
         <v>277</v>
       </c>
       <c r="C113" s="35">
@@ -28518,7 +28514,7 @@
       </c>
     </row>
     <row r="119" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="60" t="s">
         <v>291</v>
       </c>
       <c r="C119" s="35">
@@ -29388,7 +29384,7 @@
       </c>
     </row>
     <row r="125" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="60" t="s">
         <v>303</v>
       </c>
       <c r="C125" s="35">
@@ -29678,7 +29674,7 @@
       </c>
     </row>
     <row r="127" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="60" t="s">
         <v>309</v>
       </c>
       <c r="C127" s="35">
@@ -30548,7 +30544,7 @@
       </c>
     </row>
     <row r="133" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="60" t="s">
         <v>323</v>
       </c>
       <c r="C133" s="35">
@@ -31273,7 +31269,7 @@
       </c>
     </row>
     <row r="138" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="60" t="s">
         <v>333</v>
       </c>
       <c r="C138" s="35">
@@ -32723,7 +32719,7 @@
       </c>
     </row>
     <row r="148" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="60" t="s">
         <v>355</v>
       </c>
       <c r="C148" s="35">
@@ -33158,7 +33154,7 @@
       </c>
     </row>
     <row r="151" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="60" t="s">
         <v>363</v>
       </c>
       <c r="C151" s="35">
@@ -34028,7 +34024,7 @@
       </c>
     </row>
     <row r="157" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="60" t="s">
         <v>378</v>
       </c>
       <c r="C157" s="35">
@@ -34608,7 +34604,7 @@
       </c>
     </row>
     <row r="161" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="60" t="s">
         <v>388</v>
       </c>
       <c r="C161" s="35">
@@ -34753,7 +34749,7 @@
       </c>
     </row>
     <row r="162" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="60" t="s">
         <v>390</v>
       </c>
       <c r="C162" s="35">
@@ -35768,7 +35764,7 @@
       </c>
     </row>
     <row r="169" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="60" t="s">
         <v>416</v>
       </c>
       <c r="C169" s="35">
@@ -37363,7 +37359,7 @@
       </c>
     </row>
     <row r="180" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="60" t="s">
         <v>444</v>
       </c>
       <c r="C180" s="35">
@@ -54702,11 +54698,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="79">
+      <c r="C3" s="61">
         <v>0</v>
       </c>
       <c r="D3">
@@ -54715,7 +54711,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
-      <c r="C4" s="79">
+      <c r="C4" s="61">
         <v>300000</v>
       </c>
       <c r="D4">
@@ -54724,7 +54720,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="39"/>
-      <c r="C5" s="79">
+      <c r="C5" s="61">
         <v>800000</v>
       </c>
       <c r="D5">
@@ -54733,7 +54729,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
-      <c r="C6" s="79">
+      <c r="C6" s="61">
         <v>1500000</v>
       </c>
       <c r="D6" s="39">
@@ -54742,7 +54738,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
-      <c r="C7" s="79">
+      <c r="C7" s="61">
         <v>2500000</v>
       </c>
       <c r="D7" s="39">
@@ -54751,7 +54747,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
-      <c r="C8" s="79">
+      <c r="C8" s="61">
         <v>3800000</v>
       </c>
       <c r="D8" s="39">
@@ -54760,7 +54756,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
-      <c r="C9" s="79">
+      <c r="C9" s="61">
         <v>5200000</v>
       </c>
       <c r="D9" s="39">
@@ -54769,7 +54765,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
-      <c r="C10" s="79">
+      <c r="C10" s="61">
         <v>6800000</v>
       </c>
       <c r="D10" s="39">
@@ -54778,7 +54774,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
-      <c r="C11" s="79">
+      <c r="C11" s="61">
         <v>8500000</v>
       </c>
       <c r="D11" s="39">
@@ -54787,7 +54783,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
-      <c r="C12" s="79">
+      <c r="C12" s="61">
         <v>10500000</v>
       </c>
       <c r="D12" s="39">
@@ -54796,7 +54792,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
-      <c r="C13" s="79">
+      <c r="C13" s="61">
         <v>13000000</v>
       </c>
       <c r="D13" s="39">
@@ -54805,7 +54801,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
-      <c r="C14" s="79">
+      <c r="C14" s="61">
         <v>16000000</v>
       </c>
       <c r="D14" s="39">
@@ -54814,7 +54810,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
-      <c r="C15" s="79">
+      <c r="C15" s="61">
         <v>19000000</v>
       </c>
       <c r="D15" s="39">
@@ -54823,7 +54819,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
-      <c r="C16" s="79">
+      <c r="C16" s="61">
         <v>23000000</v>
       </c>
       <c r="D16" s="39">
@@ -54832,7 +54828,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
-      <c r="C17" s="79">
+      <c r="C17" s="61">
         <v>27000000</v>
       </c>
       <c r="D17" s="39">
@@ -54841,7 +54837,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
-      <c r="C18" s="79">
+      <c r="C18" s="61">
         <v>34000000</v>
       </c>
       <c r="D18" s="39">
@@ -54850,7 +54846,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
-      <c r="C19" s="79">
+      <c r="C19" s="61">
         <v>42000000</v>
       </c>
       <c r="D19" s="39">
@@ -54859,7 +54855,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
-      <c r="C20" s="79">
+      <c r="C20" s="61">
         <v>52000000</v>
       </c>
       <c r="D20" s="39">
@@ -54868,7 +54864,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
-      <c r="C21" s="79">
+      <c r="C21" s="61">
         <v>65000000</v>
       </c>
       <c r="D21" s="39">

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1904943-E2F7-4FBE-BB51-247328DE03E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DB268-3616-450B-9254-E0E1FB09896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -2377,11 +2377,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2398,20 +2407,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8440,246 +8440,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="71" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="71" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="71" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="71" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="71" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="71" t="s">
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="71" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="71" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="71" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="71" t="s">
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="71" t="s">
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="71" t="s">
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="71" t="s">
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="73"/>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
+      <c r="BR2" s="66"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65" t="s">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64" t="s">
+      <c r="R3" s="69"/>
+      <c r="S3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="64" t="s">
+      <c r="V3" s="69"/>
+      <c r="W3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65" t="s">
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="64" t="s">
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65" t="s">
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="64" t="s">
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65" t="s">
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="64" t="s">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65" t="s">
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65" t="s">
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="64" t="s">
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65" t="s">
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65" t="s">
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="64" t="s">
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65" t="s">
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="64" t="s">
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65" t="s">
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="64" t="s">
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65" t="s">
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="66"/>
+      <c r="BR3" s="69"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8891,10 +8891,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="70">
         <v>1</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8902,10 +8902,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="70">
         <v>1</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8913,10 +8913,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="70">
         <v>1</v>
       </c>
-      <c r="L5" s="68"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8924,10 +8924,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="70">
         <v>1</v>
       </c>
-      <c r="P5" s="68"/>
+      <c r="P5" s="71"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="68"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8946,10 +8946,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="70">
         <v>2</v>
       </c>
-      <c r="X5" s="68"/>
+      <c r="X5" s="71"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8957,10 +8957,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="67">
+      <c r="AA5" s="70">
         <v>2</v>
       </c>
-      <c r="AB5" s="68"/>
+      <c r="AB5" s="71"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8968,10 +8968,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="67">
+      <c r="AE5" s="70">
         <v>7</v>
       </c>
-      <c r="AF5" s="68"/>
+      <c r="AF5" s="71"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8979,10 +8979,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="67">
+      <c r="AI5" s="70">
         <v>7</v>
       </c>
-      <c r="AJ5" s="68"/>
+      <c r="AJ5" s="71"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8990,10 +8990,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="67">
+      <c r="AM5" s="70">
         <v>7</v>
       </c>
-      <c r="AN5" s="68"/>
+      <c r="AN5" s="71"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9001,10 +9001,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="67">
+      <c r="AQ5" s="70">
         <v>10</v>
       </c>
-      <c r="AR5" s="68"/>
+      <c r="AR5" s="71"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9012,10 +9012,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="67">
+      <c r="AU5" s="70">
         <v>15</v>
       </c>
-      <c r="AV5" s="68"/>
+      <c r="AV5" s="71"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9023,10 +9023,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="67">
+      <c r="AY5" s="70">
         <v>20</v>
       </c>
-      <c r="AZ5" s="68"/>
+      <c r="AZ5" s="71"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9034,10 +9034,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="67">
+      <c r="BC5" s="70">
         <v>20</v>
       </c>
-      <c r="BD5" s="68"/>
+      <c r="BD5" s="71"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9045,10 +9045,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="67">
+      <c r="BG5" s="70">
         <v>20</v>
       </c>
-      <c r="BH5" s="68"/>
+      <c r="BH5" s="71"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9056,10 +9056,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="67">
+      <c r="BK5" s="70">
         <v>30</v>
       </c>
-      <c r="BL5" s="68"/>
+      <c r="BL5" s="71"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9067,10 +9067,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="67">
+      <c r="BO5" s="70">
         <v>30</v>
       </c>
-      <c r="BP5" s="68"/>
+      <c r="BP5" s="71"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9083,34 +9083,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="72">
         <v>11</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="62">
+      <c r="G6" s="72">
         <v>17</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="62">
+      <c r="K6" s="72">
         <v>10</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="62">
+      <c r="O6" s="72">
         <v>18</v>
       </c>
-      <c r="P6" s="63"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9118,103 +9118,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="63"/>
+      <c r="T6" s="73"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="62">
+      <c r="W6" s="72">
         <v>18</v>
       </c>
-      <c r="X6" s="63"/>
+      <c r="X6" s="73"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="62">
+      <c r="AA6" s="72">
         <v>18</v>
       </c>
-      <c r="AB6" s="63"/>
+      <c r="AB6" s="73"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="62">
+      <c r="AE6" s="72">
         <v>14</v>
       </c>
-      <c r="AF6" s="63"/>
+      <c r="AF6" s="73"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="62">
+      <c r="AI6" s="72">
         <v>23</v>
       </c>
-      <c r="AJ6" s="63"/>
+      <c r="AJ6" s="73"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="62">
+      <c r="AM6" s="72">
         <v>7</v>
       </c>
-      <c r="AN6" s="63"/>
+      <c r="AN6" s="73"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="62">
+      <c r="AQ6" s="72">
         <v>14</v>
       </c>
-      <c r="AR6" s="63"/>
+      <c r="AR6" s="73"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="62">
+      <c r="AU6" s="72">
         <v>12</v>
       </c>
-      <c r="AV6" s="63"/>
+      <c r="AV6" s="73"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="62">
+      <c r="AY6" s="72">
         <v>37</v>
       </c>
-      <c r="AZ6" s="63"/>
+      <c r="AZ6" s="73"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="62">
+      <c r="BC6" s="72">
         <v>30</v>
       </c>
-      <c r="BD6" s="63"/>
+      <c r="BD6" s="73"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="62">
+      <c r="BG6" s="72">
         <v>23</v>
       </c>
-      <c r="BH6" s="63"/>
+      <c r="BH6" s="73"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="62">
+      <c r="BK6" s="72">
         <v>37</v>
       </c>
-      <c r="BL6" s="63"/>
+      <c r="BL6" s="73"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="62">
+      <c r="BO6" s="72">
         <v>36</v>
       </c>
-      <c r="BP6" s="63"/>
+      <c r="BP6" s="73"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9224,104 +9224,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="63"/>
+      <c r="T7" s="73"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="63"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="63"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="63"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="63"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="63"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="73"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="73"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="63"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="73"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="63"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="73"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="63"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="73"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="63"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="73"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="63"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="73"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9331,11 +9331,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="62">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9344,11 +9344,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="62">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9357,11 +9357,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="62">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9370,11 +9370,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="62">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="70"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9387,7 +9387,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="70"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9396,11 +9396,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="62">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="70"/>
+      <c r="X8" s="63"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9409,11 +9409,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AA8" s="62">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="70"/>
+      <c r="AB8" s="63"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9422,11 +9422,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="69">
+      <c r="AE8" s="62">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="70"/>
+      <c r="AF8" s="63"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9435,11 +9435,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="69">
+      <c r="AI8" s="62">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="70"/>
+      <c r="AJ8" s="63"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9448,11 +9448,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="AM8" s="62">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="70"/>
+      <c r="AN8" s="63"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9461,11 +9461,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="69">
+      <c r="AQ8" s="62">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="70"/>
+      <c r="AR8" s="63"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9474,11 +9474,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="69">
+      <c r="AU8" s="62">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="70"/>
+      <c r="AV8" s="63"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9487,11 +9487,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="69">
+      <c r="AY8" s="62">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="70"/>
+      <c r="AZ8" s="63"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9500,11 +9500,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="69">
+      <c r="BC8" s="62">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="70"/>
+      <c r="BD8" s="63"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9513,11 +9513,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="69">
+      <c r="BG8" s="62">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="70"/>
+      <c r="BH8" s="63"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9526,11 +9526,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="69">
+      <c r="BK8" s="62">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="70"/>
+      <c r="BL8" s="63"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9539,11 +9539,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="69">
+      <c r="BO8" s="62">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="70"/>
+      <c r="BP8" s="63"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12527,15 +12527,92 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G5:H5"/>
@@ -12560,92 +12637,15 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13095,10 +13095,10 @@
   <dimension ref="B1:AN187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
+      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14594,7 +14594,7 @@
       </c>
     </row>
     <row r="23" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="60" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="35">
@@ -15029,7 +15029,7 @@
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="60" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="35">
@@ -22424,7 +22424,7 @@
       </c>
     </row>
     <row r="77" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="60" t="s">
         <v>192</v>
       </c>
       <c r="C77" s="35">
@@ -36924,7 +36924,7 @@
       </c>
     </row>
     <row r="177" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C177" s="35">

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DB268-3616-450B-9254-E0E1FB09896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085796E-FE9A-402B-A422-1A4A4940C462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="507">
   <si>
     <t>Population Tax Rate</t>
   </si>
@@ -1700,6 +1700,9 @@
   <si>
     <t>Expense/Income</t>
   </si>
+  <si>
+    <t>Syria</t>
+  </si>
 </sst>
 </file>
 
@@ -2377,20 +2380,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2407,11 +2401,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8440,246 +8443,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="64" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="64" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="64" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="64" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="64" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="64" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="64" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="64" t="s">
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="64" t="s">
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="66"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="73"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="67" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="67" t="s">
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="67" t="s">
+      <c r="V3" s="66"/>
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="67" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68" t="s">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="67" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68" t="s">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="67" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="67" t="s">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68" t="s">
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="67" t="s">
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68" t="s">
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="67" t="s">
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68" t="s">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="67" t="s">
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68" t="s">
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="67" t="s">
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68" t="s">
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68" t="s">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="69"/>
+      <c r="BR3" s="66"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8891,10 +8894,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71"/>
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8902,10 +8905,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="70">
-        <v>1</v>
-      </c>
-      <c r="H5" s="71"/>
+      <c r="G5" s="67">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8913,10 +8916,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="70">
-        <v>1</v>
-      </c>
-      <c r="L5" s="71"/>
+      <c r="K5" s="67">
+        <v>1</v>
+      </c>
+      <c r="L5" s="68"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8924,10 +8927,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="70">
-        <v>1</v>
-      </c>
-      <c r="P5" s="71"/>
+      <c r="O5" s="67">
+        <v>1</v>
+      </c>
+      <c r="P5" s="68"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8938,7 +8941,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="71"/>
+      <c r="T5" s="68"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8946,10 +8949,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W5" s="67">
         <v>2</v>
       </c>
-      <c r="X5" s="71"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8957,10 +8960,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="67">
         <v>2</v>
       </c>
-      <c r="AB5" s="71"/>
+      <c r="AB5" s="68"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8968,10 +8971,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="67">
         <v>7</v>
       </c>
-      <c r="AF5" s="71"/>
+      <c r="AF5" s="68"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8979,10 +8982,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="67">
         <v>7</v>
       </c>
-      <c r="AJ5" s="71"/>
+      <c r="AJ5" s="68"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8990,10 +8993,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="70">
+      <c r="AM5" s="67">
         <v>7</v>
       </c>
-      <c r="AN5" s="71"/>
+      <c r="AN5" s="68"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9001,10 +9004,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="70">
+      <c r="AQ5" s="67">
         <v>10</v>
       </c>
-      <c r="AR5" s="71"/>
+      <c r="AR5" s="68"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9012,10 +9015,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="70">
+      <c r="AU5" s="67">
         <v>15</v>
       </c>
-      <c r="AV5" s="71"/>
+      <c r="AV5" s="68"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9023,10 +9026,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="67">
         <v>20</v>
       </c>
-      <c r="AZ5" s="71"/>
+      <c r="AZ5" s="68"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9034,10 +9037,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="70">
+      <c r="BC5" s="67">
         <v>20</v>
       </c>
-      <c r="BD5" s="71"/>
+      <c r="BD5" s="68"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9045,10 +9048,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="70">
+      <c r="BG5" s="67">
         <v>20</v>
       </c>
-      <c r="BH5" s="71"/>
+      <c r="BH5" s="68"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9056,10 +9059,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="70">
+      <c r="BK5" s="67">
         <v>30</v>
       </c>
-      <c r="BL5" s="71"/>
+      <c r="BL5" s="68"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9067,10 +9070,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="70">
+      <c r="BO5" s="67">
         <v>30</v>
       </c>
-      <c r="BP5" s="71"/>
+      <c r="BP5" s="68"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9083,34 +9086,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="62">
         <v>11</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="72">
+      <c r="G6" s="62">
         <v>17</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="72">
+      <c r="K6" s="62">
         <v>10</v>
       </c>
-      <c r="L6" s="73"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="72">
+      <c r="O6" s="62">
         <v>18</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9118,103 +9121,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="73"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="72">
+      <c r="W6" s="62">
         <v>18</v>
       </c>
-      <c r="X6" s="73"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="72">
+      <c r="AA6" s="62">
         <v>18</v>
       </c>
-      <c r="AB6" s="73"/>
+      <c r="AB6" s="63"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="72">
+      <c r="AE6" s="62">
         <v>14</v>
       </c>
-      <c r="AF6" s="73"/>
+      <c r="AF6" s="63"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="72">
+      <c r="AI6" s="62">
         <v>23</v>
       </c>
-      <c r="AJ6" s="73"/>
+      <c r="AJ6" s="63"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="72">
+      <c r="AM6" s="62">
         <v>7</v>
       </c>
-      <c r="AN6" s="73"/>
+      <c r="AN6" s="63"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="72">
+      <c r="AQ6" s="62">
         <v>14</v>
       </c>
-      <c r="AR6" s="73"/>
+      <c r="AR6" s="63"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="72">
+      <c r="AU6" s="62">
         <v>12</v>
       </c>
-      <c r="AV6" s="73"/>
+      <c r="AV6" s="63"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="72">
+      <c r="AY6" s="62">
         <v>37</v>
       </c>
-      <c r="AZ6" s="73"/>
+      <c r="AZ6" s="63"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="72">
+      <c r="BC6" s="62">
         <v>30</v>
       </c>
-      <c r="BD6" s="73"/>
+      <c r="BD6" s="63"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="72">
+      <c r="BG6" s="62">
         <v>23</v>
       </c>
-      <c r="BH6" s="73"/>
+      <c r="BH6" s="63"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="72">
+      <c r="BK6" s="62">
         <v>37</v>
       </c>
-      <c r="BL6" s="73"/>
+      <c r="BL6" s="63"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="72">
+      <c r="BO6" s="62">
         <v>36</v>
       </c>
-      <c r="BP6" s="73"/>
+      <c r="BP6" s="63"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9224,104 +9227,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="73"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="73"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="63"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="73"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="63"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="73"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="63"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="73"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="73"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="63"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="73"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="63"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="73"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="63"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="73"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="63"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="73"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="63"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="73"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="63"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9331,11 +9334,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="69">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9344,11 +9347,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="69">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9357,11 +9360,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="69">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9370,11 +9373,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="69">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="63"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9387,7 +9390,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="63"/>
+      <c r="T8" s="70"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9396,11 +9399,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="62">
+      <c r="W8" s="69">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="63"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9409,11 +9412,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="62">
+      <c r="AA8" s="69">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="63"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9422,11 +9425,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="62">
+      <c r="AE8" s="69">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="63"/>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9435,11 +9438,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="62">
+      <c r="AI8" s="69">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="63"/>
+      <c r="AJ8" s="70"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9448,11 +9451,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="62">
+      <c r="AM8" s="69">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="63"/>
+      <c r="AN8" s="70"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9461,11 +9464,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="62">
+      <c r="AQ8" s="69">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="63"/>
+      <c r="AR8" s="70"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9474,11 +9477,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="62">
+      <c r="AU8" s="69">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="63"/>
+      <c r="AV8" s="70"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9487,11 +9490,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="62">
+      <c r="AY8" s="69">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="63"/>
+      <c r="AZ8" s="70"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9500,11 +9503,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="62">
+      <c r="BC8" s="69">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="63"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9513,11 +9516,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="62">
+      <c r="BG8" s="69">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="63"/>
+      <c r="BH8" s="70"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9526,11 +9529,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="62">
+      <c r="BK8" s="69">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="63"/>
+      <c r="BL8" s="70"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9539,11 +9542,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="62">
+      <c r="BO8" s="69">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="63"/>
+      <c r="BP8" s="70"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12527,20 +12530,87 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -12565,87 +12635,20 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13092,13 +13095,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D9EFE-8FC7-4B01-807E-922034333148}">
-  <dimension ref="B1:AN187"/>
+  <dimension ref="B1:AN188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24744,7 +24747,7 @@
       </c>
     </row>
     <row r="93" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="60" t="s">
         <v>230</v>
       </c>
       <c r="C93" s="35">
@@ -25034,7 +25037,7 @@
       </c>
     </row>
     <row r="95" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="60" t="s">
         <v>236</v>
       </c>
       <c r="C95" s="35">
@@ -25614,7 +25617,7 @@
       </c>
     </row>
     <row r="99" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="60" t="s">
         <v>243</v>
       </c>
       <c r="C99" s="35">
@@ -29394,7 +29397,7 @@
         <v>0.38728249927285102</v>
       </c>
       <c r="E125" s="35">
-        <f t="shared" ref="E125:E172" si="82">D125/100*C125</f>
+        <f t="shared" ref="E125:E173" si="82">D125/100*C125</f>
         <v>57458693.180297092</v>
       </c>
       <c r="F125" s="34">
@@ -32358,7 +32361,7 @@
         <v>0.89394825379958098</v>
       </c>
       <c r="W145" s="35">
-        <f t="shared" ref="W145:W176" si="83">V145/100*U145</f>
+        <f t="shared" ref="W145:W177" si="83">V145/100*U145</f>
         <v>554713716.25954247</v>
       </c>
       <c r="X145" s="34">
@@ -32370,7 +32373,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="34">
-        <f t="shared" ref="Z145:Z176" si="84">U145-Y145</f>
+        <f t="shared" ref="Z145:Z177" si="84">U145-Y145</f>
         <v>62052105801.630295</v>
       </c>
       <c r="AA145" s="37">
@@ -32443,60 +32446,60 @@
         <v>3040143002.0130162</v>
       </c>
       <c r="F146" s="34">
-        <f t="shared" ref="F146:F187" si="85">ROUND(E146/$C$6,0)</f>
+        <f t="shared" ref="F146:F188" si="85">ROUND(E146/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="G146" s="34">
-        <f t="shared" ref="G146:G187" si="86">F146*$C$6*$C$8</f>
+        <f t="shared" ref="G146:G188" si="86">F146*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="H146" s="34">
-        <f t="shared" ref="H146:H187" si="87">C146-G146</f>
+        <f t="shared" ref="H146:H188" si="87">C146-G146</f>
         <v>155841897555.6507</v>
       </c>
       <c r="I146" s="37">
         <v>54.027488592566343</v>
       </c>
       <c r="J146" s="39">
-        <f t="shared" ref="J146:J187" si="88">I146/(I146+L146)*H146*$F$7</f>
+        <f t="shared" ref="J146:J188" si="88">I146/(I146+L146)*H146*$F$7</f>
         <v>76025601024.445969</v>
       </c>
       <c r="K146" s="39">
-        <f t="shared" ref="K146:K187" si="89">ROUND(J146/$F$9,0)</f>
+        <f t="shared" ref="K146:K188" si="89">ROUND(J146/$F$9,0)</f>
         <v>2</v>
       </c>
       <c r="L146" s="39">
         <v>29.034133699552562</v>
       </c>
       <c r="M146" s="39">
-        <f t="shared" ref="M146:M187" si="90">L146/(I146+L146)*H146*(2-$F$7)</f>
+        <f t="shared" ref="M146:M188" si="90">L146/(I146+L146)*H146*(2-$F$7)</f>
         <v>68093036903.820114</v>
       </c>
       <c r="N146" s="39">
-        <f t="shared" ref="N146:N187" si="91">ROUND(M146/$F$8,0)</f>
+        <f t="shared" ref="N146:N188" si="91">ROUND(M146/$F$8,0)</f>
         <v>3</v>
       </c>
       <c r="O146" s="49">
-        <f t="shared" ref="O146:O187" si="92">F146</f>
+        <f t="shared" ref="O146:O188" si="92">F146</f>
         <v>1</v>
       </c>
       <c r="P146" s="50">
-        <f t="shared" ref="P146:P187" si="93">N146</f>
+        <f t="shared" ref="P146:P188" si="93">N146</f>
         <v>3</v>
       </c>
       <c r="Q146" s="50">
-        <f t="shared" ref="Q146:Q187" si="94">K146</f>
+        <f t="shared" ref="Q146:Q188" si="94">K146</f>
         <v>2</v>
       </c>
       <c r="R146" s="51">
-        <f t="shared" ref="R146:R187" si="95">O146+P146+Q146</f>
+        <f t="shared" ref="R146:R188" si="95">O146+P146+Q146</f>
         <v>6</v>
       </c>
       <c r="T146" s="39">
         <v>393259049121.62598</v>
       </c>
       <c r="U146" s="39">
-        <f t="shared" ref="U146:U187" si="96">(T146-C146)*$U$11+C146</f>
+        <f t="shared" ref="U146:U188" si="96">(T146-C146)*$U$11+C146</f>
         <v>260450304392.39728</v>
       </c>
       <c r="V146" s="35">
@@ -32507,11 +32510,11 @@
         <v>3245100890.1077366</v>
       </c>
       <c r="X146" s="34">
-        <f t="shared" ref="X146:X187" si="97">ROUND(W146/$C$6,0)</f>
+        <f t="shared" ref="X146:X188" si="97">ROUND(W146/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="Y146" s="34">
-        <f t="shared" ref="Y146:Y187" si="98">X146*$C$6*$C$8</f>
+        <f t="shared" ref="Y146:Y188" si="98">X146*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="Z146" s="34">
@@ -32522,54 +32525,54 @@
         <v>53.928333156489416</v>
       </c>
       <c r="AB146" s="39">
-        <f t="shared" ref="AB146:AB187" si="99">AA146/(AA146+AD146)*Z146*$F$7</f>
+        <f t="shared" ref="AB146:AB188" si="99">AA146/(AA146+AD146)*Z146*$F$7</f>
         <v>116913370864.92297</v>
       </c>
       <c r="AC146" s="39">
-        <f t="shared" ref="AC146:AC187" si="100">ROUND(AB146/$F$9,0)</f>
+        <f t="shared" ref="AC146:AC188" si="100">ROUND(AB146/$F$9,0)</f>
         <v>3</v>
       </c>
       <c r="AD146" s="39">
         <v>31.29788412314732</v>
       </c>
       <c r="AE146" s="39">
-        <f t="shared" ref="AE146:AE187" si="101">AD146/(AA146+AD146)*Z146*(2-$F$7)</f>
+        <f t="shared" ref="AE146:AE188" si="101">AD146/(AA146+AD146)*Z146*(2-$F$7)</f>
         <v>113086539103.62848</v>
       </c>
       <c r="AF146" s="39">
-        <f t="shared" ref="AF146:AF187" si="102">ROUND(AE146/$F$8,0)</f>
+        <f t="shared" ref="AF146:AF188" si="102">ROUND(AE146/$F$8,0)</f>
         <v>5</v>
       </c>
       <c r="AG146" s="49">
-        <f t="shared" ref="AG146:AG187" si="103">X146</f>
+        <f t="shared" ref="AG146:AG188" si="103">X146</f>
         <v>1</v>
       </c>
       <c r="AH146" s="50">
-        <f t="shared" ref="AH146:AH187" si="104">AF146</f>
+        <f t="shared" ref="AH146:AH188" si="104">AF146</f>
         <v>5</v>
       </c>
       <c r="AI146" s="50">
-        <f t="shared" ref="AI146:AI187" si="105">AC146</f>
+        <f t="shared" ref="AI146:AI188" si="105">AC146</f>
         <v>3</v>
       </c>
       <c r="AJ146" s="51">
-        <f t="shared" ref="AJ146:AJ187" si="106">AG146+AH146+AI146</f>
+        <f t="shared" ref="AJ146:AJ188" si="106">AG146+AH146+AI146</f>
         <v>9</v>
       </c>
       <c r="AK146" s="49">
-        <f t="shared" ref="AK146:AK187" si="107">AG146-O146</f>
+        <f t="shared" ref="AK146:AK188" si="107">AG146-O146</f>
         <v>0</v>
       </c>
       <c r="AL146" s="50">
-        <f t="shared" ref="AL146:AL187" si="108">AH146-P146</f>
+        <f t="shared" ref="AL146:AL188" si="108">AH146-P146</f>
         <v>2</v>
       </c>
       <c r="AM146" s="50">
-        <f t="shared" ref="AM146:AM187" si="109">AI146-Q146</f>
+        <f t="shared" ref="AM146:AM188" si="109">AI146-Q146</f>
         <v>1</v>
       </c>
       <c r="AN146" s="51">
-        <f t="shared" ref="AN146:AN187" si="110">AJ146-R146</f>
+        <f t="shared" ref="AN146:AN188" si="110">AJ146-R146</f>
         <v>3</v>
       </c>
     </row>
@@ -35908,164 +35911,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B170" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="C170" s="35">
-        <v>7785690554.8159294</v>
-      </c>
-      <c r="D170" s="35">
-        <v>0.59817453250222596</v>
-      </c>
-      <c r="E170" s="35">
-        <f t="shared" si="82"/>
-        <v>46572018.078340143</v>
+    <row r="170" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="C170" s="39">
+        <v>25124297325</v>
+      </c>
+      <c r="D170" s="39">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="E170" s="39">
+        <f t="shared" ref="E170" si="111">D170/100*C170</f>
+        <v>1370279176.1055</v>
       </c>
       <c r="F170" s="34">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" ref="F170" si="112">ROUND(E170/$C$6,0)</f>
+        <v>1</v>
       </c>
       <c r="G170" s="34">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" ref="G170" si="113">F170*$C$6*$C$8</f>
+        <v>14096578622.930536</v>
       </c>
       <c r="H170" s="34">
-        <f t="shared" si="87"/>
-        <v>7785690554.8159294</v>
-      </c>
-      <c r="I170" s="37">
-        <v>31.482621592880726</v>
+        <f t="shared" ref="H170" si="114">C170-G170</f>
+        <v>11027718702.069464</v>
+      </c>
+      <c r="I170" s="39">
+        <v>49</v>
       </c>
       <c r="J170" s="39">
-        <f t="shared" si="88"/>
-        <v>2753678909.1322684</v>
+        <f t="shared" ref="J170" si="115">I170/(I170+L170)*H170*$F$7</f>
+        <v>6332322848.4539499</v>
       </c>
       <c r="K170" s="39">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="K170" si="116">ROUND(J170/$F$9,0)</f>
         <v>0</v>
       </c>
       <c r="L170" s="39">
-        <v>35.277326915542616</v>
+        <v>15</v>
       </c>
       <c r="M170" s="39">
-        <f t="shared" si="90"/>
-        <v>5142648344.9661293</v>
+        <f t="shared" ref="M170" si="117">L170/(I170+L170)*H170*(2-$F$7)</f>
+        <v>3230776963.4969134</v>
       </c>
       <c r="N170" s="39">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="N170" si="118">ROUND(M170/$F$8,0)</f>
         <v>0</v>
       </c>
       <c r="O170" s="49">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f t="shared" ref="O170" si="119">F170</f>
+        <v>1</v>
       </c>
       <c r="P170" s="50">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="P170" si="120">N170</f>
         <v>0</v>
       </c>
       <c r="Q170" s="50">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="Q170" si="121">K170</f>
         <v>0</v>
       </c>
       <c r="R170" s="51">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="T170" s="39">
-        <v>27435856244.302242</v>
+        <f t="shared" ref="R170" si="122">O170+P170+Q170</f>
+        <v>1</v>
       </c>
       <c r="U170" s="39">
-        <f t="shared" si="96"/>
-        <v>15749902708.764732</v>
+        <v>73150307990</v>
       </c>
       <c r="V170" s="39">
-        <v>0.59817453250222596</v>
-      </c>
-      <c r="W170" s="35">
-        <f t="shared" si="83"/>
-        <v>94211906.897708848</v>
+        <v>5</v>
+      </c>
+      <c r="W170" s="39">
+        <f t="shared" ref="W170" si="123">V170/100*U170</f>
+        <v>3657515399.5</v>
       </c>
       <c r="X170" s="34">
-        <f t="shared" si="97"/>
-        <v>0</v>
+        <f t="shared" ref="X170" si="124">ROUND(W170/$C$6,0)</f>
+        <v>2</v>
       </c>
       <c r="Y170" s="34">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" ref="Y170" si="125">X170*$C$6*$C$8</f>
+        <v>28193157245.861073</v>
       </c>
       <c r="Z170" s="34">
-        <f t="shared" si="84"/>
-        <v>15749902708.764732</v>
-      </c>
-      <c r="AA170" s="37">
-        <v>41.444108919304021</v>
+        <f t="shared" ref="Z170" si="126">U170-Y170</f>
+        <v>44957150744.138931</v>
+      </c>
+      <c r="AA170" s="39">
+        <v>49</v>
       </c>
       <c r="AB170" s="39">
-        <f t="shared" si="99"/>
-        <v>7152299204.6999893</v>
+        <f t="shared" ref="AB170" si="127">AA170/(AA170+AD170)*Z170*$F$7</f>
+        <v>25815238903.861027</v>
       </c>
       <c r="AC170" s="39">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f t="shared" ref="AC170" si="128">ROUND(AB170/$F$9,0)</f>
+        <v>1</v>
       </c>
       <c r="AD170" s="39">
-        <v>27.003183131364629</v>
+        <v>15</v>
       </c>
       <c r="AE170" s="39">
-        <f t="shared" si="101"/>
-        <v>7766879711.4559345</v>
+        <f t="shared" ref="AE170" si="129">AD170/(AA170+AD170)*Z170*(2-$F$7)</f>
+        <v>13171040257.071953</v>
       </c>
       <c r="AF170" s="39">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f t="shared" ref="AF170" si="130">ROUND(AE170/$F$8,0)</f>
+        <v>1</v>
       </c>
       <c r="AG170" s="49">
-        <f t="shared" si="103"/>
-        <v>0</v>
+        <f t="shared" ref="AG170" si="131">X170</f>
+        <v>2</v>
       </c>
       <c r="AH170" s="50">
-        <f t="shared" si="104"/>
-        <v>0</v>
+        <f t="shared" ref="AH170" si="132">AF170</f>
+        <v>1</v>
       </c>
       <c r="AI170" s="50">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f t="shared" ref="AI170" si="133">AC170</f>
+        <v>1</v>
       </c>
       <c r="AJ170" s="51">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f t="shared" ref="AJ170" si="134">AG170+AH170+AI170</f>
+        <v>4</v>
       </c>
       <c r="AK170" s="49">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f t="shared" ref="AK170" si="135">AG170-O170</f>
+        <v>1</v>
       </c>
       <c r="AL170" s="50">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f t="shared" ref="AL170" si="136">AH170-P170</f>
+        <v>1</v>
       </c>
       <c r="AM170" s="50">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <f t="shared" ref="AM170" si="137">AI170-Q170</f>
+        <v>1</v>
       </c>
       <c r="AN170" s="51">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f t="shared" ref="AN170" si="138">AJ170-R170</f>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B171" s="35" t="s">
-        <v>24</v>
+        <v>420</v>
       </c>
       <c r="C171" s="35">
-        <v>45875932293.41539</v>
+        <v>7785690554.8159294</v>
       </c>
       <c r="D171" s="35">
-        <v>1.4872640120632099</v>
+        <v>0.59817453250222596</v>
       </c>
       <c r="E171" s="35">
         <f t="shared" si="82"/>
-        <v>682296231.19845152</v>
+        <v>46572018.078340143</v>
       </c>
       <c r="F171" s="34">
         <f t="shared" si="85"/>
@@ -36077,29 +36076,29 @@
       </c>
       <c r="H171" s="34">
         <f t="shared" si="87"/>
-        <v>45875932293.41539</v>
+        <v>7785690554.8159294</v>
       </c>
       <c r="I171" s="37">
-        <v>49.082127701205771</v>
+        <v>31.482621592880726</v>
       </c>
       <c r="J171" s="39">
         <f t="shared" si="88"/>
-        <v>24730403339.663052</v>
+        <v>2753678909.1322684</v>
       </c>
       <c r="K171" s="39">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171" s="39">
-        <v>19.204921734801207</v>
+        <v>35.277326915542616</v>
       </c>
       <c r="M171" s="39">
         <f t="shared" si="90"/>
-        <v>16127576467.330816</v>
+        <v>5142648344.9661293</v>
       </c>
       <c r="N171" s="39">
         <f t="shared" si="91"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O171" s="49">
         <f t="shared" si="92"/>
@@ -36107,29 +36106,29 @@
       </c>
       <c r="P171" s="50">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q171" s="50">
         <f t="shared" si="94"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R171" s="51">
         <f t="shared" si="95"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T171" s="39">
-        <v>134274523119.76755</v>
+        <v>27435856244.302242</v>
       </c>
       <c r="U171" s="39">
         <f t="shared" si="96"/>
-        <v>81703881155.335922</v>
-      </c>
-      <c r="V171" s="35">
-        <v>1.17937695928482</v>
+        <v>15749902708.764732</v>
+      </c>
+      <c r="V171" s="39">
+        <v>0.59817453250222596</v>
       </c>
       <c r="W171" s="35">
         <f t="shared" si="83"/>
-        <v>963596749.18748391</v>
+        <v>94211906.897708848</v>
       </c>
       <c r="X171" s="34">
         <f t="shared" si="97"/>
@@ -36141,29 +36140,29 @@
       </c>
       <c r="Z171" s="34">
         <f t="shared" si="84"/>
-        <v>81703881155.335922</v>
+        <v>15749902708.764732</v>
       </c>
       <c r="AA171" s="37">
-        <v>37.922619843201787</v>
+        <v>41.444108919304021</v>
       </c>
       <c r="AB171" s="39">
         <f t="shared" si="99"/>
-        <v>36873053504.021599</v>
+        <v>7152299204.6999893</v>
       </c>
       <c r="AC171" s="39">
         <f t="shared" si="100"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD171" s="39">
-        <v>25.099524995508332</v>
+        <v>27.003183131364629</v>
       </c>
       <c r="AE171" s="39">
         <f t="shared" si="101"/>
-        <v>40674762270.800568</v>
+        <v>7766879711.4559345</v>
       </c>
       <c r="AF171" s="39">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG171" s="49">
         <f t="shared" si="103"/>
@@ -36171,15 +36170,15 @@
       </c>
       <c r="AH171" s="50">
         <f t="shared" si="104"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI171" s="50">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ171" s="51">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK171" s="49">
         <f t="shared" si="107"/>
@@ -36187,7 +36186,7 @@
       </c>
       <c r="AL171" s="50">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM171" s="50">
         <f t="shared" si="109"/>
@@ -36195,312 +36194,312 @@
       </c>
       <c r="AN171" s="51">
         <f t="shared" si="110"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B172" s="35" t="s">
-        <v>423</v>
+        <v>24</v>
       </c>
       <c r="C172" s="35">
-        <v>618155177738.44031</v>
+        <v>45875932293.41539</v>
       </c>
       <c r="D172" s="35">
-        <v>1.53269984337959</v>
+        <v>1.4872640120632099</v>
       </c>
       <c r="E172" s="35">
         <f t="shared" si="82"/>
-        <v>9474463441.0398998</v>
+        <v>682296231.19845152</v>
       </c>
       <c r="F172" s="34">
         <f t="shared" si="85"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G172" s="34">
         <f t="shared" si="86"/>
-        <v>56386314491.722145</v>
+        <v>0</v>
       </c>
       <c r="H172" s="34">
         <f t="shared" si="87"/>
-        <v>561768863246.71814</v>
+        <v>45875932293.41539</v>
       </c>
       <c r="I172" s="37">
-        <v>54.83074349779676</v>
+        <v>49.082127701205771</v>
       </c>
       <c r="J172" s="39">
         <f t="shared" si="88"/>
-        <v>252476666539.38107</v>
+        <v>24730403339.663052</v>
       </c>
       <c r="K172" s="39">
         <f t="shared" si="89"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L172" s="39">
-        <v>36.669408381362651</v>
+        <v>19.204921734801207</v>
       </c>
       <c r="M172" s="39">
         <f t="shared" si="90"/>
-        <v>281416634826.09595</v>
+        <v>16127576467.330816</v>
       </c>
       <c r="N172" s="39">
         <f t="shared" si="91"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O172" s="49">
         <f t="shared" si="92"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P172" s="50">
         <f t="shared" si="93"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q172" s="50">
         <f t="shared" si="94"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R172" s="51">
         <f t="shared" si="95"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T172" s="39">
-        <v>1205674840385.1003</v>
+        <v>134274523119.76755</v>
       </c>
       <c r="U172" s="39">
         <f t="shared" si="96"/>
-        <v>856276897009.13159</v>
+        <v>81703881155.335922</v>
       </c>
       <c r="V172" s="35">
-        <v>1.58392213718507</v>
+        <v>1.17937695928482</v>
       </c>
       <c r="W172" s="35">
         <f t="shared" si="83"/>
-        <v>13562759327.329039</v>
+        <v>963596749.18748391</v>
       </c>
       <c r="X172" s="34">
         <f t="shared" si="97"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y172" s="34">
         <f t="shared" si="98"/>
-        <v>84579471737.583221</v>
+        <v>0</v>
       </c>
       <c r="Z172" s="34">
         <f t="shared" si="84"/>
-        <v>771697425271.54834</v>
+        <v>81703881155.335922</v>
       </c>
       <c r="AA172" s="37">
-        <v>56.545966884427656</v>
+        <v>37.922619843201787</v>
       </c>
       <c r="AB172" s="39">
         <f t="shared" si="99"/>
-        <v>357287862597.75281</v>
+        <v>36873053504.021599</v>
       </c>
       <c r="AC172" s="39">
         <f t="shared" si="100"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD172" s="39">
-        <v>35.053234254676845</v>
+        <v>25.099524995508332</v>
       </c>
       <c r="AE172" s="39">
         <f t="shared" si="101"/>
-        <v>369142010593.18066</v>
+        <v>40674762270.800568</v>
       </c>
       <c r="AF172" s="39">
         <f t="shared" si="102"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AG172" s="49">
         <f t="shared" si="103"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH172" s="50">
         <f t="shared" si="104"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AI172" s="50">
         <f t="shared" si="105"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ172" s="51">
         <f t="shared" si="106"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AK172" s="49">
         <f t="shared" si="107"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL172" s="50">
         <f t="shared" si="108"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM172" s="50">
         <f t="shared" si="109"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN172" s="51">
         <f t="shared" si="110"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B173" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C173" s="35">
-        <v>2059073485.3728726</v>
-      </c>
-      <c r="D173" s="39">
-        <v>0.85501148400089511</v>
+        <v>618155177738.44031</v>
+      </c>
+      <c r="D173" s="35">
+        <v>1.53269984337959</v>
       </c>
       <c r="E173" s="35">
-        <f t="shared" ref="E173:E187" si="111">D173/100*C173</f>
-        <v>17605314.763955552</v>
+        <f t="shared" si="82"/>
+        <v>9474463441.0398998</v>
       </c>
       <c r="F173" s="34">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G173" s="34">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>56386314491.722145</v>
       </c>
       <c r="H173" s="34">
         <f t="shared" si="87"/>
-        <v>2059073485.3728726</v>
+        <v>561768863246.71814</v>
       </c>
       <c r="I173" s="37">
-        <v>51.050524956011898</v>
+        <v>54.83074349779676</v>
       </c>
       <c r="J173" s="39">
         <f t="shared" si="88"/>
-        <v>1174406509.9727721</v>
+        <v>252476666539.38107</v>
       </c>
       <c r="K173" s="39">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L173" s="39">
-        <v>16.079200649217803</v>
+        <v>36.669408381362651</v>
       </c>
       <c r="M173" s="39">
         <f t="shared" si="90"/>
-        <v>616497673.42813659</v>
+        <v>281416634826.09595</v>
       </c>
       <c r="N173" s="39">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O173" s="49">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P173" s="50">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q173" s="50">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R173" s="51">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T173" s="39">
-        <v>3910653344.6535363</v>
+        <v>1205674840385.1003</v>
       </c>
       <c r="U173" s="39">
         <f t="shared" si="96"/>
-        <v>2809518802.3393254</v>
+        <v>856276897009.13159</v>
       </c>
       <c r="V173" s="35">
-        <v>0.85501148400089511</v>
+        <v>1.58392213718507</v>
       </c>
       <c r="W173" s="35">
         <f t="shared" si="83"/>
-        <v>24021708.405165639</v>
+        <v>13562759327.329039</v>
       </c>
       <c r="X173" s="34">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y173" s="34">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>84579471737.583221</v>
       </c>
       <c r="Z173" s="34">
         <f t="shared" si="84"/>
-        <v>2809518802.3393254</v>
+        <v>771697425271.54834</v>
       </c>
       <c r="AA173" s="37">
-        <v>68.815030417896011</v>
+        <v>56.545966884427656</v>
       </c>
       <c r="AB173" s="39">
         <f t="shared" si="99"/>
-        <v>1716928988.9930854</v>
+        <v>357287862597.75281</v>
       </c>
       <c r="AC173" s="39">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD173" s="39">
-        <v>15.639738714409418</v>
+        <v>35.053234254676845</v>
       </c>
       <c r="AE173" s="39">
         <f t="shared" si="101"/>
-        <v>650350187.93568122</v>
+        <v>369142010593.18066</v>
       </c>
       <c r="AF173" s="39">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG173" s="49">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH173" s="50">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI173" s="50">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ173" s="51">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK173" s="49">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL173" s="50">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM173" s="50">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN173" s="51">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B174" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C174" s="35">
-        <v>6310229933.8371849</v>
+        <v>2059073485.3728726</v>
       </c>
       <c r="D174" s="39">
-        <v>1.8616815271275102</v>
+        <v>0.85501148400089511</v>
       </c>
       <c r="E174" s="35">
-        <f t="shared" si="111"/>
-        <v>117476384.99751738</v>
+        <f t="shared" ref="E174:E188" si="139">D174/100*C174</f>
+        <v>17605314.763955552</v>
       </c>
       <c r="F174" s="34">
         <f t="shared" si="85"/>
@@ -36512,25 +36511,25 @@
       </c>
       <c r="H174" s="34">
         <f t="shared" si="87"/>
-        <v>6310229933.8371849</v>
+        <v>2059073485.3728726</v>
       </c>
       <c r="I174" s="37">
-        <v>53.506311916440232</v>
+        <v>51.050524956011898</v>
       </c>
       <c r="J174" s="39">
         <f t="shared" si="88"/>
-        <v>3646800784.9626775</v>
+        <v>1174406509.9727721</v>
       </c>
       <c r="K174" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L174" s="39">
-        <v>15.932043305054114</v>
+        <v>16.079200649217803</v>
       </c>
       <c r="M174" s="39">
         <f t="shared" si="90"/>
-        <v>1809786109.025352</v>
+        <v>616497673.42813659</v>
       </c>
       <c r="N174" s="39">
         <f t="shared" si="91"/>
@@ -36553,18 +36552,18 @@
         <v>0</v>
       </c>
       <c r="T174" s="39">
-        <v>11674937852.980957</v>
+        <v>3910653344.6535363</v>
       </c>
       <c r="U174" s="39">
         <f t="shared" si="96"/>
-        <v>8484546053.466156</v>
+        <v>2809518802.3393254</v>
       </c>
       <c r="V174" s="35">
-        <v>1.8616815271275102</v>
+        <v>0.85501148400089511</v>
       </c>
       <c r="W174" s="35">
         <f t="shared" si="83"/>
-        <v>157955226.53800562</v>
+        <v>24021708.405165639</v>
       </c>
       <c r="X174" s="34">
         <f t="shared" si="97"/>
@@ -36576,25 +36575,25 @@
       </c>
       <c r="Z174" s="34">
         <f t="shared" si="84"/>
-        <v>8484546053.466156</v>
+        <v>2809518802.3393254</v>
       </c>
       <c r="AA174" s="37">
-        <v>27.82462438861068</v>
+        <v>68.815030417896011</v>
       </c>
       <c r="AB174" s="39">
         <f t="shared" si="99"/>
-        <v>4102989460.1656914</v>
+        <v>1716928988.9930854</v>
       </c>
       <c r="AC174" s="39">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AD174" s="39">
-        <v>15.329149707855921</v>
+        <v>15.639738714409418</v>
       </c>
       <c r="AE174" s="39">
         <f t="shared" si="101"/>
-        <v>3767366799.8898773</v>
+        <v>650350187.93568122</v>
       </c>
       <c r="AF174" s="39">
         <f t="shared" si="102"/>
@@ -36635,17 +36634,17 @@
     </row>
     <row r="175" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B175" s="35" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C175" s="35">
-        <v>21488623926.353516</v>
+        <v>6310229933.8371849</v>
       </c>
       <c r="D175" s="39">
-        <v>0.90606707458550706</v>
+        <v>1.8616815271275102</v>
       </c>
       <c r="E175" s="35">
-        <f t="shared" si="111"/>
-        <v>194701346.17819262</v>
+        <f t="shared" si="139"/>
+        <v>117476384.99751738</v>
       </c>
       <c r="F175" s="34">
         <f t="shared" si="85"/>
@@ -36657,29 +36656,29 @@
       </c>
       <c r="H175" s="34">
         <f t="shared" si="87"/>
-        <v>21488623926.353516</v>
+        <v>6310229933.8371849</v>
       </c>
       <c r="I175" s="37">
-        <v>51.474089315504756</v>
+        <v>53.506311916440232</v>
       </c>
       <c r="J175" s="39">
         <f t="shared" si="88"/>
-        <v>8378743256.804595</v>
+        <v>3646800784.9626775</v>
       </c>
       <c r="K175" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L175" s="39">
-        <v>47.536046812677263</v>
+        <v>15.932043305054114</v>
       </c>
       <c r="M175" s="39">
         <f t="shared" si="90"/>
-        <v>12896207813.267572</v>
+        <v>1809786109.025352</v>
       </c>
       <c r="N175" s="39">
         <f t="shared" si="91"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O175" s="49">
         <f t="shared" si="92"/>
@@ -36687,7 +36686,7 @@
       </c>
       <c r="P175" s="50">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175" s="50">
         <f t="shared" si="94"/>
@@ -36695,21 +36694,21 @@
       </c>
       <c r="R175" s="51">
         <f t="shared" si="95"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T175" s="39">
-        <v>36605373315.551064</v>
+        <v>11674937852.980957</v>
       </c>
       <c r="U175" s="39">
         <f t="shared" si="96"/>
-        <v>27615442453.79528</v>
+        <v>8484546053.466156</v>
       </c>
       <c r="V175" s="35">
-        <v>0.90606707458550706</v>
+        <v>1.8616815271275102</v>
       </c>
       <c r="W175" s="35">
         <f t="shared" si="83"/>
-        <v>250214431.57494706</v>
+        <v>157955226.53800562</v>
       </c>
       <c r="X175" s="34">
         <f t="shared" si="97"/>
@@ -36721,29 +36720,29 @@
       </c>
       <c r="Z175" s="34">
         <f t="shared" si="84"/>
-        <v>27615442453.79528</v>
+        <v>8484546053.466156</v>
       </c>
       <c r="AA175" s="37">
-        <v>58.092934150914786</v>
+        <v>27.82462438861068</v>
       </c>
       <c r="AB175" s="39">
         <f t="shared" si="99"/>
-        <v>12324764301.551353</v>
+        <v>4102989460.1656914</v>
       </c>
       <c r="AC175" s="39">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="AD175" s="39">
-        <v>39.531371724133855</v>
+        <v>15.329149707855921</v>
       </c>
       <c r="AE175" s="39">
         <f t="shared" si="101"/>
-        <v>13978029231.325184</v>
+        <v>3767366799.8898773</v>
       </c>
       <c r="AF175" s="39">
         <f t="shared" si="102"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG175" s="49">
         <f t="shared" si="103"/>
@@ -36751,7 +36750,7 @@
       </c>
       <c r="AH175" s="50">
         <f t="shared" si="104"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI175" s="50">
         <f t="shared" si="105"/>
@@ -36759,7 +36758,7 @@
       </c>
       <c r="AJ175" s="51">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK175" s="49">
         <f t="shared" si="107"/>
@@ -36780,47 +36779,47 @@
     </row>
     <row r="176" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B176" s="35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C176" s="35">
-        <v>71155977782.894241</v>
-      </c>
-      <c r="D176" s="35">
-        <v>1.75327199190324</v>
+        <v>21488623926.353516</v>
+      </c>
+      <c r="D176" s="39">
+        <v>0.90606707458550706</v>
       </c>
       <c r="E176" s="35">
-        <f t="shared" si="111"/>
-        <v>1247557829.0323768</v>
+        <f t="shared" si="139"/>
+        <v>194701346.17819262</v>
       </c>
       <c r="F176" s="34">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" s="34">
         <f t="shared" si="86"/>
-        <v>14096578622.930536</v>
+        <v>0</v>
       </c>
       <c r="H176" s="34">
         <f t="shared" si="87"/>
-        <v>57059399159.963707</v>
+        <v>21488623926.353516</v>
       </c>
       <c r="I176" s="37">
-        <v>51.627918038412282</v>
+        <v>51.474089315504756</v>
       </c>
       <c r="J176" s="39">
         <f t="shared" si="88"/>
-        <v>28224101617.422901</v>
+        <v>8378743256.804595</v>
       </c>
       <c r="K176" s="39">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" s="39">
-        <v>26.652465065079351</v>
+        <v>47.536046812677263</v>
       </c>
       <c r="M176" s="39">
         <f t="shared" si="90"/>
-        <v>24284079587.583126</v>
+        <v>12896207813.267572</v>
       </c>
       <c r="N176" s="39">
         <f t="shared" si="91"/>
@@ -36828,7 +36827,7 @@
       </c>
       <c r="O176" s="49">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P176" s="50">
         <f t="shared" si="93"/>
@@ -36836,55 +36835,55 @@
       </c>
       <c r="Q176" s="50">
         <f t="shared" si="94"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R176" s="51">
         <f t="shared" si="95"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T176" s="39">
-        <v>121254603779.66873</v>
+        <v>36605373315.551064</v>
       </c>
       <c r="U176" s="39">
         <f t="shared" si="96"/>
-        <v>91460950899.386948</v>
+        <v>27615442453.79528</v>
       </c>
       <c r="V176" s="35">
-        <v>2.1443021070998598</v>
+        <v>0.90606707458550706</v>
       </c>
       <c r="W176" s="35">
         <f t="shared" si="83"/>
-        <v>1961199097.3091226</v>
+        <v>250214431.57494706</v>
       </c>
       <c r="X176" s="34">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y176" s="34">
         <f t="shared" si="98"/>
-        <v>14096578622.930536</v>
+        <v>0</v>
       </c>
       <c r="Z176" s="34">
         <f t="shared" si="84"/>
-        <v>77364372276.456406</v>
+        <v>27615442453.79528</v>
       </c>
       <c r="AA176" s="37">
-        <v>60.909333527176059</v>
+        <v>58.092934150914786</v>
       </c>
       <c r="AB176" s="39">
         <f t="shared" si="99"/>
-        <v>41779633881.421524</v>
+        <v>12324764301.551353</v>
       </c>
       <c r="AC176" s="39">
         <f t="shared" si="100"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD176" s="39">
-        <v>23.681146025878004</v>
+        <v>39.531371724133855</v>
       </c>
       <c r="AE176" s="39">
         <f t="shared" si="101"/>
-        <v>27072742209.867966</v>
+        <v>13978029231.325184</v>
       </c>
       <c r="AF176" s="39">
         <f t="shared" si="102"/>
@@ -36892,7 +36891,7 @@
       </c>
       <c r="AG176" s="49">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH176" s="50">
         <f t="shared" si="104"/>
@@ -36900,11 +36899,11 @@
       </c>
       <c r="AI176" s="50">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ176" s="51">
         <f t="shared" si="106"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK176" s="49">
         <f t="shared" si="107"/>
@@ -36924,308 +36923,308 @@
       </c>
     </row>
     <row r="177" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B177" s="60" t="s">
-        <v>42</v>
+      <c r="B177" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="C177" s="35">
-        <v>979139527974.74182</v>
+        <v>71155977782.894241</v>
       </c>
       <c r="D177" s="35">
-        <v>3.6610946697956197</v>
+        <v>1.75327199190324</v>
       </c>
       <c r="E177" s="35">
-        <f t="shared" si="111"/>
-        <v>35847225068.545265</v>
+        <f t="shared" si="139"/>
+        <v>1247557829.0323768</v>
       </c>
       <c r="F177" s="34">
         <f t="shared" si="85"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G177" s="34">
         <f t="shared" si="86"/>
-        <v>225545257966.88858</v>
+        <v>14096578622.930536</v>
       </c>
       <c r="H177" s="34">
         <f t="shared" si="87"/>
-        <v>753594270007.85327</v>
+        <v>57059399159.963707</v>
       </c>
       <c r="I177" s="37">
-        <v>52.758926628145595</v>
+        <v>51.627918038412282</v>
       </c>
       <c r="J177" s="39">
         <f t="shared" si="88"/>
-        <v>374817632947.97504</v>
+        <v>28224101617.422901</v>
       </c>
       <c r="K177" s="39">
         <f t="shared" si="89"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L177" s="39">
-        <v>26.797412182601789</v>
+        <v>26.652465065079351</v>
       </c>
       <c r="M177" s="39">
         <f t="shared" si="90"/>
-        <v>317296782596.5249</v>
+        <v>24284079587.583126</v>
       </c>
       <c r="N177" s="39">
         <f t="shared" si="91"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O177" s="49">
         <f t="shared" si="92"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="P177" s="50">
         <f t="shared" si="93"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q177" s="50">
         <f t="shared" si="94"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="R177" s="51">
         <f t="shared" si="95"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="T177" s="39">
-        <v>2271499749825.1128</v>
+        <v>121254603779.66873</v>
       </c>
       <c r="U177" s="39">
         <f t="shared" si="96"/>
-        <v>1502933125890.6973</v>
+        <v>91460950899.386948</v>
       </c>
       <c r="V177" s="35">
-        <v>2.0652596724157299</v>
+        <v>2.1443021070998598</v>
       </c>
       <c r="W177" s="35">
-        <f t="shared" ref="W177:W187" si="112">V177/100*U177</f>
-        <v>31039471752.397705</v>
+        <f t="shared" si="83"/>
+        <v>1961199097.3091226</v>
       </c>
       <c r="X177" s="34">
         <f t="shared" si="97"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Y177" s="34">
         <f t="shared" si="98"/>
-        <v>197352100721.0275</v>
+        <v>14096578622.930536</v>
       </c>
       <c r="Z177" s="34">
-        <f t="shared" ref="Z177:Z187" si="113">U177-Y177</f>
-        <v>1305581025169.6697</v>
+        <f t="shared" si="84"/>
+        <v>77364372276.456406</v>
       </c>
       <c r="AA177" s="37">
-        <v>53.536467602316748</v>
+        <v>60.909333527176059</v>
       </c>
       <c r="AB177" s="39">
         <f t="shared" si="99"/>
-        <v>634127200721.34314</v>
+        <v>41779633881.421524</v>
       </c>
       <c r="AC177" s="39">
         <f t="shared" si="100"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AD177" s="39">
-        <v>29.131721260287641</v>
+        <v>23.681146025878004</v>
       </c>
       <c r="AE177" s="39">
         <f t="shared" si="101"/>
-        <v>575097613593.18213</v>
+        <v>27072742209.867966</v>
       </c>
       <c r="AF177" s="39">
         <f t="shared" si="102"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AG177" s="49">
         <f t="shared" si="103"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AH177" s="50">
         <f t="shared" si="104"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AI177" s="50">
         <f t="shared" si="105"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AJ177" s="51">
         <f t="shared" si="106"/>
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="AK177" s="49">
         <f t="shared" si="107"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL177" s="50">
         <f t="shared" si="108"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM177" s="50">
         <f t="shared" si="109"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN177" s="51">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B178" s="35" t="s">
-        <v>436</v>
+      <c r="B178" s="60" t="s">
+        <v>42</v>
       </c>
       <c r="C178" s="35">
-        <v>20873899290.711098</v>
+        <v>979139527974.74182</v>
       </c>
       <c r="D178" s="35">
-        <v>0</v>
+        <v>3.6610946697956197</v>
       </c>
       <c r="E178" s="35">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="139"/>
+        <v>35847225068.545265</v>
       </c>
       <c r="F178" s="34">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G178" s="34">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>225545257966.88858</v>
       </c>
       <c r="H178" s="34">
         <f t="shared" si="87"/>
-        <v>20873899290.711098</v>
+        <v>753594270007.85327</v>
       </c>
       <c r="I178" s="37">
-        <v>28.895270917097456</v>
+        <v>52.758926628145595</v>
       </c>
       <c r="J178" s="39">
         <f t="shared" si="88"/>
-        <v>6466464121.5052547</v>
+        <v>374817632947.97504</v>
       </c>
       <c r="K178" s="39">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L178" s="39">
-        <v>41.060693088263449</v>
+        <v>26.797412182601789</v>
       </c>
       <c r="M178" s="39">
         <f t="shared" si="90"/>
-        <v>15314933910.880117</v>
+        <v>317296782596.5249</v>
       </c>
       <c r="N178" s="39">
         <f t="shared" si="91"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O178" s="49">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P178" s="50">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q178" s="50">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R178" s="51">
         <f t="shared" si="95"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="T178" s="39">
-        <v>81787812382.050766</v>
+        <v>2271499749825.1128</v>
       </c>
       <c r="U178" s="39">
         <f t="shared" si="96"/>
-        <v>45562308266.631065</v>
+        <v>1502933125890.6973</v>
       </c>
       <c r="V178" s="35">
-        <v>0</v>
+        <v>2.0652596724157299</v>
       </c>
       <c r="W178" s="35">
-        <f t="shared" si="112"/>
-        <v>0</v>
+        <f t="shared" ref="W178:W188" si="140">V178/100*U178</f>
+        <v>31039471752.397705</v>
       </c>
       <c r="X178" s="34">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y178" s="34">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>197352100721.0275</v>
       </c>
       <c r="Z178" s="34">
-        <f t="shared" si="113"/>
-        <v>45562308266.631065</v>
-      </c>
-      <c r="AA178" s="39">
-        <v>28.895270917097456</v>
+        <f t="shared" ref="Z178:Z188" si="141">U178-Y178</f>
+        <v>1305581025169.6697</v>
+      </c>
+      <c r="AA178" s="37">
+        <v>53.536467602316748</v>
       </c>
       <c r="AB178" s="39">
         <f t="shared" si="99"/>
-        <v>14114614025.671824</v>
+        <v>634127200721.34314</v>
       </c>
       <c r="AC178" s="39">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD178" s="39">
-        <v>41.060693088263449</v>
+        <v>29.131721260287641</v>
       </c>
       <c r="AE178" s="39">
         <f t="shared" si="101"/>
-        <v>33428528623.835793</v>
+        <v>575097613593.18213</v>
       </c>
       <c r="AF178" s="39">
         <f t="shared" si="102"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AG178" s="49">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH178" s="50">
         <f t="shared" si="104"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AI178" s="50">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AJ178" s="51">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="AK178" s="49">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL178" s="50">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM178" s="50">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN178" s="51">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B179" s="35" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C179" s="35">
-        <v>29627787081.814602</v>
+        <v>20873899290.711098</v>
       </c>
       <c r="D179" s="35">
-        <v>2.3638039397531703</v>
+        <v>0</v>
       </c>
       <c r="E179" s="35">
-        <f t="shared" si="111"/>
-        <v>700342798.3016144</v>
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
       <c r="F179" s="34">
         <f t="shared" si="85"/>
@@ -37237,25 +37236,25 @@
       </c>
       <c r="H179" s="34">
         <f t="shared" si="87"/>
-        <v>29627787081.814602</v>
+        <v>20873899290.711098</v>
       </c>
       <c r="I179" s="37">
-        <v>44.670276803133781</v>
+        <v>28.895270917097456</v>
       </c>
       <c r="J179" s="39">
         <f t="shared" si="88"/>
-        <v>15014887829.658783</v>
+        <v>6466464121.5052547</v>
       </c>
       <c r="K179" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L179" s="39">
-        <v>21.438181599467843</v>
+        <v>41.060693088263449</v>
       </c>
       <c r="M179" s="39">
         <f t="shared" si="90"/>
-        <v>12009920802.836943</v>
+        <v>15314933910.880117</v>
       </c>
       <c r="N179" s="39">
         <f t="shared" si="91"/>
@@ -37278,18 +37277,18 @@
         <v>1</v>
       </c>
       <c r="T179" s="39">
-        <v>85406362066.351395</v>
+        <v>81787812382.050766</v>
       </c>
       <c r="U179" s="39">
         <f t="shared" si="96"/>
-        <v>52234843523.047363</v>
+        <v>45562308266.631065</v>
       </c>
       <c r="V179" s="35">
-        <v>1.2935933645316999</v>
+        <v>0</v>
       </c>
       <c r="W179" s="35">
-        <f t="shared" si="112"/>
-        <v>675706469.78765714</v>
+        <f t="shared" si="140"/>
+        <v>0</v>
       </c>
       <c r="X179" s="34">
         <f t="shared" si="97"/>
@@ -37300,26 +37299,26 @@
         <v>0</v>
       </c>
       <c r="Z179" s="34">
-        <f t="shared" si="113"/>
-        <v>52234843523.047363</v>
-      </c>
-      <c r="AA179" s="37">
-        <v>43.478499405025772</v>
+        <f t="shared" si="141"/>
+        <v>45562308266.631065</v>
+      </c>
+      <c r="AA179" s="39">
+        <v>28.895270917097456</v>
       </c>
       <c r="AB179" s="39">
         <f t="shared" si="99"/>
-        <v>24504846120.74744</v>
+        <v>14114614025.671824</v>
       </c>
       <c r="AC179" s="39">
         <f t="shared" si="100"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD179" s="39">
-        <v>26.030994814433051</v>
+        <v>41.060693088263449</v>
       </c>
       <c r="AE179" s="39">
         <f t="shared" si="101"/>
-        <v>24452144202.56348</v>
+        <v>33428528623.835793</v>
       </c>
       <c r="AF179" s="39">
         <f t="shared" si="102"/>
@@ -37335,11 +37334,11 @@
       </c>
       <c r="AI179" s="50">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ179" s="51">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK179" s="49">
         <f t="shared" si="107"/>
@@ -37351,148 +37350,148 @@
       </c>
       <c r="AM179" s="50">
         <f t="shared" si="109"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN179" s="51">
         <f t="shared" si="110"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B180" s="60" t="s">
-        <v>444</v>
+      <c r="B180" s="35" t="s">
+        <v>442</v>
       </c>
       <c r="C180" s="35">
-        <v>355126403461.97998</v>
+        <v>29627787081.814602</v>
       </c>
       <c r="D180" s="35">
-        <v>2.1510492369185998</v>
+        <v>2.3638039397531703</v>
       </c>
       <c r="E180" s="35">
-        <f t="shared" si="111"/>
-        <v>7638943791.7653875</v>
+        <f t="shared" si="139"/>
+        <v>700342798.3016144</v>
       </c>
       <c r="F180" s="34">
         <f t="shared" si="85"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G180" s="34">
         <f t="shared" si="86"/>
-        <v>42289735868.791611</v>
+        <v>0</v>
       </c>
       <c r="H180" s="34">
         <f t="shared" si="87"/>
-        <v>312836667593.18835</v>
+        <v>29627787081.814602</v>
       </c>
       <c r="I180" s="37">
-        <v>39.529017463397423</v>
+        <v>44.670276803133781</v>
       </c>
       <c r="J180" s="39">
         <f t="shared" si="88"/>
-        <v>131863958511.39005</v>
+        <v>15014887829.658783</v>
       </c>
       <c r="K180" s="39">
         <f t="shared" si="89"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L180" s="39">
-        <v>30.805550655612397</v>
+        <v>21.438181599467843</v>
       </c>
       <c r="M180" s="39">
         <f t="shared" si="90"/>
-        <v>171272570305.83536</v>
+        <v>12009920802.836943</v>
       </c>
       <c r="N180" s="39">
         <f t="shared" si="91"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O180" s="49">
         <f t="shared" si="92"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P180" s="50">
         <f t="shared" si="93"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q180" s="50">
         <f t="shared" si="94"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R180" s="51">
         <f t="shared" si="95"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T180" s="39">
-        <v>504350302211.01373</v>
+        <v>85406362066.351395</v>
       </c>
       <c r="U180" s="39">
         <f t="shared" si="96"/>
-        <v>415606849624.96338</v>
+        <v>52234843523.047363</v>
       </c>
       <c r="V180" s="35">
-        <v>2.8844015189715901</v>
+        <v>1.2935933645316999</v>
       </c>
       <c r="W180" s="35">
-        <f t="shared" si="112"/>
-        <v>11987770283.532415</v>
+        <f t="shared" si="140"/>
+        <v>675706469.78765714</v>
       </c>
       <c r="X180" s="34">
         <f t="shared" si="97"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y180" s="34">
         <f t="shared" si="98"/>
-        <v>70482893114.652695</v>
+        <v>0</v>
       </c>
       <c r="Z180" s="34">
-        <f t="shared" si="113"/>
-        <v>345123956510.31067</v>
+        <f t="shared" si="141"/>
+        <v>52234843523.047363</v>
       </c>
       <c r="AA180" s="37">
-        <v>50.883178356248671</v>
+        <v>43.478499405025772</v>
       </c>
       <c r="AB180" s="39">
         <f t="shared" si="99"/>
-        <v>177377503064.34482</v>
+        <v>24504846120.74744</v>
       </c>
       <c r="AC180" s="39">
         <f t="shared" si="100"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD180" s="39">
-        <v>23.369489812264693</v>
+        <v>26.030994814433051</v>
       </c>
       <c r="AE180" s="39">
         <f t="shared" si="101"/>
-        <v>135775773863.98024</v>
+        <v>24452144202.56348</v>
       </c>
       <c r="AF180" s="39">
         <f t="shared" si="102"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG180" s="49">
         <f t="shared" si="103"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH180" s="50">
         <f t="shared" si="104"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI180" s="50">
         <f t="shared" si="105"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ180" s="51">
         <f t="shared" si="106"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AK180" s="49">
         <f t="shared" si="107"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL180" s="50">
         <f t="shared" si="108"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM180" s="50">
         <f t="shared" si="109"/>
@@ -37504,140 +37503,140 @@
       </c>
     </row>
     <row r="181" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B181" s="35" t="s">
-        <v>446</v>
+      <c r="B181" s="60" t="s">
+        <v>444</v>
       </c>
       <c r="C181" s="35">
-        <v>321225302776.11066</v>
+        <v>355126403461.97998</v>
       </c>
       <c r="D181" s="35">
-        <v>8.3237222448449</v>
+        <v>2.1510492369185998</v>
       </c>
       <c r="E181" s="35">
-        <f t="shared" si="111"/>
-        <v>26737901983.245506</v>
+        <f t="shared" si="139"/>
+        <v>7638943791.7653875</v>
       </c>
       <c r="F181" s="34">
         <f t="shared" si="85"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G181" s="34">
         <f t="shared" si="86"/>
-        <v>169158943475.16644</v>
+        <v>42289735868.791611</v>
       </c>
       <c r="H181" s="34">
         <f t="shared" si="87"/>
-        <v>152066359300.94421</v>
+        <v>312836667593.18835</v>
       </c>
       <c r="I181" s="37">
-        <v>49.220338275323023</v>
+        <v>39.529017463397423</v>
       </c>
       <c r="J181" s="39">
         <f t="shared" si="88"/>
-        <v>57435240869.131332</v>
+        <v>131863958511.39005</v>
       </c>
       <c r="K181" s="39">
         <f t="shared" si="89"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L181" s="39">
-        <v>48.517011631639519</v>
+        <v>30.805550655612397</v>
       </c>
       <c r="M181" s="39">
         <f t="shared" si="90"/>
-        <v>94357547677.628021</v>
+        <v>171272570305.83536</v>
       </c>
       <c r="N181" s="39">
         <f t="shared" si="91"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O181" s="49">
         <f t="shared" si="92"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P181" s="50">
         <f t="shared" si="93"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q181" s="50">
         <f t="shared" si="94"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R181" s="51">
         <f t="shared" si="95"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T181" s="39">
-        <v>637384703420.79285</v>
+        <v>504350302211.01373</v>
       </c>
       <c r="U181" s="39">
         <f t="shared" si="96"/>
-        <v>449364707857.40033</v>
-      </c>
-      <c r="V181" s="39">
-        <v>8.3237222448449</v>
+        <v>415606849624.96338</v>
+      </c>
+      <c r="V181" s="35">
+        <v>2.8844015189715901</v>
       </c>
       <c r="W181" s="35">
-        <f t="shared" si="112"/>
-        <v>37403870148.40873</v>
+        <f t="shared" si="140"/>
+        <v>11987770283.532415</v>
       </c>
       <c r="X181" s="34">
         <f t="shared" si="97"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Y181" s="34">
         <f t="shared" si="98"/>
-        <v>239641836589.81909</v>
+        <v>70482893114.652695</v>
       </c>
       <c r="Z181" s="34">
-        <f t="shared" si="113"/>
-        <v>209722871267.58124</v>
+        <f t="shared" si="141"/>
+        <v>345123956510.31067</v>
       </c>
       <c r="AA181" s="37">
-        <v>56.65483949847858</v>
+        <v>50.883178356248671</v>
       </c>
       <c r="AB181" s="39">
         <f t="shared" si="99"/>
-        <v>89805601135.977295</v>
+        <v>177377503064.34482</v>
       </c>
       <c r="AC181" s="39">
         <f t="shared" si="100"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD181" s="39">
-        <v>42.574624982536605</v>
+        <v>23.369489812264693</v>
       </c>
       <c r="AE181" s="39">
         <f t="shared" si="101"/>
-        <v>112477587191.18106</v>
+        <v>135775773863.98024</v>
       </c>
       <c r="AF181" s="39">
         <f t="shared" si="102"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG181" s="49">
         <f t="shared" si="103"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AH181" s="50">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI181" s="50">
         <f t="shared" si="105"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ181" s="51">
         <f t="shared" si="106"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AK181" s="49">
         <f t="shared" si="107"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL181" s="50">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AM181" s="50">
         <f t="shared" si="109"/>
@@ -37645,312 +37644,312 @@
       </c>
       <c r="AN181" s="51">
         <f t="shared" si="110"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B182" s="60" t="s">
-        <v>448</v>
+      <c r="B182" s="35" t="s">
+        <v>446</v>
       </c>
       <c r="C182" s="35">
-        <v>2244698116398.293</v>
+        <v>321225302776.11066</v>
       </c>
       <c r="D182" s="35">
-        <v>2.1389996337235098</v>
+        <v>8.3237222448449</v>
       </c>
       <c r="E182" s="35">
-        <f t="shared" si="111"/>
-        <v>48014084487.958015</v>
+        <f t="shared" si="139"/>
+        <v>26737901983.245506</v>
       </c>
       <c r="F182" s="34">
         <f t="shared" si="85"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G182" s="34">
         <f t="shared" si="86"/>
-        <v>310124729704.4718</v>
+        <v>169158943475.16644</v>
       </c>
       <c r="H182" s="34">
         <f t="shared" si="87"/>
-        <v>1934573386693.8213</v>
+        <v>152066359300.94421</v>
       </c>
       <c r="I182" s="37">
-        <v>65.660233048662391</v>
+        <v>49.220338275323023</v>
       </c>
       <c r="J182" s="39">
         <f t="shared" si="88"/>
-        <v>1072736643633.1428</v>
+        <v>57435240869.131332</v>
       </c>
       <c r="K182" s="39">
         <f t="shared" si="89"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L182" s="39">
-        <v>23.14852083373264</v>
+        <v>48.517011631639519</v>
       </c>
       <c r="M182" s="39">
         <f t="shared" si="90"/>
-        <v>630322327312.0387</v>
+        <v>94357547677.628021</v>
       </c>
       <c r="N182" s="39">
         <f t="shared" si="91"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="O182" s="49">
         <f t="shared" si="92"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P182" s="50">
         <f t="shared" si="93"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="Q182" s="50">
         <f t="shared" si="94"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R182" s="51">
         <f t="shared" si="95"/>
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="T182" s="39">
-        <v>3035756467405.7988</v>
+        <v>637384703420.79285</v>
       </c>
       <c r="U182" s="39">
         <f t="shared" si="96"/>
-        <v>2565314066061.6353</v>
-      </c>
-      <c r="V182" s="35">
-        <v>1.7666367913412602</v>
+        <v>449364707857.40033</v>
+      </c>
+      <c r="V182" s="39">
+        <v>8.3237222448449</v>
       </c>
       <c r="W182" s="35">
-        <f t="shared" si="112"/>
-        <v>45319782104.497284</v>
+        <f t="shared" si="140"/>
+        <v>37403870148.40873</v>
       </c>
       <c r="X182" s="34">
         <f t="shared" si="97"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y182" s="34">
         <f t="shared" si="98"/>
-        <v>296028151081.54126</v>
+        <v>239641836589.81909</v>
       </c>
       <c r="Z182" s="34">
-        <f t="shared" si="113"/>
-        <v>2269285914980.0938</v>
+        <f t="shared" si="141"/>
+        <v>209722871267.58124</v>
       </c>
       <c r="AA182" s="37">
-        <v>70.934180058860804</v>
+        <v>56.65483949847858</v>
       </c>
       <c r="AB182" s="39">
         <f t="shared" si="99"/>
-        <v>1364201325728.4365</v>
+        <v>89805601135.977295</v>
       </c>
       <c r="AC182" s="39">
         <f t="shared" si="100"/>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AD182" s="39">
-        <v>17.562619861203562</v>
+        <v>42.574624982536605</v>
       </c>
       <c r="AE182" s="39">
         <f t="shared" si="101"/>
-        <v>562938517511.05652</v>
+        <v>112477587191.18106</v>
       </c>
       <c r="AF182" s="39">
         <f t="shared" si="102"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AG182" s="49">
         <f t="shared" si="103"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH182" s="50">
         <f t="shared" si="104"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AI182" s="50">
         <f t="shared" si="105"/>
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AJ182" s="51">
         <f t="shared" si="106"/>
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AK182" s="49">
         <f t="shared" si="107"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AL182" s="50">
         <f t="shared" si="108"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AM182" s="50">
         <f t="shared" si="109"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN182" s="51">
         <f t="shared" si="110"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B183" s="35" t="s">
-        <v>451</v>
+      <c r="B183" s="60" t="s">
+        <v>448</v>
       </c>
       <c r="C183" s="35">
-        <v>44139547096.639839</v>
+        <v>2244698116398.293</v>
       </c>
       <c r="D183" s="35">
-        <v>2.43597728787045</v>
+        <v>2.1389996337235098</v>
       </c>
       <c r="E183" s="35">
-        <f t="shared" si="111"/>
-        <v>1075229342.2430272</v>
+        <f t="shared" si="139"/>
+        <v>48014084487.958015</v>
       </c>
       <c r="F183" s="34">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G183" s="34">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>310124729704.4718</v>
       </c>
       <c r="H183" s="34">
         <f t="shared" si="87"/>
-        <v>44139547096.639839</v>
+        <v>1934573386693.8213</v>
       </c>
       <c r="I183" s="37">
-        <v>65.322256237473553</v>
+        <v>65.660233048662391</v>
       </c>
       <c r="J183" s="39">
         <f t="shared" si="88"/>
-        <v>24751447564.683716</v>
+        <v>1072736643633.1428</v>
       </c>
       <c r="K183" s="39">
         <f t="shared" si="89"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L183" s="39">
-        <v>22.04520372979918</v>
+        <v>23.14852083373264</v>
       </c>
       <c r="M183" s="39">
         <f t="shared" si="90"/>
-        <v>13922021262.993607</v>
+        <v>630322327312.0387</v>
       </c>
       <c r="N183" s="39">
         <f t="shared" si="91"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="O183" s="49">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P183" s="50">
         <f t="shared" si="93"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q183" s="50">
         <f t="shared" si="94"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="R183" s="51">
         <f t="shared" si="95"/>
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="T183" s="39">
-        <v>73285946717.27446</v>
+        <v>3035756467405.7988</v>
       </c>
       <c r="U183" s="39">
         <f t="shared" si="96"/>
-        <v>55952582862.883049</v>
+        <v>2565314066061.6353</v>
       </c>
       <c r="V183" s="35">
-        <v>1.95640677715968</v>
+        <v>1.7666367913412602</v>
       </c>
       <c r="W183" s="35">
-        <f t="shared" si="112"/>
-        <v>1094660123.1253297</v>
+        <f t="shared" si="140"/>
+        <v>45319782104.497284</v>
       </c>
       <c r="X183" s="34">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y183" s="34">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>296028151081.54126</v>
       </c>
       <c r="Z183" s="34">
-        <f t="shared" si="113"/>
-        <v>55952582862.883049</v>
+        <f t="shared" si="141"/>
+        <v>2269285914980.0938</v>
       </c>
       <c r="AA183" s="37">
-        <v>60.98076827056191</v>
+        <v>70.934180058860804</v>
       </c>
       <c r="AB183" s="39">
         <f t="shared" si="99"/>
-        <v>29848729810.012356</v>
+        <v>1364201325728.4365</v>
       </c>
       <c r="AC183" s="39">
         <f t="shared" si="100"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AD183" s="39">
-        <v>24.752314294890287</v>
+        <v>17.562619861203562</v>
       </c>
       <c r="AE183" s="39">
         <f t="shared" si="101"/>
-        <v>20192845561.916553</v>
+        <v>562938517511.05652</v>
       </c>
       <c r="AF183" s="39">
         <f t="shared" si="102"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AG183" s="49">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH183" s="50">
         <f t="shared" si="104"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AI183" s="50">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="AJ183" s="51">
         <f t="shared" si="106"/>
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="AK183" s="49">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL183" s="50">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM183" s="50">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AN183" s="51">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B184" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C184" s="35">
-        <v>68686623295.061813</v>
+        <v>44139547096.639839</v>
       </c>
       <c r="D184" s="35">
-        <v>1.15177987264903</v>
+        <v>2.43597728787045</v>
       </c>
       <c r="E184" s="35">
-        <f t="shared" si="111"/>
-        <v>791118702.31478202</v>
+        <f t="shared" si="139"/>
+        <v>1075229342.2430272</v>
       </c>
       <c r="F184" s="34">
         <f t="shared" si="85"/>
@@ -37962,25 +37961,25 @@
       </c>
       <c r="H184" s="34">
         <f t="shared" si="87"/>
-        <v>68686623295.061813</v>
+        <v>44139547096.639839</v>
       </c>
       <c r="I184" s="37">
-        <v>37.194372773067947</v>
+        <v>65.322256237473553</v>
       </c>
       <c r="J184" s="39">
         <f t="shared" si="88"/>
-        <v>33366929184.804901</v>
+        <v>24751447564.683716</v>
       </c>
       <c r="K184" s="39">
         <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="L184" s="39">
-        <v>20.229757955522793</v>
+        <v>22.04520372979918</v>
       </c>
       <c r="M184" s="39">
         <f t="shared" si="90"/>
-        <v>30246730477.485764</v>
+        <v>13922021262.993607</v>
       </c>
       <c r="N184" s="39">
         <f t="shared" si="91"/>
@@ -38003,60 +38002,60 @@
         <v>2</v>
       </c>
       <c r="T184" s="39">
-        <v>211134957472.6264</v>
+        <v>73285946717.27446</v>
       </c>
       <c r="U184" s="39">
         <f t="shared" si="96"/>
-        <v>126420933137.22873</v>
-      </c>
-      <c r="V184" s="39">
-        <v>1.15177987264903</v>
+        <v>55952582862.883049</v>
+      </c>
+      <c r="V184" s="35">
+        <v>1.95640677715968</v>
       </c>
       <c r="W184" s="35">
-        <f t="shared" si="112"/>
-        <v>1456090862.6896887</v>
+        <f t="shared" si="140"/>
+        <v>1094660123.1253297</v>
       </c>
       <c r="X184" s="34">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y184" s="34">
         <f t="shared" si="98"/>
-        <v>14096578622.930536</v>
+        <v>0</v>
       </c>
       <c r="Z184" s="34">
-        <f t="shared" si="113"/>
-        <v>112324354514.29819</v>
+        <f t="shared" si="141"/>
+        <v>55952582862.883049</v>
       </c>
       <c r="AA184" s="37">
-        <v>33.702336646117473</v>
+        <v>60.98076827056191</v>
       </c>
       <c r="AB184" s="39">
         <f t="shared" si="99"/>
-        <v>48594499106.175232</v>
+        <v>29848729810.012356</v>
       </c>
       <c r="AC184" s="39">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="AD184" s="39">
-        <v>24.723924747083021</v>
+        <v>24.752314294890287</v>
       </c>
       <c r="AE184" s="39">
         <f t="shared" si="101"/>
-        <v>59414611299.247353</v>
+        <v>20192845561.916553</v>
       </c>
       <c r="AF184" s="39">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG184" s="49">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH184" s="50">
         <f t="shared" si="104"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI184" s="50">
         <f t="shared" si="105"/>
@@ -38064,15 +38063,15 @@
       </c>
       <c r="AJ184" s="51">
         <f t="shared" si="106"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK184" s="49">
         <f t="shared" si="107"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL184" s="50">
         <f t="shared" si="108"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM184" s="50">
         <f t="shared" si="109"/>
@@ -38080,22 +38079,22 @@
       </c>
       <c r="AN184" s="51">
         <f t="shared" si="110"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B185" s="35" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C185" s="35">
-        <v>236133898430.63821</v>
+        <v>68686623295.061813</v>
       </c>
       <c r="D185" s="35">
-        <v>0</v>
+        <v>1.15177987264903</v>
       </c>
       <c r="E185" s="35">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="139"/>
+        <v>791118702.31478202</v>
       </c>
       <c r="F185" s="34">
         <f t="shared" si="85"/>
@@ -38107,29 +38106,29 @@
       </c>
       <c r="H185" s="34">
         <f t="shared" si="87"/>
-        <v>236133898430.63821</v>
+        <v>68686623295.061813</v>
       </c>
       <c r="I185" s="37">
-        <v>38.734642677619632</v>
+        <v>37.194372773067947</v>
       </c>
       <c r="J185" s="39">
         <f t="shared" si="88"/>
-        <v>90901525708.53299</v>
+        <v>33366929184.804901</v>
       </c>
       <c r="K185" s="39">
         <f t="shared" si="89"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L185" s="39">
-        <v>36.730775326845482</v>
+        <v>20.229757955522793</v>
       </c>
       <c r="M185" s="39">
         <f t="shared" si="90"/>
-        <v>143664830190.7428</v>
+        <v>30246730477.485764</v>
       </c>
       <c r="N185" s="39">
         <f t="shared" si="91"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O185" s="49">
         <f t="shared" si="92"/>
@@ -38137,110 +38136,110 @@
       </c>
       <c r="P185" s="50">
         <f t="shared" si="93"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q185" s="50">
         <f t="shared" si="94"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R185" s="51">
         <f t="shared" si="95"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="T185" s="39">
-        <v>676909526449.60107</v>
+        <v>211134957472.6264</v>
       </c>
       <c r="U185" s="39">
         <f t="shared" si="96"/>
-        <v>414780260466.72388</v>
-      </c>
-      <c r="V185" s="35">
-        <v>0</v>
+        <v>126420933137.22873</v>
+      </c>
+      <c r="V185" s="39">
+        <v>1.15177987264903</v>
       </c>
       <c r="W185" s="35">
-        <f t="shared" si="112"/>
-        <v>0</v>
+        <f t="shared" si="140"/>
+        <v>1456090862.6896887</v>
       </c>
       <c r="X185" s="34">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y185" s="34">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>14096578622.930536</v>
       </c>
       <c r="Z185" s="34">
-        <f t="shared" si="113"/>
-        <v>414780260466.72388</v>
+        <f t="shared" si="141"/>
+        <v>112324354514.29819</v>
       </c>
       <c r="AA185" s="37">
-        <v>41.260453757759478</v>
+        <v>33.702336646117473</v>
       </c>
       <c r="AB185" s="39">
         <f t="shared" si="99"/>
-        <v>171920549352.81085</v>
+        <v>48594499106.175232</v>
       </c>
       <c r="AC185" s="39">
         <f t="shared" si="100"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD185" s="39">
-        <v>33.399128041989826</v>
+        <v>24.723924747083021</v>
       </c>
       <c r="AE185" s="39">
         <f t="shared" si="101"/>
-        <v>231941076662.05341</v>
+        <v>59414611299.247353</v>
       </c>
       <c r="AF185" s="39">
         <f t="shared" si="102"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AG185" s="49">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH185" s="50">
         <f t="shared" si="104"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AI185" s="50">
         <f t="shared" si="105"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ185" s="51">
         <f t="shared" si="106"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AK185" s="49">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL185" s="50">
         <f t="shared" si="108"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM185" s="50">
         <f t="shared" si="109"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN185" s="51">
         <f t="shared" si="110"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B186" s="35" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C186" s="35">
-        <v>20736671783.489033</v>
-      </c>
-      <c r="D186" s="39">
-        <v>1.3095961053559599</v>
+        <v>236133898430.63821</v>
+      </c>
+      <c r="D186" s="35">
+        <v>0</v>
       </c>
       <c r="E186" s="35">
-        <f t="shared" si="111"/>
-        <v>271566646.05702066</v>
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
       <c r="F186" s="34">
         <f t="shared" si="85"/>
@@ -38252,29 +38251,29 @@
       </c>
       <c r="H186" s="34">
         <f t="shared" si="87"/>
-        <v>20736671783.489033</v>
+        <v>236133898430.63821</v>
       </c>
       <c r="I186" s="37">
-        <v>48.959533523278196</v>
+        <v>38.734642677619632</v>
       </c>
       <c r="J186" s="39">
         <f t="shared" si="88"/>
-        <v>10545805891.685978</v>
+        <v>90901525708.53299</v>
       </c>
       <c r="K186" s="39">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L186" s="39">
-        <v>23.243894154924387</v>
+        <v>36.730775326845482</v>
       </c>
       <c r="M186" s="39">
         <f t="shared" si="90"/>
-        <v>8344496576.5513248</v>
+        <v>143664830190.7428</v>
       </c>
       <c r="N186" s="39">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O186" s="49">
         <f t="shared" si="92"/>
@@ -38282,29 +38281,29 @@
       </c>
       <c r="P186" s="50">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q186" s="50">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R186" s="51">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T186" s="39">
-        <v>58735190955.723938</v>
+        <v>676909526449.60107</v>
       </c>
       <c r="U186" s="39">
         <f t="shared" si="96"/>
-        <v>36137471603.995842</v>
+        <v>414780260466.72388</v>
       </c>
       <c r="V186" s="35">
-        <v>1.3095961053559599</v>
+        <v>0</v>
       </c>
       <c r="W186" s="35">
-        <f t="shared" si="112"/>
-        <v>473254920.70004547</v>
+        <f t="shared" si="140"/>
+        <v>0</v>
       </c>
       <c r="X186" s="34">
         <f t="shared" si="97"/>
@@ -38315,30 +38314,30 @@
         <v>0</v>
       </c>
       <c r="Z186" s="34">
-        <f t="shared" si="113"/>
-        <v>36137471603.995842</v>
+        <f t="shared" si="141"/>
+        <v>414780260466.72388</v>
       </c>
       <c r="AA186" s="37">
-        <v>52.093884963370854</v>
+        <v>41.260453757759478</v>
       </c>
       <c r="AB186" s="39">
         <f t="shared" si="99"/>
-        <v>15793497324.52545</v>
+        <v>171920549352.81085</v>
       </c>
       <c r="AC186" s="39">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD186" s="39">
-        <v>37.304044921462562</v>
+        <v>33.399128041989826</v>
       </c>
       <c r="AE186" s="39">
         <f t="shared" si="101"/>
-        <v>18849343964.119057</v>
+        <v>231941076662.05341</v>
       </c>
       <c r="AF186" s="39">
         <f t="shared" si="102"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG186" s="49">
         <f t="shared" si="103"/>
@@ -38346,15 +38345,15 @@
       </c>
       <c r="AH186" s="50">
         <f t="shared" si="104"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI186" s="50">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ186" s="51">
         <f t="shared" si="106"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AK186" s="49">
         <f t="shared" si="107"/>
@@ -38362,94 +38361,94 @@
       </c>
       <c r="AL186" s="50">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM186" s="50">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN186" s="51">
         <f t="shared" si="110"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B187" s="35" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C187" s="35">
-        <v>41269476289.344582</v>
-      </c>
-      <c r="D187" s="35">
-        <v>3.4163479325265604</v>
+        <v>20736671783.489033</v>
+      </c>
+      <c r="D187" s="39">
+        <v>1.3095961053559599</v>
       </c>
       <c r="E187" s="35">
-        <f t="shared" si="111"/>
-        <v>1409908899.9755626</v>
+        <f t="shared" si="139"/>
+        <v>271566646.05702066</v>
       </c>
       <c r="F187" s="34">
         <f t="shared" si="85"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" s="34">
         <f t="shared" si="86"/>
-        <v>14096578622.930536</v>
+        <v>0</v>
       </c>
       <c r="H187" s="34">
         <f t="shared" si="87"/>
-        <v>27172897666.414047</v>
+        <v>20736671783.489033</v>
       </c>
       <c r="I187" s="37">
-        <v>70.125341302611545</v>
+        <v>48.959533523278196</v>
       </c>
       <c r="J187" s="39">
         <f t="shared" si="88"/>
-        <v>15613746641.292751</v>
+        <v>10545805891.685978</v>
       </c>
       <c r="K187" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="L187" s="39">
-        <v>21.404998923297256</v>
+        <v>23.243894154924387</v>
       </c>
       <c r="M187" s="39">
         <f t="shared" si="90"/>
-        <v>7943211014.1963062</v>
+        <v>8344496576.5513248</v>
       </c>
       <c r="N187" s="39">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="O187" s="52">
+      <c r="O187" s="49">
         <f t="shared" si="92"/>
-        <v>1</v>
-      </c>
-      <c r="P187" s="53">
+        <v>0</v>
+      </c>
+      <c r="P187" s="50">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="Q187" s="53">
+      <c r="Q187" s="50">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="R187" s="54">
+      <c r="R187" s="51">
         <f t="shared" si="95"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T187" s="39">
-        <v>43112365756.24472</v>
+        <v>58735190955.723938</v>
       </c>
       <c r="U187" s="39">
         <f t="shared" si="96"/>
-        <v>42016399390.279205</v>
+        <v>36137471603.995842</v>
       </c>
       <c r="V187" s="35">
-        <v>1.5449480513588301</v>
+        <v>1.3095961053559599</v>
       </c>
       <c r="W187" s="35">
-        <f t="shared" si="112"/>
-        <v>649131543.63126194</v>
+        <f t="shared" si="140"/>
+        <v>473254920.70004547</v>
       </c>
       <c r="X187" s="34">
         <f t="shared" si="97"/>
@@ -38460,60 +38459,205 @@
         <v>0</v>
       </c>
       <c r="Z187" s="34">
-        <f t="shared" si="113"/>
-        <v>42016399390.279205</v>
+        <f t="shared" si="141"/>
+        <v>36137471603.995842</v>
       </c>
       <c r="AA187" s="37">
-        <v>60.591645107015424</v>
+        <v>52.093884963370854</v>
       </c>
       <c r="AB187" s="39">
         <f t="shared" si="99"/>
-        <v>23286100217.613159</v>
+        <v>15793497324.52545</v>
       </c>
       <c r="AC187" s="39">
         <f t="shared" si="100"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD187" s="39">
-        <v>21.404998923297256</v>
+        <v>37.304044921462562</v>
       </c>
       <c r="AE187" s="39">
         <f t="shared" si="101"/>
-        <v>13710332208.493746</v>
+        <v>18849343964.119057</v>
       </c>
       <c r="AF187" s="39">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="AG187" s="52">
+      <c r="AG187" s="49">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="AH187" s="53">
+      <c r="AH187" s="50">
         <f t="shared" si="104"/>
         <v>1</v>
       </c>
-      <c r="AI187" s="53">
+      <c r="AI187" s="50">
         <f t="shared" si="105"/>
-        <v>1</v>
-      </c>
-      <c r="AJ187" s="54">
+        <v>0</v>
+      </c>
+      <c r="AJ187" s="51">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="AK187" s="49">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AL187" s="50">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="AM187" s="50">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AN187" s="51">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C188" s="35">
+        <v>41269476289.344582</v>
+      </c>
+      <c r="D188" s="35">
+        <v>3.4163479325265604</v>
+      </c>
+      <c r="E188" s="35">
+        <f t="shared" si="139"/>
+        <v>1409908899.9755626</v>
+      </c>
+      <c r="F188" s="34">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="G188" s="34">
+        <f t="shared" si="86"/>
+        <v>14096578622.930536</v>
+      </c>
+      <c r="H188" s="34">
+        <f t="shared" si="87"/>
+        <v>27172897666.414047</v>
+      </c>
+      <c r="I188" s="37">
+        <v>70.125341302611545</v>
+      </c>
+      <c r="J188" s="39">
+        <f t="shared" si="88"/>
+        <v>15613746641.292751</v>
+      </c>
+      <c r="K188" s="39">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="L188" s="39">
+        <v>21.404998923297256</v>
+      </c>
+      <c r="M188" s="39">
+        <f t="shared" si="90"/>
+        <v>7943211014.1963062</v>
+      </c>
+      <c r="N188" s="39">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="52">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="P188" s="53">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="53">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="R188" s="54">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="T188" s="39">
+        <v>43112365756.24472</v>
+      </c>
+      <c r="U188" s="39">
+        <f t="shared" si="96"/>
+        <v>42016399390.279205</v>
+      </c>
+      <c r="V188" s="35">
+        <v>1.5449480513588301</v>
+      </c>
+      <c r="W188" s="35">
+        <f t="shared" si="140"/>
+        <v>649131543.63126194</v>
+      </c>
+      <c r="X188" s="34">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="Y188" s="34">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="Z188" s="34">
+        <f t="shared" si="141"/>
+        <v>42016399390.279205</v>
+      </c>
+      <c r="AA188" s="37">
+        <v>60.591645107015424</v>
+      </c>
+      <c r="AB188" s="39">
+        <f t="shared" si="99"/>
+        <v>23286100217.613159</v>
+      </c>
+      <c r="AC188" s="39">
+        <f t="shared" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="AD188" s="39">
+        <v>21.404998923297256</v>
+      </c>
+      <c r="AE188" s="39">
+        <f t="shared" si="101"/>
+        <v>13710332208.493746</v>
+      </c>
+      <c r="AF188" s="39">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="AG188" s="52">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AH188" s="53">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="AI188" s="53">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="AJ188" s="54">
         <f t="shared" si="106"/>
         <v>2</v>
       </c>
-      <c r="AK187" s="52">
+      <c r="AK188" s="52">
         <f t="shared" si="107"/>
         <v>-1</v>
       </c>
-      <c r="AL187" s="53">
+      <c r="AL188" s="53">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="AM187" s="53">
+      <c r="AM188" s="53">
         <f t="shared" si="109"/>
         <v>1</v>
       </c>
-      <c r="AN187" s="54">
+      <c r="AN188" s="54">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085796E-FE9A-402B-A422-1A4A4940C462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579257D7-553E-4F21-99DD-FB0E7E750C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="508">
   <si>
     <t>Population Tax Rate</t>
   </si>
@@ -1703,6 +1703,9 @@
   <si>
     <t>Syria</t>
   </si>
+  <si>
+    <t>Yemen</t>
+  </si>
 </sst>
 </file>
 
@@ -2380,11 +2383,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2401,20 +2413,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8443,246 +8446,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="71" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="71" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="71" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="71" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="71" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="71" t="s">
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="71" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="71" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="71" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="71" t="s">
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="71" t="s">
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="71" t="s">
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="71" t="s">
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="73"/>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
+      <c r="BR2" s="66"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65" t="s">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64" t="s">
+      <c r="R3" s="69"/>
+      <c r="S3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="64" t="s">
+      <c r="V3" s="69"/>
+      <c r="W3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65" t="s">
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="64" t="s">
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65" t="s">
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="64" t="s">
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65" t="s">
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="64" t="s">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65" t="s">
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65" t="s">
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="64" t="s">
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65" t="s">
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65" t="s">
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="64" t="s">
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65" t="s">
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="64" t="s">
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65" t="s">
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="64" t="s">
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65" t="s">
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="66"/>
+      <c r="BR3" s="69"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8894,10 +8897,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="67">
-        <v>1</v>
-      </c>
-      <c r="D5" s="68"/>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8905,10 +8908,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="67">
-        <v>1</v>
-      </c>
-      <c r="H5" s="68"/>
+      <c r="G5" s="70">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8916,10 +8919,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="67">
-        <v>1</v>
-      </c>
-      <c r="L5" s="68"/>
+      <c r="K5" s="70">
+        <v>1</v>
+      </c>
+      <c r="L5" s="71"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8927,10 +8930,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="67">
-        <v>1</v>
-      </c>
-      <c r="P5" s="68"/>
+      <c r="O5" s="70">
+        <v>1</v>
+      </c>
+      <c r="P5" s="71"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8941,7 +8944,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="68"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8949,10 +8952,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="70">
         <v>2</v>
       </c>
-      <c r="X5" s="68"/>
+      <c r="X5" s="71"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8960,10 +8963,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="67">
+      <c r="AA5" s="70">
         <v>2</v>
       </c>
-      <c r="AB5" s="68"/>
+      <c r="AB5" s="71"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8971,10 +8974,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="67">
+      <c r="AE5" s="70">
         <v>7</v>
       </c>
-      <c r="AF5" s="68"/>
+      <c r="AF5" s="71"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8982,10 +8985,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="67">
+      <c r="AI5" s="70">
         <v>7</v>
       </c>
-      <c r="AJ5" s="68"/>
+      <c r="AJ5" s="71"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8993,10 +8996,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="67">
+      <c r="AM5" s="70">
         <v>7</v>
       </c>
-      <c r="AN5" s="68"/>
+      <c r="AN5" s="71"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9004,10 +9007,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="67">
+      <c r="AQ5" s="70">
         <v>10</v>
       </c>
-      <c r="AR5" s="68"/>
+      <c r="AR5" s="71"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9015,10 +9018,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="67">
+      <c r="AU5" s="70">
         <v>15</v>
       </c>
-      <c r="AV5" s="68"/>
+      <c r="AV5" s="71"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9026,10 +9029,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="67">
+      <c r="AY5" s="70">
         <v>20</v>
       </c>
-      <c r="AZ5" s="68"/>
+      <c r="AZ5" s="71"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9037,10 +9040,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="67">
+      <c r="BC5" s="70">
         <v>20</v>
       </c>
-      <c r="BD5" s="68"/>
+      <c r="BD5" s="71"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9048,10 +9051,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="67">
+      <c r="BG5" s="70">
         <v>20</v>
       </c>
-      <c r="BH5" s="68"/>
+      <c r="BH5" s="71"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9059,10 +9062,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="67">
+      <c r="BK5" s="70">
         <v>30</v>
       </c>
-      <c r="BL5" s="68"/>
+      <c r="BL5" s="71"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9070,10 +9073,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="67">
+      <c r="BO5" s="70">
         <v>30</v>
       </c>
-      <c r="BP5" s="68"/>
+      <c r="BP5" s="71"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9086,34 +9089,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="72">
         <v>11</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="62">
+      <c r="G6" s="72">
         <v>17</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="62">
+      <c r="K6" s="72">
         <v>10</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="62">
+      <c r="O6" s="72">
         <v>18</v>
       </c>
-      <c r="P6" s="63"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9121,103 +9124,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="63"/>
+      <c r="T6" s="73"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="62">
+      <c r="W6" s="72">
         <v>18</v>
       </c>
-      <c r="X6" s="63"/>
+      <c r="X6" s="73"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="62">
+      <c r="AA6" s="72">
         <v>18</v>
       </c>
-      <c r="AB6" s="63"/>
+      <c r="AB6" s="73"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="62">
+      <c r="AE6" s="72">
         <v>14</v>
       </c>
-      <c r="AF6" s="63"/>
+      <c r="AF6" s="73"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="62">
+      <c r="AI6" s="72">
         <v>23</v>
       </c>
-      <c r="AJ6" s="63"/>
+      <c r="AJ6" s="73"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="62">
+      <c r="AM6" s="72">
         <v>7</v>
       </c>
-      <c r="AN6" s="63"/>
+      <c r="AN6" s="73"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="62">
+      <c r="AQ6" s="72">
         <v>14</v>
       </c>
-      <c r="AR6" s="63"/>
+      <c r="AR6" s="73"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="62">
+      <c r="AU6" s="72">
         <v>12</v>
       </c>
-      <c r="AV6" s="63"/>
+      <c r="AV6" s="73"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="62">
+      <c r="AY6" s="72">
         <v>37</v>
       </c>
-      <c r="AZ6" s="63"/>
+      <c r="AZ6" s="73"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="62">
+      <c r="BC6" s="72">
         <v>30</v>
       </c>
-      <c r="BD6" s="63"/>
+      <c r="BD6" s="73"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="62">
+      <c r="BG6" s="72">
         <v>23</v>
       </c>
-      <c r="BH6" s="63"/>
+      <c r="BH6" s="73"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="62">
+      <c r="BK6" s="72">
         <v>37</v>
       </c>
-      <c r="BL6" s="63"/>
+      <c r="BL6" s="73"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="62">
+      <c r="BO6" s="72">
         <v>36</v>
       </c>
-      <c r="BP6" s="63"/>
+      <c r="BP6" s="73"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9227,104 +9230,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="63"/>
+      <c r="T7" s="73"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="63"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="63"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="63"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="63"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="63"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="73"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="73"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="63"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="73"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="63"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="73"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="63"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="73"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="63"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="73"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="63"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="73"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9334,11 +9337,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="62">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9347,11 +9350,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="62">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9360,11 +9363,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="62">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9373,11 +9376,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="62">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="70"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9390,7 +9393,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="70"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9399,11 +9402,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="62">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="70"/>
+      <c r="X8" s="63"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9412,11 +9415,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AA8" s="62">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="70"/>
+      <c r="AB8" s="63"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9425,11 +9428,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="69">
+      <c r="AE8" s="62">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="70"/>
+      <c r="AF8" s="63"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9438,11 +9441,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="69">
+      <c r="AI8" s="62">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="70"/>
+      <c r="AJ8" s="63"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9451,11 +9454,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="AM8" s="62">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="70"/>
+      <c r="AN8" s="63"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9464,11 +9467,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="69">
+      <c r="AQ8" s="62">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="70"/>
+      <c r="AR8" s="63"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9477,11 +9480,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="69">
+      <c r="AU8" s="62">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="70"/>
+      <c r="AV8" s="63"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9490,11 +9493,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="69">
+      <c r="AY8" s="62">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="70"/>
+      <c r="AZ8" s="63"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9503,11 +9506,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="69">
+      <c r="BC8" s="62">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="70"/>
+      <c r="BD8" s="63"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9516,11 +9519,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="69">
+      <c r="BG8" s="62">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="70"/>
+      <c r="BH8" s="63"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9529,11 +9532,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="69">
+      <c r="BK8" s="62">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="70"/>
+      <c r="BL8" s="63"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9542,11 +9545,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="69">
+      <c r="BO8" s="62">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="70"/>
+      <c r="BP8" s="63"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12530,15 +12533,92 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G5:H5"/>
@@ -12563,92 +12643,15 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13095,13 +13098,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D9EFE-8FC7-4B01-807E-922034333148}">
-  <dimension ref="B1:AN188"/>
+  <dimension ref="B1:AN189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13195,6 +13198,13 @@
       <c r="K5" s="39" t="s">
         <v>499</v>
       </c>
+      <c r="N5" s="39">
+        <v>2</v>
+      </c>
+      <c r="O5" s="39">
+        <f>N5*J7</f>
+        <v>4.9035689664929496</v>
+      </c>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="44"/>
@@ -13226,6 +13236,13 @@
       <c r="K6" s="39" t="s">
         <v>500</v>
       </c>
+      <c r="N6" s="39">
+        <v>4</v>
+      </c>
+      <c r="O6" s="39">
+        <f>N6*J6</f>
+        <v>6.4747880254911108</v>
+      </c>
       <c r="T6" s="44"/>
       <c r="U6" s="44"/>
       <c r="V6" s="44"/>
@@ -13235,6 +13252,13 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="57"/>
+      <c r="AK6" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="39">
+        <f>AK6*2.5</f>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="7" spans="2:40" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="43">
@@ -13255,6 +13279,10 @@
       </c>
       <c r="K7" s="39" t="s">
         <v>501</v>
+      </c>
+      <c r="O7" s="39">
+        <f>O5+O6</f>
+        <v>11.378356991984059</v>
       </c>
       <c r="T7" s="58"/>
       <c r="U7" s="58"/>
@@ -13265,6 +13293,13 @@
       <c r="Z7" s="44"/>
       <c r="AA7" s="44"/>
       <c r="AB7" s="57"/>
+      <c r="AK7" s="39">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="39">
+        <f>AK7*1.6</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="8" spans="2:40" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="42">
@@ -13290,6 +13325,10 @@
       <c r="Z8" s="44"/>
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
+      <c r="AL8" s="39">
+        <f>AL6+AL7</f>
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="2:40" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="45">
@@ -15322,7 +15361,7 @@
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="35">
@@ -26487,7 +26526,7 @@
       </c>
     </row>
     <row r="105" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="60" t="s">
         <v>257</v>
       </c>
       <c r="C105" s="35">
@@ -31562,7 +31601,7 @@
       </c>
     </row>
     <row r="140" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="60" t="s">
         <v>339</v>
       </c>
       <c r="C140" s="35">
@@ -32446,60 +32485,60 @@
         <v>3040143002.0130162</v>
       </c>
       <c r="F146" s="34">
-        <f t="shared" ref="F146:F188" si="85">ROUND(E146/$C$6,0)</f>
+        <f t="shared" ref="F146:F189" si="85">ROUND(E146/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="G146" s="34">
-        <f t="shared" ref="G146:G188" si="86">F146*$C$6*$C$8</f>
+        <f t="shared" ref="G146:G189" si="86">F146*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="H146" s="34">
-        <f t="shared" ref="H146:H188" si="87">C146-G146</f>
+        <f t="shared" ref="H146:H189" si="87">C146-G146</f>
         <v>155841897555.6507</v>
       </c>
       <c r="I146" s="37">
         <v>54.027488592566343</v>
       </c>
       <c r="J146" s="39">
-        <f t="shared" ref="J146:J188" si="88">I146/(I146+L146)*H146*$F$7</f>
+        <f t="shared" ref="J146:J189" si="88">I146/(I146+L146)*H146*$F$7</f>
         <v>76025601024.445969</v>
       </c>
       <c r="K146" s="39">
-        <f t="shared" ref="K146:K188" si="89">ROUND(J146/$F$9,0)</f>
+        <f t="shared" ref="K146:K189" si="89">ROUND(J146/$F$9,0)</f>
         <v>2</v>
       </c>
       <c r="L146" s="39">
         <v>29.034133699552562</v>
       </c>
       <c r="M146" s="39">
-        <f t="shared" ref="M146:M188" si="90">L146/(I146+L146)*H146*(2-$F$7)</f>
+        <f t="shared" ref="M146:M189" si="90">L146/(I146+L146)*H146*(2-$F$7)</f>
         <v>68093036903.820114</v>
       </c>
       <c r="N146" s="39">
-        <f t="shared" ref="N146:N188" si="91">ROUND(M146/$F$8,0)</f>
+        <f t="shared" ref="N146:N189" si="91">ROUND(M146/$F$8,0)</f>
         <v>3</v>
       </c>
       <c r="O146" s="49">
-        <f t="shared" ref="O146:O188" si="92">F146</f>
+        <f t="shared" ref="O146:O189" si="92">F146</f>
         <v>1</v>
       </c>
       <c r="P146" s="50">
-        <f t="shared" ref="P146:P188" si="93">N146</f>
+        <f t="shared" ref="P146:P189" si="93">N146</f>
         <v>3</v>
       </c>
       <c r="Q146" s="50">
-        <f t="shared" ref="Q146:Q188" si="94">K146</f>
+        <f t="shared" ref="Q146:Q189" si="94">K146</f>
         <v>2</v>
       </c>
       <c r="R146" s="51">
-        <f t="shared" ref="R146:R188" si="95">O146+P146+Q146</f>
+        <f t="shared" ref="R146:R189" si="95">O146+P146+Q146</f>
         <v>6</v>
       </c>
       <c r="T146" s="39">
         <v>393259049121.62598</v>
       </c>
       <c r="U146" s="39">
-        <f t="shared" ref="U146:U188" si="96">(T146-C146)*$U$11+C146</f>
+        <f t="shared" ref="U146:U189" si="96">(T146-C146)*$U$11+C146</f>
         <v>260450304392.39728</v>
       </c>
       <c r="V146" s="35">
@@ -32510,11 +32549,11 @@
         <v>3245100890.1077366</v>
       </c>
       <c r="X146" s="34">
-        <f t="shared" ref="X146:X188" si="97">ROUND(W146/$C$6,0)</f>
+        <f t="shared" ref="X146:X189" si="97">ROUND(W146/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="Y146" s="34">
-        <f t="shared" ref="Y146:Y188" si="98">X146*$C$6*$C$8</f>
+        <f t="shared" ref="Y146:Y189" si="98">X146*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="Z146" s="34">
@@ -32525,54 +32564,54 @@
         <v>53.928333156489416</v>
       </c>
       <c r="AB146" s="39">
-        <f t="shared" ref="AB146:AB188" si="99">AA146/(AA146+AD146)*Z146*$F$7</f>
+        <f t="shared" ref="AB146:AB189" si="99">AA146/(AA146+AD146)*Z146*$F$7</f>
         <v>116913370864.92297</v>
       </c>
       <c r="AC146" s="39">
-        <f t="shared" ref="AC146:AC188" si="100">ROUND(AB146/$F$9,0)</f>
+        <f t="shared" ref="AC146:AC189" si="100">ROUND(AB146/$F$9,0)</f>
         <v>3</v>
       </c>
       <c r="AD146" s="39">
         <v>31.29788412314732</v>
       </c>
       <c r="AE146" s="39">
-        <f t="shared" ref="AE146:AE188" si="101">AD146/(AA146+AD146)*Z146*(2-$F$7)</f>
+        <f t="shared" ref="AE146:AE189" si="101">AD146/(AA146+AD146)*Z146*(2-$F$7)</f>
         <v>113086539103.62848</v>
       </c>
       <c r="AF146" s="39">
-        <f t="shared" ref="AF146:AF188" si="102">ROUND(AE146/$F$8,0)</f>
+        <f t="shared" ref="AF146:AF189" si="102">ROUND(AE146/$F$8,0)</f>
         <v>5</v>
       </c>
       <c r="AG146" s="49">
-        <f t="shared" ref="AG146:AG188" si="103">X146</f>
+        <f t="shared" ref="AG146:AG189" si="103">X146</f>
         <v>1</v>
       </c>
       <c r="AH146" s="50">
-        <f t="shared" ref="AH146:AH188" si="104">AF146</f>
+        <f t="shared" ref="AH146:AH189" si="104">AF146</f>
         <v>5</v>
       </c>
       <c r="AI146" s="50">
-        <f t="shared" ref="AI146:AI188" si="105">AC146</f>
+        <f t="shared" ref="AI146:AI189" si="105">AC146</f>
         <v>3</v>
       </c>
       <c r="AJ146" s="51">
-        <f t="shared" ref="AJ146:AJ188" si="106">AG146+AH146+AI146</f>
+        <f t="shared" ref="AJ146:AJ189" si="106">AG146+AH146+AI146</f>
         <v>9</v>
       </c>
       <c r="AK146" s="49">
-        <f t="shared" ref="AK146:AK188" si="107">AG146-O146</f>
+        <f t="shared" ref="AK146:AK189" si="107">AG146-O146</f>
         <v>0</v>
       </c>
       <c r="AL146" s="50">
-        <f t="shared" ref="AL146:AL188" si="108">AH146-P146</f>
+        <f t="shared" ref="AL146:AL189" si="108">AH146-P146</f>
         <v>2</v>
       </c>
       <c r="AM146" s="50">
-        <f t="shared" ref="AM146:AM188" si="109">AI146-Q146</f>
+        <f t="shared" ref="AM146:AM189" si="109">AI146-Q146</f>
         <v>1</v>
       </c>
       <c r="AN146" s="51">
-        <f t="shared" ref="AN146:AN188" si="110">AJ146-R146</f>
+        <f t="shared" ref="AN146:AN189" si="110">AJ146-R146</f>
         <v>3</v>
       </c>
     </row>
@@ -33012,7 +33051,7 @@
       </c>
     </row>
     <row r="150" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="60" t="s">
         <v>361</v>
       </c>
       <c r="C150" s="35">
@@ -33737,7 +33776,7 @@
       </c>
     </row>
     <row r="155" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="35">
@@ -36498,7 +36537,7 @@
         <v>0.85501148400089511</v>
       </c>
       <c r="E174" s="35">
-        <f t="shared" ref="E174:E188" si="139">D174/100*C174</f>
+        <f t="shared" ref="E174:E189" si="139">D174/100*C174</f>
         <v>17605314.763955552</v>
       </c>
       <c r="F174" s="34">
@@ -37142,7 +37181,7 @@
         <v>2.0652596724157299</v>
       </c>
       <c r="W178" s="35">
-        <f t="shared" ref="W178:W188" si="140">V178/100*U178</f>
+        <f t="shared" ref="W178:W189" si="140">V178/100*U178</f>
         <v>31039471752.397705</v>
       </c>
       <c r="X178" s="34">
@@ -37154,7 +37193,7 @@
         <v>197352100721.0275</v>
       </c>
       <c r="Z178" s="34">
-        <f t="shared" ref="Z178:Z188" si="141">U178-Y178</f>
+        <f t="shared" ref="Z178:Z189" si="141">U178-Y178</f>
         <v>1305581025169.6697</v>
       </c>
       <c r="AA178" s="37">
@@ -37648,7 +37687,7 @@
       </c>
     </row>
     <row r="182" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="60" t="s">
         <v>446</v>
       </c>
       <c r="C182" s="35">
@@ -38372,292 +38411,433 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B187" s="35" t="s">
+    <row r="187" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="60" t="s">
+        <v>507</v>
+      </c>
+      <c r="C187" s="39">
+        <v>24153264424</v>
+      </c>
+      <c r="D187" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E187" s="39">
+        <f t="shared" ref="E187" si="142">D187/100*C187</f>
+        <v>1183509956.776</v>
+      </c>
+      <c r="F187" s="34">
+        <f t="shared" ref="F187" si="143">ROUND(E187/$C$6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G187" s="34">
+        <f t="shared" ref="G187" si="144">F187*$C$6*$C$8</f>
+        <v>14096578622.930536</v>
+      </c>
+      <c r="H187" s="34">
+        <f t="shared" ref="H187" si="145">C187-G187</f>
+        <v>10056685801.069464</v>
+      </c>
+      <c r="I187" s="39">
+        <v>31</v>
+      </c>
+      <c r="J187" s="39">
+        <f t="shared" ref="J187" si="146">I187/(I187+L187)*H187*$F$7</f>
+        <v>3036596686.6865592</v>
+      </c>
+      <c r="K187" s="39">
+        <f t="shared" ref="K187" si="147">ROUND(J187/$F$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="39">
+        <v>46</v>
+      </c>
+      <c r="M187" s="39">
+        <f t="shared" ref="M187" si="148">L187/(I187+L187)*H187*(2-$F$7)</f>
+        <v>7509862773.525898</v>
+      </c>
+      <c r="N187" s="39">
+        <f t="shared" ref="N187" si="149">ROUND(M187/$F$8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O187" s="49">
+        <f t="shared" ref="O187" si="150">F187</f>
+        <v>1</v>
+      </c>
+      <c r="P187" s="50">
+        <f t="shared" ref="P187" si="151">N187</f>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="50">
+        <f t="shared" ref="Q187" si="152">K187</f>
+        <v>0</v>
+      </c>
+      <c r="R187" s="51">
+        <f t="shared" ref="R187" si="153">O187+P187+Q187</f>
+        <v>1</v>
+      </c>
+      <c r="U187" s="39">
+        <v>66914452000</v>
+      </c>
+      <c r="V187" s="39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W187" s="39">
+        <f t="shared" ref="W187" si="154">V187/100*U187</f>
+        <v>3278808148</v>
+      </c>
+      <c r="X187" s="34">
+        <f t="shared" ref="X187" si="155">ROUND(W187/$C$6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y187" s="34">
+        <f t="shared" ref="Y187" si="156">X187*$C$6*$C$8</f>
+        <v>14096578622.930536</v>
+      </c>
+      <c r="Z187" s="34">
+        <f t="shared" ref="Z187" si="157">U187-Y187</f>
+        <v>52817873377.069466</v>
+      </c>
+      <c r="AA187" s="39">
+        <v>19</v>
+      </c>
+      <c r="AB187" s="39">
+        <f t="shared" ref="AB187" si="158">AA187/(AA187+AD187)*Z187*$F$7</f>
+        <v>12338601567.594097</v>
+      </c>
+      <c r="AC187" s="39">
+        <f t="shared" ref="AC187" si="159">ROUND(AB187/$F$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD187" s="39">
+        <v>42</v>
+      </c>
+      <c r="AE187" s="39">
+        <f t="shared" ref="AE187" si="160">AD187/(AA187+AD187)*Z187*(2-$F$7)</f>
+        <v>45458005775.346672</v>
+      </c>
+      <c r="AF187" s="39">
+        <f t="shared" ref="AF187" si="161">ROUND(AE187/$F$8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AG187" s="49">
+        <f t="shared" ref="AG187" si="162">X187</f>
+        <v>1</v>
+      </c>
+      <c r="AH187" s="50">
+        <f t="shared" ref="AH187" si="163">AF187</f>
+        <v>2</v>
+      </c>
+      <c r="AI187" s="50">
+        <f t="shared" ref="AI187" si="164">AC187</f>
+        <v>0</v>
+      </c>
+      <c r="AJ187" s="51">
+        <f t="shared" ref="AJ187" si="165">AG187+AH187+AI187</f>
+        <v>3</v>
+      </c>
+      <c r="AK187" s="49">
+        <f t="shared" ref="AK187" si="166">AG187-O187</f>
+        <v>0</v>
+      </c>
+      <c r="AL187" s="50">
+        <f t="shared" ref="AL187" si="167">AH187-P187</f>
+        <v>2</v>
+      </c>
+      <c r="AM187" s="50">
+        <f t="shared" ref="AM187" si="168">AI187-Q187</f>
+        <v>0</v>
+      </c>
+      <c r="AN187" s="51">
+        <f t="shared" ref="AN187" si="169">AJ187-R187</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B188" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="C187" s="35">
+      <c r="C188" s="35">
         <v>20736671783.489033</v>
       </c>
-      <c r="D187" s="39">
+      <c r="D188" s="39">
         <v>1.3095961053559599</v>
       </c>
-      <c r="E187" s="35">
+      <c r="E188" s="35">
         <f t="shared" si="139"/>
         <v>271566646.05702066</v>
       </c>
-      <c r="F187" s="34">
+      <c r="F188" s="34">
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="G187" s="34">
+      <c r="G188" s="34">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="H187" s="34">
+      <c r="H188" s="34">
         <f t="shared" si="87"/>
         <v>20736671783.489033</v>
       </c>
-      <c r="I187" s="37">
+      <c r="I188" s="37">
         <v>48.959533523278196</v>
       </c>
-      <c r="J187" s="39">
+      <c r="J188" s="39">
         <f t="shared" si="88"/>
         <v>10545805891.685978</v>
       </c>
-      <c r="K187" s="39">
+      <c r="K188" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="L187" s="39">
+      <c r="L188" s="39">
         <v>23.243894154924387</v>
       </c>
-      <c r="M187" s="39">
+      <c r="M188" s="39">
         <f t="shared" si="90"/>
         <v>8344496576.5513248</v>
       </c>
-      <c r="N187" s="39">
+      <c r="N188" s="39">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="O187" s="49">
+      <c r="O188" s="49">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="P187" s="50">
+      <c r="P188" s="50">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="Q187" s="50">
+      <c r="Q188" s="50">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="R187" s="51">
+      <c r="R188" s="51">
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="T187" s="39">
+      <c r="T188" s="39">
         <v>58735190955.723938</v>
       </c>
-      <c r="U187" s="39">
+      <c r="U188" s="39">
         <f t="shared" si="96"/>
         <v>36137471603.995842</v>
       </c>
-      <c r="V187" s="35">
+      <c r="V188" s="35">
         <v>1.3095961053559599</v>
       </c>
-      <c r="W187" s="35">
+      <c r="W188" s="35">
         <f t="shared" si="140"/>
         <v>473254920.70004547</v>
       </c>
-      <c r="X187" s="34">
+      <c r="X188" s="34">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Y187" s="34">
+      <c r="Y188" s="34">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="Z187" s="34">
+      <c r="Z188" s="34">
         <f t="shared" si="141"/>
         <v>36137471603.995842</v>
       </c>
-      <c r="AA187" s="37">
+      <c r="AA188" s="37">
         <v>52.093884963370854</v>
       </c>
-      <c r="AB187" s="39">
+      <c r="AB188" s="39">
         <f t="shared" si="99"/>
         <v>15793497324.52545</v>
       </c>
-      <c r="AC187" s="39">
+      <c r="AC188" s="39">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="AD187" s="39">
+      <c r="AD188" s="39">
         <v>37.304044921462562</v>
       </c>
-      <c r="AE187" s="39">
+      <c r="AE188" s="39">
         <f t="shared" si="101"/>
         <v>18849343964.119057</v>
       </c>
-      <c r="AF187" s="39">
+      <c r="AF188" s="39">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="AG187" s="49">
+      <c r="AG188" s="49">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="AH187" s="50">
+      <c r="AH188" s="50">
         <f t="shared" si="104"/>
         <v>1</v>
       </c>
-      <c r="AI187" s="50">
+      <c r="AI188" s="50">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="AJ187" s="51">
+      <c r="AJ188" s="51">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="AK187" s="49">
+      <c r="AK188" s="49">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AL187" s="50">
+      <c r="AL188" s="50">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="AM187" s="50">
+      <c r="AM188" s="50">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AN187" s="51">
+      <c r="AN188" s="51">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="35" t="s">
+    <row r="189" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="C188" s="35">
+      <c r="C189" s="35">
         <v>41269476289.344582</v>
       </c>
-      <c r="D188" s="35">
+      <c r="D189" s="35">
         <v>3.4163479325265604</v>
       </c>
-      <c r="E188" s="35">
+      <c r="E189" s="35">
         <f t="shared" si="139"/>
         <v>1409908899.9755626</v>
       </c>
-      <c r="F188" s="34">
+      <c r="F189" s="34">
         <f t="shared" si="85"/>
         <v>1</v>
       </c>
-      <c r="G188" s="34">
+      <c r="G189" s="34">
         <f t="shared" si="86"/>
         <v>14096578622.930536</v>
       </c>
-      <c r="H188" s="34">
+      <c r="H189" s="34">
         <f t="shared" si="87"/>
         <v>27172897666.414047</v>
       </c>
-      <c r="I188" s="37">
+      <c r="I189" s="37">
         <v>70.125341302611545</v>
       </c>
-      <c r="J188" s="39">
+      <c r="J189" s="39">
         <f t="shared" si="88"/>
         <v>15613746641.292751</v>
       </c>
-      <c r="K188" s="39">
+      <c r="K189" s="39">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="L188" s="39">
+      <c r="L189" s="39">
         <v>21.404998923297256</v>
       </c>
-      <c r="M188" s="39">
+      <c r="M189" s="39">
         <f t="shared" si="90"/>
         <v>7943211014.1963062</v>
       </c>
-      <c r="N188" s="39">
+      <c r="N189" s="39">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="O188" s="52">
+      <c r="O189" s="52">
         <f t="shared" si="92"/>
         <v>1</v>
       </c>
-      <c r="P188" s="53">
+      <c r="P189" s="53">
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="Q188" s="53">
+      <c r="Q189" s="53">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="R188" s="54">
+      <c r="R189" s="54">
         <f t="shared" si="95"/>
         <v>1</v>
       </c>
-      <c r="T188" s="39">
+      <c r="T189" s="39">
         <v>43112365756.24472</v>
       </c>
-      <c r="U188" s="39">
+      <c r="U189" s="39">
         <f t="shared" si="96"/>
         <v>42016399390.279205</v>
       </c>
-      <c r="V188" s="35">
+      <c r="V189" s="35">
         <v>1.5449480513588301</v>
       </c>
-      <c r="W188" s="35">
+      <c r="W189" s="35">
         <f t="shared" si="140"/>
         <v>649131543.63126194</v>
       </c>
-      <c r="X188" s="34">
+      <c r="X189" s="34">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Y188" s="34">
+      <c r="Y189" s="34">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="Z188" s="34">
+      <c r="Z189" s="34">
         <f t="shared" si="141"/>
         <v>42016399390.279205</v>
       </c>
-      <c r="AA188" s="37">
+      <c r="AA189" s="37">
         <v>60.591645107015424</v>
       </c>
-      <c r="AB188" s="39">
+      <c r="AB189" s="39">
         <f t="shared" si="99"/>
         <v>23286100217.613159</v>
       </c>
-      <c r="AC188" s="39">
+      <c r="AC189" s="39">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="AD188" s="39">
+      <c r="AD189" s="39">
         <v>21.404998923297256</v>
       </c>
-      <c r="AE188" s="39">
+      <c r="AE189" s="39">
         <f t="shared" si="101"/>
         <v>13710332208.493746</v>
       </c>
-      <c r="AF188" s="39">
+      <c r="AF189" s="39">
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="AG188" s="52">
+      <c r="AG189" s="52">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="AH188" s="53">
+      <c r="AH189" s="53">
         <f t="shared" si="104"/>
         <v>1</v>
       </c>
-      <c r="AI188" s="53">
+      <c r="AI189" s="53">
         <f t="shared" si="105"/>
         <v>1</v>
       </c>
-      <c r="AJ188" s="54">
+      <c r="AJ189" s="54">
         <f t="shared" si="106"/>
         <v>2</v>
       </c>
-      <c r="AK188" s="52">
+      <c r="AK189" s="52">
         <f t="shared" si="107"/>
         <v>-1</v>
       </c>
-      <c r="AL188" s="53">
+      <c r="AL189" s="53">
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="AM188" s="53">
+      <c r="AM189" s="53">
         <f t="shared" si="109"/>
         <v>1</v>
       </c>
-      <c r="AN188" s="54">
+      <c r="AN189" s="54">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>
@@ -38676,8 +38856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A9ED62-1A49-45D7-8157-2940EBDC52F1}">
   <dimension ref="A1:AA218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I181" workbookViewId="0">
+      <selection activeCell="AA216" sqref="AA216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E29C1F-F978-461B-B289-2B97CAAD4FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F10A4-D3F7-4E4D-B193-C52A0D5B7BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -2383,20 +2383,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2413,11 +2404,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8446,246 +8446,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="64" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="64" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="64" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="64" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="64" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="64" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="64" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="64" t="s">
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="64" t="s">
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="66"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="73"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="67" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="67" t="s">
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="67" t="s">
+      <c r="V3" s="66"/>
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="67" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68" t="s">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="67" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68" t="s">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="67" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="67" t="s">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68" t="s">
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="67" t="s">
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68" t="s">
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="67" t="s">
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68" t="s">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="67" t="s">
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68" t="s">
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="67" t="s">
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68" t="s">
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68" t="s">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="69"/>
+      <c r="BR3" s="66"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8897,10 +8897,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71"/>
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8908,10 +8908,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="70">
-        <v>1</v>
-      </c>
-      <c r="H5" s="71"/>
+      <c r="G5" s="67">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8919,10 +8919,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="70">
-        <v>1</v>
-      </c>
-      <c r="L5" s="71"/>
+      <c r="K5" s="67">
+        <v>1</v>
+      </c>
+      <c r="L5" s="68"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8930,10 +8930,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="70">
-        <v>1</v>
-      </c>
-      <c r="P5" s="71"/>
+      <c r="O5" s="67">
+        <v>1</v>
+      </c>
+      <c r="P5" s="68"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="71"/>
+      <c r="T5" s="68"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8952,10 +8952,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W5" s="67">
         <v>2</v>
       </c>
-      <c r="X5" s="71"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8963,10 +8963,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="67">
         <v>2</v>
       </c>
-      <c r="AB5" s="71"/>
+      <c r="AB5" s="68"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8974,10 +8974,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="67">
         <v>7</v>
       </c>
-      <c r="AF5" s="71"/>
+      <c r="AF5" s="68"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8985,10 +8985,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="67">
         <v>7</v>
       </c>
-      <c r="AJ5" s="71"/>
+      <c r="AJ5" s="68"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8996,10 +8996,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="70">
+      <c r="AM5" s="67">
         <v>7</v>
       </c>
-      <c r="AN5" s="71"/>
+      <c r="AN5" s="68"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9007,10 +9007,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="70">
+      <c r="AQ5" s="67">
         <v>10</v>
       </c>
-      <c r="AR5" s="71"/>
+      <c r="AR5" s="68"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9018,10 +9018,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="70">
+      <c r="AU5" s="67">
         <v>15</v>
       </c>
-      <c r="AV5" s="71"/>
+      <c r="AV5" s="68"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9029,10 +9029,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="67">
         <v>20</v>
       </c>
-      <c r="AZ5" s="71"/>
+      <c r="AZ5" s="68"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9040,10 +9040,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="70">
+      <c r="BC5" s="67">
         <v>20</v>
       </c>
-      <c r="BD5" s="71"/>
+      <c r="BD5" s="68"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9051,10 +9051,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="70">
+      <c r="BG5" s="67">
         <v>20</v>
       </c>
-      <c r="BH5" s="71"/>
+      <c r="BH5" s="68"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9062,10 +9062,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="70">
+      <c r="BK5" s="67">
         <v>30</v>
       </c>
-      <c r="BL5" s="71"/>
+      <c r="BL5" s="68"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9073,10 +9073,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="70">
+      <c r="BO5" s="67">
         <v>30</v>
       </c>
-      <c r="BP5" s="71"/>
+      <c r="BP5" s="68"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9089,34 +9089,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="62">
         <v>11</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="72">
+      <c r="G6" s="62">
         <v>17</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="72">
+      <c r="K6" s="62">
         <v>10</v>
       </c>
-      <c r="L6" s="73"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="72">
+      <c r="O6" s="62">
         <v>18</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9124,103 +9124,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="73"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="72">
+      <c r="W6" s="62">
         <v>18</v>
       </c>
-      <c r="X6" s="73"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="72">
+      <c r="AA6" s="62">
         <v>18</v>
       </c>
-      <c r="AB6" s="73"/>
+      <c r="AB6" s="63"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="72">
+      <c r="AE6" s="62">
         <v>14</v>
       </c>
-      <c r="AF6" s="73"/>
+      <c r="AF6" s="63"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="72">
+      <c r="AI6" s="62">
         <v>23</v>
       </c>
-      <c r="AJ6" s="73"/>
+      <c r="AJ6" s="63"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="72">
+      <c r="AM6" s="62">
         <v>7</v>
       </c>
-      <c r="AN6" s="73"/>
+      <c r="AN6" s="63"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="72">
+      <c r="AQ6" s="62">
         <v>14</v>
       </c>
-      <c r="AR6" s="73"/>
+      <c r="AR6" s="63"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="72">
+      <c r="AU6" s="62">
         <v>12</v>
       </c>
-      <c r="AV6" s="73"/>
+      <c r="AV6" s="63"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="72">
+      <c r="AY6" s="62">
         <v>37</v>
       </c>
-      <c r="AZ6" s="73"/>
+      <c r="AZ6" s="63"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="72">
+      <c r="BC6" s="62">
         <v>30</v>
       </c>
-      <c r="BD6" s="73"/>
+      <c r="BD6" s="63"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="72">
+      <c r="BG6" s="62">
         <v>23</v>
       </c>
-      <c r="BH6" s="73"/>
+      <c r="BH6" s="63"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="72">
+      <c r="BK6" s="62">
         <v>37</v>
       </c>
-      <c r="BL6" s="73"/>
+      <c r="BL6" s="63"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="72">
+      <c r="BO6" s="62">
         <v>36</v>
       </c>
-      <c r="BP6" s="73"/>
+      <c r="BP6" s="63"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9230,104 +9230,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="73"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="73"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="63"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="73"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="63"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="73"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="63"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="73"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="73"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="63"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="73"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="63"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="73"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="63"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="73"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="63"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="73"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="63"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="73"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="63"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9337,11 +9337,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="69">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9350,11 +9350,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="69">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9363,11 +9363,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="69">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9376,11 +9376,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="69">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="63"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9393,7 +9393,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="63"/>
+      <c r="T8" s="70"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9402,11 +9402,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="62">
+      <c r="W8" s="69">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="63"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9415,11 +9415,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="62">
+      <c r="AA8" s="69">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="63"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9428,11 +9428,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="62">
+      <c r="AE8" s="69">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="63"/>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9441,11 +9441,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="62">
+      <c r="AI8" s="69">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="63"/>
+      <c r="AJ8" s="70"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9454,11 +9454,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="62">
+      <c r="AM8" s="69">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="63"/>
+      <c r="AN8" s="70"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9467,11 +9467,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="62">
+      <c r="AQ8" s="69">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="63"/>
+      <c r="AR8" s="70"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9480,11 +9480,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="62">
+      <c r="AU8" s="69">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="63"/>
+      <c r="AV8" s="70"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9493,11 +9493,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="62">
+      <c r="AY8" s="69">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="63"/>
+      <c r="AZ8" s="70"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9506,11 +9506,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="62">
+      <c r="BC8" s="69">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="63"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9519,11 +9519,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="62">
+      <c r="BG8" s="69">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="63"/>
+      <c r="BH8" s="70"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9532,11 +9532,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="62">
+      <c r="BK8" s="69">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="63"/>
+      <c r="BL8" s="70"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9545,11 +9545,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="62">
+      <c r="BO8" s="69">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="63"/>
+      <c r="BP8" s="70"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12533,20 +12533,87 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -12571,87 +12638,20 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13101,10 +13101,10 @@
   <dimension ref="B1:AN192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14201,7 +14201,7 @@
       <c r="AN19" s="51"/>
     </row>
     <row r="20" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="60" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="35">
@@ -16811,7 +16811,7 @@
       </c>
     </row>
     <row r="38" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="35">
@@ -17536,7 +17536,7 @@
       </c>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="60" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="35">
@@ -18986,7 +18986,7 @@
       </c>
     </row>
     <row r="53" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="60" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="35">
@@ -19131,7 +19131,7 @@
       </c>
     </row>
     <row r="54" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="60" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="35">
@@ -19276,7 +19276,7 @@
       </c>
     </row>
     <row r="55" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="60" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="35">
@@ -21161,7 +21161,7 @@
       </c>
     </row>
     <row r="68" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="60" t="s">
         <v>168</v>
       </c>
       <c r="C68" s="35">
@@ -21596,7 +21596,7 @@
       </c>
     </row>
     <row r="71" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="60" t="s">
         <v>174</v>
       </c>
       <c r="C71" s="35">
@@ -22321,7 +22321,7 @@
       </c>
     </row>
     <row r="76" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="60" t="s">
         <v>188</v>
       </c>
       <c r="C76" s="35">
@@ -26091,7 +26091,7 @@
       </c>
     </row>
     <row r="102" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C102" s="35">
@@ -27251,7 +27251,7 @@
       </c>
     </row>
     <row r="110" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="60" t="s">
         <v>265</v>
       </c>
       <c r="C110" s="35">
@@ -27396,7 +27396,7 @@
       </c>
     </row>
     <row r="111" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="60" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="35">
@@ -28117,7 +28117,7 @@
       </c>
     </row>
     <row r="116" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="60" t="s">
         <v>281</v>
       </c>
       <c r="C116" s="35">
@@ -28262,7 +28262,7 @@
       </c>
     </row>
     <row r="117" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="60" t="s">
         <v>283</v>
       </c>
       <c r="C117" s="35">
@@ -29277,7 +29277,7 @@
       </c>
     </row>
     <row r="124" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="60" t="s">
         <v>297</v>
       </c>
       <c r="C124" s="35">
@@ -30292,7 +30292,7 @@
       </c>
     </row>
     <row r="131" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="60" t="s">
         <v>313</v>
       </c>
       <c r="C131" s="35">
@@ -30582,7 +30582,7 @@
       </c>
     </row>
     <row r="133" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="60" t="s">
         <v>317</v>
       </c>
       <c r="C133" s="35">
@@ -33772,7 +33772,7 @@
       </c>
     </row>
     <row r="155" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="60" t="s">
         <v>367</v>
       </c>
       <c r="C155" s="35">
@@ -33917,7 +33917,7 @@
       </c>
     </row>
     <row r="156" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="60" t="s">
         <v>373</v>
       </c>
       <c r="C156" s="35">
@@ -34497,7 +34497,7 @@
       </c>
     </row>
     <row r="160" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="60" t="s">
         <v>380</v>
       </c>
       <c r="C160" s="35">
@@ -35222,7 +35222,7 @@
       </c>
     </row>
     <row r="165" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C165" s="35">
@@ -36670,7 +36670,7 @@
       </c>
     </row>
     <row r="175" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="60" t="s">
         <v>24</v>
       </c>
       <c r="C175" s="35">
@@ -37830,7 +37830,7 @@
       </c>
     </row>
     <row r="183" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="60" t="s">
         <v>442</v>
       </c>
       <c r="C183" s="35">
@@ -38986,7 +38986,7 @@
       </c>
     </row>
     <row r="191" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B191" s="35" t="s">
+      <c r="B191" s="60" t="s">
         <v>467</v>
       </c>
       <c r="C191" s="35">
@@ -39131,7 +39131,7 @@
       </c>
     </row>
     <row r="192" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="60" t="s">
         <v>469</v>
       </c>
       <c r="C192" s="35">

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F10A4-D3F7-4E4D-B193-C52A0D5B7BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D539AA9-9888-44FD-8B6B-DE0AC4540675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="509">
   <si>
     <t>Population Tax Rate</t>
   </si>
@@ -1705,6 +1705,9 @@
   </si>
   <si>
     <t>Yemen</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
   </si>
 </sst>
 </file>
@@ -13098,13 +13101,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4D9EFE-8FC7-4B01-807E-922034333148}">
-  <dimension ref="B1:AN192"/>
+  <dimension ref="B1:AN193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14491,7 +14494,7 @@
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="60" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="35">
@@ -16521,7 +16524,7 @@
       </c>
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="60" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="35">
@@ -16956,7 +16959,7 @@
       </c>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="60" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="35">
@@ -17101,7 +17104,7 @@
       </c>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="60" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="35">
@@ -17826,7 +17829,7 @@
       </c>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="60" t="s">
         <v>116</v>
       </c>
       <c r="C45" s="35">
@@ -18551,7 +18554,7 @@
       </c>
     </row>
     <row r="50" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="60" t="s">
         <v>130</v>
       </c>
       <c r="C50" s="35">
@@ -18696,7 +18699,7 @@
       </c>
     </row>
     <row r="51" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="60" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="35">
@@ -18841,7 +18844,7 @@
       </c>
     </row>
     <row r="52" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="60" t="s">
         <v>133</v>
       </c>
       <c r="C52" s="35">
@@ -20726,7 +20729,7 @@
       </c>
     </row>
     <row r="65" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="60" t="s">
         <v>162</v>
       </c>
       <c r="C65" s="35">
@@ -23771,7 +23774,7 @@
       </c>
     </row>
     <row r="86" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="60" t="s">
         <v>213</v>
       </c>
       <c r="C86" s="35">
@@ -24641,7 +24644,7 @@
       </c>
     </row>
     <row r="92" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="60" t="s">
         <v>226</v>
       </c>
       <c r="C92" s="35">
@@ -25656,7 +25659,7 @@
       </c>
     </row>
     <row r="99" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="60" t="s">
         <v>31</v>
       </c>
       <c r="C99" s="35">
@@ -26381,7 +26384,7 @@
       </c>
     </row>
     <row r="104" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="60" t="s">
         <v>253</v>
       </c>
       <c r="C104" s="35">
@@ -26961,7 +26964,7 @@
       </c>
     </row>
     <row r="108" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="60" t="s">
         <v>261</v>
       </c>
       <c r="C108" s="35">
@@ -28407,7 +28410,7 @@
       </c>
     </row>
     <row r="118" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="60" t="s">
         <v>285</v>
       </c>
       <c r="C118" s="35">
@@ -29857,7 +29860,7 @@
       </c>
     </row>
     <row r="128" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="60" t="s">
         <v>307</v>
       </c>
       <c r="C128" s="35">
@@ -30437,7 +30440,7 @@
       </c>
     </row>
     <row r="132" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="60" t="s">
         <v>315</v>
       </c>
       <c r="C132" s="35">
@@ -32612,7 +32615,7 @@
       </c>
     </row>
     <row r="147" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="60" t="s">
         <v>349</v>
       </c>
       <c r="C147" s="35">
@@ -32757,7 +32760,7 @@
       </c>
     </row>
     <row r="148" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="60" t="s">
         <v>351</v>
       </c>
       <c r="C148" s="35">
@@ -32771,60 +32774,60 @@
         <v>3040143002.0130162</v>
       </c>
       <c r="F148" s="34">
-        <f t="shared" ref="F148:F192" si="141">ROUND(E148/$C$6,0)</f>
+        <f t="shared" ref="F148:F193" si="141">ROUND(E148/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="G148" s="34">
-        <f t="shared" ref="G148:G192" si="142">F148*$C$6*$C$8</f>
+        <f t="shared" ref="G148:G193" si="142">F148*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="H148" s="34">
-        <f t="shared" ref="H148:H192" si="143">C148-G148</f>
+        <f t="shared" ref="H148:H193" si="143">C148-G148</f>
         <v>155841897555.6507</v>
       </c>
       <c r="I148" s="37">
         <v>54.027488592566343</v>
       </c>
       <c r="J148" s="39">
-        <f t="shared" ref="J148:J192" si="144">I148/(I148+L148)*H148*$F$7</f>
+        <f t="shared" ref="J148:J193" si="144">I148/(I148+L148)*H148*$F$7</f>
         <v>76025601024.445969</v>
       </c>
       <c r="K148" s="39">
-        <f t="shared" ref="K148:K192" si="145">ROUND(J148/$F$9,0)</f>
+        <f t="shared" ref="K148:K193" si="145">ROUND(J148/$F$9,0)</f>
         <v>2</v>
       </c>
       <c r="L148" s="39">
         <v>29.034133699552562</v>
       </c>
       <c r="M148" s="39">
-        <f t="shared" ref="M148:M192" si="146">L148/(I148+L148)*H148*(2-$F$7)</f>
+        <f t="shared" ref="M148:M193" si="146">L148/(I148+L148)*H148*(2-$F$7)</f>
         <v>68093036903.820114</v>
       </c>
       <c r="N148" s="39">
-        <f t="shared" ref="N148:N192" si="147">ROUND(M148/$F$8,0)</f>
+        <f t="shared" ref="N148:N193" si="147">ROUND(M148/$F$8,0)</f>
         <v>3</v>
       </c>
       <c r="O148" s="49">
-        <f t="shared" ref="O148:O192" si="148">F148</f>
+        <f t="shared" ref="O148:O193" si="148">F148</f>
         <v>1</v>
       </c>
       <c r="P148" s="50">
-        <f t="shared" ref="P148:P192" si="149">N148</f>
+        <f t="shared" ref="P148:P193" si="149">N148</f>
         <v>3</v>
       </c>
       <c r="Q148" s="50">
-        <f t="shared" ref="Q148:Q192" si="150">K148</f>
+        <f t="shared" ref="Q148:Q193" si="150">K148</f>
         <v>2</v>
       </c>
       <c r="R148" s="51">
-        <f t="shared" ref="R148:R192" si="151">O148+P148+Q148</f>
+        <f t="shared" ref="R148:R193" si="151">O148+P148+Q148</f>
         <v>6</v>
       </c>
       <c r="T148" s="39">
         <v>393259049121.62598</v>
       </c>
       <c r="U148" s="39">
-        <f t="shared" ref="U148:U192" si="152">(T148-C148)*$U$11+C148</f>
+        <f t="shared" ref="U148:U193" si="152">(T148-C148)*$U$11+C148</f>
         <v>260450304392.39728</v>
       </c>
       <c r="V148" s="35">
@@ -32835,11 +32838,11 @@
         <v>3245100890.1077366</v>
       </c>
       <c r="X148" s="34">
-        <f t="shared" ref="X148:X192" si="153">ROUND(W148/$C$6,0)</f>
+        <f t="shared" ref="X148:X193" si="153">ROUND(W148/$C$6,0)</f>
         <v>1</v>
       </c>
       <c r="Y148" s="34">
-        <f t="shared" ref="Y148:Y192" si="154">X148*$C$6*$C$8</f>
+        <f t="shared" ref="Y148:Y193" si="154">X148*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
       <c r="Z148" s="34">
@@ -32850,59 +32853,59 @@
         <v>53.928333156489416</v>
       </c>
       <c r="AB148" s="39">
-        <f t="shared" ref="AB148:AB192" si="155">AA148/(AA148+AD148)*Z148*$F$7</f>
+        <f t="shared" ref="AB148:AB193" si="155">AA148/(AA148+AD148)*Z148*$F$7</f>
         <v>116913370864.92297</v>
       </c>
       <c r="AC148" s="39">
-        <f t="shared" ref="AC148:AC192" si="156">ROUND(AB148/$F$9,0)</f>
+        <f t="shared" ref="AC148:AC193" si="156">ROUND(AB148/$F$9,0)</f>
         <v>3</v>
       </c>
       <c r="AD148" s="39">
         <v>31.29788412314732</v>
       </c>
       <c r="AE148" s="39">
-        <f t="shared" ref="AE148:AE192" si="157">AD148/(AA148+AD148)*Z148*(2-$F$7)</f>
+        <f t="shared" ref="AE148:AE193" si="157">AD148/(AA148+AD148)*Z148*(2-$F$7)</f>
         <v>113086539103.62848</v>
       </c>
       <c r="AF148" s="39">
-        <f t="shared" ref="AF148:AF192" si="158">ROUND(AE148/$F$8,0)</f>
+        <f t="shared" ref="AF148:AF193" si="158">ROUND(AE148/$F$8,0)</f>
         <v>5</v>
       </c>
       <c r="AG148" s="49">
-        <f t="shared" ref="AG148:AG192" si="159">X148</f>
+        <f t="shared" ref="AG148:AG193" si="159">X148</f>
         <v>1</v>
       </c>
       <c r="AH148" s="50">
-        <f t="shared" ref="AH148:AH192" si="160">AF148</f>
+        <f t="shared" ref="AH148:AH193" si="160">AF148</f>
         <v>5</v>
       </c>
       <c r="AI148" s="50">
-        <f t="shared" ref="AI148:AI192" si="161">AC148</f>
+        <f t="shared" ref="AI148:AI193" si="161">AC148</f>
         <v>3</v>
       </c>
       <c r="AJ148" s="51">
-        <f t="shared" ref="AJ148:AJ192" si="162">AG148+AH148+AI148</f>
+        <f t="shared" ref="AJ148:AJ193" si="162">AG148+AH148+AI148</f>
         <v>9</v>
       </c>
       <c r="AK148" s="49">
-        <f t="shared" ref="AK148:AK192" si="163">AG148-O148</f>
+        <f t="shared" ref="AK148:AK193" si="163">AG148-O148</f>
         <v>0</v>
       </c>
       <c r="AL148" s="50">
-        <f t="shared" ref="AL148:AL192" si="164">AH148-P148</f>
+        <f t="shared" ref="AL148:AL193" si="164">AH148-P148</f>
         <v>2</v>
       </c>
       <c r="AM148" s="50">
-        <f t="shared" ref="AM148:AM192" si="165">AI148-Q148</f>
+        <f t="shared" ref="AM148:AM193" si="165">AI148-Q148</f>
         <v>1</v>
       </c>
       <c r="AN148" s="51">
-        <f t="shared" ref="AN148:AN192" si="166">AJ148-R148</f>
+        <f t="shared" ref="AN148:AN193" si="166">AJ148-R148</f>
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="60" t="s">
         <v>353</v>
       </c>
       <c r="C149" s="35">
@@ -35949,7 +35952,7 @@
       </c>
     </row>
     <row r="170" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="60" t="s">
         <v>413</v>
       </c>
       <c r="C170" s="35">
@@ -36815,7 +36818,7 @@
       </c>
     </row>
     <row r="176" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="60" t="s">
         <v>423</v>
       </c>
       <c r="C176" s="35">
@@ -36960,7 +36963,7 @@
       </c>
     </row>
     <row r="177" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="60" t="s">
         <v>425</v>
       </c>
       <c r="C177" s="35">
@@ -36970,7 +36973,7 @@
         <v>0.85501148400089511</v>
       </c>
       <c r="E177" s="35">
-        <f t="shared" ref="E177:E192" si="223">D177/100*C177</f>
+        <f t="shared" ref="E177:E193" si="223">D177/100*C177</f>
         <v>17605314.763955552</v>
       </c>
       <c r="F177" s="34">
@@ -37614,7 +37617,7 @@
         <v>2.0652596724157299</v>
       </c>
       <c r="W181" s="35">
-        <f t="shared" ref="W181:W192" si="224">V181/100*U181</f>
+        <f t="shared" ref="W181:W193" si="224">V181/100*U181</f>
         <v>31039471752.397705</v>
       </c>
       <c r="X181" s="34">
@@ -37626,7 +37629,7 @@
         <v>197352100721.0275</v>
       </c>
       <c r="Z181" s="34">
-        <f t="shared" ref="Z181:Z192" si="225">U181-Y181</f>
+        <f t="shared" ref="Z181:Z193" si="225">U181-Y181</f>
         <v>1305581025169.6697</v>
       </c>
       <c r="AA181" s="37">
@@ -38410,7 +38413,7 @@
       </c>
     </row>
     <row r="187" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="60" t="s">
         <v>451</v>
       </c>
       <c r="C187" s="35">
@@ -38699,578 +38702,723 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B189" s="35" t="s">
+    <row r="189" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="60" t="s">
+        <v>508</v>
+      </c>
+      <c r="C189" s="39">
+        <v>168548247978</v>
+      </c>
+      <c r="D189" s="39">
+        <v>1.5265701288490501</v>
+      </c>
+      <c r="E189" s="39">
+        <f t="shared" ref="E189" si="226">D189/100*C189</f>
+        <v>2573007206.3305712</v>
+      </c>
+      <c r="F189" s="34">
+        <f t="shared" ref="F189" si="227">ROUND(E189/$C$6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G189" s="34">
+        <f t="shared" ref="G189" si="228">F189*$C$6*$C$8</f>
+        <v>14096578622.930536</v>
+      </c>
+      <c r="H189" s="34">
+        <f t="shared" ref="H189" si="229">C189-G189</f>
+        <v>154451669355.06946</v>
+      </c>
+      <c r="I189" s="39">
+        <v>43.081849066103153</v>
+      </c>
+      <c r="J189" s="39">
+        <f t="shared" ref="J189" si="230">I189/(I189+L189)*H189*$F$7</f>
+        <v>55768597788.333916</v>
+      </c>
+      <c r="K189" s="39">
+        <f t="shared" ref="K189" si="231">ROUND(J189/$F$9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L189" s="39">
+        <v>46.404848256167305</v>
+      </c>
+      <c r="M189" s="39">
+        <f t="shared" ref="M189" si="232">L189/(I189+L189)*H189*(2-$F$7)</f>
+        <v>100116923713.2803</v>
+      </c>
+      <c r="N189" s="39">
+        <f t="shared" ref="N189" si="233">ROUND(M189/$F$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O189" s="49">
+        <f t="shared" ref="O189" si="234">F189</f>
+        <v>1</v>
+      </c>
+      <c r="P189" s="50">
+        <f t="shared" ref="P189" si="235">N189</f>
+        <v>4</v>
+      </c>
+      <c r="Q189" s="50">
+        <f t="shared" ref="Q189" si="236">K189</f>
+        <v>2</v>
+      </c>
+      <c r="R189" s="51">
+        <f t="shared" ref="R189" si="237">O189+P189+Q189</f>
+        <v>7</v>
+      </c>
+      <c r="T189" s="39">
+        <v>141632345013</v>
+      </c>
+      <c r="U189" s="39">
+        <f t="shared" ref="U189" si="238">(T189-C189)*$U$11+C189</f>
+        <v>157639232506.28549</v>
+      </c>
+      <c r="V189" s="39">
+        <v>0.48784414488216299</v>
+      </c>
+      <c r="W189" s="39">
+        <f t="shared" ref="W189" si="239">V189/100*U189</f>
+        <v>769033765.81909323</v>
+      </c>
+      <c r="X189" s="34">
+        <f t="shared" ref="X189" si="240">ROUND(W189/$C$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y189" s="34">
+        <f t="shared" ref="Y189" si="241">X189*$C$6*$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="Z189" s="34">
+        <f t="shared" ref="Z189" si="242">U189-Y189</f>
+        <v>157639232506.28549</v>
+      </c>
+      <c r="AA189" s="39">
+        <v>43.081849066103153</v>
+      </c>
+      <c r="AB189" s="39">
+        <f t="shared" ref="AB189" si="243">AA189/(AA189+AD189)*Z189*$F$7</f>
+        <v>56919546353.97496</v>
+      </c>
+      <c r="AC189" s="39">
+        <f t="shared" ref="AC189" si="244">ROUND(AB189/$F$9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AD189" s="39">
+        <v>46.404848256167305</v>
+      </c>
+      <c r="AE189" s="39">
+        <f t="shared" ref="AE189" si="245">AD189/(AA189+AD189)*Z189*(2-$F$7)</f>
+        <v>102183130042.89862</v>
+      </c>
+      <c r="AF189" s="39">
+        <f t="shared" ref="AF189" si="246">ROUND(AE189/$F$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AG189" s="49">
+        <f t="shared" ref="AG189" si="247">X189</f>
+        <v>0</v>
+      </c>
+      <c r="AH189" s="50">
+        <f t="shared" ref="AH189" si="248">AF189</f>
+        <v>4</v>
+      </c>
+      <c r="AI189" s="50">
+        <f t="shared" ref="AI189" si="249">AC189</f>
+        <v>2</v>
+      </c>
+      <c r="AJ189" s="51">
+        <f t="shared" ref="AJ189" si="250">AG189+AH189+AI189</f>
+        <v>6</v>
+      </c>
+      <c r="AK189" s="49">
+        <f t="shared" ref="AK189" si="251">AG189-O189</f>
+        <v>-1</v>
+      </c>
+      <c r="AL189" s="50">
+        <f t="shared" ref="AL189" si="252">AH189-P189</f>
+        <v>0</v>
+      </c>
+      <c r="AM189" s="50">
+        <f t="shared" ref="AM189" si="253">AI189-Q189</f>
+        <v>0</v>
+      </c>
+      <c r="AN189" s="51">
+        <f t="shared" ref="AN189" si="254">AJ189-R189</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B190" s="60" t="s">
         <v>459</v>
       </c>
-      <c r="C189" s="35">
+      <c r="C190" s="35">
         <v>236133898430.63821</v>
       </c>
-      <c r="D189" s="35">
-        <v>0</v>
-      </c>
-      <c r="E189" s="35">
+      <c r="D190" s="35">
+        <v>0</v>
+      </c>
+      <c r="E190" s="35">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="F189" s="34">
+      <c r="F190" s="34">
         <f t="shared" si="141"/>
         <v>0</v>
       </c>
-      <c r="G189" s="34">
+      <c r="G190" s="34">
         <f t="shared" si="142"/>
         <v>0</v>
       </c>
-      <c r="H189" s="34">
+      <c r="H190" s="34">
         <f t="shared" si="143"/>
         <v>236133898430.63821</v>
       </c>
-      <c r="I189" s="37">
+      <c r="I190" s="37">
         <v>38.734642677619632</v>
       </c>
-      <c r="J189" s="39">
+      <c r="J190" s="39">
         <f t="shared" si="144"/>
         <v>90901525708.53299</v>
       </c>
-      <c r="K189" s="39">
+      <c r="K190" s="39">
         <f t="shared" si="145"/>
         <v>3</v>
       </c>
-      <c r="L189" s="39">
+      <c r="L190" s="39">
         <v>36.730775326845482</v>
       </c>
-      <c r="M189" s="39">
+      <c r="M190" s="39">
         <f t="shared" si="146"/>
         <v>143664830190.7428</v>
       </c>
-      <c r="N189" s="39">
+      <c r="N190" s="39">
         <f t="shared" si="147"/>
         <v>6</v>
       </c>
-      <c r="O189" s="49">
+      <c r="O190" s="49">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
-      <c r="P189" s="50">
+      <c r="P190" s="50">
         <f t="shared" si="149"/>
         <v>6</v>
       </c>
-      <c r="Q189" s="50">
+      <c r="Q190" s="50">
         <f t="shared" si="150"/>
         <v>3</v>
       </c>
-      <c r="R189" s="51">
+      <c r="R190" s="51">
         <f t="shared" si="151"/>
         <v>9</v>
       </c>
-      <c r="T189" s="39">
+      <c r="T190" s="39">
         <v>676909526449.60107</v>
       </c>
-      <c r="U189" s="39">
+      <c r="U190" s="39">
         <f t="shared" si="152"/>
         <v>414780260466.72388</v>
       </c>
-      <c r="V189" s="35">
-        <v>0</v>
-      </c>
-      <c r="W189" s="35">
+      <c r="V190" s="35">
+        <v>0</v>
+      </c>
+      <c r="W190" s="35">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
-      <c r="X189" s="34">
+      <c r="X190" s="34">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="Y189" s="34">
+      <c r="Y190" s="34">
         <f t="shared" si="154"/>
         <v>0</v>
       </c>
-      <c r="Z189" s="34">
+      <c r="Z190" s="34">
         <f t="shared" si="225"/>
         <v>414780260466.72388</v>
       </c>
-      <c r="AA189" s="37">
+      <c r="AA190" s="37">
         <v>41.260453757759478</v>
       </c>
-      <c r="AB189" s="39">
+      <c r="AB190" s="39">
         <f t="shared" si="155"/>
         <v>171920549352.81085</v>
       </c>
-      <c r="AC189" s="39">
+      <c r="AC190" s="39">
         <f t="shared" si="156"/>
         <v>5</v>
       </c>
-      <c r="AD189" s="39">
+      <c r="AD190" s="39">
         <v>33.399128041989826</v>
       </c>
-      <c r="AE189" s="39">
+      <c r="AE190" s="39">
         <f t="shared" si="157"/>
         <v>231941076662.05341</v>
       </c>
-      <c r="AF189" s="39">
+      <c r="AF190" s="39">
         <f t="shared" si="158"/>
         <v>10</v>
       </c>
-      <c r="AG189" s="49">
+      <c r="AG190" s="49">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="AH189" s="50">
+      <c r="AH190" s="50">
         <f t="shared" si="160"/>
         <v>10</v>
       </c>
-      <c r="AI189" s="50">
+      <c r="AI190" s="50">
         <f t="shared" si="161"/>
         <v>5</v>
       </c>
-      <c r="AJ189" s="51">
+      <c r="AJ190" s="51">
         <f t="shared" si="162"/>
         <v>15</v>
       </c>
-      <c r="AK189" s="49">
+      <c r="AK190" s="49">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="AL189" s="50">
+      <c r="AL190" s="50">
         <f t="shared" si="164"/>
         <v>4</v>
       </c>
-      <c r="AM189" s="50">
+      <c r="AM190" s="50">
         <f t="shared" si="165"/>
         <v>2</v>
       </c>
-      <c r="AN189" s="51">
+      <c r="AN190" s="51">
         <f t="shared" si="166"/>
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="60" t="s">
+    <row r="191" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="C190" s="39">
+      <c r="C191" s="39">
         <v>24153264424</v>
       </c>
-      <c r="D190" s="39">
+      <c r="D191" s="39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E190" s="39">
-        <f t="shared" ref="E190" si="226">D190/100*C190</f>
+      <c r="E191" s="39">
+        <f t="shared" ref="E191" si="255">D191/100*C191</f>
         <v>1183509956.776</v>
       </c>
-      <c r="F190" s="34">
-        <f t="shared" ref="F190" si="227">ROUND(E190/$C$6,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G190" s="34">
-        <f t="shared" ref="G190" si="228">F190*$C$6*$C$8</f>
+      <c r="F191" s="34">
+        <f t="shared" ref="F191" si="256">ROUND(E191/$C$6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G191" s="34">
+        <f t="shared" ref="G191" si="257">F191*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
-      <c r="H190" s="34">
-        <f t="shared" ref="H190" si="229">C190-G190</f>
+      <c r="H191" s="34">
+        <f t="shared" ref="H191" si="258">C191-G191</f>
         <v>10056685801.069464</v>
       </c>
-      <c r="I190" s="39">
+      <c r="I191" s="39">
         <v>31</v>
       </c>
-      <c r="J190" s="39">
-        <f t="shared" ref="J190" si="230">I190/(I190+L190)*H190*$F$7</f>
+      <c r="J191" s="39">
+        <f t="shared" ref="J191" si="259">I191/(I191+L191)*H191*$F$7</f>
         <v>3036596686.6865592</v>
       </c>
-      <c r="K190" s="39">
-        <f t="shared" ref="K190" si="231">ROUND(J190/$F$9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L190" s="39">
+      <c r="K191" s="39">
+        <f t="shared" ref="K191" si="260">ROUND(J191/$F$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="39">
         <v>46</v>
       </c>
-      <c r="M190" s="39">
-        <f t="shared" ref="M190" si="232">L190/(I190+L190)*H190*(2-$F$7)</f>
+      <c r="M191" s="39">
+        <f t="shared" ref="M191" si="261">L191/(I191+L191)*H191*(2-$F$7)</f>
         <v>7509862773.525898</v>
       </c>
-      <c r="N190" s="39">
-        <f t="shared" ref="N190" si="233">ROUND(M190/$F$8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O190" s="49">
-        <f t="shared" ref="O190" si="234">F190</f>
-        <v>1</v>
-      </c>
-      <c r="P190" s="50">
-        <f t="shared" ref="P190" si="235">N190</f>
-        <v>0</v>
-      </c>
-      <c r="Q190" s="50">
-        <f t="shared" ref="Q190" si="236">K190</f>
-        <v>0</v>
-      </c>
-      <c r="R190" s="51">
-        <f t="shared" ref="R190" si="237">O190+P190+Q190</f>
-        <v>1</v>
-      </c>
-      <c r="U190" s="39">
+      <c r="N191" s="39">
+        <f t="shared" ref="N191" si="262">ROUND(M191/$F$8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="49">
+        <f t="shared" ref="O191" si="263">F191</f>
+        <v>1</v>
+      </c>
+      <c r="P191" s="50">
+        <f t="shared" ref="P191" si="264">N191</f>
+        <v>0</v>
+      </c>
+      <c r="Q191" s="50">
+        <f t="shared" ref="Q191" si="265">K191</f>
+        <v>0</v>
+      </c>
+      <c r="R191" s="51">
+        <f t="shared" ref="R191" si="266">O191+P191+Q191</f>
+        <v>1</v>
+      </c>
+      <c r="U191" s="39">
         <v>66914452000</v>
       </c>
-      <c r="V190" s="39">
+      <c r="V191" s="39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W190" s="39">
-        <f t="shared" ref="W190" si="238">V190/100*U190</f>
+      <c r="W191" s="39">
+        <f t="shared" ref="W191" si="267">V191/100*U191</f>
         <v>3278808148</v>
       </c>
-      <c r="X190" s="34">
-        <f t="shared" ref="X190" si="239">ROUND(W190/$C$6,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y190" s="34">
-        <f t="shared" ref="Y190" si="240">X190*$C$6*$C$8</f>
+      <c r="X191" s="34">
+        <f t="shared" ref="X191" si="268">ROUND(W191/$C$6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y191" s="34">
+        <f t="shared" ref="Y191" si="269">X191*$C$6*$C$8</f>
         <v>14096578622.930536</v>
       </c>
-      <c r="Z190" s="34">
-        <f t="shared" ref="Z190" si="241">U190-Y190</f>
+      <c r="Z191" s="34">
+        <f t="shared" ref="Z191" si="270">U191-Y191</f>
         <v>52817873377.069466</v>
       </c>
-      <c r="AA190" s="39">
+      <c r="AA191" s="39">
         <v>19</v>
       </c>
-      <c r="AB190" s="39">
-        <f t="shared" ref="AB190" si="242">AA190/(AA190+AD190)*Z190*$F$7</f>
+      <c r="AB191" s="39">
+        <f t="shared" ref="AB191" si="271">AA191/(AA191+AD191)*Z191*$F$7</f>
         <v>12338601567.594097</v>
       </c>
-      <c r="AC190" s="39">
-        <f t="shared" ref="AC190" si="243">ROUND(AB190/$F$9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD190" s="39">
+      <c r="AC191" s="39">
+        <f t="shared" ref="AC191" si="272">ROUND(AB191/$F$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD191" s="39">
         <v>42</v>
       </c>
-      <c r="AE190" s="39">
-        <f t="shared" ref="AE190" si="244">AD190/(AA190+AD190)*Z190*(2-$F$7)</f>
+      <c r="AE191" s="39">
+        <f t="shared" ref="AE191" si="273">AD191/(AA191+AD191)*Z191*(2-$F$7)</f>
         <v>45458005775.346672</v>
       </c>
-      <c r="AF190" s="39">
-        <f t="shared" ref="AF190" si="245">ROUND(AE190/$F$8,0)</f>
+      <c r="AF191" s="39">
+        <f t="shared" ref="AF191" si="274">ROUND(AE191/$F$8,0)</f>
         <v>2</v>
       </c>
-      <c r="AG190" s="49">
-        <f t="shared" ref="AG190" si="246">X190</f>
-        <v>1</v>
-      </c>
-      <c r="AH190" s="50">
-        <f t="shared" ref="AH190" si="247">AF190</f>
+      <c r="AG191" s="49">
+        <f t="shared" ref="AG191" si="275">X191</f>
+        <v>1</v>
+      </c>
+      <c r="AH191" s="50">
+        <f t="shared" ref="AH191" si="276">AF191</f>
         <v>2</v>
       </c>
-      <c r="AI190" s="50">
-        <f t="shared" ref="AI190" si="248">AC190</f>
-        <v>0</v>
-      </c>
-      <c r="AJ190" s="51">
-        <f t="shared" ref="AJ190" si="249">AG190+AH190+AI190</f>
+      <c r="AI191" s="50">
+        <f t="shared" ref="AI191" si="277">AC191</f>
+        <v>0</v>
+      </c>
+      <c r="AJ191" s="51">
+        <f t="shared" ref="AJ191" si="278">AG191+AH191+AI191</f>
         <v>3</v>
       </c>
-      <c r="AK190" s="49">
-        <f t="shared" ref="AK190" si="250">AG190-O190</f>
-        <v>0</v>
-      </c>
-      <c r="AL190" s="50">
-        <f t="shared" ref="AL190" si="251">AH190-P190</f>
+      <c r="AK191" s="49">
+        <f t="shared" ref="AK191" si="279">AG191-O191</f>
+        <v>0</v>
+      </c>
+      <c r="AL191" s="50">
+        <f t="shared" ref="AL191" si="280">AH191-P191</f>
         <v>2</v>
       </c>
-      <c r="AM190" s="50">
-        <f t="shared" ref="AM190" si="252">AI190-Q190</f>
-        <v>0</v>
-      </c>
-      <c r="AN190" s="51">
-        <f t="shared" ref="AN190" si="253">AJ190-R190</f>
+      <c r="AM191" s="50">
+        <f t="shared" ref="AM191" si="281">AI191-Q191</f>
+        <v>0</v>
+      </c>
+      <c r="AN191" s="51">
+        <f t="shared" ref="AN191" si="282">AJ191-R191</f>
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B191" s="60" t="s">
+    <row r="192" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B192" s="60" t="s">
         <v>467</v>
       </c>
-      <c r="C191" s="35">
+      <c r="C192" s="35">
         <v>20736671783.489033</v>
       </c>
-      <c r="D191" s="39">
+      <c r="D192" s="39">
         <v>1.3095961053559599</v>
       </c>
-      <c r="E191" s="35">
+      <c r="E192" s="35">
         <f t="shared" si="223"/>
         <v>271566646.05702066</v>
       </c>
-      <c r="F191" s="34">
+      <c r="F192" s="34">
         <f t="shared" si="141"/>
         <v>0</v>
       </c>
-      <c r="G191" s="34">
+      <c r="G192" s="34">
         <f t="shared" si="142"/>
         <v>0</v>
       </c>
-      <c r="H191" s="34">
+      <c r="H192" s="34">
         <f t="shared" si="143"/>
         <v>20736671783.489033</v>
       </c>
-      <c r="I191" s="37">
+      <c r="I192" s="37">
         <v>48.959533523278196</v>
       </c>
-      <c r="J191" s="39">
+      <c r="J192" s="39">
         <f t="shared" si="144"/>
         <v>10545805891.685978</v>
       </c>
-      <c r="K191" s="39">
+      <c r="K192" s="39">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L191" s="39">
+      <c r="L192" s="39">
         <v>23.243894154924387</v>
       </c>
-      <c r="M191" s="39">
+      <c r="M192" s="39">
         <f t="shared" si="146"/>
         <v>8344496576.5513248</v>
       </c>
-      <c r="N191" s="39">
+      <c r="N192" s="39">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="O191" s="49">
+      <c r="O192" s="49">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
-      <c r="P191" s="50">
+      <c r="P192" s="50">
         <f t="shared" si="149"/>
         <v>0</v>
       </c>
-      <c r="Q191" s="50">
+      <c r="Q192" s="50">
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="R191" s="51">
+      <c r="R192" s="51">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="T191" s="39">
+      <c r="T192" s="39">
         <v>58735190955.723938</v>
       </c>
-      <c r="U191" s="39">
+      <c r="U192" s="39">
         <f t="shared" si="152"/>
         <v>36137471603.995842</v>
       </c>
-      <c r="V191" s="35">
+      <c r="V192" s="35">
         <v>1.3095961053559599</v>
       </c>
-      <c r="W191" s="35">
+      <c r="W192" s="35">
         <f t="shared" si="224"/>
         <v>473254920.70004547</v>
       </c>
-      <c r="X191" s="34">
+      <c r="X192" s="34">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="Y191" s="34">
+      <c r="Y192" s="34">
         <f t="shared" si="154"/>
         <v>0</v>
       </c>
-      <c r="Z191" s="34">
+      <c r="Z192" s="34">
         <f t="shared" si="225"/>
         <v>36137471603.995842</v>
       </c>
-      <c r="AA191" s="37">
+      <c r="AA192" s="37">
         <v>52.093884963370854</v>
       </c>
-      <c r="AB191" s="39">
+      <c r="AB192" s="39">
         <f t="shared" si="155"/>
         <v>15793497324.52545</v>
       </c>
-      <c r="AC191" s="39">
+      <c r="AC192" s="39">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AD191" s="39">
+      <c r="AD192" s="39">
         <v>37.304044921462562</v>
       </c>
-      <c r="AE191" s="39">
+      <c r="AE192" s="39">
         <f t="shared" si="157"/>
         <v>18849343964.119057</v>
       </c>
-      <c r="AF191" s="39">
+      <c r="AF192" s="39">
         <f t="shared" si="158"/>
         <v>1</v>
       </c>
-      <c r="AG191" s="49">
+      <c r="AG192" s="49">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="AH191" s="50">
+      <c r="AH192" s="50">
         <f t="shared" si="160"/>
         <v>1</v>
       </c>
-      <c r="AI191" s="50">
+      <c r="AI192" s="50">
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="AJ191" s="51">
+      <c r="AJ192" s="51">
         <f t="shared" si="162"/>
         <v>1</v>
       </c>
-      <c r="AK191" s="49">
+      <c r="AK192" s="49">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="AL191" s="50">
+      <c r="AL192" s="50">
         <f t="shared" si="164"/>
         <v>1</v>
       </c>
-      <c r="AM191" s="50">
+      <c r="AM192" s="50">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="AN191" s="51">
+      <c r="AN192" s="51">
         <f t="shared" si="166"/>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="60" t="s">
+    <row r="193" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="60" t="s">
         <v>469</v>
       </c>
-      <c r="C192" s="35">
+      <c r="C193" s="35">
         <v>41269476289.344582</v>
       </c>
-      <c r="D192" s="35">
+      <c r="D193" s="35">
         <v>3.4163479325265604</v>
       </c>
-      <c r="E192" s="35">
+      <c r="E193" s="35">
         <f t="shared" si="223"/>
         <v>1409908899.9755626</v>
       </c>
-      <c r="F192" s="34">
+      <c r="F193" s="34">
         <f t="shared" si="141"/>
         <v>1</v>
       </c>
-      <c r="G192" s="34">
+      <c r="G193" s="34">
         <f t="shared" si="142"/>
         <v>14096578622.930536</v>
       </c>
-      <c r="H192" s="34">
+      <c r="H193" s="34">
         <f t="shared" si="143"/>
         <v>27172897666.414047</v>
       </c>
-      <c r="I192" s="37">
+      <c r="I193" s="37">
         <v>70.125341302611545</v>
       </c>
-      <c r="J192" s="39">
+      <c r="J193" s="39">
         <f t="shared" si="144"/>
         <v>15613746641.292751</v>
       </c>
-      <c r="K192" s="39">
+      <c r="K193" s="39">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="L192" s="39">
+      <c r="L193" s="39">
         <v>21.404998923297256</v>
       </c>
-      <c r="M192" s="39">
+      <c r="M193" s="39">
         <f t="shared" si="146"/>
         <v>7943211014.1963062</v>
       </c>
-      <c r="N192" s="39">
+      <c r="N193" s="39">
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="O192" s="52">
+      <c r="O193" s="52">
         <f t="shared" si="148"/>
         <v>1</v>
       </c>
-      <c r="P192" s="53">
+      <c r="P193" s="53">
         <f t="shared" si="149"/>
         <v>0</v>
       </c>
-      <c r="Q192" s="53">
+      <c r="Q193" s="53">
         <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="R192" s="54">
+      <c r="R193" s="54">
         <f t="shared" si="151"/>
         <v>1</v>
       </c>
-      <c r="T192" s="39">
+      <c r="T193" s="39">
         <v>43112365756.24472</v>
       </c>
-      <c r="U192" s="39">
+      <c r="U193" s="39">
         <f t="shared" si="152"/>
         <v>42016399390.279205</v>
       </c>
-      <c r="V192" s="35">
+      <c r="V193" s="35">
         <v>1.5449480513588301</v>
       </c>
-      <c r="W192" s="35">
+      <c r="W193" s="35">
         <f t="shared" si="224"/>
         <v>649131543.63126194</v>
       </c>
-      <c r="X192" s="34">
+      <c r="X193" s="34">
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="Y192" s="34">
+      <c r="Y193" s="34">
         <f t="shared" si="154"/>
         <v>0</v>
       </c>
-      <c r="Z192" s="34">
+      <c r="Z193" s="34">
         <f t="shared" si="225"/>
         <v>42016399390.279205</v>
       </c>
-      <c r="AA192" s="37">
+      <c r="AA193" s="37">
         <v>60.591645107015424</v>
       </c>
-      <c r="AB192" s="39">
+      <c r="AB193" s="39">
         <f t="shared" si="155"/>
         <v>23286100217.613159</v>
       </c>
-      <c r="AC192" s="39">
+      <c r="AC193" s="39">
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
-      <c r="AD192" s="39">
+      <c r="AD193" s="39">
         <v>21.404998923297256</v>
       </c>
-      <c r="AE192" s="39">
+      <c r="AE193" s="39">
         <f t="shared" si="157"/>
         <v>13710332208.493746</v>
       </c>
-      <c r="AF192" s="39">
+      <c r="AF193" s="39">
         <f t="shared" si="158"/>
         <v>1</v>
       </c>
-      <c r="AG192" s="52">
+      <c r="AG193" s="52">
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="AH192" s="53">
+      <c r="AH193" s="53">
         <f t="shared" si="160"/>
         <v>1</v>
       </c>
-      <c r="AI192" s="53">
+      <c r="AI193" s="53">
         <f t="shared" si="161"/>
         <v>1</v>
       </c>
-      <c r="AJ192" s="54">
+      <c r="AJ193" s="54">
         <f t="shared" si="162"/>
         <v>2</v>
       </c>
-      <c r="AK192" s="52">
+      <c r="AK193" s="52">
         <f t="shared" si="163"/>
         <v>-1</v>
       </c>
-      <c r="AL192" s="53">
+      <c r="AL193" s="53">
         <f t="shared" si="164"/>
         <v>1</v>
       </c>
-      <c r="AM192" s="53">
+      <c r="AM193" s="53">
         <f t="shared" si="165"/>
         <v>1</v>
       </c>
-      <c r="AN192" s="54">
+      <c r="AN193" s="54">
         <f t="shared" si="166"/>
         <v>1</v>
       </c>
@@ -39289,8 +39437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A9ED62-1A49-45D7-8157-2940EBDC52F1}">
   <dimension ref="A1:AA218"/>
   <sheetViews>
-    <sheetView topLeftCell="I40" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63"/>
+    <sheetView topLeftCell="J184" workbookViewId="0">
+      <selection activeCell="Z212" sqref="Z212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E15180-B560-424C-953A-D7F724A5C4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637E2F5-2E89-427A-89DA-730F812C25E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -2386,20 +2386,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2416,11 +2407,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8449,246 +8449,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="64" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="64" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="64" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="64" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="64" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="64" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="64" t="s">
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="64" t="s">
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="66"/>
-      <c r="BC2" s="64" t="s">
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="64" t="s">
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="66"/>
-      <c r="BK2" s="64" t="s">
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="65"/>
-      <c r="BM2" s="65"/>
-      <c r="BN2" s="66"/>
-      <c r="BO2" s="64" t="s">
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="65"/>
-      <c r="BQ2" s="65"/>
-      <c r="BR2" s="66"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="73"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="67" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="67" t="s">
+      <c r="J3" s="66"/>
+      <c r="K3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="67" t="s">
+      <c r="N3" s="66"/>
+      <c r="O3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68" t="s">
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="67" t="s">
+      <c r="R3" s="66"/>
+      <c r="S3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="69"/>
-      <c r="W3" s="67" t="s">
+      <c r="V3" s="66"/>
+      <c r="W3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68" t="s">
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="67" t="s">
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68" t="s">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="67" t="s">
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68" t="s">
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="67" t="s">
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="67" t="s">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68" t="s">
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="67" t="s">
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="67" t="s">
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68" t="s">
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="67" t="s">
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68" t="s">
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="67" t="s">
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68" t="s">
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="67" t="s">
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68" t="s">
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="67" t="s">
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68" t="s">
+      <c r="BL3" s="65"/>
+      <c r="BM3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="67" t="s">
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="68"/>
-      <c r="BQ3" s="68" t="s">
+      <c r="BP3" s="65"/>
+      <c r="BQ3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="69"/>
+      <c r="BR3" s="66"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8900,10 +8900,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70">
-        <v>1</v>
-      </c>
-      <c r="D5" s="71"/>
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8911,10 +8911,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="70">
-        <v>1</v>
-      </c>
-      <c r="H5" s="71"/>
+      <c r="G5" s="67">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8922,10 +8922,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="70">
-        <v>1</v>
-      </c>
-      <c r="L5" s="71"/>
+      <c r="K5" s="67">
+        <v>1</v>
+      </c>
+      <c r="L5" s="68"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8933,10 +8933,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="70">
-        <v>1</v>
-      </c>
-      <c r="P5" s="71"/>
+      <c r="O5" s="67">
+        <v>1</v>
+      </c>
+      <c r="P5" s="68"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="71"/>
+      <c r="T5" s="68"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8955,10 +8955,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="70">
+      <c r="W5" s="67">
         <v>2</v>
       </c>
-      <c r="X5" s="71"/>
+      <c r="X5" s="68"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8966,10 +8966,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="AA5" s="67">
         <v>2</v>
       </c>
-      <c r="AB5" s="71"/>
+      <c r="AB5" s="68"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8977,10 +8977,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="70">
+      <c r="AE5" s="67">
         <v>7</v>
       </c>
-      <c r="AF5" s="71"/>
+      <c r="AF5" s="68"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8988,10 +8988,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="70">
+      <c r="AI5" s="67">
         <v>7</v>
       </c>
-      <c r="AJ5" s="71"/>
+      <c r="AJ5" s="68"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8999,10 +8999,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="70">
+      <c r="AM5" s="67">
         <v>7</v>
       </c>
-      <c r="AN5" s="71"/>
+      <c r="AN5" s="68"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9010,10 +9010,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="70">
+      <c r="AQ5" s="67">
         <v>10</v>
       </c>
-      <c r="AR5" s="71"/>
+      <c r="AR5" s="68"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9021,10 +9021,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="70">
+      <c r="AU5" s="67">
         <v>15</v>
       </c>
-      <c r="AV5" s="71"/>
+      <c r="AV5" s="68"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9032,10 +9032,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="70">
+      <c r="AY5" s="67">
         <v>20</v>
       </c>
-      <c r="AZ5" s="71"/>
+      <c r="AZ5" s="68"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9043,10 +9043,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="70">
+      <c r="BC5" s="67">
         <v>20</v>
       </c>
-      <c r="BD5" s="71"/>
+      <c r="BD5" s="68"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9054,10 +9054,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="70">
+      <c r="BG5" s="67">
         <v>20</v>
       </c>
-      <c r="BH5" s="71"/>
+      <c r="BH5" s="68"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9065,10 +9065,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="70">
+      <c r="BK5" s="67">
         <v>30</v>
       </c>
-      <c r="BL5" s="71"/>
+      <c r="BL5" s="68"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9076,10 +9076,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="70">
+      <c r="BO5" s="67">
         <v>30</v>
       </c>
-      <c r="BP5" s="71"/>
+      <c r="BP5" s="68"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9092,34 +9092,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="62">
         <v>11</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="72">
+      <c r="G6" s="62">
         <v>17</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="72">
+      <c r="K6" s="62">
         <v>10</v>
       </c>
-      <c r="L6" s="73"/>
+      <c r="L6" s="63"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="72">
+      <c r="O6" s="62">
         <v>18</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9127,103 +9127,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="73"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="72">
+      <c r="W6" s="62">
         <v>18</v>
       </c>
-      <c r="X6" s="73"/>
+      <c r="X6" s="63"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="72">
+      <c r="AA6" s="62">
         <v>18</v>
       </c>
-      <c r="AB6" s="73"/>
+      <c r="AB6" s="63"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="72">
+      <c r="AE6" s="62">
         <v>14</v>
       </c>
-      <c r="AF6" s="73"/>
+      <c r="AF6" s="63"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="72">
+      <c r="AI6" s="62">
         <v>23</v>
       </c>
-      <c r="AJ6" s="73"/>
+      <c r="AJ6" s="63"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="72">
+      <c r="AM6" s="62">
         <v>7</v>
       </c>
-      <c r="AN6" s="73"/>
+      <c r="AN6" s="63"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="72">
+      <c r="AQ6" s="62">
         <v>14</v>
       </c>
-      <c r="AR6" s="73"/>
+      <c r="AR6" s="63"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="72">
+      <c r="AU6" s="62">
         <v>12</v>
       </c>
-      <c r="AV6" s="73"/>
+      <c r="AV6" s="63"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="72">
+      <c r="AY6" s="62">
         <v>37</v>
       </c>
-      <c r="AZ6" s="73"/>
+      <c r="AZ6" s="63"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="72">
+      <c r="BC6" s="62">
         <v>30</v>
       </c>
-      <c r="BD6" s="73"/>
+      <c r="BD6" s="63"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="72">
+      <c r="BG6" s="62">
         <v>23</v>
       </c>
-      <c r="BH6" s="73"/>
+      <c r="BH6" s="63"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="72">
+      <c r="BK6" s="62">
         <v>37</v>
       </c>
-      <c r="BL6" s="73"/>
+      <c r="BL6" s="63"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="72">
+      <c r="BO6" s="62">
         <v>36</v>
       </c>
-      <c r="BP6" s="73"/>
+      <c r="BP6" s="63"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9233,104 +9233,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="73"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="73"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="73"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="63"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="63"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="63"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="73"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="63"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="73"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="63"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="73"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="63"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="73"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="63"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="73"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="63"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="73"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="63"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="73"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="63"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="73"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="63"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="73"/>
+      <c r="BO7" s="62"/>
+      <c r="BP7" s="63"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9340,11 +9340,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="69">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9353,11 +9353,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="69">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9366,11 +9366,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="69">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9379,11 +9379,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="69">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="63"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9396,7 +9396,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="63"/>
+      <c r="T8" s="70"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9405,11 +9405,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="62">
+      <c r="W8" s="69">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="63"/>
+      <c r="X8" s="70"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9418,11 +9418,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="62">
+      <c r="AA8" s="69">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="63"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9431,11 +9431,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="62">
+      <c r="AE8" s="69">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="63"/>
+      <c r="AF8" s="70"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9444,11 +9444,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="62">
+      <c r="AI8" s="69">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="63"/>
+      <c r="AJ8" s="70"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9457,11 +9457,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="62">
+      <c r="AM8" s="69">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="63"/>
+      <c r="AN8" s="70"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9470,11 +9470,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="62">
+      <c r="AQ8" s="69">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="63"/>
+      <c r="AR8" s="70"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9483,11 +9483,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="62">
+      <c r="AU8" s="69">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="63"/>
+      <c r="AV8" s="70"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9496,11 +9496,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="62">
+      <c r="AY8" s="69">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="63"/>
+      <c r="AZ8" s="70"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9509,11 +9509,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="62">
+      <c r="BC8" s="69">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="63"/>
+      <c r="BD8" s="70"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9522,11 +9522,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="62">
+      <c r="BG8" s="69">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="63"/>
+      <c r="BH8" s="70"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9535,11 +9535,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="62">
+      <c r="BK8" s="69">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="63"/>
+      <c r="BL8" s="70"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9548,11 +9548,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="62">
+      <c r="BO8" s="69">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="63"/>
+      <c r="BP8" s="70"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12536,20 +12536,87 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -12574,87 +12641,20 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13104,10 +13104,10 @@
   <dimension ref="B1:AN194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16089,7 +16089,7 @@
       </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="60" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="35">
@@ -19424,7 +19424,7 @@
       </c>
     </row>
     <row r="56" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="60" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="35">
@@ -21164,7 +21164,7 @@
       </c>
     </row>
     <row r="68" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="60" t="s">
         <v>166</v>
       </c>
       <c r="C68" s="35">
@@ -23484,7 +23484,7 @@
       </c>
     </row>
     <row r="84" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="60" t="s">
         <v>207</v>
       </c>
       <c r="C84" s="35">
@@ -24209,7 +24209,7 @@
       </c>
     </row>
     <row r="89" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="60" t="s">
         <v>217</v>
       </c>
       <c r="C89" s="35">
@@ -31310,7 +31310,7 @@
       </c>
     </row>
     <row r="138" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="60" t="s">
         <v>329</v>
       </c>
       <c r="C138" s="35">
@@ -32470,7 +32470,7 @@
       </c>
     </row>
     <row r="146" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="60" t="s">
         <v>345</v>
       </c>
       <c r="C146" s="35">

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637E2F5-2E89-427A-89DA-730F812C25E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27776EF5-A430-444C-AF76-24E2A84FFC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
@@ -2386,11 +2386,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2407,20 +2416,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8449,246 +8449,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="71" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="71" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="71" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="71" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="71" t="s">
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="71" t="s">
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="71" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="71" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="66"/>
+      <c r="AU2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="71" t="s">
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="71" t="s">
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="66"/>
+      <c r="BC2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="71" t="s">
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="72"/>
-      <c r="BI2" s="72"/>
-      <c r="BJ2" s="73"/>
-      <c r="BK2" s="71" t="s">
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="66"/>
+      <c r="BK2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="73"/>
-      <c r="BO2" s="71" t="s">
+      <c r="BL2" s="65"/>
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="66"/>
+      <c r="BO2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
-      <c r="BR2" s="73"/>
+      <c r="BP2" s="65"/>
+      <c r="BQ2" s="65"/>
+      <c r="BR2" s="66"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="64" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="66"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65" t="s">
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="64" t="s">
+      <c r="R3" s="69"/>
+      <c r="S3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65" t="s">
+      <c r="T3" s="68"/>
+      <c r="U3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="66"/>
-      <c r="W3" s="64" t="s">
+      <c r="V3" s="69"/>
+      <c r="W3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65" t="s">
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="64" t="s">
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65" t="s">
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="64" t="s">
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65" t="s">
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="64" t="s">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65" t="s">
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="64" t="s">
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="65"/>
-      <c r="AS3" s="65" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="64" t="s">
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="65" t="s">
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="64" t="s">
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65" t="s">
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="65" t="s">
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="64" t="s">
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="65"/>
-      <c r="BI3" s="65" t="s">
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="64" t="s">
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="65"/>
-      <c r="BM3" s="65" t="s">
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="64" t="s">
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65" t="s">
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="66"/>
+      <c r="BR3" s="69"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -8900,10 +8900,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="67">
-        <v>1</v>
-      </c>
-      <c r="D5" s="68"/>
+      <c r="C5" s="70">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -8911,10 +8911,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="67">
-        <v>1</v>
-      </c>
-      <c r="H5" s="68"/>
+      <c r="G5" s="70">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -8922,10 +8922,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="67">
-        <v>1</v>
-      </c>
-      <c r="L5" s="68"/>
+      <c r="K5" s="70">
+        <v>1</v>
+      </c>
+      <c r="L5" s="71"/>
       <c r="M5" s="22">
         <v>2.2770000000000001</v>
       </c>
@@ -8933,10 +8933,10 @@
         <f>M5/K5-1</f>
         <v>1.2770000000000001</v>
       </c>
-      <c r="O5" s="67">
-        <v>1</v>
-      </c>
-      <c r="P5" s="68"/>
+      <c r="O5" s="70">
+        <v>1</v>
+      </c>
+      <c r="P5" s="71"/>
       <c r="Q5" s="22">
         <v>2.8029999999999999</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="S5" s="74">
         <v>2</v>
       </c>
-      <c r="T5" s="68"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -8955,10 +8955,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="70">
         <v>2</v>
       </c>
-      <c r="X5" s="68"/>
+      <c r="X5" s="71"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -8966,10 +8966,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="67">
+      <c r="AA5" s="70">
         <v>2</v>
       </c>
-      <c r="AB5" s="68"/>
+      <c r="AB5" s="71"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -8977,10 +8977,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="67">
+      <c r="AE5" s="70">
         <v>7</v>
       </c>
-      <c r="AF5" s="68"/>
+      <c r="AF5" s="71"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -8988,10 +8988,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="67">
+      <c r="AI5" s="70">
         <v>7</v>
       </c>
-      <c r="AJ5" s="68"/>
+      <c r="AJ5" s="71"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -8999,10 +8999,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="67">
+      <c r="AM5" s="70">
         <v>7</v>
       </c>
-      <c r="AN5" s="68"/>
+      <c r="AN5" s="71"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -9010,10 +9010,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="67">
+      <c r="AQ5" s="70">
         <v>10</v>
       </c>
-      <c r="AR5" s="68"/>
+      <c r="AR5" s="71"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -9021,10 +9021,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="67">
+      <c r="AU5" s="70">
         <v>15</v>
       </c>
-      <c r="AV5" s="68"/>
+      <c r="AV5" s="71"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -9032,10 +9032,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="67">
+      <c r="AY5" s="70">
         <v>20</v>
       </c>
-      <c r="AZ5" s="68"/>
+      <c r="AZ5" s="71"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -9043,10 +9043,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="67">
+      <c r="BC5" s="70">
         <v>20</v>
       </c>
-      <c r="BD5" s="68"/>
+      <c r="BD5" s="71"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -9054,10 +9054,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="67">
+      <c r="BG5" s="70">
         <v>20</v>
       </c>
-      <c r="BH5" s="68"/>
+      <c r="BH5" s="71"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -9065,10 +9065,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="67">
+      <c r="BK5" s="70">
         <v>30</v>
       </c>
-      <c r="BL5" s="68"/>
+      <c r="BL5" s="71"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -9076,10 +9076,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="67">
+      <c r="BO5" s="70">
         <v>30</v>
       </c>
-      <c r="BP5" s="68"/>
+      <c r="BP5" s="71"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -9092,34 +9092,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="72">
         <v>11</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="62">
+      <c r="G6" s="72">
         <v>17</v>
       </c>
-      <c r="H6" s="63"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="62">
+      <c r="K6" s="72">
         <v>10</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="62">
+      <c r="O6" s="72">
         <v>18</v>
       </c>
-      <c r="P6" s="63"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -9127,103 +9127,103 @@
       <c r="S6" s="75">
         <v>40</v>
       </c>
-      <c r="T6" s="63"/>
+      <c r="T6" s="73"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="62">
+      <c r="W6" s="72">
         <v>18</v>
       </c>
-      <c r="X6" s="63"/>
+      <c r="X6" s="73"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="62">
+      <c r="AA6" s="72">
         <v>18</v>
       </c>
-      <c r="AB6" s="63"/>
+      <c r="AB6" s="73"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="62">
+      <c r="AE6" s="72">
         <v>14</v>
       </c>
-      <c r="AF6" s="63"/>
+      <c r="AF6" s="73"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="62">
+      <c r="AI6" s="72">
         <v>23</v>
       </c>
-      <c r="AJ6" s="63"/>
+      <c r="AJ6" s="73"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="62">
+      <c r="AM6" s="72">
         <v>7</v>
       </c>
-      <c r="AN6" s="63"/>
+      <c r="AN6" s="73"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="62">
+      <c r="AQ6" s="72">
         <v>14</v>
       </c>
-      <c r="AR6" s="63"/>
+      <c r="AR6" s="73"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="62">
+      <c r="AU6" s="72">
         <v>12</v>
       </c>
-      <c r="AV6" s="63"/>
+      <c r="AV6" s="73"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="62">
+      <c r="AY6" s="72">
         <v>37</v>
       </c>
-      <c r="AZ6" s="63"/>
+      <c r="AZ6" s="73"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="62">
+      <c r="BC6" s="72">
         <v>30</v>
       </c>
-      <c r="BD6" s="63"/>
+      <c r="BD6" s="73"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="62">
+      <c r="BG6" s="72">
         <v>23</v>
       </c>
-      <c r="BH6" s="63"/>
+      <c r="BH6" s="73"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="62">
+      <c r="BK6" s="72">
         <v>37</v>
       </c>
-      <c r="BL6" s="63"/>
+      <c r="BL6" s="73"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="62">
+      <c r="BO6" s="72">
         <v>36</v>
       </c>
-      <c r="BP6" s="63"/>
+      <c r="BP6" s="73"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -9233,104 +9233,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="75"/>
-      <c r="T7" s="63"/>
+      <c r="T7" s="73"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="63"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="63"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="73"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="63"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="63"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="73"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="63"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="73"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="63"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="73"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="73"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="63"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="73"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="63"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="73"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="63"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="73"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="62"/>
-      <c r="BL7" s="63"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="73"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="63"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="73"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -9340,11 +9340,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="62">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -9353,11 +9353,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="62">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -9366,11 +9366,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="62">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -9379,11 +9379,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="69">
+      <c r="O8" s="62">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="70"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -9396,7 +9396,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="70"/>
+      <c r="T8" s="63"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -9405,11 +9405,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="69">
+      <c r="W8" s="62">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="70"/>
+      <c r="X8" s="63"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -9418,11 +9418,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="69">
+      <c r="AA8" s="62">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="70"/>
+      <c r="AB8" s="63"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -9431,11 +9431,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="69">
+      <c r="AE8" s="62">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="70"/>
+      <c r="AF8" s="63"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -9444,11 +9444,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="69">
+      <c r="AI8" s="62">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="70"/>
+      <c r="AJ8" s="63"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -9457,11 +9457,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="69">
+      <c r="AM8" s="62">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="70"/>
+      <c r="AN8" s="63"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -9470,11 +9470,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="69">
+      <c r="AQ8" s="62">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="70"/>
+      <c r="AR8" s="63"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -9483,11 +9483,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="69">
+      <c r="AU8" s="62">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="70"/>
+      <c r="AV8" s="63"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -9496,11 +9496,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="69">
+      <c r="AY8" s="62">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="70"/>
+      <c r="AZ8" s="63"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -9509,11 +9509,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="69">
+      <c r="BC8" s="62">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="70"/>
+      <c r="BD8" s="63"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -9522,11 +9522,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="69">
+      <c r="BG8" s="62">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="70"/>
+      <c r="BH8" s="63"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -9535,11 +9535,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="69">
+      <c r="BK8" s="62">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="70"/>
+      <c r="BL8" s="63"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -9548,11 +9548,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="69">
+      <c r="BO8" s="62">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="70"/>
+      <c r="BP8" s="63"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -12536,15 +12536,92 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G5:H5"/>
@@ -12569,92 +12646,15 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -13104,10 +13104,10 @@
   <dimension ref="B1:AN194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B146" sqref="B146"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="12" spans="2:40" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="60" t="s">
         <v>450</v>
       </c>
       <c r="C13" s="35">
@@ -13503,6 +13503,22 @@
       <c r="AJ13" s="39">
         <f>AG13+AH13+AI13</f>
         <v>450</v>
+      </c>
+      <c r="AK13" s="49">
+        <f>AG13-O13</f>
+        <v>82</v>
+      </c>
+      <c r="AL13" s="50">
+        <f>AH13-P13</f>
+        <v>-6</v>
+      </c>
+      <c r="AM13" s="50">
+        <f>AI13-Q13</f>
+        <v>74</v>
+      </c>
+      <c r="AN13" s="51">
+        <f>AJ13-R13</f>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:40" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14349,7 +14365,7 @@
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="60" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="35">
@@ -14784,7 +14800,7 @@
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="60" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="35">
@@ -16379,7 +16395,7 @@
       </c>
     </row>
     <row r="35" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="60" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="35">
@@ -18119,7 +18135,7 @@
       </c>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="60" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="35">
@@ -22034,7 +22050,7 @@
       </c>
     </row>
     <row r="74" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="60" t="s">
         <v>180</v>
       </c>
       <c r="C74" s="35">
@@ -24644,7 +24660,7 @@
       </c>
     </row>
     <row r="92" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="35">
@@ -26384,7 +26400,7 @@
       </c>
     </row>
     <row r="104" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="60" t="s">
         <v>249</v>
       </c>
       <c r="C104" s="35">
@@ -29135,7 +29151,7 @@
       </c>
     </row>
     <row r="123" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="60" t="s">
         <v>293</v>
       </c>
       <c r="C123" s="35">
@@ -29570,7 +29586,7 @@
       </c>
     </row>
     <row r="126" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="60" t="s">
         <v>299</v>
       </c>
       <c r="C126" s="35">
@@ -29715,7 +29731,7 @@
       </c>
     </row>
     <row r="127" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="60" t="s">
         <v>301</v>
       </c>
       <c r="C127" s="35">
@@ -30875,7 +30891,7 @@
       </c>
     </row>
     <row r="135" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="60" t="s">
         <v>321</v>
       </c>
       <c r="C135" s="35">
@@ -31165,7 +31181,7 @@
       </c>
     </row>
     <row r="137" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="60" t="s">
         <v>327</v>
       </c>
       <c r="C137" s="35">
@@ -32180,7 +32196,7 @@
       </c>
     </row>
     <row r="144" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="60" t="s">
         <v>341</v>
       </c>
       <c r="C144" s="35">
@@ -32325,7 +32341,7 @@
       </c>
     </row>
     <row r="145" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="60" t="s">
         <v>343</v>
       </c>
       <c r="C145" s="35">
@@ -32615,7 +32631,7 @@
       </c>
     </row>
     <row r="147" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="60" t="s">
         <v>347</v>
       </c>
       <c r="C147" s="35">
@@ -35660,7 +35676,7 @@
       </c>
     </row>
     <row r="168" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="60" t="s">
         <v>401</v>
       </c>
       <c r="C168" s="35">

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7215B4-E38A-4F47-A133-C71ED335789C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF317A65-78C3-4619-8D23-1DA1645B3930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="666" activeTab="3" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="666" activeTab="8" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
   <sheets>
     <sheet name="Defence" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4223" uniqueCount="530">
   <si>
     <t>Population Tax Rate</t>
   </si>
@@ -1770,6 +1770,9 @@
   <si>
     <t>stability_factor</t>
   </si>
+  <si>
+    <t>New</t>
+  </si>
 </sst>
 </file>
 
@@ -2497,11 +2500,20 @@
     <xf numFmtId="2" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2518,20 +2530,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5853,6 +5856,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Building slots'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -5879,75 +5893,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Building slots'!$B$3:$B$21</c:f>
+              <c:f>'Building slots'!$C$3:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Building slots'!$D$3:$D$21</c:f>
+              <c:f>'Building slots'!$E$3:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9900,7 +9971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5448BB70-317A-4D9A-9AFE-01C2B8688FA9}">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -10165,246 +10236,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83" t="s">
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="83" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="83" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="83" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="83" t="s">
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="83" t="s">
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="83" t="s">
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="83" t="s">
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="83" t="s">
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="77"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="83" t="s">
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="83" t="s">
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-      <c r="BC2" s="83" t="s">
+      <c r="AZ2" s="77"/>
+      <c r="BA2" s="77"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="83" t="s">
+      <c r="BD2" s="77"/>
+      <c r="BE2" s="77"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="83" t="s">
+      <c r="BH2" s="77"/>
+      <c r="BI2" s="77"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="84"/>
-      <c r="BM2" s="84"/>
-      <c r="BN2" s="85"/>
-      <c r="BO2" s="83" t="s">
+      <c r="BL2" s="77"/>
+      <c r="BM2" s="77"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="85"/>
+      <c r="BP2" s="77"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="78"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="81"/>
+      <c r="K3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="76" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="76" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="78"/>
-      <c r="W3" s="76" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77" t="s">
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="76" t="s">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77" t="s">
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="76" t="s">
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77" t="s">
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="76" t="s">
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77" t="s">
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="76" t="s">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="77" t="s">
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="76" t="s">
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77" t="s">
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="76" t="s">
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77" t="s">
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="76" t="s">
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77" t="s">
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="76" t="s">
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77" t="s">
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="76" t="s">
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77" t="s">
+      <c r="BH3" s="80"/>
+      <c r="BI3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="76" t="s">
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="77" t="s">
+      <c r="BL3" s="80"/>
+      <c r="BM3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="76" t="s">
+      <c r="BN3" s="81"/>
+      <c r="BO3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77" t="s">
+      <c r="BP3" s="80"/>
+      <c r="BQ3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="78"/>
+      <c r="BR3" s="81"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -10616,10 +10687,10 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="79">
-        <v>1</v>
-      </c>
-      <c r="D5" s="80"/>
+      <c r="C5" s="82">
+        <v>1</v>
+      </c>
+      <c r="D5" s="83"/>
       <c r="E5" s="22">
         <v>2.9780000000000002</v>
       </c>
@@ -10627,10 +10698,10 @@
         <f>E5/C5-1</f>
         <v>1.9780000000000002</v>
       </c>
-      <c r="G5" s="79">
-        <v>1</v>
-      </c>
-      <c r="H5" s="80"/>
+      <c r="G5" s="82">
+        <v>1</v>
+      </c>
+      <c r="H5" s="83"/>
       <c r="I5" s="22">
         <v>1.84</v>
       </c>
@@ -10638,10 +10709,10 @@
         <f>I5/G5-1</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="K5" s="79">
-        <v>1</v>
-      </c>
-      <c r="L5" s="80"/>
+      <c r="K5" s="82">
+        <v>1</v>
+      </c>
+      <c r="L5" s="83"/>
       <c r="M5" s="22">
         <v>2.706</v>
       </c>
@@ -10649,10 +10720,10 @@
         <f>M5/K5-1</f>
         <v>1.706</v>
       </c>
-      <c r="O5" s="79">
-        <v>1</v>
-      </c>
-      <c r="P5" s="80"/>
+      <c r="O5" s="82">
+        <v>1</v>
+      </c>
+      <c r="P5" s="83"/>
       <c r="Q5" s="22">
         <v>3.8319999999999999</v>
       </c>
@@ -10663,7 +10734,7 @@
       <c r="S5" s="86">
         <v>2</v>
       </c>
-      <c r="T5" s="80"/>
+      <c r="T5" s="83"/>
       <c r="U5" s="22">
         <v>12.585000000000001</v>
       </c>
@@ -10671,10 +10742,10 @@
         <f>U5/S5-1</f>
         <v>5.2925000000000004</v>
       </c>
-      <c r="W5" s="79">
+      <c r="W5" s="82">
         <v>2</v>
       </c>
-      <c r="X5" s="80"/>
+      <c r="X5" s="83"/>
       <c r="Y5" s="22">
         <v>10.067</v>
       </c>
@@ -10682,10 +10753,10 @@
         <f>Y5/W5-1</f>
         <v>4.0335000000000001</v>
       </c>
-      <c r="AA5" s="79">
+      <c r="AA5" s="82">
         <v>2</v>
       </c>
-      <c r="AB5" s="80"/>
+      <c r="AB5" s="83"/>
       <c r="AC5" s="22">
         <v>9.9779999999999998</v>
       </c>
@@ -10693,10 +10764,10 @@
         <f>AC5/AA5-1</f>
         <v>3.9889999999999999</v>
       </c>
-      <c r="AE5" s="79">
+      <c r="AE5" s="82">
         <v>7</v>
       </c>
-      <c r="AF5" s="80"/>
+      <c r="AF5" s="83"/>
       <c r="AG5" s="22">
         <v>15.536</v>
       </c>
@@ -10704,10 +10775,10 @@
         <f>AG5/AE5-1</f>
         <v>1.2194285714285713</v>
       </c>
-      <c r="AI5" s="79">
+      <c r="AI5" s="82">
         <v>7</v>
       </c>
-      <c r="AJ5" s="80"/>
+      <c r="AJ5" s="83"/>
       <c r="AK5" s="22">
         <v>24.87</v>
       </c>
@@ -10715,10 +10786,10 @@
         <f>AK5/AI5-1</f>
         <v>2.5528571428571429</v>
       </c>
-      <c r="AM5" s="79">
+      <c r="AM5" s="82">
         <v>7</v>
       </c>
-      <c r="AN5" s="80"/>
+      <c r="AN5" s="83"/>
       <c r="AO5" s="22">
         <v>14.685</v>
       </c>
@@ -10726,10 +10797,10 @@
         <f>AO5/AM5-1</f>
         <v>1.0978571428571429</v>
       </c>
-      <c r="AQ5" s="79">
+      <c r="AQ5" s="82">
         <v>10</v>
       </c>
-      <c r="AR5" s="80"/>
+      <c r="AR5" s="83"/>
       <c r="AS5" s="22">
         <v>13.314</v>
       </c>
@@ -10737,10 +10808,10 @@
         <f>AS5/AQ5-1</f>
         <v>0.33139999999999992</v>
       </c>
-      <c r="AU5" s="79">
+      <c r="AU5" s="82">
         <v>15</v>
       </c>
-      <c r="AV5" s="80"/>
+      <c r="AV5" s="83"/>
       <c r="AW5" s="22">
         <v>35.488</v>
       </c>
@@ -10748,10 +10819,10 @@
         <f>AW5/AU5-1</f>
         <v>1.3658666666666668</v>
       </c>
-      <c r="AY5" s="79">
+      <c r="AY5" s="82">
         <v>20</v>
       </c>
-      <c r="AZ5" s="80"/>
+      <c r="AZ5" s="83"/>
       <c r="BA5" s="22">
         <v>46.418999999999997</v>
       </c>
@@ -10759,10 +10830,10 @@
         <f>BA5/AY5-1</f>
         <v>1.3209499999999998</v>
       </c>
-      <c r="BC5" s="79">
+      <c r="BC5" s="82">
         <v>20</v>
       </c>
-      <c r="BD5" s="80"/>
+      <c r="BD5" s="83"/>
       <c r="BE5" s="22">
         <v>77.132000000000005</v>
       </c>
@@ -10770,10 +10841,10 @@
         <f>BE5/BC5-1</f>
         <v>2.8566000000000003</v>
       </c>
-      <c r="BG5" s="79">
+      <c r="BG5" s="82">
         <v>20</v>
       </c>
-      <c r="BH5" s="80"/>
+      <c r="BH5" s="83"/>
       <c r="BI5" s="22">
         <v>50.906999999999996</v>
       </c>
@@ -10781,10 +10852,10 @@
         <f>BI5/BG5-1</f>
         <v>1.54535</v>
       </c>
-      <c r="BK5" s="79">
+      <c r="BK5" s="82">
         <v>30</v>
       </c>
-      <c r="BL5" s="80"/>
+      <c r="BL5" s="83"/>
       <c r="BM5" s="22">
         <v>39.054000000000002</v>
       </c>
@@ -10792,10 +10863,10 @@
         <f>BM5/BK5-1</f>
         <v>0.30180000000000007</v>
       </c>
-      <c r="BO5" s="79">
+      <c r="BO5" s="82">
         <v>30</v>
       </c>
-      <c r="BP5" s="80"/>
+      <c r="BP5" s="83"/>
       <c r="BQ5" s="22">
         <v>40.4</v>
       </c>
@@ -10808,34 +10879,34 @@
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="84">
         <v>11</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="74">
+      <c r="G6" s="84">
         <v>17</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="74">
+      <c r="K6" s="84">
         <v>10</v>
       </c>
-      <c r="L6" s="75"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="74">
+      <c r="O6" s="84">
         <v>18</v>
       </c>
-      <c r="P6" s="75"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -10843,103 +10914,103 @@
       <c r="S6" s="87">
         <v>40</v>
       </c>
-      <c r="T6" s="75"/>
+      <c r="T6" s="85"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="74">
+      <c r="W6" s="84">
         <v>18</v>
       </c>
-      <c r="X6" s="75"/>
+      <c r="X6" s="85"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="74">
+      <c r="AA6" s="84">
         <v>18</v>
       </c>
-      <c r="AB6" s="75"/>
+      <c r="AB6" s="85"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="74">
+      <c r="AE6" s="84">
         <v>14</v>
       </c>
-      <c r="AF6" s="75"/>
+      <c r="AF6" s="85"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="74">
+      <c r="AI6" s="84">
         <v>23</v>
       </c>
-      <c r="AJ6" s="75"/>
+      <c r="AJ6" s="85"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="74">
+      <c r="AM6" s="84">
         <v>7</v>
       </c>
-      <c r="AN6" s="75"/>
+      <c r="AN6" s="85"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="74">
+      <c r="AQ6" s="84">
         <v>14</v>
       </c>
-      <c r="AR6" s="75"/>
+      <c r="AR6" s="85"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="74">
+      <c r="AU6" s="84">
         <v>12</v>
       </c>
-      <c r="AV6" s="75"/>
+      <c r="AV6" s="85"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="74">
+      <c r="AY6" s="84">
         <v>37</v>
       </c>
-      <c r="AZ6" s="75"/>
+      <c r="AZ6" s="85"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="74">
+      <c r="BC6" s="84">
         <v>30</v>
       </c>
-      <c r="BD6" s="75"/>
+      <c r="BD6" s="85"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="74">
+      <c r="BG6" s="84">
         <v>23</v>
       </c>
-      <c r="BH6" s="75"/>
+      <c r="BH6" s="85"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="74">
+      <c r="BK6" s="84">
         <v>37</v>
       </c>
-      <c r="BL6" s="75"/>
+      <c r="BL6" s="85"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="74">
+      <c r="BO6" s="84">
         <v>36</v>
       </c>
-      <c r="BP6" s="75"/>
+      <c r="BP6" s="85"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -10949,104 +11020,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="87"/>
-      <c r="T7" s="75"/>
+      <c r="T7" s="85"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="85"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="75"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="85"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="85"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="75"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="85"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="75"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="85"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="75"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="85"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="75"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="85"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="75"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="85"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="75"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="85"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="75"/>
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="85"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="75"/>
+      <c r="BK7" s="84"/>
+      <c r="BL7" s="85"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="75"/>
+      <c r="BO7" s="84"/>
+      <c r="BP7" s="85"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -11056,11 +11127,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="74">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -11069,11 +11140,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="81">
+      <c r="G8" s="74">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -11082,11 +11153,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="74">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -11095,11 +11166,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="74">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="75"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -11112,7 +11183,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="82"/>
+      <c r="T8" s="75"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -11121,11 +11192,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="81">
+      <c r="W8" s="74">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="82"/>
+      <c r="X8" s="75"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -11134,11 +11205,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="81">
+      <c r="AA8" s="74">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="82"/>
+      <c r="AB8" s="75"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -11147,11 +11218,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="81">
+      <c r="AE8" s="74">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="82"/>
+      <c r="AF8" s="75"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -11160,11 +11231,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="81">
+      <c r="AI8" s="74">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="82"/>
+      <c r="AJ8" s="75"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -11173,11 +11244,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="81">
+      <c r="AM8" s="74">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="82"/>
+      <c r="AN8" s="75"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -11186,11 +11257,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="81">
+      <c r="AQ8" s="74">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="82"/>
+      <c r="AR8" s="75"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -11199,11 +11270,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="81">
+      <c r="AU8" s="74">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="82"/>
+      <c r="AV8" s="75"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -11212,11 +11283,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="81">
+      <c r="AY8" s="74">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="82"/>
+      <c r="AZ8" s="75"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -11225,11 +11296,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="81">
+      <c r="BC8" s="74">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="82"/>
+      <c r="BD8" s="75"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -11238,11 +11309,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="81">
+      <c r="BG8" s="74">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="82"/>
+      <c r="BH8" s="75"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -11251,11 +11322,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="81">
+      <c r="BK8" s="74">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="82"/>
+      <c r="BL8" s="75"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -11264,11 +11335,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="81">
+      <c r="BO8" s="74">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="82"/>
+      <c r="BP8" s="75"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -14252,15 +14323,92 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G5:H5"/>
@@ -14285,92 +14433,15 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
   </mergeCells>
   <conditionalFormatting sqref="BP21">
     <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
@@ -57584,10 +57655,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CCCA84-00D4-4EC0-A67D-DF8D5F629124}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57595,15 +57666,23 @@
     <col min="3" max="3" width="9.85546875" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="61">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
       <c r="C4" s="61">
         <v>300000</v>
@@ -57611,8 +57690,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" s="39">
+        <f t="shared" ref="E4:E21" si="0">ROUND(50/$D$21*D4,0)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="39"/>
       <c r="C5" s="61">
         <v>800000</v>
@@ -57620,8 +57703,12 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5" s="39">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
       <c r="C6" s="61">
         <v>1500000</v>
@@ -57629,8 +57716,12 @@
       <c r="D6" s="39">
         <v>3</v>
       </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="39"/>
       <c r="C7" s="61">
         <v>2500000</v>
@@ -57638,8 +57729,12 @@
       <c r="D7" s="39">
         <v>4</v>
       </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="61">
         <v>3800000</v>
@@ -57647,8 +57742,12 @@
       <c r="D8" s="39">
         <v>5</v>
       </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="39"/>
       <c r="C9" s="61">
         <v>5200000</v>
@@ -57656,8 +57755,12 @@
       <c r="D9" s="39">
         <v>6</v>
       </c>
+      <c r="E9" s="39">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="61">
         <v>6800000</v>
@@ -57665,8 +57768,11 @@
       <c r="D10" s="39">
         <v>7</v>
       </c>
+      <c r="E10" s="39">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" s="61">
         <v>8500000</v>
@@ -57674,8 +57780,12 @@
       <c r="D11" s="39">
         <v>8</v>
       </c>
+      <c r="E11" s="39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" s="61">
         <v>10500000</v>
@@ -57683,8 +57793,12 @@
       <c r="D12" s="39">
         <v>9</v>
       </c>
+      <c r="E12" s="39">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="39"/>
       <c r="C13" s="61">
         <v>13000000</v>
@@ -57692,8 +57806,12 @@
       <c r="D13" s="39">
         <v>10</v>
       </c>
+      <c r="E13" s="39">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="61">
         <v>16000000</v>
@@ -57701,8 +57819,12 @@
       <c r="D14" s="39">
         <v>11</v>
       </c>
+      <c r="E14" s="39">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="61">
         <v>19000000</v>
@@ -57710,8 +57832,12 @@
       <c r="D15" s="39">
         <v>12</v>
       </c>
+      <c r="E15" s="39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="61">
         <v>23000000</v>
@@ -57719,8 +57845,12 @@
       <c r="D16" s="39">
         <v>13</v>
       </c>
+      <c r="E16" s="39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="61">
         <v>27000000</v>
@@ -57728,8 +57858,12 @@
       <c r="D17" s="39">
         <v>14</v>
       </c>
+      <c r="E17" s="39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="61">
         <v>34000000</v>
@@ -57737,8 +57871,12 @@
       <c r="D18" s="39">
         <v>15</v>
       </c>
+      <c r="E18" s="39">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="61">
         <v>42000000</v>
@@ -57746,8 +57884,12 @@
       <c r="D19" s="39">
         <v>16</v>
       </c>
+      <c r="E19" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="61">
         <v>52000000</v>
@@ -57755,14 +57897,22 @@
       <c r="D20" s="39">
         <v>17</v>
       </c>
+      <c r="E20" s="39">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="61">
         <v>65000000</v>
       </c>
       <c r="D21" s="39">
         <v>18</v>
+      </c>
+      <c r="E21" s="39">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
+++ b/Modding resources/economy spreadsheets/Data for Economic Rework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\Paradox Interactive\Hearts of Iron IV\mod\Millennium_Dawn\Modding resources\economy spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF317A65-78C3-4619-8D23-1DA1645B3930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE88C72-44B0-48F3-A449-080A28C31BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="666" activeTab="8" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="666" activeTab="4" xr2:uid="{C93B8E2A-6318-41E2-B454-20DC41C43396}"/>
   </bookViews>
   <sheets>
     <sheet name="Defence" sheetId="1" r:id="rId1"/>
@@ -2500,20 +2500,11 @@
     <xf numFmtId="2" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2530,11 +2521,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2558,7 +2558,307 @@
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10205,9 +10505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2268BEE6-E8C9-4F27-B43C-281F04C1F227}">
   <dimension ref="B1:BR21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <selection pane="topRight" activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10236,246 +10536,246 @@
   <sheetData>
     <row r="1" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="76" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="76" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="76" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="76" t="s">
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="76" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="76" t="s">
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="76" t="s">
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="76" t="s">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="77"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="76" t="s">
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="76" t="s">
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="77"/>
-      <c r="AW2" s="77"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="76" t="s">
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AZ2" s="77"/>
-      <c r="BA2" s="77"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="76" t="s">
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="BD2" s="77"/>
-      <c r="BE2" s="77"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="76" t="s">
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="BH2" s="77"/>
-      <c r="BI2" s="77"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="76" t="s">
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="BL2" s="77"/>
-      <c r="BM2" s="77"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="76" t="s">
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="85"/>
+      <c r="BO2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="77"/>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="78"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="85"/>
     </row>
     <row r="3" spans="2:70" x14ac:dyDescent="0.25">
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="79" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="79" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80" t="s">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="79" t="s">
+      <c r="R3" s="78"/>
+      <c r="S3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80" t="s">
+      <c r="T3" s="77"/>
+      <c r="U3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="81"/>
-      <c r="W3" s="79" t="s">
+      <c r="V3" s="78"/>
+      <c r="W3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80" t="s">
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="79" t="s">
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80" t="s">
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="79" t="s">
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80" t="s">
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="79" t="s">
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80" t="s">
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="79" t="s">
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80" t="s">
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="79" t="s">
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80" t="s">
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="79" t="s">
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80" t="s">
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="79" t="s">
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AZ3" s="80"/>
-      <c r="BA3" s="80" t="s">
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="79" t="s">
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="BD3" s="80"/>
-      <c r="BE3" s="80" t="s">
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="79" t="s">
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="80"/>
-      <c r="BI3" s="80" t="s">
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BJ3" s="81"/>
-      <c r="BK3" s="79" t="s">
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="BL3" s="80"/>
-      <c r="BM3" s="80" t="s">
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="79" t="s">
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="80" t="s">
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="81"/>
+      <c r="BR3" s="78"/>
     </row>
     <row r="4" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -10687,226 +10987,226 @@
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="82">
-        <v>1</v>
-      </c>
-      <c r="D5" s="83"/>
+      <c r="C5" s="79">
+        <v>1</v>
+      </c>
+      <c r="D5" s="80"/>
       <c r="E5" s="22">
-        <v>2.9780000000000002</v>
+        <v>1.58</v>
       </c>
       <c r="F5" s="25">
         <f>E5/C5-1</f>
-        <v>1.9780000000000002</v>
-      </c>
-      <c r="G5" s="82">
-        <v>1</v>
-      </c>
-      <c r="H5" s="83"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="G5" s="79">
+        <v>1</v>
+      </c>
+      <c r="H5" s="80"/>
       <c r="I5" s="22">
-        <v>1.84</v>
+        <v>1.8440000000000001</v>
       </c>
       <c r="J5" s="25">
         <f>I5/G5-1</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="K5" s="82">
-        <v>1</v>
-      </c>
-      <c r="L5" s="83"/>
+        <v>0.84400000000000008</v>
+      </c>
+      <c r="K5" s="79">
+        <v>1</v>
+      </c>
+      <c r="L5" s="80"/>
       <c r="M5" s="22">
-        <v>2.706</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="N5" s="25">
         <f>M5/K5-1</f>
-        <v>1.706</v>
-      </c>
-      <c r="O5" s="82">
-        <v>1</v>
-      </c>
-      <c r="P5" s="83"/>
+        <v>1.5230000000000001</v>
+      </c>
+      <c r="O5" s="79">
+        <v>1</v>
+      </c>
+      <c r="P5" s="80"/>
       <c r="Q5" s="22">
-        <v>3.8319999999999999</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="R5" s="25">
         <f>Q5/O5-1</f>
-        <v>2.8319999999999999</v>
+        <v>2.4060000000000001</v>
       </c>
       <c r="S5" s="86">
         <v>2</v>
       </c>
-      <c r="T5" s="83"/>
+      <c r="T5" s="80"/>
       <c r="U5" s="22">
-        <v>12.585000000000001</v>
+        <v>7.1879999999999997</v>
       </c>
       <c r="V5" s="25">
         <f>U5/S5-1</f>
-        <v>5.2925000000000004</v>
-      </c>
-      <c r="W5" s="82">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="W5" s="79">
         <v>2</v>
       </c>
-      <c r="X5" s="83"/>
+      <c r="X5" s="80"/>
       <c r="Y5" s="22">
-        <v>10.067</v>
+        <v>8.4730000000000008</v>
       </c>
       <c r="Z5" s="25">
         <f>Y5/W5-1</f>
-        <v>4.0335000000000001</v>
-      </c>
-      <c r="AA5" s="82">
+        <v>3.2365000000000004</v>
+      </c>
+      <c r="AA5" s="79">
         <v>2</v>
       </c>
-      <c r="AB5" s="83"/>
+      <c r="AB5" s="80"/>
       <c r="AC5" s="22">
-        <v>9.9779999999999998</v>
+        <v>10.375</v>
       </c>
       <c r="AD5" s="25">
         <f>AC5/AA5-1</f>
-        <v>3.9889999999999999</v>
-      </c>
-      <c r="AE5" s="82">
+        <v>4.1875</v>
+      </c>
+      <c r="AE5" s="79">
         <v>7</v>
       </c>
-      <c r="AF5" s="83"/>
+      <c r="AF5" s="80"/>
       <c r="AG5" s="22">
-        <v>15.536</v>
+        <v>10.449</v>
       </c>
       <c r="AH5" s="25">
         <f>AG5/AE5-1</f>
-        <v>1.2194285714285713</v>
-      </c>
-      <c r="AI5" s="82">
+        <v>0.49271428571428566</v>
+      </c>
+      <c r="AI5" s="79">
         <v>7</v>
       </c>
-      <c r="AJ5" s="83"/>
+      <c r="AJ5" s="80"/>
       <c r="AK5" s="22">
-        <v>24.87</v>
+        <v>9.157</v>
       </c>
       <c r="AL5" s="25">
         <f>AK5/AI5-1</f>
-        <v>2.5528571428571429</v>
-      </c>
-      <c r="AM5" s="82">
+        <v>0.30814285714285705</v>
+      </c>
+      <c r="AM5" s="79">
         <v>7</v>
       </c>
-      <c r="AN5" s="83"/>
+      <c r="AN5" s="80"/>
       <c r="AO5" s="22">
-        <v>14.685</v>
+        <v>59.204999999999998</v>
       </c>
       <c r="AP5" s="25">
         <f>AO5/AM5-1</f>
-        <v>1.0978571428571429</v>
-      </c>
-      <c r="AQ5" s="82">
+        <v>7.4578571428571419</v>
+      </c>
+      <c r="AQ5" s="79">
         <v>10</v>
       </c>
-      <c r="AR5" s="83"/>
+      <c r="AR5" s="80"/>
       <c r="AS5" s="22">
-        <v>13.314</v>
+        <v>8.6129999999999995</v>
       </c>
       <c r="AT5" s="25">
         <f>AS5/AQ5-1</f>
-        <v>0.33139999999999992</v>
-      </c>
-      <c r="AU5" s="82">
+        <v>-0.13870000000000005</v>
+      </c>
+      <c r="AU5" s="79">
         <v>15</v>
       </c>
-      <c r="AV5" s="83"/>
+      <c r="AV5" s="80"/>
       <c r="AW5" s="22">
-        <v>35.488</v>
+        <v>14.27</v>
       </c>
       <c r="AX5" s="25">
         <f>AW5/AU5-1</f>
-        <v>1.3658666666666668</v>
-      </c>
-      <c r="AY5" s="82">
+        <v>-4.8666666666666747E-2</v>
+      </c>
+      <c r="AY5" s="79">
         <v>20</v>
       </c>
-      <c r="AZ5" s="83"/>
+      <c r="AZ5" s="80"/>
       <c r="BA5" s="22">
-        <v>46.418999999999997</v>
+        <v>41.811</v>
       </c>
       <c r="BB5" s="25">
         <f>BA5/AY5-1</f>
-        <v>1.3209499999999998</v>
-      </c>
-      <c r="BC5" s="82">
+        <v>1.0905499999999999</v>
+      </c>
+      <c r="BC5" s="79">
         <v>20</v>
       </c>
-      <c r="BD5" s="83"/>
+      <c r="BD5" s="80"/>
       <c r="BE5" s="22">
-        <v>77.132000000000005</v>
+        <v>40.113</v>
       </c>
       <c r="BF5" s="25">
         <f>BE5/BC5-1</f>
-        <v>2.8566000000000003</v>
-      </c>
-      <c r="BG5" s="82">
+        <v>1.0056500000000002</v>
+      </c>
+      <c r="BG5" s="79">
         <v>20</v>
       </c>
-      <c r="BH5" s="83"/>
+      <c r="BH5" s="80"/>
       <c r="BI5" s="22">
-        <v>50.906999999999996</v>
+        <v>30.27</v>
       </c>
       <c r="BJ5" s="25">
         <f>BI5/BG5-1</f>
-        <v>1.54535</v>
-      </c>
-      <c r="BK5" s="82">
+        <v>0.51350000000000007</v>
+      </c>
+      <c r="BK5" s="79">
         <v>30</v>
       </c>
-      <c r="BL5" s="83"/>
+      <c r="BL5" s="80"/>
       <c r="BM5" s="22">
-        <v>39.054000000000002</v>
+        <v>36.314599999999999</v>
       </c>
       <c r="BN5" s="25">
         <f>BM5/BK5-1</f>
-        <v>0.30180000000000007</v>
-      </c>
-      <c r="BO5" s="82">
+        <v>0.21048666666666671</v>
+      </c>
+      <c r="BO5" s="79">
         <v>30</v>
       </c>
-      <c r="BP5" s="83"/>
+      <c r="BP5" s="80"/>
       <c r="BQ5" s="22">
-        <v>40.4</v>
+        <v>52.07</v>
       </c>
       <c r="BR5" s="25">
         <f>BQ5/BO5-1</f>
-        <v>0.34666666666666668</v>
+        <v>0.73566666666666669</v>
       </c>
     </row>
     <row r="6" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="74">
         <v>11</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="23">
         <v>10</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="84">
+      <c r="G6" s="74">
         <v>17</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="23">
         <v>30</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="84">
+      <c r="K6" s="74">
         <v>10</v>
       </c>
-      <c r="L6" s="85"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="23">
         <v>18</v>
       </c>
       <c r="N6" s="26"/>
-      <c r="O6" s="84">
+      <c r="O6" s="74">
         <v>18</v>
       </c>
-      <c r="P6" s="85"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="23">
         <v>22</v>
       </c>
@@ -10914,103 +11214,103 @@
       <c r="S6" s="87">
         <v>40</v>
       </c>
-      <c r="T6" s="85"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="23">
         <v>37</v>
       </c>
       <c r="V6" s="26"/>
-      <c r="W6" s="84">
+      <c r="W6" s="74">
         <v>18</v>
       </c>
-      <c r="X6" s="85"/>
+      <c r="X6" s="75"/>
       <c r="Y6" s="23">
         <v>18</v>
       </c>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="84">
+      <c r="AA6" s="74">
         <v>18</v>
       </c>
-      <c r="AB6" s="85"/>
+      <c r="AB6" s="75"/>
       <c r="AC6" s="23">
         <v>20</v>
       </c>
       <c r="AD6" s="26"/>
-      <c r="AE6" s="84">
+      <c r="AE6" s="74">
         <v>14</v>
       </c>
-      <c r="AF6" s="85"/>
+      <c r="AF6" s="75"/>
       <c r="AG6" s="23">
         <v>19</v>
       </c>
       <c r="AH6" s="26"/>
-      <c r="AI6" s="84">
+      <c r="AI6" s="74">
         <v>23</v>
       </c>
-      <c r="AJ6" s="85"/>
+      <c r="AJ6" s="75"/>
       <c r="AK6" s="23">
         <v>21</v>
       </c>
       <c r="AL6" s="26"/>
-      <c r="AM6" s="84">
+      <c r="AM6" s="74">
         <v>7</v>
       </c>
-      <c r="AN6" s="85"/>
+      <c r="AN6" s="75"/>
       <c r="AO6" s="23">
         <v>9</v>
       </c>
       <c r="AP6" s="26"/>
-      <c r="AQ6" s="84">
+      <c r="AQ6" s="74">
         <v>14</v>
       </c>
-      <c r="AR6" s="85"/>
+      <c r="AR6" s="75"/>
       <c r="AS6" s="23">
         <v>22</v>
       </c>
       <c r="AT6" s="26"/>
-      <c r="AU6" s="84">
+      <c r="AU6" s="74">
         <v>12</v>
       </c>
-      <c r="AV6" s="85"/>
+      <c r="AV6" s="75"/>
       <c r="AW6" s="23">
         <v>40</v>
       </c>
       <c r="AX6" s="26"/>
-      <c r="AY6" s="84">
+      <c r="AY6" s="74">
         <v>37</v>
       </c>
-      <c r="AZ6" s="85"/>
+      <c r="AZ6" s="75"/>
       <c r="BA6" s="23">
         <v>44</v>
       </c>
       <c r="BB6" s="26"/>
-      <c r="BC6" s="84">
+      <c r="BC6" s="74">
         <v>30</v>
       </c>
-      <c r="BD6" s="85"/>
+      <c r="BD6" s="75"/>
       <c r="BE6" s="23">
         <v>58</v>
       </c>
       <c r="BF6" s="26"/>
-      <c r="BG6" s="84">
+      <c r="BG6" s="74">
         <v>23</v>
       </c>
-      <c r="BH6" s="85"/>
+      <c r="BH6" s="75"/>
       <c r="BI6" s="23">
         <v>47</v>
       </c>
       <c r="BJ6" s="26"/>
-      <c r="BK6" s="84">
+      <c r="BK6" s="74">
         <v>37</v>
       </c>
-      <c r="BL6" s="85"/>
+      <c r="BL6" s="75"/>
       <c r="BM6" s="23">
         <v>40</v>
       </c>
       <c r="BN6" s="26"/>
-      <c r="BO6" s="84">
+      <c r="BO6" s="74">
         <v>36</v>
       </c>
-      <c r="BP6" s="85"/>
+      <c r="BP6" s="75"/>
       <c r="BQ6" s="23">
         <v>23</v>
       </c>
@@ -11020,104 +11320,104 @@
       <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="23">
         <v>18</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="23">
         <v>30</v>
       </c>
       <c r="J7" s="26"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="23">
         <v>32</v>
       </c>
       <c r="N7" s="26"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="85"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="75"/>
       <c r="Q7" s="23">
         <v>18</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="87"/>
-      <c r="T7" s="85"/>
+      <c r="T7" s="75"/>
       <c r="U7" s="23">
         <v>22</v>
       </c>
       <c r="V7" s="26"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="75"/>
       <c r="Y7" s="23">
         <v>22</v>
       </c>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="75"/>
       <c r="AC7" s="23">
         <v>10</v>
       </c>
       <c r="AD7" s="26"/>
-      <c r="AE7" s="84"/>
-      <c r="AF7" s="85"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="75"/>
       <c r="AG7" s="23">
         <v>43</v>
       </c>
       <c r="AH7" s="26"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="85"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="75"/>
       <c r="AK7" s="23">
         <v>27</v>
       </c>
       <c r="AL7" s="26"/>
-      <c r="AM7" s="84"/>
-      <c r="AN7" s="85"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="75"/>
       <c r="AO7" s="23">
         <v>6</v>
       </c>
       <c r="AP7" s="26"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="85"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="75"/>
       <c r="AS7" s="23">
         <v>15</v>
       </c>
       <c r="AT7" s="26"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="85"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="75"/>
       <c r="AW7" s="23">
         <v>25</v>
       </c>
       <c r="AX7" s="26"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="85"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="75"/>
       <c r="BA7" s="23">
         <v>18</v>
       </c>
       <c r="BB7" s="26"/>
-      <c r="BC7" s="84"/>
-      <c r="BD7" s="85"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="75"/>
       <c r="BE7" s="23">
         <v>26</v>
       </c>
       <c r="BF7" s="26"/>
-      <c r="BG7" s="84"/>
-      <c r="BH7" s="85"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="75"/>
       <c r="BI7" s="23">
         <v>36</v>
       </c>
       <c r="BJ7" s="26"/>
-      <c r="BK7" s="84"/>
-      <c r="BL7" s="85"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="75"/>
       <c r="BM7" s="23">
         <v>23</v>
       </c>
       <c r="BN7" s="26"/>
-      <c r="BO7" s="84"/>
-      <c r="BP7" s="85"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="75"/>
       <c r="BQ7" s="23">
         <v>33</v>
       </c>
@@ -11127,11 +11427,11 @@
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="81">
         <f>C6</f>
         <v>11</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="24">
         <f>(E6+E7)/2</f>
         <v>14</v>
@@ -11140,11 +11440,11 @@
         <f>E8/C8-1</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="81">
         <f>G6</f>
         <v>17</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="24">
         <f>(I6+I7)/2</f>
         <v>30</v>
@@ -11153,11 +11453,11 @@
         <f>I8/G8-1</f>
         <v>0.76470588235294112</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="81">
         <f>K6</f>
         <v>10</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="82"/>
       <c r="M8" s="24">
         <f>(M6+M7)/2</f>
         <v>25</v>
@@ -11166,11 +11466,11 @@
         <f>M8/K8-1</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="81">
         <f>O6</f>
         <v>18</v>
       </c>
-      <c r="P8" s="75"/>
+      <c r="P8" s="82"/>
       <c r="Q8" s="24">
         <f>(Q6+Q7)/2</f>
         <v>20</v>
@@ -11183,7 +11483,7 @@
         <f>S6</f>
         <v>40</v>
       </c>
-      <c r="T8" s="75"/>
+      <c r="T8" s="82"/>
       <c r="U8" s="24">
         <f>(U6+U7)/2</f>
         <v>29.5</v>
@@ -11192,11 +11492,11 @@
         <f>U8/S8-1</f>
         <v>-0.26249999999999996</v>
       </c>
-      <c r="W8" s="74">
+      <c r="W8" s="81">
         <f>W6</f>
         <v>18</v>
       </c>
-      <c r="X8" s="75"/>
+      <c r="X8" s="82"/>
       <c r="Y8" s="24">
         <f>(Y6+Y7)/2</f>
         <v>20</v>
@@ -11205,11 +11505,11 @@
         <f>Y8/W8-1</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="AA8" s="74">
+      <c r="AA8" s="81">
         <f>AA6</f>
         <v>18</v>
       </c>
-      <c r="AB8" s="75"/>
+      <c r="AB8" s="82"/>
       <c r="AC8" s="24">
         <f>(AC6+AC7)/2</f>
         <v>15</v>
@@ -11218,11 +11518,11 @@
         <f>AC8/AA8-1</f>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AE8" s="74">
+      <c r="AE8" s="81">
         <f>AE6</f>
         <v>14</v>
       </c>
-      <c r="AF8" s="75"/>
+      <c r="AF8" s="82"/>
       <c r="AG8" s="24">
         <f>(AG6+AG7)/2</f>
         <v>31</v>
@@ -11231,11 +11531,11 @@
         <f>AG8/AE8-1</f>
         <v>1.2142857142857144</v>
       </c>
-      <c r="AI8" s="74">
+      <c r="AI8" s="81">
         <f>AI6</f>
         <v>23</v>
       </c>
-      <c r="AJ8" s="75"/>
+      <c r="AJ8" s="82"/>
       <c r="AK8" s="24">
         <f>(AK6+AK7)/2</f>
         <v>24</v>
@@ -11244,11 +11544,11 @@
         <f>AK8/AI8-1</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="AM8" s="74">
+      <c r="AM8" s="81">
         <f>AM6</f>
         <v>7</v>
       </c>
-      <c r="AN8" s="75"/>
+      <c r="AN8" s="82"/>
       <c r="AO8" s="24">
         <f>(AO6+AO7)/2</f>
         <v>7.5</v>
@@ -11257,11 +11557,11 @@
         <f>AO8/AM8-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="AQ8" s="74">
+      <c r="AQ8" s="81">
         <f>AQ6</f>
         <v>14</v>
       </c>
-      <c r="AR8" s="75"/>
+      <c r="AR8" s="82"/>
       <c r="AS8" s="24">
         <f>(AS6+AS7)/2</f>
         <v>18.5</v>
@@ -11270,11 +11570,11 @@
         <f>AS8/AQ8-1</f>
         <v>0.3214285714285714</v>
       </c>
-      <c r="AU8" s="74">
+      <c r="AU8" s="81">
         <f>AU6</f>
         <v>12</v>
       </c>
-      <c r="AV8" s="75"/>
+      <c r="AV8" s="82"/>
       <c r="AW8" s="24">
         <f>(AW6+AW7)/2</f>
         <v>32.5</v>
@@ -11283,11 +11583,11 @@
         <f>AW8/AU8-1</f>
         <v>1.7083333333333335</v>
       </c>
-      <c r="AY8" s="74">
+      <c r="AY8" s="81">
         <f>AY6</f>
         <v>37</v>
       </c>
-      <c r="AZ8" s="75"/>
+      <c r="AZ8" s="82"/>
       <c r="BA8" s="24">
         <f>(BA6+BA7)/2</f>
         <v>31</v>
@@ -11296,11 +11596,11 @@
         <f>BA8/AY8-1</f>
         <v>-0.16216216216216217</v>
       </c>
-      <c r="BC8" s="74">
+      <c r="BC8" s="81">
         <f>BC6</f>
         <v>30</v>
       </c>
-      <c r="BD8" s="75"/>
+      <c r="BD8" s="82"/>
       <c r="BE8" s="24">
         <f>(BE6+BE7)/2</f>
         <v>42</v>
@@ -11309,11 +11609,11 @@
         <f>BE8/BC8-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BG8" s="74">
+      <c r="BG8" s="81">
         <f>BG6</f>
         <v>23</v>
       </c>
-      <c r="BH8" s="75"/>
+      <c r="BH8" s="82"/>
       <c r="BI8" s="24">
         <f>(BI6+BI7)/2</f>
         <v>41.5</v>
@@ -11322,11 +11622,11 @@
         <f>BI8/BG8-1</f>
         <v>0.80434782608695654</v>
       </c>
-      <c r="BK8" s="74">
+      <c r="BK8" s="81">
         <f>BK6</f>
         <v>37</v>
       </c>
-      <c r="BL8" s="75"/>
+      <c r="BL8" s="82"/>
       <c r="BM8" s="24">
         <f>(BM6+BM7)/2</f>
         <v>31.5</v>
@@ -11335,11 +11635,11 @@
         <f>BM8/BK8-1</f>
         <v>-0.14864864864864868</v>
       </c>
-      <c r="BO8" s="74">
+      <c r="BO8" s="81">
         <f>BO6</f>
         <v>36</v>
       </c>
-      <c r="BP8" s="75"/>
+      <c r="BP8" s="82"/>
       <c r="BQ8" s="24">
         <f>(BQ6+BQ7)/2</f>
         <v>28</v>
@@ -11361,7 +11661,7 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="E9" s="31">
-        <v>3.2480000000000002</v>
+        <v>1.617</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="12">
@@ -11372,7 +11672,7 @@
         <v>0.161</v>
       </c>
       <c r="I9" s="31">
-        <v>3.6259999999999999</v>
+        <v>1.806</v>
       </c>
       <c r="J9" s="32"/>
       <c r="K9" s="12">
@@ -11383,7 +11683,7 @@
         <v>3.4089999999999998</v>
       </c>
       <c r="M9" s="31">
-        <v>70.462000000000003</v>
+        <v>35.154000000000003</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="12">
@@ -11394,7 +11694,7 @@
         <v>9.359</v>
       </c>
       <c r="Q9" s="31">
-        <v>109.949</v>
+        <v>54.908000000000001</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" s="12">
@@ -11405,7 +11705,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="U9" s="31">
-        <v>0.80500000000000005</v>
+        <v>0.623</v>
       </c>
       <c r="V9" s="32"/>
       <c r="W9" s="12">
@@ -11416,7 +11716,7 @@
         <v>1.4140000000000001</v>
       </c>
       <c r="Y9" s="31">
-        <v>2.73</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="12">
@@ -11427,7 +11727,7 @@
         <v>0.91</v>
       </c>
       <c r="AC9" s="31">
-        <v>2.7440000000000002</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="AD9" s="32"/>
       <c r="AE9" s="12">
@@ -11438,7 +11738,7 @@
         <v>2.2610000000000001</v>
       </c>
       <c r="AG9" s="31">
-        <v>4.6970000000000001</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="AH9" s="32"/>
       <c r="AI9" s="12">
@@ -11449,7 +11749,7 @@
         <v>3.15</v>
       </c>
       <c r="AK9" s="31">
-        <v>1.806</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="AL9" s="32"/>
       <c r="AM9" s="12">
@@ -11460,7 +11760,7 @@
         <v>0.189</v>
       </c>
       <c r="AO9" s="31">
-        <v>0.35</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AP9" s="32"/>
       <c r="AQ9" s="12">
@@ -11471,7 +11771,7 @@
         <v>4.1929999999999996</v>
       </c>
       <c r="AS9" s="31">
-        <v>6.5659999999999998</v>
+        <v>5.1379999999999999</v>
       </c>
       <c r="AT9" s="32"/>
       <c r="AU9" s="12">
@@ -11482,7 +11782,7 @@
         <v>1.47</v>
       </c>
       <c r="AW9" s="31">
-        <v>2.3660000000000001</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="AX9" s="32"/>
       <c r="AY9" s="12">
@@ -11493,7 +11793,7 @@
         <v>23.652999999999999</v>
       </c>
       <c r="BA9" s="31">
-        <v>9.9329999999999998</v>
+        <v>7.7629999999999999</v>
       </c>
       <c r="BB9" s="32"/>
       <c r="BC9" s="12">
@@ -11504,7 +11804,7 @@
         <v>2.5760000000000001</v>
       </c>
       <c r="BE9" s="31">
-        <v>1.526</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="BF9" s="32"/>
       <c r="BG9" s="12">
@@ -11515,7 +11815,7 @@
         <v>3.22</v>
       </c>
       <c r="BI9" s="31">
-        <v>2.4430000000000001</v>
+        <v>1.911</v>
       </c>
       <c r="BJ9" s="32"/>
       <c r="BK9" s="12">
@@ -11526,7 +11826,7 @@
         <v>35.021000000000001</v>
       </c>
       <c r="BM9" s="31">
-        <v>13.776</v>
+        <v>10.773</v>
       </c>
       <c r="BN9" s="32"/>
       <c r="BO9" s="30">
@@ -11537,7 +11837,7 @@
         <v>63.217000000000006</v>
       </c>
       <c r="BQ9" s="31">
-        <v>15.701000000000001</v>
+        <v>12.278</v>
       </c>
       <c r="BR9" s="32"/>
     </row>
@@ -11548,103 +11848,103 @@
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31">
-        <v>0.7</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31">
-        <v>0.25900000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="30"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31">
-        <v>13.384</v>
+        <v>16.254000000000001</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="30"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31">
-        <v>14.154</v>
+        <v>15.456</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
       <c r="U10" s="31">
-        <v>0.11899999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="V10" s="32"/>
       <c r="W10" s="30"/>
       <c r="X10" s="31"/>
       <c r="Y10" s="31">
-        <v>0.72799999999999998</v>
+        <v>2.254</v>
       </c>
       <c r="Z10" s="32"/>
       <c r="AA10" s="30"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="31">
-        <v>0.29399999999999998</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="AD10" s="32"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31">
-        <v>3.7240000000000002</v>
+        <v>9.4640000000000004</v>
       </c>
       <c r="AH10" s="32"/>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31">
-        <v>1.2669999999999999</v>
+        <v>1.778</v>
       </c>
       <c r="AL10" s="32"/>
       <c r="AM10" s="30"/>
       <c r="AN10" s="31"/>
       <c r="AO10" s="31">
-        <v>6.3E-2</v>
+        <v>1.127</v>
       </c>
       <c r="AP10" s="32"/>
       <c r="AQ10" s="30"/>
       <c r="AR10" s="31"/>
       <c r="AS10" s="31">
-        <v>1.155</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="AT10" s="32"/>
       <c r="AU10" s="30"/>
       <c r="AV10" s="31"/>
       <c r="AW10" s="31">
-        <v>1.1479999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="AX10" s="32"/>
       <c r="AY10" s="30"/>
       <c r="AZ10" s="31"/>
       <c r="BA10" s="31">
-        <v>4.0389999999999997</v>
+        <v>14.077</v>
       </c>
       <c r="BB10" s="32"/>
       <c r="BC10" s="30"/>
       <c r="BD10" s="31"/>
       <c r="BE10" s="31">
-        <v>1.1759999999999999</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="BF10" s="32"/>
       <c r="BG10" s="30"/>
       <c r="BH10" s="31"/>
       <c r="BI10" s="31">
-        <v>2.0790000000000002</v>
+        <v>4.8090000000000002</v>
       </c>
       <c r="BJ10" s="32"/>
       <c r="BK10" s="30"/>
       <c r="BL10" s="31"/>
       <c r="BM10" s="31">
-        <v>6.7830000000000004</v>
+        <v>23.695</v>
       </c>
       <c r="BN10" s="32"/>
       <c r="BO10" s="30"/>
       <c r="BP10" s="31"/>
       <c r="BQ10" s="31">
-        <v>19.544</v>
+        <v>48.139000000000003</v>
       </c>
       <c r="BR10" s="32"/>
     </row>
@@ -11748,7 +12048,7 @@
         <v>1.54</v>
       </c>
       <c r="AK11" s="2">
-        <v>2.8000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AL11" s="26"/>
       <c r="AM11" s="1">
@@ -11854,11 +12154,11 @@
       </c>
       <c r="E12" s="4">
         <f>E9+E10+E11</f>
-        <v>4.4730000000000008</v>
+        <v>2.653</v>
       </c>
       <c r="F12" s="27">
         <f>E12/D12-1</f>
-        <v>1.1808873720136526</v>
+        <v>0.29351535836177489</v>
       </c>
       <c r="G12" s="3">
         <f>G9+G11</f>
@@ -11870,11 +12170,11 @@
       </c>
       <c r="I12" s="4">
         <f>I9+I10+I11</f>
-        <v>3.9129999999999998</v>
+        <v>2.1910000000000003</v>
       </c>
       <c r="J12" s="27">
         <f>I12/H12-1</f>
-        <v>23.304347826086953</v>
+        <v>12.608695652173914</v>
       </c>
       <c r="K12" s="3">
         <f>K9+K11</f>
@@ -11886,11 +12186,11 @@
       </c>
       <c r="M12" s="4">
         <f>M9+M10+M11</f>
-        <v>84.091000000000008</v>
+        <v>51.652999999999999</v>
       </c>
       <c r="N12" s="27">
         <f>M12/L12-1</f>
-        <v>11.359053497942387</v>
+        <v>6.5915637860082299</v>
       </c>
       <c r="O12" s="3">
         <f>O9+O11</f>
@@ -11902,11 +12202,11 @@
       </c>
       <c r="Q12" s="4">
         <f>Q9+Q10+Q11</f>
-        <v>125.07599999999999</v>
+        <v>71.337000000000003</v>
       </c>
       <c r="R12" s="27">
         <f>Q12/P12-1</f>
-        <v>5.6821241585639486</v>
+        <v>2.81114435302917</v>
       </c>
       <c r="S12" s="3">
         <f>S9+S11</f>
@@ -11918,11 +12218,11 @@
       </c>
       <c r="U12" s="4">
         <f>U9+U10+U11</f>
-        <v>0.92400000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="V12" s="27">
         <f>U12/T12-1</f>
-        <v>2.2999999999999998</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="W12" s="3">
         <f>W9+W11</f>
@@ -11934,11 +12234,11 @@
       </c>
       <c r="Y12" s="4">
         <f>Y9+Y10+Y11</f>
-        <v>3.5350000000000001</v>
+        <v>4.4589999999999996</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12/X12-1</f>
-        <v>1.2747747747747749</v>
+        <v>1.8693693693693691</v>
       </c>
       <c r="AA12" s="3">
         <f>AA9+AA11</f>
@@ -11950,11 +12250,11 @@
       </c>
       <c r="AC12" s="4">
         <f>AC9+AC10+AC11</f>
-        <v>3.9620000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AD12" s="27">
         <f>AC12/AB12-1</f>
-        <v>1.0962962962962961</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="AE12" s="3">
         <f>AE9+AE11</f>
@@ -11966,11 +12266,11 @@
       </c>
       <c r="AG12" s="4">
         <f>AG9+AG10+AG11</f>
-        <v>12.207999999999998</v>
+        <v>16.919</v>
       </c>
       <c r="AH12" s="27">
         <f>AG12/AF12-1</f>
-        <v>-5.0626020685901052E-2</v>
+        <v>0.31573217201959713</v>
       </c>
       <c r="AI12" s="3">
         <f>AI9+AI11</f>
@@ -11982,11 +12282,11 @@
       </c>
       <c r="AK12" s="4">
         <f>AK9+AK10+AK11</f>
-        <v>3.101</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="AL12" s="27">
         <f>AK12/AJ12-1</f>
-        <v>-0.33880597014925384</v>
+        <v>-0.31492537313432845</v>
       </c>
       <c r="AM12" s="3">
         <f>AM9+AM11</f>
@@ -11998,11 +12298,11 @@
       </c>
       <c r="AO12" s="4">
         <f>AO9+AO10+AO11</f>
-        <v>4.3540000000000001</v>
+        <v>5.3409999999999993</v>
       </c>
       <c r="AP12" s="27">
         <f>AO12/AN12-1</f>
-        <v>-0.39435248296007785</v>
+        <v>-0.2570593962999026</v>
       </c>
       <c r="AQ12" s="3">
         <f>AQ9+AQ11</f>
@@ -12014,11 +12314,11 @@
       </c>
       <c r="AS12" s="4">
         <f>AS9+AS10+AS11</f>
-        <v>9.1560000000000006</v>
+        <v>9.8980000000000015</v>
       </c>
       <c r="AT12" s="27">
         <f>AS12/AR12-1</f>
-        <v>0.19017288444040048</v>
+        <v>0.28662420382165621</v>
       </c>
       <c r="AU12" s="3">
         <f>AU9+AU11</f>
@@ -12030,11 +12330,11 @@
       </c>
       <c r="AW12" s="4">
         <f>AW9+AW10+AW11</f>
-        <v>3.5140000000000002</v>
+        <v>3.508</v>
       </c>
       <c r="AX12" s="27">
         <f>AW12/AV12-1</f>
-        <v>0.85925925925925917</v>
+        <v>0.856084656084656</v>
       </c>
       <c r="AY12" s="3">
         <f>AY9+AY11</f>
@@ -12046,11 +12346,11 @@
       </c>
       <c r="BA12" s="4">
         <f>BA9+BA10+BA11</f>
-        <v>14.090999999999999</v>
+        <v>21.959</v>
       </c>
       <c r="BB12" s="27">
         <f>BA12/AZ12-1</f>
-        <v>-0.48765589208449989</v>
+        <v>-0.20157800967167216</v>
       </c>
       <c r="BC12" s="3">
         <f>BC9+BC11</f>
@@ -12062,11 +12362,11 @@
       </c>
       <c r="BE12" s="4">
         <f>BE9+BE10+BE11</f>
-        <v>2.702</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="BF12" s="27">
         <f>BE12/BD12-1</f>
-        <v>2.1164021164021163E-2</v>
+        <v>0.30687830687830697</v>
       </c>
       <c r="BG12" s="3">
         <f>BG9+BG11</f>
@@ -12078,11 +12378,11 @@
       </c>
       <c r="BI12" s="4">
         <f>BI9+BI10+BI11</f>
-        <v>4.8159999999999998</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="BJ12" s="27">
         <f>BI12/BH12-1</f>
-        <v>-0.56455696202531647</v>
+        <v>-0.36582278481012664</v>
       </c>
       <c r="BK12" s="3">
         <f>BK9+BK11</f>
@@ -12094,11 +12394,11 @@
       </c>
       <c r="BM12" s="4">
         <f>BM9+BM10+BM11</f>
-        <v>20.622</v>
+        <v>34.531000000000006</v>
       </c>
       <c r="BN12" s="27">
         <f>BM12/BL12-1</f>
-        <v>-0.41813154256369733</v>
+        <v>-2.5676476397392567E-2</v>
       </c>
       <c r="BO12" s="3">
         <f>BO9+BO11</f>
@@ -12110,11 +12410,11 @@
       </c>
       <c r="BQ12" s="4">
         <f>BQ9+BQ10+BQ11</f>
-        <v>37.261000000000003</v>
+        <v>62.433</v>
       </c>
       <c r="BR12" s="27">
         <f>BQ12/BP12-1</f>
-        <v>-0.43075606886963969</v>
+        <v>-4.6198267564966478E-2</v>
       </c>
     </row>
     <row r="13" spans="2:70" x14ac:dyDescent="0.25">
@@ -12129,11 +12429,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>0.34300000000000003</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F13" s="25">
         <f>E13/D13-1</f>
-        <v>3.9000000000000004</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -12143,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>0.182</v>
+        <v>0.378</v>
       </c>
       <c r="J13" s="25" t="e">
         <f>I13/H13-1</f>
@@ -12157,11 +12457,11 @@
         <v>0.84</v>
       </c>
       <c r="M13" s="13">
-        <v>4.7110000000000003</v>
+        <v>9.4079999999999995</v>
       </c>
       <c r="N13" s="25">
         <f>M13/L13-1</f>
-        <v>4.6083333333333343</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="O13" s="12">
         <v>0.17</v>
@@ -12171,11 +12471,11 @@
         <v>1.1900000000000002</v>
       </c>
       <c r="Q13" s="13">
-        <v>5.6769999999999996</v>
+        <v>11.353999999999999</v>
       </c>
       <c r="R13" s="25">
         <f>Q13/P13-1</f>
-        <v>3.7705882352941167</v>
+        <v>8.5411764705882334</v>
       </c>
       <c r="S13" s="12">
         <v>0.01</v>
@@ -12185,11 +12485,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U13" s="13">
-        <v>0.23100000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="V13" s="25">
         <f>U13/T13-1</f>
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="W13" s="12">
         <v>0.03</v>
@@ -12199,11 +12499,11 @@
         <v>0.21</v>
       </c>
       <c r="Y13" s="13">
-        <v>0.749</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="Z13" s="25">
         <f>Y13/X13-1</f>
-        <v>2.5666666666666669</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="AA13" s="12">
         <v>0.01</v>
@@ -12213,11 +12513,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC13" s="13">
-        <v>0.45500000000000002</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="AD13" s="25">
         <f>AC13/AB13-1</f>
-        <v>5.5</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="AE13" s="12">
         <v>0.11</v>
@@ -12227,11 +12527,11 @@
         <v>0.77</v>
       </c>
       <c r="AG13" s="13">
-        <v>2.0579999999999998</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="AH13" s="25">
         <f>AG13/AF13-1</f>
-        <v>1.6727272727272724</v>
+        <v>1.127272727272727</v>
       </c>
       <c r="AI13" s="12">
         <v>0.08</v>
@@ -12241,11 +12541,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AK13" s="13">
-        <v>0.61599999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AL13" s="25">
         <f>AK13/AJ13-1</f>
-        <v>9.9999999999999867E-2</v>
+        <v>-0.12500000000000011</v>
       </c>
       <c r="AM13" s="12">
         <v>0.02</v>
@@ -12255,11 +12555,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AO13" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.224</v>
       </c>
       <c r="AP13" s="25">
         <f>AO13/AN13-1</f>
-        <v>1</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="AQ13" s="12">
         <v>0.2</v>
@@ -12269,11 +12569,11 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="AS13" s="13">
-        <v>2.4780000000000002</v>
+        <v>1.998</v>
       </c>
       <c r="AT13" s="25">
         <f>AS13/AR13-1</f>
-        <v>0.77</v>
+        <v>0.42714285714285705</v>
       </c>
       <c r="AU13" s="12">
         <v>0.06</v>
@@ -12283,11 +12583,11 @@
         <v>0.42</v>
       </c>
       <c r="AW13" s="13">
-        <v>0.308</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="AX13" s="25">
         <f>AW13/AV13-1</f>
-        <v>-0.26666666666666661</v>
+        <v>-0.43333333333333335</v>
       </c>
       <c r="AY13" s="12">
         <v>0.19</v>
@@ -12297,11 +12597,11 @@
         <v>1.33</v>
       </c>
       <c r="BA13" s="13">
-        <v>0.91700000000000004</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="BB13" s="25">
         <f>BA13/AZ13-1</f>
-        <v>-0.31052631578947365</v>
+        <v>-0.4526315789473685</v>
       </c>
       <c r="BC13" s="12">
         <v>0.04</v>
@@ -12311,11 +12611,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="BE13" s="13">
-        <v>0.126</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="BF13" s="25">
         <f>BE13/BD13-1</f>
-        <v>-0.55000000000000004</v>
+        <v>-0.65</v>
       </c>
       <c r="BG13" s="12">
         <v>0.04</v>
@@ -12325,11 +12625,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="BI13" s="13">
-        <v>0.21</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="BJ13" s="25">
         <f>BI13/BH13-1</f>
-        <v>-0.25000000000000011</v>
+        <v>-0.4</v>
       </c>
       <c r="BK13" s="12">
         <v>0.42</v>
@@ -12339,11 +12639,11 @@
         <v>2.94</v>
       </c>
       <c r="BM13" s="13">
-        <v>1.764</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="BN13" s="25">
         <f>BM13/BL13-1</f>
-        <v>-0.4</v>
+        <v>-0.51904761904761909</v>
       </c>
       <c r="BO13" s="12">
         <v>0.28999999999999998</v>
@@ -12353,11 +12653,11 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="BQ13" s="13">
-        <v>2.0019999999999998</v>
+        <v>1.603</v>
       </c>
       <c r="BR13" s="25">
         <f>BQ13/BP13-1</f>
-        <v>-1.379310344827589E-2</v>
+        <v>-0.21034482758620687</v>
       </c>
     </row>
     <row r="14" spans="2:70" x14ac:dyDescent="0.25">
@@ -12372,11 +12672,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" ref="F14:F20" si="17">E14/D14-1</f>
-        <v>0.19999999999999996</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="G14" s="1">
         <v>1E-3</v>
@@ -12386,11 +12686,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>1.4E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J14" s="26">
         <f t="shared" ref="J14:J20" si="18">I14/H14-1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="1">
         <v>0.122</v>
@@ -12400,11 +12700,11 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="M14" s="2">
-        <v>1.526</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="N14" s="26">
         <f t="shared" ref="N14:N20" si="19">M14/L14-1</f>
-        <v>0.78688524590163933</v>
+        <v>2.5655737704918034</v>
       </c>
       <c r="O14" s="1">
         <v>0.16700000000000001</v>
@@ -12414,11 +12714,11 @@
         <v>1.169</v>
       </c>
       <c r="Q14" s="2">
-        <v>2.0579999999999998</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="R14" s="26">
         <f t="shared" ref="R14:R20" si="20">Q14/P14-1</f>
-        <v>0.76047904191616755</v>
+        <v>2.4970059880239521</v>
       </c>
       <c r="S14" s="1">
         <v>8.0000000000000002E-3</v>
@@ -12442,11 +12742,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="Y14" s="2">
-        <v>0.63</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="Z14" s="26">
         <f t="shared" ref="Z14:Z20" si="22">Y14/X14-1</f>
-        <v>1.3076923076923075</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AA14" s="1">
         <v>3.4000000000000002E-2</v>
@@ -12456,11 +12756,11 @@
         <v>0.23800000000000002</v>
       </c>
       <c r="AC14" s="2">
-        <v>1.036</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="AD14" s="26">
         <f t="shared" ref="AD14:AD20" si="23">AC14/AB14-1</f>
-        <v>3.3529411764705879</v>
+        <v>3.9411764705882346</v>
       </c>
       <c r="AE14" s="1">
         <v>0.436</v>
@@ -12470,11 +12770,11 @@
         <v>3.052</v>
       </c>
       <c r="AG14" s="2">
-        <v>6.6219999999999999</v>
+        <v>6.3769999999999998</v>
       </c>
       <c r="AH14" s="26">
         <f t="shared" ref="AH14:AH20" si="24">AG14/AF14-1</f>
-        <v>1.1697247706422016</v>
+        <v>1.0894495412844036</v>
       </c>
       <c r="AI14" s="1">
         <v>1.2999999999999999E-2</v>
@@ -12484,11 +12784,11 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AK14" s="2">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AL14" s="26">
         <f t="shared" ref="AL14:AL20" si="25">AK14/AJ14-1</f>
-        <v>1.3076923076923075</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="AM14" s="1">
         <v>3.2000000000000001E-2</v>
@@ -12498,11 +12798,11 @@
         <v>0.224</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.56000000000000005</v>
+        <v>2.3029999999999999</v>
       </c>
       <c r="AP14" s="26">
         <f t="shared" ref="AP14:AP20" si="26">AO14/AN14-1</f>
-        <v>1.5</v>
+        <v>9.28125</v>
       </c>
       <c r="AQ14" s="1">
         <v>0.114</v>
@@ -12512,11 +12812,11 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="AS14" s="2">
-        <v>1.274</v>
+        <v>1.54</v>
       </c>
       <c r="AT14" s="26">
         <f t="shared" ref="AT14:AT21" si="27">AS14/AR14-1</f>
-        <v>0.59649122807017529</v>
+        <v>0.92982456140350878</v>
       </c>
       <c r="AU14" s="1">
         <v>7.0999999999999994E-2</v>
@@ -12526,11 +12826,11 @@
         <v>0.49699999999999994</v>
       </c>
       <c r="AW14" s="2">
-        <v>1.0149999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="AX14" s="26">
         <f t="shared" ref="AX14:AX20" si="28">AW14/AV14-1</f>
-        <v>1.0422535211267605</v>
+        <v>0.54929577464788748</v>
       </c>
       <c r="AY14" s="1">
         <v>0.182</v>
@@ -12540,11 +12840,11 @@
         <v>1.274</v>
       </c>
       <c r="BA14" s="2">
-        <v>2.198</v>
+        <v>2.121</v>
       </c>
       <c r="BB14" s="26">
         <f t="shared" ref="BB14:BB20" si="29">BA14/AZ14-1</f>
-        <v>0.72527472527472514</v>
+        <v>0.66483516483516469</v>
       </c>
       <c r="BC14" s="1">
         <v>7.2999999999999995E-2</v>
@@ -12554,11 +12854,11 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="BE14" s="2">
-        <v>1.1970000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="BF14" s="26">
         <f t="shared" ref="BF14:BF20" si="30">BE14/BD14-1</f>
-        <v>1.3424657534246576</v>
+        <v>0.64383561643835607</v>
       </c>
       <c r="BG14" s="1">
         <v>6.8000000000000005E-2</v>
@@ -12568,11 +12868,11 @@
         <v>0.47600000000000003</v>
       </c>
       <c r="BI14" s="2">
-        <v>0.91700000000000004</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="BJ14" s="26">
         <f t="shared" ref="BJ14:BJ20" si="31">BI14/BH14-1</f>
-        <v>0.92647058823529416</v>
+        <v>0.51470588235294112</v>
       </c>
       <c r="BK14" s="1">
         <v>0.27100000000000002</v>
@@ -12582,11 +12882,11 @@
         <v>1.8970000000000002</v>
       </c>
       <c r="BM14" s="2">
-        <v>3.0449999999999999</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="BN14" s="26">
         <f t="shared" ref="BN14:BN20" si="32">BM14/BL14-1</f>
-        <v>0.6051660516605164</v>
+        <v>0.7564575645756455</v>
       </c>
       <c r="BO14" s="1">
         <v>3.2050000000000001</v>
@@ -12596,11 +12896,11 @@
         <v>22.435000000000002</v>
       </c>
       <c r="BQ14" s="2">
-        <v>24.765999999999998</v>
+        <v>27.992999999999999</v>
       </c>
       <c r="BR14" s="26">
         <f t="shared" ref="BR14:BR21" si="33">BQ14/BP14-1</f>
-        <v>0.10390015600624003</v>
+        <v>0.24773790951638053</v>
       </c>
     </row>
     <row r="15" spans="2:70" x14ac:dyDescent="0.25">
@@ -12615,11 +12915,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="17"/>
-        <v>5.0999999999999996</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -12629,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="J15" s="26" t="e">
         <f t="shared" si="18"/>
@@ -12643,11 +12943,11 @@
         <v>0.21</v>
       </c>
       <c r="M15" s="2">
-        <v>3.6819999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="N15" s="26">
         <f t="shared" si="19"/>
-        <v>16.533333333333335</v>
+        <v>34</v>
       </c>
       <c r="O15" s="1">
         <v>0.25</v>
@@ -12657,11 +12957,11 @@
         <v>1.75</v>
       </c>
       <c r="Q15" s="2">
-        <v>10.647</v>
+        <v>21.28</v>
       </c>
       <c r="R15" s="26">
         <f t="shared" si="20"/>
-        <v>5.0840000000000005</v>
+        <v>11.16</v>
       </c>
       <c r="S15" s="1">
         <v>0.01</v>
@@ -12671,11 +12971,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U15" s="2">
-        <v>0.126</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="V15" s="26">
         <f t="shared" si="21"/>
-        <v>0.79999999999999982</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W15" s="1">
         <v>0.06</v>
@@ -12685,11 +12985,11 @@
         <v>0.42</v>
       </c>
       <c r="Y15" s="2">
-        <v>0.84</v>
+        <v>1.407</v>
       </c>
       <c r="Z15" s="26">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2.35</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
@@ -12699,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AD15" s="26" t="e">
         <f t="shared" si="23"/>
@@ -12713,11 +13013,11 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="AG15" s="2">
-        <v>1.169</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="AH15" s="26">
         <f t="shared" si="24"/>
-        <v>1.5303030303030303</v>
+        <v>3.2272727272727275</v>
       </c>
       <c r="AI15" s="1">
         <v>0.03</v>
@@ -12727,11 +13027,11 @@
         <v>0.21</v>
       </c>
       <c r="AK15" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="AL15" s="26">
         <f t="shared" si="25"/>
-        <v>0.3666666666666667</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="AM15" s="1">
         <v>0.02</v>
@@ -12741,11 +13041,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.252</v>
+        <v>0.42</v>
       </c>
       <c r="AP15" s="26">
         <f t="shared" si="26"/>
-        <v>0.79999999999999982</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="AQ15" s="1">
         <v>7.0000000000000007E-2</v>
@@ -12755,11 +13055,11 @@
         <v>0.49000000000000005</v>
       </c>
       <c r="AS15" s="2">
-        <v>1.1830000000000001</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="AT15" s="26">
         <f t="shared" si="27"/>
-        <v>1.4142857142857141</v>
+        <v>3.0428571428571427</v>
       </c>
       <c r="AU15" s="1">
         <v>0.02</v>
@@ -12769,11 +13069,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="AX15" s="26">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="AY15" s="1">
         <v>0.09</v>
@@ -12783,11 +13083,11 @@
         <v>0.63</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="BB15" s="26">
         <f t="shared" si="29"/>
-        <v>-0.1333333333333333</v>
+        <v>0.45555555555555571</v>
       </c>
       <c r="BC15" s="1">
         <v>0.01</v>
@@ -12797,11 +13097,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BE15" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="BF15" s="26">
         <f t="shared" si="30"/>
-        <v>-0.5</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="BG15" s="1">
         <v>1.9E-2</v>
@@ -12811,11 +13111,11 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="BI15" s="2">
-        <v>0.112</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="BJ15" s="26">
         <f t="shared" si="31"/>
-        <v>-0.15789473684210531</v>
+        <v>0.47368421052631571</v>
       </c>
       <c r="BK15" s="1">
         <v>0.14000000000000001</v>
@@ -12825,11 +13125,11 @@
         <v>0.98000000000000009</v>
       </c>
       <c r="BM15" s="2">
-        <v>0.84699999999999998</v>
+        <v>1.407</v>
       </c>
       <c r="BN15" s="26">
         <f t="shared" si="32"/>
-        <v>-0.13571428571428579</v>
+        <v>0.4357142857142855</v>
       </c>
       <c r="BO15" s="1">
         <v>0.27500000000000002</v>
@@ -12839,11 +13139,11 @@
         <v>1.9250000000000003</v>
       </c>
       <c r="BQ15" s="2">
-        <v>1.827</v>
+        <v>3.052</v>
       </c>
       <c r="BR15" s="26">
         <f t="shared" si="33"/>
-        <v>-5.0909090909091015E-2</v>
+        <v>0.58545454545454523</v>
       </c>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.25">
@@ -12858,11 +13158,11 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="E16" s="2">
-        <v>0.76100000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="17"/>
-        <v>1.2648809523809521</v>
+        <v>1.4077380952380953</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -12872,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="J16" s="26" t="e">
         <f t="shared" si="18"/>
@@ -12886,11 +13186,11 @@
         <v>1.764</v>
       </c>
       <c r="M16" s="2">
-        <v>6.5679999999999996</v>
+        <v>6.609</v>
       </c>
       <c r="N16" s="26">
         <f t="shared" si="19"/>
-        <v>2.7233560090702946</v>
+        <v>2.7465986394557822</v>
       </c>
       <c r="O16" s="1">
         <v>0.73699999999999999</v>
@@ -12900,11 +13200,11 @@
         <v>5.1589999999999998</v>
       </c>
       <c r="Q16" s="2">
-        <v>15.054</v>
+        <v>15.336</v>
       </c>
       <c r="R16" s="26">
         <f t="shared" si="20"/>
-        <v>1.9180073657685601</v>
+        <v>1.9726691219228534</v>
       </c>
       <c r="S16" s="1">
         <v>0.03</v>
@@ -12914,11 +13214,11 @@
         <v>0.21</v>
       </c>
       <c r="U16" s="2">
-        <v>0.88</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="V16" s="26">
         <f t="shared" si="21"/>
-        <v>3.1904761904761907</v>
+        <v>0.34285714285714275</v>
       </c>
       <c r="W16" s="1">
         <v>0.106</v>
@@ -12928,11 +13228,11 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="Y16" s="2">
-        <v>2.492</v>
+        <v>0.628</v>
       </c>
       <c r="Z16" s="26">
         <f t="shared" si="22"/>
-        <v>2.358490566037736</v>
+        <v>-0.15363881401617252</v>
       </c>
       <c r="AA16" s="1">
         <v>0.14499999999999999</v>
@@ -12942,11 +13242,11 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="AC16" s="2">
-        <v>4.8330000000000002</v>
+        <v>1.075</v>
       </c>
       <c r="AD16" s="26">
         <f t="shared" si="23"/>
-        <v>3.7615763546798036</v>
+        <v>5.9113300492610987E-2</v>
       </c>
       <c r="AE16" s="1">
         <v>0.29399999999999998</v>
@@ -12956,11 +13256,11 @@
         <v>2.0579999999999998</v>
       </c>
       <c r="AG16" s="2">
-        <v>5.851</v>
+        <v>1.718</v>
       </c>
       <c r="AH16" s="26">
         <f t="shared" si="24"/>
-        <v>1.8430515063168125</v>
+        <v>-0.16520894071914471</v>
       </c>
       <c r="AI16" s="1">
         <v>0.23200000000000001</v>
@@ -12970,11 +13270,11 @@
         <v>1.6240000000000001</v>
       </c>
       <c r="AK16" s="2">
-        <v>1.8420000000000001</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="AL16" s="26">
         <f t="shared" si="25"/>
-        <v>0.13423645320197042</v>
+        <v>-0.63854679802955672</v>
       </c>
       <c r="AM16" s="1">
         <v>5.8000000000000003E-2</v>
@@ -12984,11 +13284,11 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="AO16" s="2">
-        <v>1.121</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="AP16" s="26">
         <f t="shared" si="26"/>
-        <v>1.7610837438423643</v>
+        <v>-0.36945812807881773</v>
       </c>
       <c r="AQ16" s="1">
         <v>0.5</v>
@@ -12998,11 +13298,11 @@
         <v>3.5</v>
       </c>
       <c r="AS16" s="2">
-        <v>7.9640000000000004</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="AT16" s="26">
         <f t="shared" si="27"/>
-        <v>1.2754285714285714</v>
+        <v>-0.27457142857142858</v>
       </c>
       <c r="AU16" s="1">
         <v>0.13700000000000001</v>
@@ -13012,11 +13312,11 @@
         <v>0.95900000000000007</v>
       </c>
       <c r="AW16" s="2">
-        <v>1.177</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="AX16" s="26">
         <f t="shared" si="28"/>
-        <v>0.22732012513034405</v>
+        <v>-0.72054223149113661</v>
       </c>
       <c r="AY16" s="1">
         <v>0.69</v>
@@ -13026,11 +13326,11 @@
         <v>4.83</v>
       </c>
       <c r="BA16" s="2">
-        <v>4.3570000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="BB16" s="26">
         <f t="shared" si="29"/>
-        <v>-9.7929606625258736E-2</v>
+        <v>-0.79358178053830231</v>
       </c>
       <c r="BC16" s="1">
         <v>0.11</v>
@@ -13040,11 +13340,11 @@
         <v>0.77</v>
       </c>
       <c r="BE16" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="BF16" s="26">
         <f t="shared" si="30"/>
-        <v>-0.22337662337662345</v>
+        <v>-0.82727272727272727</v>
       </c>
       <c r="BG16" s="1">
         <v>0.14699999999999999</v>
@@ -13054,11 +13354,11 @@
         <v>1.0289999999999999</v>
       </c>
       <c r="BI16" s="2">
-        <v>1.012</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="BJ16" s="26">
         <f t="shared" si="31"/>
-        <v>-1.6520894071914372E-2</v>
+        <v>-0.77551020408163263</v>
       </c>
       <c r="BK16" s="1">
         <v>1.0309999999999999</v>
@@ -13068,11 +13368,11 @@
         <v>7.2169999999999996</v>
       </c>
       <c r="BM16" s="2">
-        <v>6.7190000000000003</v>
+        <v>1.538</v>
       </c>
       <c r="BN16" s="26">
         <f t="shared" si="32"/>
-        <v>-6.9003741166689725E-2</v>
+        <v>-0.78689206041291393</v>
       </c>
       <c r="BO16" s="1">
         <v>2.165</v>
@@ -13082,11 +13382,11 @@
         <v>15.155000000000001</v>
       </c>
       <c r="BQ16" s="2">
-        <v>15.202</v>
+        <v>3.484</v>
       </c>
       <c r="BR16" s="26">
         <f t="shared" si="33"/>
-        <v>3.1012867040580705E-3</v>
+        <v>-0.77010887495875946</v>
       </c>
     </row>
     <row r="17" spans="2:70" x14ac:dyDescent="0.25">
@@ -13101,11 +13401,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>1.2110000000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="17"/>
-        <v>16.3</v>
+        <v>7.6</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -13115,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J17" s="26" t="e">
         <f t="shared" si="18"/>
@@ -13129,11 +13429,11 @@
         <v>0.42</v>
       </c>
       <c r="M17" s="2">
-        <v>10.311</v>
+        <v>5.1449999999999996</v>
       </c>
       <c r="N17" s="26">
         <f t="shared" si="19"/>
-        <v>23.55</v>
+        <v>11.25</v>
       </c>
       <c r="O17" s="1">
         <v>0.08</v>
@@ -13143,11 +13443,11 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="Q17" s="2">
-        <v>12.432</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="R17" s="26">
         <f t="shared" si="20"/>
-        <v>21.2</v>
+        <v>10.087499999999999</v>
       </c>
       <c r="S17" s="1">
         <v>1.4E-2</v>
@@ -13157,11 +13457,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="U17" s="2">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="V17" s="26">
         <f t="shared" si="21"/>
-        <v>6.8571428571428568</v>
+        <v>4</v>
       </c>
       <c r="W17" s="1">
         <v>0.01</v>
@@ -13171,11 +13471,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y17" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="Z17" s="26">
         <f t="shared" si="22"/>
-        <v>5.6999999999999993</v>
+        <v>3.7</v>
       </c>
       <c r="AA17" s="1">
         <v>0.02</v>
@@ -13185,11 +13485,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="AD17" s="26">
         <f t="shared" si="23"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AE17" s="1">
         <v>0.14000000000000001</v>
@@ -13199,11 +13499,11 @@
         <v>0.98000000000000009</v>
       </c>
       <c r="AG17" s="2">
-        <v>4.1159999999999997</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="AH17" s="26">
         <f t="shared" si="24"/>
-        <v>3.1999999999999993</v>
+        <v>1.9428571428571426</v>
       </c>
       <c r="AI17" s="1">
         <v>0.11</v>
@@ -13213,11 +13513,11 @@
         <v>0.77</v>
       </c>
       <c r="AK17" s="2">
-        <v>1.232</v>
+        <v>0.84</v>
       </c>
       <c r="AL17" s="26">
         <f t="shared" si="25"/>
-        <v>0.59999999999999987</v>
+        <v>9.0909090909090828E-2</v>
       </c>
       <c r="AM17" s="1">
         <v>0.03</v>
@@ -13227,11 +13527,11 @@
         <v>0.21</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.84</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="AP17" s="26">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="AQ17" s="1">
         <v>0.13</v>
@@ -13241,11 +13541,11 @@
         <v>0.91</v>
       </c>
       <c r="AS17" s="2">
-        <v>2.4780000000000002</v>
+        <v>1.736</v>
       </c>
       <c r="AT17" s="26">
         <f t="shared" si="27"/>
-        <v>1.7230769230769232</v>
+        <v>0.90769230769230758</v>
       </c>
       <c r="AU17" s="1">
         <v>0.11</v>
@@ -13255,11 +13555,11 @@
         <v>0.77</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="AX17" s="26">
         <f t="shared" si="28"/>
-        <v>0.19999999999999996</v>
+        <v>-0.18181818181818188</v>
       </c>
       <c r="AY17" s="1">
         <v>0.75</v>
@@ -13269,11 +13569,11 @@
         <v>5.25</v>
       </c>
       <c r="BA17" s="2">
-        <v>4.5919999999999996</v>
+        <v>3.1920000000000002</v>
       </c>
       <c r="BB17" s="26">
         <f t="shared" si="29"/>
-        <v>-0.12533333333333341</v>
+        <v>-0.39200000000000002</v>
       </c>
       <c r="BC17" s="1">
         <v>0.09</v>
@@ -13283,11 +13583,11 @@
         <v>0.63</v>
       </c>
       <c r="BE17" s="2">
-        <v>0.504</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="BF17" s="26">
         <f t="shared" si="30"/>
-        <v>-0.19999999999999996</v>
+        <v>-0.46666666666666667</v>
       </c>
       <c r="BG17" s="1">
         <v>0.12</v>
@@ -13297,11 +13597,11 @@
         <v>0.84</v>
       </c>
       <c r="BI17" s="2">
-        <v>0.79800000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="BJ17" s="26">
         <f t="shared" si="31"/>
-        <v>-4.9999999999999933E-2</v>
+        <v>-0.35</v>
       </c>
       <c r="BK17" s="1">
         <v>0.56000000000000005</v>
@@ -13311,11 +13611,11 @@
         <v>3.9200000000000004</v>
       </c>
       <c r="BM17" s="2">
-        <v>3.528</v>
+        <v>2.464</v>
       </c>
       <c r="BN17" s="26">
         <f t="shared" si="32"/>
-        <v>-0.10000000000000009</v>
+        <v>-0.37142857142857144</v>
       </c>
       <c r="BO17" s="1">
         <v>1.76</v>
@@ -13325,11 +13625,11 @@
         <v>12.32</v>
       </c>
       <c r="BQ17" s="2">
-        <v>12.012</v>
+        <v>16.884</v>
       </c>
       <c r="BR17" s="26">
         <f t="shared" si="33"/>
-        <v>-2.5000000000000022E-2</v>
+        <v>0.37045454545454537</v>
       </c>
     </row>
     <row r="18" spans="2:70" x14ac:dyDescent="0.25">
@@ -13344,11 +13644,11 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>3.64</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="17"/>
-        <v>9.3999999999999986</v>
+        <v>8.9799999999999986</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -13358,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0.504</v>
+        <v>0.434</v>
       </c>
       <c r="J18" s="26" t="e">
         <f t="shared" si="18"/>
@@ -13372,11 +13672,11 @@
         <v>0.84</v>
       </c>
       <c r="M18" s="2">
-        <v>15.47</v>
+        <v>13.23</v>
       </c>
       <c r="N18" s="26">
         <f t="shared" si="19"/>
-        <v>17.416666666666668</v>
+        <v>14.750000000000002</v>
       </c>
       <c r="O18" s="1">
         <v>0.17</v>
@@ -13386,11 +13686,11 @@
         <v>1.1900000000000002</v>
       </c>
       <c r="Q18" s="2">
-        <v>18.655000000000001</v>
+        <v>15.974</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="20"/>
-        <v>14.676470588235293</v>
+        <v>12.423529411764704</v>
       </c>
       <c r="S18" s="1">
         <v>0.02</v>
@@ -13400,11 +13700,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="U18" s="2">
-        <v>1.0009999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="V18" s="26">
         <f t="shared" si="21"/>
-        <v>6.1499999999999986</v>
+        <v>5.1499999999999995</v>
       </c>
       <c r="W18" s="1">
         <v>0.1</v>
@@ -13414,11 +13714,11 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="Y18" s="2">
-        <v>3.3039999999999998</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="Z18" s="26">
         <f t="shared" si="22"/>
-        <v>3.7199999999999989</v>
+        <v>3.2299999999999995</v>
       </c>
       <c r="AA18" s="1">
         <v>7.0000000000000007E-2</v>
@@ -13428,11 +13728,11 @@
         <v>0.49000000000000005</v>
       </c>
       <c r="AC18" s="2">
-        <v>3.1850000000000001</v>
+        <v>2.863</v>
       </c>
       <c r="AD18" s="26">
         <f t="shared" si="23"/>
-        <v>5.4999999999999991</v>
+        <v>4.8428571428571425</v>
       </c>
       <c r="AE18" s="1">
         <v>0.16</v>
@@ -13442,11 +13742,11 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AG18" s="2">
-        <v>4.6269999999999998</v>
+        <v>4.1719999999999997</v>
       </c>
       <c r="AH18" s="26">
         <f t="shared" si="24"/>
-        <v>3.1312499999999996</v>
+        <v>2.7249999999999992</v>
       </c>
       <c r="AI18" s="1">
         <v>0.19</v>
@@ -13456,11 +13756,11 @@
         <v>1.33</v>
       </c>
       <c r="AK18" s="2">
-        <v>2.1560000000000001</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="AL18" s="26">
         <f t="shared" si="25"/>
-        <v>0.6210526315789473</v>
+        <v>0.45263157894736827</v>
       </c>
       <c r="AM18" s="1">
         <v>0.09</v>
@@ -13470,11 +13770,11 @@
         <v>0.63</v>
       </c>
       <c r="AO18" s="2">
-        <v>2.31</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="AP18" s="26">
         <f t="shared" si="26"/>
-        <v>2.6666666666666665</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="AQ18" s="1">
         <v>0.47</v>
@@ -13484,11 +13784,11 @@
         <v>3.29</v>
       </c>
       <c r="AS18" s="2">
-        <v>8.6940000000000008</v>
+        <v>7.84</v>
       </c>
       <c r="AT18" s="26">
         <f t="shared" si="27"/>
-        <v>1.6425531914893621</v>
+        <v>1.3829787234042552</v>
       </c>
       <c r="AU18" s="1">
         <v>0.13</v>
@@ -13498,11 +13798,11 @@
         <v>0.91</v>
       </c>
       <c r="AW18" s="2">
-        <v>1.0780000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AX18" s="26">
         <f t="shared" si="28"/>
-        <v>0.18461538461538463</v>
+        <v>7.6923076923076872E-2</v>
       </c>
       <c r="AY18" s="1">
         <v>1.54</v>
@@ -13512,11 +13812,11 @@
         <v>10.780000000000001</v>
       </c>
       <c r="BA18" s="2">
-        <v>9.4710000000000001</v>
+        <v>8.5470000000000006</v>
       </c>
       <c r="BB18" s="26">
         <f t="shared" si="29"/>
-        <v>-0.12142857142857155</v>
+        <v>-0.20714285714285718</v>
       </c>
       <c r="BC18" s="1">
         <v>0.19</v>
@@ -13526,11 +13826,11 @@
         <v>1.33</v>
       </c>
       <c r="BE18" s="2">
-        <v>1.036</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="BF18" s="26">
         <f t="shared" si="30"/>
-        <v>-0.22105263157894739</v>
+        <v>-0.30526315789473679</v>
       </c>
       <c r="BG18" s="1">
         <v>0.27</v>
@@ -13540,11 +13840,11 @@
         <v>1.8900000000000001</v>
       </c>
       <c r="BI18" s="2">
-        <v>1.7290000000000001</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="BJ18" s="26">
         <f t="shared" si="31"/>
-        <v>-8.5185185185185142E-2</v>
+        <v>-0.16719576719576723</v>
       </c>
       <c r="BK18" s="1">
         <v>0.98</v>
@@ -13554,11 +13854,11 @@
         <v>6.8599999999999994</v>
       </c>
       <c r="BM18" s="2">
-        <v>6.1950000000000003</v>
+        <v>5.5860000000000003</v>
       </c>
       <c r="BN18" s="26">
         <f t="shared" si="32"/>
-        <v>-9.6938775510203912E-2</v>
+        <v>-0.18571428571428561</v>
       </c>
       <c r="BO18" s="1">
         <v>2.79</v>
@@ -13568,11 +13868,11 @@
         <v>19.53</v>
       </c>
       <c r="BQ18" s="2">
-        <v>19.047000000000001</v>
+        <v>17.157</v>
       </c>
       <c r="BR18" s="26">
         <f t="shared" si="33"/>
-        <v>-2.4731182795698969E-2</v>
+        <v>-0.12150537634408609</v>
       </c>
     </row>
     <row r="19" spans="2:70" x14ac:dyDescent="0.25">
@@ -13587,11 +13887,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>8.2000000000000003E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="17"/>
-        <v>1.3428571428571425</v>
+        <v>3.8857142857142852</v>
       </c>
       <c r="G19" s="1">
         <v>6.0000000000000001E-3</v>
@@ -13615,11 +13915,11 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>0.85399999999999998</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="N19" s="26">
         <f t="shared" si="19"/>
-        <v>0.34065934065934056</v>
+        <v>0.51177394034536894</v>
       </c>
       <c r="O19" s="1">
         <v>3.9E-2</v>
@@ -13629,11 +13929,11 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="20"/>
-        <v>9.5238095238095122E-2</v>
+        <v>0.26007326007325982</v>
       </c>
       <c r="S19" s="1">
         <v>4.0000000000000001E-3</v>
@@ -13643,11 +13943,11 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="U19" s="2">
-        <v>1.4E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="V19" s="26">
         <f t="shared" si="21"/>
-        <v>-0.5</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="W19" s="1">
         <v>1.7000000000000001E-2</v>
@@ -13657,11 +13957,11 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="Y19" s="2">
-        <v>0.126</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="Z19" s="26">
         <f t="shared" si="22"/>
-        <v>5.8823529411764719E-2</v>
+        <v>0.39495798319327724</v>
       </c>
       <c r="AA19" s="1">
         <v>7.0000000000000001E-3</v>
@@ -13671,11 +13971,11 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AC19" s="2">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD19" s="26">
         <f t="shared" si="23"/>
-        <v>-0.26530612244897966</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="AE19" s="1">
         <v>1.7000000000000001E-2</v>
@@ -13685,11 +13985,11 @@
         <v>0.11900000000000001</v>
       </c>
       <c r="AG19" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="AH19" s="26">
         <f t="shared" si="24"/>
-        <v>-0.36974789915966388</v>
+        <v>0.63025210084033612</v>
       </c>
       <c r="AI19" s="1">
         <v>3.0000000000000001E-3</v>
@@ -13699,11 +13999,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AK19" s="2">
-        <v>1.2E-2</v>
+        <v>0.113</v>
       </c>
       <c r="AL19" s="26">
         <f t="shared" si="25"/>
-        <v>-0.4285714285714286</v>
+        <v>4.3809523809523805</v>
       </c>
       <c r="AM19" s="1">
         <v>6.0999999999999999E-2</v>
@@ -13713,11 +14013,11 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.36799999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AP19" s="26">
         <f t="shared" si="26"/>
-        <v>-0.13817330210772838</v>
+        <v>-0.89227166276346603</v>
       </c>
       <c r="AQ19" s="1">
         <v>5.8999999999999997E-2</v>
@@ -13727,11 +14027,11 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="AS19" s="2">
-        <v>0.77400000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="AT19" s="26">
         <f t="shared" si="27"/>
-        <v>0.87409200968523026</v>
+        <v>3.2518159806295399</v>
       </c>
       <c r="AU19" s="1">
         <v>6.0000000000000001E-3</v>
@@ -13741,11 +14041,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AW19" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="AX19" s="26">
         <f t="shared" si="28"/>
-        <v>4.761904761904745E-2</v>
+        <v>4.0476190476190474</v>
       </c>
       <c r="AY19" s="1">
         <v>0.14000000000000001</v>
@@ -13755,11 +14055,11 @@
         <v>0.98000000000000009</v>
       </c>
       <c r="BA19" s="2">
-        <v>1.298</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="BB19" s="26">
         <f t="shared" si="29"/>
-        <v>0.32448979591836724</v>
+        <v>0.47448979591836737</v>
       </c>
       <c r="BC19" s="1">
         <v>1.9E-2</v>
@@ -13769,11 +14069,11 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="BE19" s="2">
-        <v>0.113</v>
+        <v>0.218</v>
       </c>
       <c r="BF19" s="26">
         <f t="shared" si="30"/>
-        <v>-0.15037593984962405</v>
+        <v>0.63909774436090205</v>
       </c>
       <c r="BG19" s="1">
         <v>3.0000000000000001E-3</v>
@@ -13783,11 +14083,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="BI19" s="2">
-        <v>2.7E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="BJ19" s="26">
         <f t="shared" si="31"/>
-        <v>0.28571428571428559</v>
+        <v>1.2380952380952381</v>
       </c>
       <c r="BK19" s="1">
         <v>0.753</v>
@@ -13797,11 +14097,11 @@
         <v>5.2709999999999999</v>
       </c>
       <c r="BM19" s="2">
-        <v>25.681999999999999</v>
+        <v>17.54</v>
       </c>
       <c r="BN19" s="26">
         <f t="shared" si="32"/>
-        <v>3.8723202428381711</v>
+        <v>2.3276418136975905</v>
       </c>
       <c r="BO19" s="1">
         <v>0.105</v>
@@ -13811,11 +14111,11 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="BQ19" s="2">
-        <v>1.544</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="BR19" s="26">
         <f t="shared" si="33"/>
-        <v>1.1006802721088436</v>
+        <v>4.0816326530612734E-3</v>
       </c>
     </row>
     <row r="20" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13832,11 +14132,11 @@
       </c>
       <c r="E20" s="4">
         <f>E13+E14+E15+E16+E17+E18+E19</f>
-        <v>6.5059999999999993</v>
+        <v>6.72</v>
       </c>
       <c r="F20" s="27">
         <f t="shared" si="17"/>
-        <v>5.7349896480331246</v>
+        <v>5.9565217391304337</v>
       </c>
       <c r="G20" s="3">
         <f>G13+G14+G15+G16+G17+G18+G19</f>
@@ -13848,11 +14148,11 @@
       </c>
       <c r="I20" s="4">
         <f>I13+I14+I15+I16+I17+I18+I19</f>
-        <v>2.0169999999999999</v>
+        <v>2.2769999999999997</v>
       </c>
       <c r="J20" s="27">
         <f t="shared" si="18"/>
-        <v>40.163265306122447</v>
+        <v>45.469387755102034</v>
       </c>
       <c r="K20" s="3">
         <f>K13+K14+K15+K16+K17+K18+K19</f>
@@ -13864,11 +14164,11 @@
       </c>
       <c r="M20" s="4">
         <f>M13+M14+M15+M16+M17+M18+M19</f>
-        <v>43.122</v>
+        <v>45.75</v>
       </c>
       <c r="N20" s="27">
         <f t="shared" si="19"/>
-        <v>6.7487870619946086</v>
+        <v>7.2210242587601066</v>
       </c>
       <c r="O20" s="3">
         <f>O13+O14+O15+O16+O17+O18+O19</f>
@@ -13880,11 +14180,11 @@
       </c>
       <c r="Q20" s="4">
         <f>Q13+Q14+Q15+Q16+Q17+Q18+Q19</f>
-        <v>64.822000000000003</v>
+        <v>74.584999999999994</v>
       </c>
       <c r="R20" s="27">
         <f t="shared" si="20"/>
-        <v>4.7410326808962902</v>
+        <v>5.6057036577805333</v>
       </c>
       <c r="S20" s="3">
         <f>S13+S14+S15+S16+S17+S18+S19</f>
@@ -13896,11 +14196,11 @@
       </c>
       <c r="U20" s="4">
         <f>U13+U14+U15+U16+U17+U18+U19</f>
-        <v>3.1549999999999998</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="V20" s="27">
         <f t="shared" si="21"/>
-        <v>3.6949404761904745</v>
+        <v>2.2752976190476186</v>
       </c>
       <c r="W20" s="3">
         <f>W13+W14+W15+W16+W17+W18+W19</f>
@@ -13912,11 +14212,11 @@
       </c>
       <c r="Y20" s="4">
         <f>Y13+Y14+Y15+Y16+Y17+Y18+Y19</f>
-        <v>8.61</v>
+        <v>6.73</v>
       </c>
       <c r="Z20" s="27">
         <f t="shared" si="22"/>
-        <v>2.3977900552486187</v>
+        <v>1.6558800315706397</v>
       </c>
       <c r="AA20" s="3">
         <f>AA13+AA14+AA15+AA16+AA17+AA18+AA19</f>
@@ -13928,11 +14228,11 @@
       </c>
       <c r="AC20" s="4">
         <f>AC13+AC14+AC15+AC16+AC17+AC18+AC19</f>
-        <v>10.728</v>
+        <v>6.5980000000000008</v>
       </c>
       <c r="AD20" s="27">
         <f t="shared" si="23"/>
-        <v>4.3586413586413579</v>
+        <v>2.2957042957042959</v>
       </c>
       <c r="AE20" s="3">
         <f>AE13+AE14+AE15+AE16+AE17+AE18+AE19</f>
@@ -13944,11 +14244,11 @@
       </c>
       <c r="AG20" s="4">
         <f>AG13+AG14+AG15+AG16+AG17+AG18+AG19</f>
-        <v>24.517999999999997</v>
+        <v>18.936</v>
       </c>
       <c r="AH20" s="27">
         <f t="shared" si="24"/>
-        <v>1.8639177666160491</v>
+        <v>1.211891134213293</v>
       </c>
       <c r="AI20" s="3">
         <f>AI13+AI14+AI15+AI16+AI17+AI18+AI19</f>
@@ -13960,11 +14260,11 @@
       </c>
       <c r="AK20" s="4">
         <f>AK13+AK14+AK15+AK16+AK17+AK18+AK19</f>
-        <v>6.3549999999999995</v>
+        <v>4.5920000000000005</v>
       </c>
       <c r="AL20" s="27">
         <f t="shared" si="25"/>
-        <v>0.37972210160659992</v>
+        <v>-3.0395136778114118E-3</v>
       </c>
       <c r="AM20" s="3">
         <f>AM13+AM14+AM15+AM16+AM17+AM18+AM19</f>
@@ -13976,11 +14276,11 @@
       </c>
       <c r="AO20" s="4">
         <f>AO13+AO14+AO15+AO16+AO17+AO18+AO19</f>
-        <v>5.7309999999999999</v>
+        <v>5.9160000000000013</v>
       </c>
       <c r="AP20" s="27">
         <f t="shared" si="26"/>
-        <v>1.6325218190169957</v>
+        <v>1.7175011483693159</v>
       </c>
       <c r="AQ20" s="3">
         <f>AQ13+AQ14+AQ15+AQ16+AQ17+AQ18+AQ19</f>
@@ -13992,11 +14292,11 @@
       </c>
       <c r="AS20" s="4">
         <f>AS13+AS14+AS15+AS16+AS17+AS18+AS19</f>
-        <v>24.845000000000002</v>
+        <v>19.39</v>
       </c>
       <c r="AT20" s="27">
         <f t="shared" si="27"/>
-        <v>1.300249976853995</v>
+        <v>0.79520414776409587</v>
       </c>
       <c r="AU20" s="3">
         <f>AU13+AU14+AU15+AU16+AU17+AU18+AU19</f>
@@ -14008,11 +14308,11 @@
       </c>
       <c r="AW20" s="4">
         <f>AW13+AW14+AW15+AW16+AW17+AW18+AW19</f>
-        <v>4.6859999999999999</v>
+        <v>3.3430000000000004</v>
       </c>
       <c r="AX20" s="27">
         <f t="shared" si="28"/>
-        <v>0.25361155698234339</v>
+        <v>-0.10567148207597643</v>
       </c>
       <c r="AY20" s="3">
         <f>AY13+AY14+AY15+AY16+AY17+AY18+AY19</f>
@@ -14024,11 +14324,11 @@
       </c>
       <c r="BA20" s="4">
         <f>BA13+BA14+BA15+BA16+BA17+BA18+BA19</f>
-        <v>23.378999999999998</v>
+        <v>17.947000000000003</v>
       </c>
       <c r="BB20" s="27">
         <f t="shared" si="29"/>
-        <v>-6.7599904283321521E-2</v>
+        <v>-0.28423865358538725</v>
       </c>
       <c r="BC20" s="3">
         <f>BC13+BC14+BC15+BC16+BC17+BC18+BC19</f>
@@ -14040,11 +14340,11 @@
       </c>
       <c r="BE20" s="4">
         <f>BE13+BE14+BE15+BE16+BE17+BE18+BE19</f>
-        <v>3.609</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="BF20" s="27">
         <f t="shared" si="30"/>
-        <v>-3.0880773361976144E-2</v>
+        <v>-0.29860365198711047</v>
       </c>
       <c r="BG20" s="3">
         <f>BG13+BG14+BG15+BG16+BG17+BG18+BG19</f>
@@ -14056,11 +14356,11 @@
       </c>
       <c r="BI20" s="4">
         <f>BI13+BI14+BI15+BI16+BI17+BI18+BI19</f>
-        <v>4.8050000000000006</v>
+        <v>3.4830000000000001</v>
       </c>
       <c r="BJ20" s="27">
         <f t="shared" si="31"/>
-        <v>2.9128292996358995E-2</v>
+        <v>-0.25401584921824805</v>
       </c>
       <c r="BK20" s="3">
         <f>BK13+BK14+BK15+BK16+BK17+BK18+BK19</f>
@@ -14072,11 +14372,11 @@
       </c>
       <c r="BM20" s="4">
         <f>BM13+BM14+BM15+BM16+BM17+BM18+BM19</f>
-        <v>47.78</v>
+        <v>33.280999999999999</v>
       </c>
       <c r="BN20" s="27">
         <f t="shared" si="32"/>
-        <v>0.64277118789754173</v>
+        <v>0.14426680419460203</v>
       </c>
       <c r="BO20" s="3">
         <f>BO13+BO14+BO15+BO16+BO17+BO18+BO19</f>
@@ -14088,11 +14388,11 @@
       </c>
       <c r="BQ20" s="4">
         <f>BQ13+BQ14+BQ15+BQ16+BQ17+BQ18+BQ19</f>
-        <v>76.399999999999991</v>
+        <v>70.911000000000001</v>
       </c>
       <c r="BR20" s="27">
         <f t="shared" si="33"/>
-        <v>3.0621880480237396E-2</v>
+        <v>-4.3423715095103121E-2</v>
       </c>
     </row>
     <row r="21" spans="2:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14106,11 +14406,11 @@
       </c>
       <c r="E21" s="18">
         <f>E20/E12</f>
-        <v>1.4545048066174824</v>
+        <v>2.5329815303430077</v>
       </c>
       <c r="F21" s="28">
         <f>E21/D21-1</f>
-        <v>2.0881877415863928</v>
+        <v>4.3779970173224712</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="18">
@@ -14119,224 +14419,291 @@
       </c>
       <c r="I21" s="18">
         <f>I20/I12</f>
-        <v>0.51546128290314341</v>
+        <v>1.0392514833409399</v>
       </c>
       <c r="J21" s="28">
         <f>I21/H21-1</f>
-        <v>0.69365850096747117</v>
+        <v>2.4146834452630879</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="18">
-        <f>L12-L20</f>
-        <v>1.2389999999999999</v>
+        <f>L20/L12</f>
+        <v>0.81790123456790131</v>
       </c>
       <c r="M21" s="18">
-        <f>M12-M20</f>
-        <v>40.969000000000008</v>
+        <f>M20/M12</f>
+        <v>0.88571815770623197</v>
       </c>
       <c r="N21" s="28">
         <f>M21/L21-1</f>
-        <v>32.066182405165463</v>
+        <v>8.2915785271015618E-2</v>
       </c>
       <c r="O21" s="17"/>
       <c r="P21" s="18">
-        <f>P12-P20</f>
-        <v>7.4270000000000014</v>
+        <f>P20/P12</f>
+        <v>0.60321615557217645</v>
       </c>
       <c r="Q21" s="18">
-        <f>Q12-Q20</f>
-        <v>60.253999999999991</v>
+        <f>Q20/Q12</f>
+        <v>1.0455303699342555</v>
       </c>
       <c r="R21" s="28">
         <f>Q21/P21-1</f>
-        <v>7.1128315605224159</v>
+        <v>0.73325989411295689</v>
       </c>
       <c r="S21" s="17"/>
       <c r="T21" s="18">
-        <f>T12-T20</f>
-        <v>-0.39200000000000013</v>
+        <f>T20/T12</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="U21" s="18">
-        <f>U12-U20</f>
-        <v>-2.2309999999999999</v>
+        <f>U20/U12</f>
+        <v>2.4758155230596177</v>
       </c>
       <c r="V21" s="28">
         <f t="shared" si="21"/>
-        <v>4.6913265306122431</v>
+        <v>3.1589801274840568E-2</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="18">
-        <f>X12-X20</f>
-        <v>-0.97999999999999976</v>
+        <f>X20/X12</f>
+        <v>1.6306306306306304</v>
       </c>
       <c r="Y21" s="18">
-        <f>Y12-Y20</f>
-        <v>-5.0749999999999993</v>
+        <f>Y20/Y12</f>
+        <v>1.5093070195111014</v>
       </c>
       <c r="Z21" s="28">
         <f>Y21/X21-1</f>
-        <v>4.1785714285714288</v>
+        <v>-7.4402877537390721E-2</v>
       </c>
       <c r="AA21" s="17"/>
       <c r="AB21" s="18">
-        <f>AB12-AB20</f>
-        <v>-0.1120000000000001</v>
+        <f>AB20/AB12</f>
+        <v>1.0592592592592593</v>
       </c>
       <c r="AC21" s="18">
-        <f>AC12-AC20</f>
-        <v>-6.766</v>
+        <f>AC20/AC12</f>
+        <v>1.5709523809523811</v>
       </c>
       <c r="AD21" s="28">
         <f>AC21/AB21-1</f>
-        <v>59.410714285714235</v>
+        <v>0.48306693306693305</v>
       </c>
       <c r="AE21" s="17"/>
       <c r="AF21" s="18">
-        <f>AF12-AF20</f>
-        <v>4.298</v>
+        <f>AF20/AF12</f>
+        <v>0.66575939031028852</v>
       </c>
       <c r="AG21" s="18">
-        <f>AG12-AG20</f>
-        <v>-12.309999999999999</v>
+        <f>AG20/AG12</f>
+        <v>1.1192150836337844</v>
       </c>
       <c r="AH21" s="28">
         <f>AG21/AF21-1</f>
-        <v>-3.8641228478362026</v>
+        <v>0.68111047312776929</v>
       </c>
       <c r="AI21" s="17"/>
       <c r="AJ21" s="18">
-        <f>AJ12-AJ20</f>
-        <v>8.4000000000000519E-2</v>
+        <f>AJ20/AJ12</f>
+        <v>0.9820895522388059</v>
       </c>
       <c r="AK21" s="18">
-        <f>AK12-AK20</f>
-        <v>-3.2539999999999996</v>
+        <f>AK20/AK12</f>
+        <v>1.4291938997821352</v>
       </c>
       <c r="AL21" s="28">
         <f>AK21/AJ21-1</f>
-        <v>-39.738095238094992</v>
+        <v>0.45525822622193113</v>
       </c>
       <c r="AM21" s="17"/>
       <c r="AN21" s="18">
-        <f>AN12-AN20</f>
-        <v>5.0119999999999987</v>
+        <f>AN20/AN12</f>
+        <v>0.30282375851996107</v>
       </c>
       <c r="AO21" s="18">
-        <f>AO12-AO20</f>
-        <v>-1.3769999999999998</v>
+        <f>AO20/AO12</f>
+        <v>1.1076577419958813</v>
       </c>
       <c r="AP21" s="28">
         <f>AO21/AN21-1</f>
-        <v>-1.2747406225059856</v>
+        <v>2.6577636689060129</v>
       </c>
       <c r="AQ21" s="17"/>
       <c r="AR21" s="18">
-        <f>AR12-AR20</f>
-        <v>-3.1080000000000005</v>
+        <f>AR20/AR12</f>
+        <v>1.4040036396724296</v>
       </c>
       <c r="AS21" s="18">
-        <f>AS12-AS20</f>
-        <v>-15.689000000000002</v>
+        <f>AS20/AS12</f>
+        <v>1.9589816124469588</v>
       </c>
       <c r="AT21" s="28">
         <f t="shared" si="27"/>
-        <v>4.0479407979407975</v>
+        <v>0.39528243167803478</v>
       </c>
       <c r="AU21" s="17"/>
       <c r="AV21" s="18">
-        <f>AV12-AV20</f>
-        <v>-1.8480000000000003</v>
+        <f>AV20/AV12</f>
+        <v>1.9777777777777779</v>
       </c>
       <c r="AW21" s="18">
-        <f>AW12-AW20</f>
-        <v>-1.1719999999999997</v>
+        <f>AW20/AW12</f>
+        <v>0.95296465222348925</v>
       </c>
       <c r="AX21" s="28">
         <f>AW21/AV21-1</f>
-        <v>-0.36580086580086602</v>
+        <v>-0.51816393988699982</v>
       </c>
       <c r="AY21" s="17"/>
       <c r="AZ21" s="18">
-        <f>AZ12-AZ20</f>
-        <v>2.4289999999999985</v>
+        <f>AZ20/AZ12</f>
+        <v>0.91168236192415375</v>
       </c>
       <c r="BA21" s="18">
-        <f>BA12-BA20</f>
-        <v>-9.2879999999999985</v>
+        <f>BA20/BA12</f>
+        <v>0.81729586957511735</v>
       </c>
       <c r="BB21" s="28">
         <f>BA21/AZ21-1</f>
-        <v>-4.8237958007410473</v>
+        <v>-0.10353001910646675</v>
       </c>
       <c r="BC21" s="17"/>
       <c r="BD21" s="18">
-        <f>BD12-BD20</f>
-        <v>-1.0779999999999994</v>
+        <f>BD20/BD12</f>
+        <v>1.4074074074074072</v>
       </c>
       <c r="BE21" s="18">
-        <f>BE12-BE20</f>
-        <v>-0.90700000000000003</v>
+        <f>BE20/BE12</f>
+        <v>0.75534991324465006</v>
       </c>
       <c r="BF21" s="28">
         <f>BE21/BD21-1</f>
-        <v>-0.15862708719851526</v>
+        <v>-0.46330400901038016</v>
       </c>
       <c r="BG21" s="17"/>
       <c r="BH21" s="18">
-        <f>BH12-BH20</f>
-        <v>6.391</v>
+        <f>BH20/BH12</f>
+        <v>0.42215189873417724</v>
       </c>
       <c r="BI21" s="18">
-        <f>BI12-BI20</f>
-        <v>1.0999999999999233E-2</v>
+        <f>BI20/BI12</f>
+        <v>0.49657827202737381</v>
       </c>
       <c r="BJ21" s="28">
         <f>BI21/BH21-1</f>
-        <v>-0.99827882960413095</v>
+        <v>0.17630235352811185</v>
       </c>
       <c r="BK21" s="17"/>
       <c r="BL21" s="18">
-        <f>BL12-BL20</f>
-        <v>6.3559999999999945</v>
+        <f>BL20/BL12</f>
+        <v>0.82065968793205624</v>
       </c>
       <c r="BM21" s="18">
-        <f>BM12-BM20</f>
-        <v>-27.158000000000001</v>
+        <f>BM20/BM12</f>
+        <v>0.96380064290058187</v>
       </c>
       <c r="BN21" s="28">
         <f>BM21/BL21-1</f>
-        <v>-5.2728130899937105</v>
+        <v>0.17442181829257408</v>
       </c>
       <c r="BO21" s="17"/>
       <c r="BP21" s="18">
-        <f>BP12-BP20</f>
-        <v>-8.6729999999999876</v>
+        <f>BP20/BP12</f>
+        <v>1.1324991979467434</v>
       </c>
       <c r="BQ21" s="18">
-        <f>BQ12-BQ20</f>
-        <v>-39.138999999999989</v>
+        <f>BQ20/BQ12</f>
+        <v>1.1357935707077988</v>
       </c>
       <c r="BR21" s="28">
         <f t="shared" si="33"/>
-        <v>3.5127406894961428</v>
+        <v>2.9089404805127117E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BK8:BL8"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -14361,329 +14728,142 @@
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BK7:BL7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BO7:BP7"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:AZ7"/>
   </mergeCells>
-  <conditionalFormatting sqref="BP21">
-    <cfRule type="cellIs" dxfId="63" priority="103" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="104" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="61" priority="69" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR21">
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="L21:M21">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ21">
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="P21:Q21">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD21">
-    <cfRule type="cellIs" dxfId="55" priority="63" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="T21:U21">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="64" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="X21:Y21">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AB21:AC21">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="60" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AF21:AG21">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AJ21:AK21">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AN21:AO21">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AR21:AS21">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AV21:AW21">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV21">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="AZ21:BA21">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL21">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="BD21:BE21">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH21">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="BH21:BI21">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ21">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS21">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA21">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE21">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW21">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM21">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E21">
+  <conditionalFormatting sqref="BL21:BM21">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -14691,7 +14871,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I21">
+  <conditionalFormatting sqref="BP21:BQ21">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -57657,7 +57837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CCCA84-00D4-4EC0-A67D-DF8D5F629124}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
